--- a/DataSet_VersionRecuperada.xlsx
+++ b/DataSet_VersionRecuperada.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UDEA-MAESTRIA\Proyecto\Resultados\Sujetos Tesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UDEA-MAESTRIA\Thesis result\Data analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Group 1" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="181">
   <si>
     <t>7:00 a 8:00</t>
   </si>
@@ -657,6 +657,9 @@
   <si>
     <t>Lado del daño</t>
   </si>
+  <si>
+    <t>Group 1 + Group 2</t>
+  </si>
 </sst>
 </file>
 
@@ -760,7 +763,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -830,6 +833,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -935,7 +944,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1105,15 +1114,6 @@
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1126,10 +1126,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1139,6 +1142,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1181,6 +1190,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1466,10 +1481,10 @@
   <dimension ref="A1:AV26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2:H19"/>
+      <selection pane="bottomRight" activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6254,9 +6269,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC249"/>
+  <dimension ref="A1:AR249"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
       <selection activeCell="P1" sqref="P1:AC39"/>
     </sheetView>
   </sheetViews>
@@ -6281,100 +6296,153 @@
     <col min="25" max="25" width="2.140625" style="19" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="2.28515625" style="19" bestFit="1" customWidth="1"/>
     <col min="27" max="29" width="4.5703125" style="33" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="11.42578125" style="5"/>
+    <col min="30" max="30" width="11.42578125" style="5"/>
+    <col min="31" max="31" width="9.7109375" style="5" customWidth="1"/>
+    <col min="32" max="32" width="2" style="5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="2.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="2.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="2.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="2.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="2.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="2.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="2.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="42" max="44" width="4" style="5" bestFit="1" customWidth="1"/>
+    <col min="45" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A1" s="64" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="68"/>
-      <c r="P1" s="66" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="66"/>
+      <c r="P1" s="64" t="s">
         <v>177</v>
       </c>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="68"/>
-    </row>
-    <row r="2" spans="1:29" s="31" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="66"/>
+      <c r="AE1" s="64" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="65"/>
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="65"/>
+      <c r="AL1" s="65"/>
+      <c r="AM1" s="65"/>
+      <c r="AN1" s="65"/>
+      <c r="AO1" s="65"/>
+      <c r="AP1" s="65"/>
+      <c r="AQ1" s="65"/>
+      <c r="AR1" s="66"/>
+    </row>
+    <row r="2" spans="1:44" s="31" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="67" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="66" t="s">
+      <c r="D2" s="65"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="G2" s="67"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="66" t="s">
+      <c r="G2" s="65"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="J2" s="67"/>
-      <c r="K2" s="68"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="66"/>
       <c r="L2" s="69" t="s">
         <v>128</v>
       </c>
       <c r="M2" s="70"/>
       <c r="N2" s="71"/>
-      <c r="P2" s="64" t="s">
+      <c r="P2" s="67" t="s">
         <v>130</v>
       </c>
-      <c r="Q2" s="64" t="s">
+      <c r="Q2" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="R2" s="66" t="s">
+      <c r="R2" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="S2" s="67"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="66" t="s">
+      <c r="S2" s="65"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="V2" s="67"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="66" t="s">
+      <c r="V2" s="65"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="68"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="66"/>
       <c r="AA2" s="69" t="s">
         <v>128</v>
       </c>
       <c r="AB2" s="70"/>
       <c r="AC2" s="71"/>
-    </row>
-    <row r="3" spans="1:29" s="31" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
+      <c r="AE2" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF2" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG2" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH2" s="65"/>
+      <c r="AI2" s="66"/>
+      <c r="AJ2" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK2" s="65"/>
+      <c r="AL2" s="66"/>
+      <c r="AM2" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="AN2" s="65"/>
+      <c r="AO2" s="66"/>
+      <c r="AP2" s="69" t="s">
+        <v>128</v>
+      </c>
+      <c r="AQ2" s="70"/>
+      <c r="AR2" s="71"/>
+    </row>
+    <row r="3" spans="1:44" s="31" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
       <c r="C3" s="36" t="s">
         <v>125</v>
       </c>
@@ -6411,8 +6479,8 @@
       <c r="N3" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
       <c r="R3" s="36" t="s">
         <v>125</v>
       </c>
@@ -6449,9 +6517,47 @@
       <c r="AC3" s="37" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="60" t="s">
+      <c r="AE3" s="68"/>
+      <c r="AF3" s="68"/>
+      <c r="AG3" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH3" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI3" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ3" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK3" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL3" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM3" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="AN3" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO3" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP3" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ3" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR3" s="37" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="57" t="s">
         <v>136</v>
       </c>
       <c r="B4" s="38" t="s">
@@ -6490,7 +6596,7 @@
       <c r="O4" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="P4" s="60" t="s">
+      <c r="P4" s="57" t="s">
         <v>136</v>
       </c>
       <c r="Q4" s="38" t="s">
@@ -6526,9 +6632,27 @@
       <c r="AC4" s="40">
         <v>0.80864800000000003</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
+      <c r="AE4" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF4" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG4" s="38"/>
+      <c r="AH4" s="39"/>
+      <c r="AI4" s="38"/>
+      <c r="AJ4" s="38"/>
+      <c r="AK4" s="39"/>
+      <c r="AL4" s="38"/>
+      <c r="AM4" s="38"/>
+      <c r="AN4" s="39"/>
+      <c r="AO4" s="38"/>
+      <c r="AP4" s="40"/>
+      <c r="AQ4" s="40"/>
+      <c r="AR4" s="40"/>
+    </row>
+    <row r="5" spans="1:44" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="58"/>
       <c r="B5" s="38" t="s">
         <v>133</v>
       </c>
@@ -6550,13 +6674,13 @@
       <c r="H5" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="I5" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="J5" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="K5" s="39" t="s">
+      <c r="I5" s="83" t="s">
+        <v>108</v>
+      </c>
+      <c r="J5" s="84" t="s">
+        <v>108</v>
+      </c>
+      <c r="K5" s="84" t="s">
         <v>108</v>
       </c>
       <c r="L5" s="40">
@@ -6568,7 +6692,7 @@
       <c r="N5" s="40">
         <v>0.53922099999999995</v>
       </c>
-      <c r="P5" s="61"/>
+      <c r="P5" s="58"/>
       <c r="Q5" s="38" t="s">
         <v>133</v>
       </c>
@@ -6590,13 +6714,13 @@
       <c r="W5" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="X5" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y5" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z5" s="39" t="s">
+      <c r="X5" s="83" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y5" s="84" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z5" s="84" t="s">
         <v>108</v>
       </c>
       <c r="AA5" s="40">
@@ -6608,9 +6732,25 @@
       <c r="AC5" s="40">
         <v>0.74212500000000003</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
+      <c r="AE5" s="58"/>
+      <c r="AF5" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG5" s="38"/>
+      <c r="AH5" s="39"/>
+      <c r="AI5" s="39"/>
+      <c r="AJ5" s="38"/>
+      <c r="AK5" s="39"/>
+      <c r="AL5" s="39"/>
+      <c r="AM5" s="38"/>
+      <c r="AN5" s="39"/>
+      <c r="AO5" s="39"/>
+      <c r="AP5" s="40"/>
+      <c r="AQ5" s="40"/>
+      <c r="AR5" s="40"/>
+    </row>
+    <row r="6" spans="1:44" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="58"/>
       <c r="B6" s="38" t="s">
         <v>134</v>
       </c>
@@ -6646,7 +6786,7 @@
       <c r="N6" s="40">
         <v>4.9845799999999997E-3</v>
       </c>
-      <c r="P6" s="61"/>
+      <c r="P6" s="58"/>
       <c r="Q6" s="38" t="s">
         <v>134</v>
       </c>
@@ -6680,9 +6820,25 @@
       <c r="AC6" s="40">
         <v>0.32851900000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="62"/>
+      <c r="AE6" s="58"/>
+      <c r="AF6" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG6" s="38"/>
+      <c r="AH6" s="39"/>
+      <c r="AI6" s="39"/>
+      <c r="AJ6" s="38"/>
+      <c r="AK6" s="39"/>
+      <c r="AL6" s="39"/>
+      <c r="AM6" s="38"/>
+      <c r="AN6" s="39"/>
+      <c r="AO6" s="39"/>
+      <c r="AP6" s="40"/>
+      <c r="AQ6" s="40"/>
+      <c r="AR6" s="40"/>
+    </row>
+    <row r="7" spans="1:44" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="59"/>
       <c r="B7" s="41" t="s">
         <v>135</v>
       </c>
@@ -6704,7 +6860,7 @@
       <c r="N7" s="42">
         <v>6.9331199999999996E-4</v>
       </c>
-      <c r="P7" s="62"/>
+      <c r="P7" s="59"/>
       <c r="Q7" s="41" t="s">
         <v>135</v>
       </c>
@@ -6726,9 +6882,25 @@
       <c r="AC7" s="42">
         <v>5.0963000000000001E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="60" t="s">
+      <c r="AE7" s="59"/>
+      <c r="AF7" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG7" s="41"/>
+      <c r="AH7" s="41"/>
+      <c r="AI7" s="41"/>
+      <c r="AJ7" s="41"/>
+      <c r="AK7" s="41"/>
+      <c r="AL7" s="41"/>
+      <c r="AM7" s="41"/>
+      <c r="AN7" s="41"/>
+      <c r="AO7" s="41"/>
+      <c r="AP7" s="42"/>
+      <c r="AQ7" s="42"/>
+      <c r="AR7" s="42"/>
+    </row>
+    <row r="8" spans="1:44" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="57" t="s">
         <v>137</v>
       </c>
       <c r="B8" s="38" t="s">
@@ -6764,7 +6936,7 @@
       <c r="N8" s="40">
         <v>0.34474100000000002</v>
       </c>
-      <c r="P8" s="60" t="s">
+      <c r="P8" s="57" t="s">
         <v>137</v>
       </c>
       <c r="Q8" s="38" t="s">
@@ -6800,9 +6972,27 @@
       <c r="AC8" s="40">
         <v>0.83276700000000003</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="61"/>
+      <c r="AE8" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF8" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG8" s="38"/>
+      <c r="AH8" s="38"/>
+      <c r="AI8" s="39"/>
+      <c r="AJ8" s="38"/>
+      <c r="AK8" s="38"/>
+      <c r="AL8" s="39"/>
+      <c r="AM8" s="38"/>
+      <c r="AN8" s="38"/>
+      <c r="AO8" s="38"/>
+      <c r="AP8" s="40"/>
+      <c r="AQ8" s="40"/>
+      <c r="AR8" s="40"/>
+    </row>
+    <row r="9" spans="1:44" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="58"/>
       <c r="B9" s="38" t="s">
         <v>133</v>
       </c>
@@ -6824,13 +7014,13 @@
       <c r="H9" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="I9" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="J9" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="K9" s="39" t="s">
+      <c r="I9" s="83" t="s">
+        <v>108</v>
+      </c>
+      <c r="J9" s="84" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" s="84" t="s">
         <v>108</v>
       </c>
       <c r="L9" s="40">
@@ -6842,7 +7032,7 @@
       <c r="N9" s="40">
         <v>0.93847400000000003</v>
       </c>
-      <c r="P9" s="61"/>
+      <c r="P9" s="58"/>
       <c r="Q9" s="38" t="s">
         <v>133</v>
       </c>
@@ -6864,13 +7054,13 @@
       <c r="W9" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="X9" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y9" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z9" s="39" t="s">
+      <c r="X9" s="83" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y9" s="84" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z9" s="84" t="s">
         <v>108</v>
       </c>
       <c r="AA9" s="40">
@@ -6882,9 +7072,25 @@
       <c r="AC9" s="40">
         <v>0.36027500000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="61"/>
+      <c r="AE9" s="58"/>
+      <c r="AF9" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG9" s="38"/>
+      <c r="AH9" s="38"/>
+      <c r="AI9" s="39"/>
+      <c r="AJ9" s="38"/>
+      <c r="AK9" s="38"/>
+      <c r="AL9" s="39"/>
+      <c r="AM9" s="38"/>
+      <c r="AN9" s="38"/>
+      <c r="AO9" s="39"/>
+      <c r="AP9" s="40"/>
+      <c r="AQ9" s="40"/>
+      <c r="AR9" s="40"/>
+    </row>
+    <row r="10" spans="1:44" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="58"/>
       <c r="B10" s="38" t="s">
         <v>134</v>
       </c>
@@ -6920,7 +7126,7 @@
       <c r="N10" s="40">
         <v>1.1750500000000001E-2</v>
       </c>
-      <c r="P10" s="61"/>
+      <c r="P10" s="58"/>
       <c r="Q10" s="38" t="s">
         <v>134</v>
       </c>
@@ -6954,9 +7160,25 @@
       <c r="AC10" s="40">
         <v>0.42157099999999997</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="62"/>
+      <c r="AE10" s="58"/>
+      <c r="AF10" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG10" s="38"/>
+      <c r="AH10" s="38"/>
+      <c r="AI10" s="39"/>
+      <c r="AJ10" s="38"/>
+      <c r="AK10" s="38"/>
+      <c r="AL10" s="39"/>
+      <c r="AM10" s="38"/>
+      <c r="AN10" s="38"/>
+      <c r="AO10" s="39"/>
+      <c r="AP10" s="40"/>
+      <c r="AQ10" s="40"/>
+      <c r="AR10" s="40"/>
+    </row>
+    <row r="11" spans="1:44" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="59"/>
       <c r="B11" s="41" t="s">
         <v>135</v>
       </c>
@@ -6978,7 +7200,7 @@
       <c r="N11" s="42">
         <v>4.1270400000000002E-3</v>
       </c>
-      <c r="P11" s="62"/>
+      <c r="P11" s="59"/>
       <c r="Q11" s="41" t="s">
         <v>135</v>
       </c>
@@ -7006,9 +7228,25 @@
       <c r="AC11" s="42">
         <v>8.3578299999999994E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="60" t="s">
+      <c r="AE11" s="59"/>
+      <c r="AF11" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG11" s="41"/>
+      <c r="AH11" s="41"/>
+      <c r="AI11" s="41"/>
+      <c r="AJ11" s="41"/>
+      <c r="AK11" s="41"/>
+      <c r="AL11" s="41"/>
+      <c r="AM11" s="41"/>
+      <c r="AN11" s="41"/>
+      <c r="AO11" s="41"/>
+      <c r="AP11" s="42"/>
+      <c r="AQ11" s="42"/>
+      <c r="AR11" s="42"/>
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A12" s="57" t="s">
         <v>110</v>
       </c>
       <c r="B12" s="38" t="s">
@@ -7044,7 +7282,7 @@
       <c r="N12" s="40">
         <v>0.61764799999999997</v>
       </c>
-      <c r="P12" s="60" t="s">
+      <c r="P12" s="57" t="s">
         <v>110</v>
       </c>
       <c r="Q12" s="38" t="s">
@@ -7080,9 +7318,27 @@
       <c r="AC12" s="40">
         <v>0.72725300000000004</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="61"/>
+      <c r="AE12" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF12" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG12" s="38"/>
+      <c r="AH12" s="39"/>
+      <c r="AI12" s="38"/>
+      <c r="AJ12" s="38"/>
+      <c r="AK12" s="39"/>
+      <c r="AL12" s="38"/>
+      <c r="AM12" s="38"/>
+      <c r="AN12" s="39"/>
+      <c r="AO12" s="38"/>
+      <c r="AP12" s="40"/>
+      <c r="AQ12" s="40"/>
+      <c r="AR12" s="40"/>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A13" s="58"/>
       <c r="B13" s="38" t="s">
         <v>133</v>
       </c>
@@ -7116,7 +7372,7 @@
       <c r="N13" s="40">
         <v>0.18202299999999999</v>
       </c>
-      <c r="P13" s="61"/>
+      <c r="P13" s="58"/>
       <c r="Q13" s="38" t="s">
         <v>133</v>
       </c>
@@ -7150,9 +7406,25 @@
       <c r="AC13" s="40">
         <v>0.50264500000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="61"/>
+      <c r="AE13" s="58"/>
+      <c r="AF13" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG13" s="38"/>
+      <c r="AH13" s="39"/>
+      <c r="AI13" s="39"/>
+      <c r="AJ13" s="38"/>
+      <c r="AK13" s="39"/>
+      <c r="AL13" s="39"/>
+      <c r="AM13" s="38"/>
+      <c r="AN13" s="39"/>
+      <c r="AO13" s="39"/>
+      <c r="AP13" s="40"/>
+      <c r="AQ13" s="40"/>
+      <c r="AR13" s="40"/>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A14" s="58"/>
       <c r="B14" s="38" t="s">
         <v>134</v>
       </c>
@@ -7186,7 +7458,7 @@
       <c r="N14" s="40">
         <v>5.4985399999999997E-2</v>
       </c>
-      <c r="P14" s="61"/>
+      <c r="P14" s="58"/>
       <c r="Q14" s="38" t="s">
         <v>134</v>
       </c>
@@ -7220,9 +7492,25 @@
       <c r="AC14" s="40">
         <v>0.35624899999999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="62"/>
+      <c r="AE14" s="58"/>
+      <c r="AF14" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG14" s="38"/>
+      <c r="AH14" s="39"/>
+      <c r="AI14" s="39"/>
+      <c r="AJ14" s="38"/>
+      <c r="AK14" s="39"/>
+      <c r="AL14" s="39"/>
+      <c r="AM14" s="38"/>
+      <c r="AN14" s="39"/>
+      <c r="AO14" s="39"/>
+      <c r="AP14" s="40"/>
+      <c r="AQ14" s="40"/>
+      <c r="AR14" s="40"/>
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A15" s="59"/>
       <c r="B15" s="41" t="s">
         <v>135</v>
       </c>
@@ -7244,7 +7532,7 @@
       <c r="N15" s="42">
         <v>0</v>
       </c>
-      <c r="P15" s="62"/>
+      <c r="P15" s="59"/>
       <c r="Q15" s="41" t="s">
         <v>135</v>
       </c>
@@ -7272,9 +7560,25 @@
       <c r="AC15" s="42">
         <v>0.228573</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
+      <c r="AE15" s="59"/>
+      <c r="AF15" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG15" s="41"/>
+      <c r="AH15" s="41"/>
+      <c r="AI15" s="41"/>
+      <c r="AJ15" s="41"/>
+      <c r="AK15" s="41"/>
+      <c r="AL15" s="41"/>
+      <c r="AM15" s="41"/>
+      <c r="AN15" s="41"/>
+      <c r="AO15" s="41"/>
+      <c r="AP15" s="42"/>
+      <c r="AQ15" s="42"/>
+      <c r="AR15" s="42"/>
+    </row>
+    <row r="16" spans="1:44" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="61" t="s">
         <v>138</v>
       </c>
       <c r="B16" s="39" t="s">
@@ -7298,7 +7602,7 @@
       <c r="H16" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="I16" s="38" t="s">
+      <c r="I16" s="83" t="s">
         <v>108</v>
       </c>
       <c r="J16" s="39"/>
@@ -7312,7 +7616,7 @@
       <c r="N16" s="40">
         <v>0.29320299999999999</v>
       </c>
-      <c r="P16" s="57" t="s">
+      <c r="P16" s="61" t="s">
         <v>138</v>
       </c>
       <c r="Q16" s="39" t="s">
@@ -7336,7 +7640,7 @@
       <c r="W16" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="X16" s="38" t="s">
+      <c r="X16" s="83" t="s">
         <v>108</v>
       </c>
       <c r="Y16" s="39" t="s">
@@ -7352,9 +7656,51 @@
       <c r="AC16" s="40">
         <v>0.81892100000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="58"/>
+      <c r="AE16" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF16" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG16" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH16" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI16" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ16" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK16" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL16" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM16" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN16" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO16" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP16" s="40">
+        <v>0.23941899999999999</v>
+      </c>
+      <c r="AQ16" s="40">
+        <v>0.23985999999999999</v>
+      </c>
+      <c r="AR16" s="40">
+        <v>6.7111699999999996E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:44" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="62"/>
       <c r="B17" s="39" t="s">
         <v>133</v>
       </c>
@@ -7388,7 +7734,7 @@
       <c r="N17" s="40">
         <v>0.174321</v>
       </c>
-      <c r="P17" s="58"/>
+      <c r="P17" s="62"/>
       <c r="Q17" s="39" t="s">
         <v>133</v>
       </c>
@@ -7422,9 +7768,47 @@
       <c r="AC17" s="40">
         <v>0.46240999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="58"/>
+      <c r="AE17" s="62"/>
+      <c r="AF17" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG17" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH17" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI17" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ17" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK17" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL17" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM17" s="38"/>
+      <c r="AN17" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO17" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP17" s="40">
+        <v>8.2246399999999997E-2</v>
+      </c>
+      <c r="AQ17" s="40">
+        <v>6.4230999999999996E-2</v>
+      </c>
+      <c r="AR17" s="40">
+        <v>0.28881299999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:44" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="62"/>
       <c r="B18" s="38" t="s">
         <v>134</v>
       </c>
@@ -7462,7 +7846,7 @@
       <c r="N18" s="40">
         <v>1.3136500000000001E-2</v>
       </c>
-      <c r="P18" s="58"/>
+      <c r="P18" s="62"/>
       <c r="Q18" s="38" t="s">
         <v>134</v>
       </c>
@@ -7496,9 +7880,49 @@
       <c r="AC18" s="40">
         <v>0.97048199999999996</v>
       </c>
-    </row>
-    <row r="19" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="59"/>
+      <c r="AE18" s="62"/>
+      <c r="AF18" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG18" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH18" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI18" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ18" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK18" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL18" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM18" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN18" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO18" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP18" s="40">
+        <v>0.55319600000000002</v>
+      </c>
+      <c r="AQ18" s="40">
+        <v>0.13298599999999999</v>
+      </c>
+      <c r="AR18" s="40">
+        <v>6.7111699999999996E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:44" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="63"/>
       <c r="B19" s="41" t="s">
         <v>135</v>
       </c>
@@ -7520,7 +7944,7 @@
       <c r="N19" s="42">
         <v>3.6087900000000002E-3</v>
       </c>
-      <c r="P19" s="59"/>
+      <c r="P19" s="63"/>
       <c r="Q19" s="41" t="s">
         <v>135</v>
       </c>
@@ -7550,9 +7974,35 @@
       <c r="AC19" s="42">
         <v>0.75703299999999996</v>
       </c>
-    </row>
-    <row r="20" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="57" t="s">
+      <c r="AE19" s="63"/>
+      <c r="AF19" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG19" s="41"/>
+      <c r="AH19" s="41"/>
+      <c r="AI19" s="41"/>
+      <c r="AJ19" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK19" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL19" s="41"/>
+      <c r="AM19" s="41"/>
+      <c r="AN19" s="41"/>
+      <c r="AO19" s="41"/>
+      <c r="AP19" s="42">
+        <v>2.3891699999999998E-2</v>
+      </c>
+      <c r="AQ19" s="42">
+        <v>0.26253700000000002</v>
+      </c>
+      <c r="AR19" s="42">
+        <v>1.8078400000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="61" t="s">
         <v>139</v>
       </c>
       <c r="B20" s="38" t="s">
@@ -7588,7 +8038,7 @@
       <c r="N20" s="40">
         <v>5.4854E-2</v>
       </c>
-      <c r="P20" s="57" t="s">
+      <c r="P20" s="61" t="s">
         <v>139</v>
       </c>
       <c r="Q20" s="38" t="s">
@@ -7624,9 +8074,45 @@
       <c r="AC20" s="40">
         <v>0.97633400000000004</v>
       </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
+      <c r="AE20" s="61" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF20" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG20" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH20" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI20" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ20" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK20" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL20" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM20" s="38"/>
+      <c r="AN20" s="39"/>
+      <c r="AO20" s="39"/>
+      <c r="AP20" s="40">
+        <v>0.11039</v>
+      </c>
+      <c r="AQ20" s="40">
+        <v>0.16622200000000001</v>
+      </c>
+      <c r="AR20" s="40">
+        <v>0.14690500000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A21" s="62"/>
       <c r="B21" s="38" t="s">
         <v>133</v>
       </c>
@@ -7664,7 +8150,7 @@
       <c r="N21" s="40">
         <v>0.40772999999999998</v>
       </c>
-      <c r="P21" s="58"/>
+      <c r="P21" s="62"/>
       <c r="Q21" s="38" t="s">
         <v>133</v>
       </c>
@@ -7698,9 +8184,45 @@
       <c r="AC21" s="40">
         <v>0.34917199999999998</v>
       </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A22" s="58"/>
+      <c r="AE21" s="62"/>
+      <c r="AF21" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG21" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH21" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI21" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ21" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK21" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL21" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM21" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN21" s="39"/>
+      <c r="AO21" s="39"/>
+      <c r="AP21" s="40">
+        <v>9.6229999999999996E-2</v>
+      </c>
+      <c r="AQ21" s="40">
+        <v>3.94218E-2</v>
+      </c>
+      <c r="AR21" s="40">
+        <v>7.7744599999999997E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A22" s="62"/>
       <c r="B22" s="38" t="s">
         <v>134</v>
       </c>
@@ -7734,7 +8256,7 @@
       <c r="N22" s="40">
         <v>5.7199100000000003E-2</v>
       </c>
-      <c r="P22" s="58"/>
+      <c r="P22" s="62"/>
       <c r="Q22" s="38" t="s">
         <v>134</v>
       </c>
@@ -7768,9 +8290,45 @@
       <c r="AC22" s="40">
         <v>0.98668299999999998</v>
       </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" s="59"/>
+      <c r="AE22" s="62"/>
+      <c r="AF22" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG22" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH22" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI22" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ22" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK22" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL22" s="39"/>
+      <c r="AM22" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN22" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO22" s="39"/>
+      <c r="AP22" s="40">
+        <v>0.14286699999999999</v>
+      </c>
+      <c r="AQ22" s="40">
+        <v>1.6366600000000001E-3</v>
+      </c>
+      <c r="AR22" s="40">
+        <v>0.214117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A23" s="63"/>
       <c r="B23" s="41" t="s">
         <v>135</v>
       </c>
@@ -7792,7 +8350,7 @@
       <c r="N23" s="42">
         <v>7.4505699999999994E-2</v>
       </c>
-      <c r="P23" s="59"/>
+      <c r="P23" s="63"/>
       <c r="Q23" s="41" t="s">
         <v>135</v>
       </c>
@@ -7822,9 +8380,35 @@
       <c r="AC23" s="42">
         <v>0.96269300000000002</v>
       </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A24" s="60" t="s">
+      <c r="AE23" s="63"/>
+      <c r="AF23" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG23" s="41"/>
+      <c r="AH23" s="41"/>
+      <c r="AI23" s="41"/>
+      <c r="AJ23" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK23" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL23" s="41"/>
+      <c r="AM23" s="41"/>
+      <c r="AN23" s="41"/>
+      <c r="AO23" s="41"/>
+      <c r="AP23" s="42">
+        <v>1.78631E-2</v>
+      </c>
+      <c r="AQ23" s="42">
+        <v>1.0533300000000001E-2</v>
+      </c>
+      <c r="AR23" s="42">
+        <v>0.190696</v>
+      </c>
+    </row>
+    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A24" s="57" t="s">
         <v>140</v>
       </c>
       <c r="B24" s="38" t="s">
@@ -7866,7 +8450,7 @@
       <c r="N24" s="40">
         <v>0.25895099999999999</v>
       </c>
-      <c r="P24" s="60" t="s">
+      <c r="P24" s="57" t="s">
         <v>140</v>
       </c>
       <c r="Q24" s="38" t="s">
@@ -7902,9 +8486,49 @@
       <c r="AC24" s="40">
         <v>0.391177</v>
       </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A25" s="61"/>
+      <c r="AE24" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF24" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG24" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH24" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI24" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ24" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK24" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL24" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM24" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN24" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO24" s="39"/>
+      <c r="AP24" s="40">
+        <v>2.0717699999999999E-2</v>
+      </c>
+      <c r="AQ24" s="40">
+        <v>2.11925E-2</v>
+      </c>
+      <c r="AR24" s="40">
+        <v>7.4277599999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A25" s="58"/>
       <c r="B25" s="38" t="s">
         <v>133</v>
       </c>
@@ -7938,7 +8562,7 @@
       <c r="N25" s="40">
         <v>8.7913599999999995E-2</v>
       </c>
-      <c r="P25" s="61"/>
+      <c r="P25" s="58"/>
       <c r="Q25" s="38" t="s">
         <v>133</v>
       </c>
@@ -7972,9 +8596,43 @@
       <c r="AC25" s="40">
         <v>0.992869</v>
       </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A26" s="61"/>
+      <c r="AE25" s="58"/>
+      <c r="AF25" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG25" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH25" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI25" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ25" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK25" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL25" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM25" s="38"/>
+      <c r="AN25" s="39"/>
+      <c r="AO25" s="39"/>
+      <c r="AP25" s="40">
+        <v>0.24904799999999999</v>
+      </c>
+      <c r="AQ25" s="40">
+        <v>0.58647499999999997</v>
+      </c>
+      <c r="AR25" s="40">
+        <v>0.16930899999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A26" s="58"/>
       <c r="B26" s="38" t="s">
         <v>134</v>
       </c>
@@ -8010,7 +8668,7 @@
       <c r="N26" s="40">
         <v>8.6047599999999999E-5</v>
       </c>
-      <c r="P26" s="61"/>
+      <c r="P26" s="58"/>
       <c r="Q26" s="38" t="s">
         <v>134</v>
       </c>
@@ -8046,9 +8704,47 @@
       <c r="AC26" s="40">
         <v>0.49700499999999997</v>
       </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A27" s="62"/>
+      <c r="AE26" s="58"/>
+      <c r="AF26" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG26" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH26" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI26" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ26" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK26" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL26" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM26" s="38"/>
+      <c r="AN26" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO26" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP26" s="40">
+        <v>5.1557899999999997E-2</v>
+      </c>
+      <c r="AQ26" s="40">
+        <v>0.182893</v>
+      </c>
+      <c r="AR26" s="40">
+        <v>9.6222600000000005E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A27" s="59"/>
       <c r="B27" s="41" t="s">
         <v>135</v>
       </c>
@@ -8070,7 +8766,7 @@
       <c r="N27" s="42">
         <v>5.1660999999999999E-2</v>
       </c>
-      <c r="P27" s="62"/>
+      <c r="P27" s="59"/>
       <c r="Q27" s="41" t="s">
         <v>135</v>
       </c>
@@ -8098,9 +8794,33 @@
       <c r="AC27" s="42">
         <v>0.59972999999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A28" s="60" t="s">
+      <c r="AE27" s="59"/>
+      <c r="AF27" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG27" s="41"/>
+      <c r="AH27" s="41"/>
+      <c r="AI27" s="41"/>
+      <c r="AJ27" s="41"/>
+      <c r="AK27" s="41"/>
+      <c r="AL27" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM27" s="41"/>
+      <c r="AN27" s="41"/>
+      <c r="AO27" s="41"/>
+      <c r="AP27" s="42">
+        <v>5.3174899999999997E-2</v>
+      </c>
+      <c r="AQ27" s="42">
+        <v>7.1961000000000004E-3</v>
+      </c>
+      <c r="AR27" s="42">
+        <v>2.1038399999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A28" s="57" t="s">
         <v>116</v>
       </c>
       <c r="B28" s="38" t="s">
@@ -8136,7 +8856,7 @@
       <c r="N28" s="40">
         <v>0.21804599999999999</v>
       </c>
-      <c r="P28" s="60" t="s">
+      <c r="P28" s="57" t="s">
         <v>116</v>
       </c>
       <c r="Q28" s="38" t="s">
@@ -8172,9 +8892,27 @@
       <c r="AC28" s="40">
         <v>0.79758499999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A29" s="61"/>
+      <c r="AE28" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF28" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG28" s="38"/>
+      <c r="AH28" s="39"/>
+      <c r="AI28" s="39"/>
+      <c r="AJ28" s="38"/>
+      <c r="AK28" s="39"/>
+      <c r="AL28" s="39"/>
+      <c r="AM28" s="38"/>
+      <c r="AN28" s="39"/>
+      <c r="AO28" s="39"/>
+      <c r="AP28" s="40"/>
+      <c r="AQ28" s="40"/>
+      <c r="AR28" s="40"/>
+    </row>
+    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A29" s="58"/>
       <c r="B29" s="38" t="s">
         <v>133</v>
       </c>
@@ -8208,7 +8946,7 @@
       <c r="N29" s="40">
         <v>1.9599700000000001E-2</v>
       </c>
-      <c r="P29" s="61"/>
+      <c r="P29" s="58"/>
       <c r="Q29" s="38" t="s">
         <v>133</v>
       </c>
@@ -8242,9 +8980,25 @@
       <c r="AC29" s="40">
         <v>0.20802399999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A30" s="61"/>
+      <c r="AE29" s="58"/>
+      <c r="AF29" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG29" s="38"/>
+      <c r="AH29" s="39"/>
+      <c r="AI29" s="39"/>
+      <c r="AJ29" s="38"/>
+      <c r="AK29" s="39"/>
+      <c r="AL29" s="39"/>
+      <c r="AM29" s="38"/>
+      <c r="AN29" s="39"/>
+      <c r="AO29" s="39"/>
+      <c r="AP29" s="40"/>
+      <c r="AQ29" s="40"/>
+      <c r="AR29" s="40"/>
+    </row>
+    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A30" s="58"/>
       <c r="B30" s="38" t="s">
         <v>134</v>
       </c>
@@ -8278,7 +9032,7 @@
       <c r="N30" s="40">
         <v>7.6017100000000002E-4</v>
       </c>
-      <c r="P30" s="61"/>
+      <c r="P30" s="58"/>
       <c r="Q30" s="38" t="s">
         <v>134</v>
       </c>
@@ -8312,9 +9066,25 @@
       <c r="AC30" s="40">
         <v>0.55451899999999998</v>
       </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A31" s="62"/>
+      <c r="AE30" s="58"/>
+      <c r="AF30" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG30" s="38"/>
+      <c r="AH30" s="39"/>
+      <c r="AI30" s="39"/>
+      <c r="AJ30" s="38"/>
+      <c r="AK30" s="39"/>
+      <c r="AL30" s="39"/>
+      <c r="AM30" s="38"/>
+      <c r="AN30" s="39"/>
+      <c r="AO30" s="39"/>
+      <c r="AP30" s="40"/>
+      <c r="AQ30" s="40"/>
+      <c r="AR30" s="40"/>
+    </row>
+    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A31" s="59"/>
       <c r="B31" s="41" t="s">
         <v>135</v>
       </c>
@@ -8336,7 +9106,7 @@
       <c r="N31" s="42">
         <v>6.0392800000000003E-2</v>
       </c>
-      <c r="P31" s="62"/>
+      <c r="P31" s="59"/>
       <c r="Q31" s="41" t="s">
         <v>135</v>
       </c>
@@ -8364,9 +9134,25 @@
       <c r="AC31" s="42">
         <v>0.40330300000000002</v>
       </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A32" s="60" t="s">
+      <c r="AE31" s="59"/>
+      <c r="AF31" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG31" s="41"/>
+      <c r="AH31" s="41"/>
+      <c r="AI31" s="41"/>
+      <c r="AJ31" s="41"/>
+      <c r="AK31" s="41"/>
+      <c r="AL31" s="41"/>
+      <c r="AM31" s="41"/>
+      <c r="AN31" s="41"/>
+      <c r="AO31" s="41"/>
+      <c r="AP31" s="42"/>
+      <c r="AQ31" s="42"/>
+      <c r="AR31" s="42"/>
+    </row>
+    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A32" s="57" t="s">
         <v>141</v>
       </c>
       <c r="B32" s="38" t="s">
@@ -8406,7 +9192,7 @@
       <c r="N32" s="40">
         <v>6.8416699999999997E-2</v>
       </c>
-      <c r="P32" s="60" t="s">
+      <c r="P32" s="57" t="s">
         <v>141</v>
       </c>
       <c r="Q32" s="38" t="s">
@@ -8442,9 +9228,27 @@
       <c r="AC32" s="40">
         <v>0.79306100000000002</v>
       </c>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A33" s="61"/>
+      <c r="AE32" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF32" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG32" s="38"/>
+      <c r="AH32" s="39"/>
+      <c r="AI32" s="39"/>
+      <c r="AJ32" s="38"/>
+      <c r="AK32" s="39"/>
+      <c r="AL32" s="39"/>
+      <c r="AM32" s="38"/>
+      <c r="AN32" s="39"/>
+      <c r="AO32" s="39"/>
+      <c r="AP32" s="40"/>
+      <c r="AQ32" s="40"/>
+      <c r="AR32" s="40"/>
+    </row>
+    <row r="33" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A33" s="58"/>
       <c r="B33" s="38" t="s">
         <v>133</v>
       </c>
@@ -8478,7 +9282,7 @@
       <c r="N33" s="40">
         <v>0.24232799999999999</v>
       </c>
-      <c r="P33" s="61"/>
+      <c r="P33" s="58"/>
       <c r="Q33" s="38" t="s">
         <v>133</v>
       </c>
@@ -8512,9 +9316,25 @@
       <c r="AC33" s="40">
         <v>0.79171599999999998</v>
       </c>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A34" s="61"/>
+      <c r="AE33" s="58"/>
+      <c r="AF33" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG33" s="38"/>
+      <c r="AH33" s="39"/>
+      <c r="AI33" s="39"/>
+      <c r="AJ33" s="38"/>
+      <c r="AK33" s="39"/>
+      <c r="AL33" s="39"/>
+      <c r="AM33" s="38"/>
+      <c r="AN33" s="39"/>
+      <c r="AO33" s="39"/>
+      <c r="AP33" s="40"/>
+      <c r="AQ33" s="40"/>
+      <c r="AR33" s="40"/>
+    </row>
+    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A34" s="58"/>
       <c r="B34" s="38" t="s">
         <v>134</v>
       </c>
@@ -8548,7 +9368,7 @@
       <c r="N34" s="40">
         <v>9.2139299999999993E-2</v>
       </c>
-      <c r="P34" s="61"/>
+      <c r="P34" s="58"/>
       <c r="Q34" s="38" t="s">
         <v>134</v>
       </c>
@@ -8584,9 +9404,25 @@
       <c r="AC34" s="40">
         <v>5.10708E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A35" s="62"/>
+      <c r="AE34" s="58"/>
+      <c r="AF34" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG34" s="38"/>
+      <c r="AH34" s="39"/>
+      <c r="AI34" s="39"/>
+      <c r="AJ34" s="38"/>
+      <c r="AK34" s="39"/>
+      <c r="AL34" s="39"/>
+      <c r="AM34" s="38"/>
+      <c r="AN34" s="39"/>
+      <c r="AO34" s="39"/>
+      <c r="AP34" s="40"/>
+      <c r="AQ34" s="40"/>
+      <c r="AR34" s="40"/>
+    </row>
+    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A35" s="59"/>
       <c r="B35" s="41" t="s">
         <v>135</v>
       </c>
@@ -8608,7 +9444,7 @@
       <c r="N35" s="42">
         <v>3.5705899999999999E-2</v>
       </c>
-      <c r="P35" s="62"/>
+      <c r="P35" s="59"/>
       <c r="Q35" s="41" t="s">
         <v>135</v>
       </c>
@@ -8640,9 +9476,25 @@
       <c r="AC35" s="42">
         <v>0.37054599999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A36" s="63" t="s">
+      <c r="AE35" s="59"/>
+      <c r="AF35" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG35" s="41"/>
+      <c r="AH35" s="41"/>
+      <c r="AI35" s="41"/>
+      <c r="AJ35" s="41"/>
+      <c r="AK35" s="41"/>
+      <c r="AL35" s="41"/>
+      <c r="AM35" s="41"/>
+      <c r="AN35" s="41"/>
+      <c r="AO35" s="41"/>
+      <c r="AP35" s="42"/>
+      <c r="AQ35" s="42"/>
+      <c r="AR35" s="42"/>
+    </row>
+    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A36" s="60" t="s">
         <v>142</v>
       </c>
       <c r="B36" s="38" t="s">
@@ -8684,7 +9536,7 @@
       <c r="N36" s="40">
         <v>0.79885600000000001</v>
       </c>
-      <c r="P36" s="63" t="s">
+      <c r="P36" s="60" t="s">
         <v>142</v>
       </c>
       <c r="Q36" s="38" t="s">
@@ -8720,9 +9572,27 @@
       <c r="AC36" s="40">
         <v>0.119131</v>
       </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A37" s="63"/>
+      <c r="AE36" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF36" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG36" s="38"/>
+      <c r="AH36" s="39"/>
+      <c r="AI36" s="39"/>
+      <c r="AJ36" s="38"/>
+      <c r="AK36" s="39"/>
+      <c r="AL36" s="39"/>
+      <c r="AM36" s="38"/>
+      <c r="AN36" s="39"/>
+      <c r="AO36" s="39"/>
+      <c r="AP36" s="40"/>
+      <c r="AQ36" s="40"/>
+      <c r="AR36" s="40"/>
+    </row>
+    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A37" s="60"/>
       <c r="B37" s="38" t="s">
         <v>133</v>
       </c>
@@ -8756,7 +9626,7 @@
       <c r="N37" s="40">
         <v>0.51789499999999999</v>
       </c>
-      <c r="P37" s="63"/>
+      <c r="P37" s="60"/>
       <c r="Q37" s="38" t="s">
         <v>133</v>
       </c>
@@ -8790,9 +9660,25 @@
       <c r="AC37" s="40">
         <v>0.74060099999999995</v>
       </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A38" s="63"/>
+      <c r="AE37" s="60"/>
+      <c r="AF37" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG37" s="38"/>
+      <c r="AH37" s="39"/>
+      <c r="AI37" s="39"/>
+      <c r="AJ37" s="38"/>
+      <c r="AK37" s="39"/>
+      <c r="AL37" s="39"/>
+      <c r="AM37" s="38"/>
+      <c r="AN37" s="39"/>
+      <c r="AO37" s="39"/>
+      <c r="AP37" s="40"/>
+      <c r="AQ37" s="40"/>
+      <c r="AR37" s="40"/>
+    </row>
+    <row r="38" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A38" s="60"/>
       <c r="B38" s="38" t="s">
         <v>134</v>
       </c>
@@ -8814,13 +9700,13 @@
       <c r="H38" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="I38" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="J38" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="K38" s="39" t="s">
+      <c r="I38" s="83" t="s">
+        <v>108</v>
+      </c>
+      <c r="J38" s="84" t="s">
+        <v>108</v>
+      </c>
+      <c r="K38" s="84" t="s">
         <v>108</v>
       </c>
       <c r="L38" s="40">
@@ -8832,7 +9718,7 @@
       <c r="N38" s="40">
         <v>1.3228699999999999E-2</v>
       </c>
-      <c r="P38" s="63"/>
+      <c r="P38" s="60"/>
       <c r="Q38" s="38" t="s">
         <v>134</v>
       </c>
@@ -8854,13 +9740,13 @@
       <c r="W38" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="X38" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y38" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z38" s="39" t="s">
+      <c r="X38" s="83" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y38" s="84" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z38" s="84" t="s">
         <v>108</v>
       </c>
       <c r="AA38" s="40">
@@ -8872,9 +9758,25 @@
       <c r="AC38" s="40">
         <v>0.59381899999999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A39" s="63"/>
+      <c r="AE38" s="60"/>
+      <c r="AF38" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG38" s="38"/>
+      <c r="AH38" s="39"/>
+      <c r="AI38" s="39"/>
+      <c r="AJ38" s="38"/>
+      <c r="AK38" s="39"/>
+      <c r="AL38" s="39"/>
+      <c r="AM38" s="38"/>
+      <c r="AN38" s="39"/>
+      <c r="AO38" s="39"/>
+      <c r="AP38" s="40"/>
+      <c r="AQ38" s="40"/>
+      <c r="AR38" s="40"/>
+    </row>
+    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A39" s="60"/>
       <c r="B39" s="41" t="s">
         <v>135</v>
       </c>
@@ -8896,7 +9798,7 @@
       <c r="N39" s="42">
         <v>0.12786700000000001</v>
       </c>
-      <c r="P39" s="63"/>
+      <c r="P39" s="60"/>
       <c r="Q39" s="41" t="s">
         <v>135</v>
       </c>
@@ -8930,8 +9832,24 @@
       <c r="AC39" s="42">
         <v>0.94489999999999996</v>
       </c>
-    </row>
-    <row r="40" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE39" s="60"/>
+      <c r="AF39" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG39" s="41"/>
+      <c r="AH39" s="41"/>
+      <c r="AI39" s="41"/>
+      <c r="AJ39" s="41"/>
+      <c r="AK39" s="41"/>
+      <c r="AL39" s="41"/>
+      <c r="AM39" s="41"/>
+      <c r="AN39" s="41"/>
+      <c r="AO39" s="41"/>
+      <c r="AP39" s="42"/>
+      <c r="AQ39" s="42"/>
+      <c r="AR39" s="42"/>
+    </row>
+    <row r="40" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="23"/>
       <c r="L40" s="32"/>
       <c r="M40" s="32"/>
@@ -8941,7 +9859,7 @@
       <c r="AB40" s="32"/>
       <c r="AC40" s="32"/>
     </row>
-    <row r="41" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="23"/>
       <c r="L41" s="32"/>
       <c r="M41" s="32"/>
@@ -8951,7 +9869,7 @@
       <c r="AB41" s="32"/>
       <c r="AC41" s="32"/>
     </row>
-    <row r="42" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="23"/>
       <c r="L42" s="32"/>
       <c r="M42" s="32"/>
@@ -8961,7 +9879,7 @@
       <c r="AB42" s="32"/>
       <c r="AC42" s="32"/>
     </row>
-    <row r="43" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="23"/>
       <c r="L43" s="32"/>
       <c r="M43" s="32"/>
@@ -8971,7 +9889,7 @@
       <c r="AB43" s="32"/>
       <c r="AC43" s="32"/>
     </row>
-    <row r="44" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="23"/>
       <c r="L44" s="32"/>
       <c r="M44" s="32"/>
@@ -8981,7 +9899,7 @@
       <c r="AB44" s="32"/>
       <c r="AC44" s="32"/>
     </row>
-    <row r="45" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="23"/>
       <c r="L45" s="32"/>
       <c r="M45" s="32"/>
@@ -8991,7 +9909,7 @@
       <c r="AB45" s="32"/>
       <c r="AC45" s="32"/>
     </row>
-    <row r="46" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="23"/>
       <c r="L46" s="32"/>
       <c r="M46" s="32"/>
@@ -9001,7 +9919,7 @@
       <c r="AB46" s="32"/>
       <c r="AC46" s="32"/>
     </row>
-    <row r="47" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="23"/>
       <c r="L47" s="32"/>
       <c r="M47" s="32"/>
@@ -9011,7 +9929,7 @@
       <c r="AB47" s="32"/>
       <c r="AC47" s="32"/>
     </row>
-    <row r="48" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="23"/>
       <c r="L48" s="32"/>
       <c r="M48" s="32"/>
@@ -11032,7 +11950,7 @@
       <c r="AC249" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="48">
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="P1:AC1"/>
     <mergeCell ref="L2:N2"/>
@@ -11065,6 +11983,22 @@
     <mergeCell ref="P28:P31"/>
     <mergeCell ref="P32:P35"/>
     <mergeCell ref="P36:P39"/>
+    <mergeCell ref="AE1:AR1"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
+    <mergeCell ref="AE24:AE27"/>
+    <mergeCell ref="AE28:AE31"/>
+    <mergeCell ref="AE32:AE35"/>
+    <mergeCell ref="AE36:AE39"/>
+    <mergeCell ref="AE4:AE7"/>
+    <mergeCell ref="AE8:AE11"/>
+    <mergeCell ref="AE12:AE15"/>
+    <mergeCell ref="AE16:AE19"/>
+    <mergeCell ref="AE20:AE23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -11095,27 +12029,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="31" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="67" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="67"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="66" t="s">
+      <c r="D1" s="65"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="G1" s="67"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="66" t="s">
+      <c r="G1" s="65"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="J1" s="67"/>
-      <c r="K1" s="68"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="66"/>
       <c r="L1" s="69" t="s">
         <v>128</v>
       </c>
@@ -11123,8 +12057,8 @@
       <c r="N1" s="71"/>
     </row>
     <row r="2" spans="1:17" s="31" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
-      <c r="B2" s="65"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
       <c r="C2" s="36" t="s">
         <v>125</v>
       </c>
@@ -11164,7 +12098,7 @@
       <c r="Q2" s="35"/>
     </row>
     <row r="3" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="57" t="s">
         <v>136</v>
       </c>
       <c r="B3" s="38" t="s">
@@ -11205,7 +12139,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="61"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="38" t="s">
         <v>133</v>
       </c>
@@ -11247,7 +12181,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="38" t="s">
         <v>134</v>
       </c>
@@ -11283,7 +12217,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="62"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="41" t="s">
         <v>135</v>
       </c>
@@ -11316,7 +12250,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="57" t="s">
         <v>137</v>
       </c>
       <c r="B7" s="38" t="s">
@@ -11354,7 +12288,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="61"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="38" t="s">
         <v>133</v>
       </c>
@@ -11396,7 +12330,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="61"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="38" t="s">
         <v>134</v>
       </c>
@@ -11432,7 +12366,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="62"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="41" t="s">
         <v>135</v>
       </c>
@@ -11462,7 +12396,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="57" t="s">
         <v>110</v>
       </c>
       <c r="B11" s="38" t="s">
@@ -11500,7 +12434,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="61"/>
+      <c r="A12" s="58"/>
       <c r="B12" s="38" t="s">
         <v>133</v>
       </c>
@@ -11536,7 +12470,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="61"/>
+      <c r="A13" s="58"/>
       <c r="B13" s="38" t="s">
         <v>134</v>
       </c>
@@ -11572,7 +12506,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="62"/>
+      <c r="A14" s="59"/>
       <c r="B14" s="41" t="s">
         <v>135</v>
       </c>
@@ -11602,7 +12536,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="61" t="s">
         <v>138</v>
       </c>
       <c r="B15" s="39" t="s">
@@ -11644,7 +12578,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
+      <c r="A16" s="62"/>
       <c r="B16" s="39" t="s">
         <v>133</v>
       </c>
@@ -11683,7 +12617,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="58"/>
+      <c r="A17" s="62"/>
       <c r="B17" s="38" t="s">
         <v>134</v>
       </c>
@@ -11719,7 +12653,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
+      <c r="A18" s="63"/>
       <c r="B18" s="41" t="s">
         <v>135</v>
       </c>
@@ -11751,7 +12685,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="61" t="s">
         <v>139</v>
       </c>
       <c r="B19" s="38" t="s">
@@ -11789,7 +12723,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="58"/>
+      <c r="A20" s="62"/>
       <c r="B20" s="38" t="s">
         <v>133</v>
       </c>
@@ -11825,7 +12759,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
+      <c r="A21" s="62"/>
       <c r="B21" s="38" t="s">
         <v>134</v>
       </c>
@@ -11861,7 +12795,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="59"/>
+      <c r="A22" s="63"/>
       <c r="B22" s="41" t="s">
         <v>135</v>
       </c>
@@ -11893,7 +12827,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="60" t="s">
+      <c r="A23" s="57" t="s">
         <v>140</v>
       </c>
       <c r="B23" s="38" t="s">
@@ -11931,7 +12865,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="61"/>
+      <c r="A24" s="58"/>
       <c r="B24" s="38" t="s">
         <v>133</v>
       </c>
@@ -11967,7 +12901,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="61"/>
+      <c r="A25" s="58"/>
       <c r="B25" s="38" t="s">
         <v>134</v>
       </c>
@@ -12005,7 +12939,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="62"/>
+      <c r="A26" s="59"/>
       <c r="B26" s="41" t="s">
         <v>135</v>
       </c>
@@ -12035,7 +12969,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="60" t="s">
+      <c r="A27" s="57" t="s">
         <v>116</v>
       </c>
       <c r="B27" s="38" t="s">
@@ -12073,7 +13007,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="61"/>
+      <c r="A28" s="58"/>
       <c r="B28" s="38" t="s">
         <v>133</v>
       </c>
@@ -12109,7 +13043,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="61"/>
+      <c r="A29" s="58"/>
       <c r="B29" s="38" t="s">
         <v>134</v>
       </c>
@@ -12145,7 +13079,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="62"/>
+      <c r="A30" s="59"/>
       <c r="B30" s="41" t="s">
         <v>135</v>
       </c>
@@ -12175,7 +13109,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="60" t="s">
+      <c r="A31" s="57" t="s">
         <v>141</v>
       </c>
       <c r="B31" s="38" t="s">
@@ -12213,7 +13147,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="61"/>
+      <c r="A32" s="58"/>
       <c r="B32" s="38" t="s">
         <v>133</v>
       </c>
@@ -12249,7 +13183,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="61"/>
+      <c r="A33" s="58"/>
       <c r="B33" s="38" t="s">
         <v>134</v>
       </c>
@@ -12287,7 +13221,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="62"/>
+      <c r="A34" s="59"/>
       <c r="B34" s="41" t="s">
         <v>135</v>
       </c>
@@ -12321,7 +13255,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="63" t="s">
+      <c r="A35" s="60" t="s">
         <v>142</v>
       </c>
       <c r="B35" s="38" t="s">
@@ -12359,7 +13293,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="63"/>
+      <c r="A36" s="60"/>
       <c r="B36" s="38" t="s">
         <v>133</v>
       </c>
@@ -12395,7 +13329,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="63"/>
+      <c r="A37" s="60"/>
       <c r="B37" s="38" t="s">
         <v>134</v>
       </c>
@@ -12437,7 +13371,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="63"/>
+      <c r="A38" s="60"/>
       <c r="B38" s="41" t="s">
         <v>135</v>
       </c>
@@ -18701,13 +19635,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">

--- a/DataSet_VersionRecuperada.xlsx
+++ b/DataSet_VersionRecuperada.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Group 1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Totales" sheetId="5" r:id="rId7"/>
     <sheet name="Hoja1" sheetId="10" r:id="rId8"/>
     <sheet name="Hoja2" sheetId="11" r:id="rId9"/>
+    <sheet name="Sincronization" sheetId="12" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Group 1'!$A$1:$AV$19</definedName>
@@ -116,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="181">
   <si>
     <t>7:00 a 8:00</t>
   </si>
@@ -944,7 +945,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1111,6 +1112,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1192,11 +1199,17 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1647,7 +1660,7 @@
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="58"/>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1779,7 +1792,7 @@
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="58"/>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1920,7 +1933,7 @@
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="56"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
@@ -2064,7 +2077,7 @@
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="56"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
@@ -2348,7 +2361,7 @@
       <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="56"/>
+      <c r="B7" s="58"/>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
@@ -2492,7 +2505,7 @@
       <c r="A8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="56"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
@@ -2633,7 +2646,7 @@
       <c r="A9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="56"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
@@ -2777,7 +2790,7 @@
       <c r="A10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="56"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
@@ -2918,7 +2931,7 @@
       <c r="A11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="56">
+      <c r="B11" s="58">
         <v>43555</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -3061,7 +3074,7 @@
       <c r="A12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="56"/>
+      <c r="B12" s="58"/>
       <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
@@ -3205,7 +3218,7 @@
       <c r="A13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="56">
+      <c r="B13" s="58">
         <v>43561</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -3348,7 +3361,7 @@
       <c r="A14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="56"/>
+      <c r="B14" s="58"/>
       <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
@@ -3492,7 +3505,7 @@
       <c r="A15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="56"/>
+      <c r="B15" s="58"/>
       <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
@@ -3636,7 +3649,7 @@
       <c r="A16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="56"/>
+      <c r="B16" s="58"/>
       <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
@@ -3774,7 +3787,7 @@
       <c r="A17" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="56"/>
+      <c r="B17" s="58"/>
       <c r="C17" s="2" t="s">
         <v>5</v>
       </c>
@@ -3915,7 +3928,7 @@
       <c r="A18" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="56"/>
+      <c r="B18" s="58"/>
       <c r="C18" s="2" t="s">
         <v>8</v>
       </c>
@@ -4056,7 +4069,7 @@
       <c r="A19" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="56"/>
+      <c r="B19" s="58"/>
       <c r="C19" s="2" t="s">
         <v>41</v>
       </c>
@@ -5030,6 +5043,1108 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="66" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="68"/>
+    </row>
+    <row r="2" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" s="67"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="J2" s="67"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="71" t="s">
+        <v>128</v>
+      </c>
+      <c r="M2" s="72"/>
+      <c r="N2" s="73"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="70"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="K3" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="86">
+        <v>1</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="86" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="86"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="K4" s="86" t="s">
+        <v>108</v>
+      </c>
+      <c r="L4" s="88">
+        <v>3.5309399999999998E-2</v>
+      </c>
+      <c r="M4" s="88">
+        <v>0.17068800000000001</v>
+      </c>
+      <c r="N4" s="88">
+        <v>0.21309</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="60"/>
+      <c r="B5" s="86">
+        <v>2</v>
+      </c>
+      <c r="C5" s="86" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="86"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="I5" s="86" t="s">
+        <v>108</v>
+      </c>
+      <c r="J5" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="K5" s="87"/>
+      <c r="L5" s="88">
+        <v>8.57768E-2</v>
+      </c>
+      <c r="M5" s="88">
+        <v>6.2725100000000006E-2</v>
+      </c>
+      <c r="N5" s="88">
+        <v>4.8309499999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="60"/>
+      <c r="B6" s="86">
+        <v>3</v>
+      </c>
+      <c r="C6" s="86"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="86"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="K6" s="87"/>
+      <c r="L6" s="88">
+        <v>0.16553100000000001</v>
+      </c>
+      <c r="M6" s="88">
+        <v>2.7691400000000001E-2</v>
+      </c>
+      <c r="N6" s="88">
+        <v>3.1797300000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="60"/>
+      <c r="B7" s="86">
+        <v>4</v>
+      </c>
+      <c r="C7" s="86"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="K7" s="87"/>
+      <c r="L7" s="88">
+        <v>0.113597</v>
+      </c>
+      <c r="M7" s="88">
+        <v>0.20688300000000001</v>
+      </c>
+      <c r="N7" s="88">
+        <v>0.21010699999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="61"/>
+      <c r="B8" s="86">
+        <v>5</v>
+      </c>
+      <c r="C8" s="86"/>
+      <c r="D8" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="87"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="K8" s="87"/>
+      <c r="L8" s="88">
+        <v>1.91167E-2</v>
+      </c>
+      <c r="M8" s="88">
+        <v>5.7552800000000001E-2</v>
+      </c>
+      <c r="N8" s="88">
+        <v>0.19677700000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="86">
+        <v>1</v>
+      </c>
+      <c r="C9" s="86" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="86" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86" t="s">
+        <v>108</v>
+      </c>
+      <c r="H9" s="87"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="88">
+        <v>4.3114899999999998E-2</v>
+      </c>
+      <c r="M9" s="88">
+        <v>6.0272600000000003E-2</v>
+      </c>
+      <c r="N9" s="88">
+        <v>4.5336700000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="60"/>
+      <c r="B10" s="86">
+        <v>2</v>
+      </c>
+      <c r="C10" s="86" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="86" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="88">
+        <v>0.10954899999999999</v>
+      </c>
+      <c r="M10" s="88">
+        <v>1.7465700000000001E-2</v>
+      </c>
+      <c r="N10" s="88">
+        <v>1.7925099999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="60"/>
+      <c r="B11" s="86">
+        <v>3</v>
+      </c>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="88">
+        <v>0.122132</v>
+      </c>
+      <c r="M11" s="88">
+        <v>0.175541</v>
+      </c>
+      <c r="N11" s="88">
+        <v>4.7662099999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="60"/>
+      <c r="B12" s="86">
+        <v>4</v>
+      </c>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="87"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="86" t="s">
+        <v>108</v>
+      </c>
+      <c r="K12" s="87"/>
+      <c r="L12" s="88">
+        <v>6.7224999999999993E-2</v>
+      </c>
+      <c r="M12" s="88">
+        <v>8.6080299999999998E-2</v>
+      </c>
+      <c r="N12" s="88">
+        <v>0.119604</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="61"/>
+      <c r="B13" s="86">
+        <v>5</v>
+      </c>
+      <c r="C13" s="86"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="88">
+        <v>0.208122</v>
+      </c>
+      <c r="M13" s="88">
+        <v>0.146788</v>
+      </c>
+      <c r="N13" s="88">
+        <v>0.22092400000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="59" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="86">
+        <v>1</v>
+      </c>
+      <c r="C14" s="86"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="88"/>
+      <c r="N14" s="88"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="60"/>
+      <c r="B15" s="86">
+        <v>2</v>
+      </c>
+      <c r="C15" s="86"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="88"/>
+      <c r="M15" s="88"/>
+      <c r="N15" s="88"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="60"/>
+      <c r="B16" s="86">
+        <v>3</v>
+      </c>
+      <c r="C16" s="86"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="87"/>
+      <c r="L16" s="88"/>
+      <c r="M16" s="88"/>
+      <c r="N16" s="88"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="60"/>
+      <c r="B17" s="86">
+        <v>4</v>
+      </c>
+      <c r="C17" s="86"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="88"/>
+      <c r="M17" s="88"/>
+      <c r="N17" s="88"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="61"/>
+      <c r="B18" s="86">
+        <v>5</v>
+      </c>
+      <c r="C18" s="86"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="88"/>
+      <c r="M18" s="88"/>
+      <c r="N18" s="88"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" s="86">
+        <v>1</v>
+      </c>
+      <c r="C19" s="86"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="88"/>
+      <c r="M19" s="88"/>
+      <c r="N19" s="88"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="64"/>
+      <c r="B20" s="86">
+        <v>2</v>
+      </c>
+      <c r="C20" s="86"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="87"/>
+      <c r="L20" s="88"/>
+      <c r="M20" s="88"/>
+      <c r="N20" s="88"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="64"/>
+      <c r="B21" s="86">
+        <v>3</v>
+      </c>
+      <c r="C21" s="86"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="87"/>
+      <c r="K21" s="87"/>
+      <c r="L21" s="88"/>
+      <c r="M21" s="88"/>
+      <c r="N21" s="88"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="64"/>
+      <c r="B22" s="86">
+        <v>4</v>
+      </c>
+      <c r="C22" s="86"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="88"/>
+      <c r="M22" s="88"/>
+      <c r="N22" s="88"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="65"/>
+      <c r="B23" s="86">
+        <v>5</v>
+      </c>
+      <c r="C23" s="86"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="87"/>
+      <c r="L23" s="88"/>
+      <c r="M23" s="88"/>
+      <c r="N23" s="88"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24" s="86">
+        <v>1</v>
+      </c>
+      <c r="C24" s="86"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="87"/>
+      <c r="L24" s="88"/>
+      <c r="M24" s="88"/>
+      <c r="N24" s="88"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="64"/>
+      <c r="B25" s="86">
+        <v>2</v>
+      </c>
+      <c r="C25" s="86"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="87"/>
+      <c r="K25" s="87"/>
+      <c r="L25" s="88"/>
+      <c r="M25" s="88"/>
+      <c r="N25" s="88"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="64"/>
+      <c r="B26" s="86">
+        <v>3</v>
+      </c>
+      <c r="C26" s="86"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="87"/>
+      <c r="K26" s="87"/>
+      <c r="L26" s="88"/>
+      <c r="M26" s="88"/>
+      <c r="N26" s="88"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="64"/>
+      <c r="B27" s="86">
+        <v>4</v>
+      </c>
+      <c r="C27" s="86"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="87"/>
+      <c r="H27" s="87"/>
+      <c r="I27" s="86"/>
+      <c r="J27" s="87"/>
+      <c r="K27" s="87"/>
+      <c r="L27" s="88"/>
+      <c r="M27" s="88"/>
+      <c r="N27" s="88"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="65"/>
+      <c r="B28" s="86">
+        <v>5</v>
+      </c>
+      <c r="C28" s="86"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="87"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="87"/>
+      <c r="K28" s="87"/>
+      <c r="L28" s="88"/>
+      <c r="M28" s="88"/>
+      <c r="N28" s="88"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="59" t="s">
+        <v>140</v>
+      </c>
+      <c r="B29" s="86">
+        <v>1</v>
+      </c>
+      <c r="C29" s="86"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="87"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="87"/>
+      <c r="K29" s="87"/>
+      <c r="L29" s="88"/>
+      <c r="M29" s="88"/>
+      <c r="N29" s="88"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="60"/>
+      <c r="B30" s="86">
+        <v>2</v>
+      </c>
+      <c r="C30" s="86"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="87"/>
+      <c r="H30" s="87"/>
+      <c r="I30" s="86"/>
+      <c r="J30" s="87"/>
+      <c r="K30" s="87"/>
+      <c r="L30" s="88"/>
+      <c r="M30" s="88"/>
+      <c r="N30" s="88"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="60"/>
+      <c r="B31" s="86">
+        <v>3</v>
+      </c>
+      <c r="C31" s="86"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="87"/>
+      <c r="H31" s="87"/>
+      <c r="I31" s="86"/>
+      <c r="J31" s="87"/>
+      <c r="K31" s="87"/>
+      <c r="L31" s="88"/>
+      <c r="M31" s="88"/>
+      <c r="N31" s="88"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="60"/>
+      <c r="B32" s="86">
+        <v>4</v>
+      </c>
+      <c r="C32" s="86"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="87"/>
+      <c r="H32" s="87"/>
+      <c r="I32" s="86"/>
+      <c r="J32" s="87"/>
+      <c r="K32" s="87"/>
+      <c r="L32" s="88"/>
+      <c r="M32" s="88"/>
+      <c r="N32" s="88"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="61"/>
+      <c r="B33" s="86">
+        <v>5</v>
+      </c>
+      <c r="C33" s="86"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="87"/>
+      <c r="H33" s="87"/>
+      <c r="I33" s="86"/>
+      <c r="J33" s="87"/>
+      <c r="K33" s="87"/>
+      <c r="L33" s="88"/>
+      <c r="M33" s="88"/>
+      <c r="N33" s="88"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" s="86">
+        <v>1</v>
+      </c>
+      <c r="C34" s="86"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="86"/>
+      <c r="J34" s="87"/>
+      <c r="K34" s="87"/>
+      <c r="L34" s="88"/>
+      <c r="M34" s="88"/>
+      <c r="N34" s="88"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="60"/>
+      <c r="B35" s="86">
+        <v>2</v>
+      </c>
+      <c r="C35" s="86"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="86"/>
+      <c r="G35" s="87"/>
+      <c r="H35" s="87"/>
+      <c r="I35" s="86"/>
+      <c r="J35" s="87"/>
+      <c r="K35" s="87"/>
+      <c r="L35" s="88"/>
+      <c r="M35" s="88"/>
+      <c r="N35" s="88"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="60"/>
+      <c r="B36" s="86">
+        <v>3</v>
+      </c>
+      <c r="C36" s="86"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="86"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="86"/>
+      <c r="J36" s="87"/>
+      <c r="K36" s="87"/>
+      <c r="L36" s="88"/>
+      <c r="M36" s="88"/>
+      <c r="N36" s="88"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="60"/>
+      <c r="B37" s="86">
+        <v>4</v>
+      </c>
+      <c r="C37" s="86"/>
+      <c r="D37" s="87"/>
+      <c r="E37" s="87"/>
+      <c r="F37" s="86"/>
+      <c r="G37" s="87"/>
+      <c r="H37" s="87"/>
+      <c r="I37" s="86"/>
+      <c r="J37" s="87"/>
+      <c r="K37" s="87"/>
+      <c r="L37" s="88"/>
+      <c r="M37" s="88"/>
+      <c r="N37" s="88"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="61"/>
+      <c r="B38" s="86">
+        <v>5</v>
+      </c>
+      <c r="C38" s="86"/>
+      <c r="D38" s="87"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="87"/>
+      <c r="H38" s="87"/>
+      <c r="I38" s="86"/>
+      <c r="J38" s="87"/>
+      <c r="K38" s="87"/>
+      <c r="L38" s="88"/>
+      <c r="M38" s="88"/>
+      <c r="N38" s="88"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="B39" s="86">
+        <v>1</v>
+      </c>
+      <c r="C39" s="86"/>
+      <c r="D39" s="87"/>
+      <c r="E39" s="87"/>
+      <c r="F39" s="86"/>
+      <c r="G39" s="87"/>
+      <c r="H39" s="87"/>
+      <c r="I39" s="86"/>
+      <c r="J39" s="87"/>
+      <c r="K39" s="87"/>
+      <c r="L39" s="88"/>
+      <c r="M39" s="88"/>
+      <c r="N39" s="88"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="60"/>
+      <c r="B40" s="86">
+        <v>2</v>
+      </c>
+      <c r="C40" s="86"/>
+      <c r="D40" s="87"/>
+      <c r="E40" s="87"/>
+      <c r="F40" s="86"/>
+      <c r="G40" s="87"/>
+      <c r="H40" s="87"/>
+      <c r="I40" s="86"/>
+      <c r="J40" s="87"/>
+      <c r="K40" s="87"/>
+      <c r="L40" s="88"/>
+      <c r="M40" s="88"/>
+      <c r="N40" s="88"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="60"/>
+      <c r="B41" s="86">
+        <v>3</v>
+      </c>
+      <c r="C41" s="86"/>
+      <c r="D41" s="87"/>
+      <c r="E41" s="87"/>
+      <c r="F41" s="86"/>
+      <c r="G41" s="87"/>
+      <c r="H41" s="87"/>
+      <c r="I41" s="86"/>
+      <c r="J41" s="87"/>
+      <c r="K41" s="87"/>
+      <c r="L41" s="88"/>
+      <c r="M41" s="88"/>
+      <c r="N41" s="88"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="60"/>
+      <c r="B42" s="86">
+        <v>4</v>
+      </c>
+      <c r="C42" s="86"/>
+      <c r="D42" s="87"/>
+      <c r="E42" s="87"/>
+      <c r="F42" s="86"/>
+      <c r="G42" s="87"/>
+      <c r="H42" s="87"/>
+      <c r="I42" s="86"/>
+      <c r="J42" s="87"/>
+      <c r="K42" s="87"/>
+      <c r="L42" s="88"/>
+      <c r="M42" s="88"/>
+      <c r="N42" s="88"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="61"/>
+      <c r="B43" s="86">
+        <v>5</v>
+      </c>
+      <c r="C43" s="86"/>
+      <c r="D43" s="87"/>
+      <c r="E43" s="87"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="87"/>
+      <c r="H43" s="87"/>
+      <c r="I43" s="86"/>
+      <c r="J43" s="87"/>
+      <c r="K43" s="87"/>
+      <c r="L43" s="88"/>
+      <c r="M43" s="88"/>
+      <c r="N43" s="88"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="62" t="s">
+        <v>142</v>
+      </c>
+      <c r="B44" s="86">
+        <v>1</v>
+      </c>
+      <c r="C44" s="86"/>
+      <c r="D44" s="87"/>
+      <c r="E44" s="87"/>
+      <c r="F44" s="86"/>
+      <c r="G44" s="87"/>
+      <c r="H44" s="87"/>
+      <c r="I44" s="86"/>
+      <c r="J44" s="87"/>
+      <c r="K44" s="87"/>
+      <c r="L44" s="88"/>
+      <c r="M44" s="88"/>
+      <c r="N44" s="88"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="62"/>
+      <c r="B45" s="86">
+        <v>2</v>
+      </c>
+      <c r="C45" s="86"/>
+      <c r="D45" s="87"/>
+      <c r="E45" s="87"/>
+      <c r="F45" s="86"/>
+      <c r="G45" s="87"/>
+      <c r="H45" s="87"/>
+      <c r="I45" s="86"/>
+      <c r="J45" s="87"/>
+      <c r="K45" s="87"/>
+      <c r="L45" s="88"/>
+      <c r="M45" s="88"/>
+      <c r="N45" s="88"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="62"/>
+      <c r="B46" s="86">
+        <v>3</v>
+      </c>
+      <c r="C46" s="86"/>
+      <c r="D46" s="87"/>
+      <c r="E46" s="87"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="87"/>
+      <c r="H46" s="87"/>
+      <c r="I46" s="86"/>
+      <c r="J46" s="87"/>
+      <c r="K46" s="87"/>
+      <c r="L46" s="88"/>
+      <c r="M46" s="88"/>
+      <c r="N46" s="88"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="62"/>
+      <c r="B47" s="86">
+        <v>4</v>
+      </c>
+      <c r="C47" s="86"/>
+      <c r="D47" s="87"/>
+      <c r="E47" s="87"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="87"/>
+      <c r="H47" s="87"/>
+      <c r="I47" s="86"/>
+      <c r="J47" s="87"/>
+      <c r="K47" s="87"/>
+      <c r="L47" s="88"/>
+      <c r="M47" s="88"/>
+      <c r="N47" s="88"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="62"/>
+      <c r="B48" s="86">
+        <v>5</v>
+      </c>
+      <c r="C48" s="86"/>
+      <c r="D48" s="87"/>
+      <c r="E48" s="87"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="87"/>
+      <c r="H48" s="87"/>
+      <c r="I48" s="86"/>
+      <c r="J48" s="87"/>
+      <c r="K48" s="87"/>
+      <c r="L48" s="88"/>
+      <c r="M48" s="88"/>
+      <c r="N48" s="88"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="85"/>
+      <c r="B49" s="85"/>
+      <c r="C49" s="85"/>
+      <c r="D49" s="85"/>
+      <c r="E49" s="85"/>
+      <c r="F49" s="85"/>
+      <c r="G49" s="85"/>
+      <c r="H49" s="85"/>
+      <c r="I49" s="85"/>
+      <c r="J49" s="85"/>
+      <c r="K49" s="85"/>
+      <c r="L49" s="85"/>
+      <c r="M49" s="85"/>
+      <c r="N49" s="85"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="85"/>
+      <c r="B50" s="85"/>
+      <c r="C50" s="85"/>
+      <c r="D50" s="85"/>
+      <c r="E50" s="85"/>
+      <c r="F50" s="85"/>
+      <c r="G50" s="85"/>
+      <c r="H50" s="85"/>
+      <c r="I50" s="85"/>
+      <c r="J50" s="85"/>
+      <c r="K50" s="85"/>
+      <c r="L50" s="85"/>
+      <c r="M50" s="85"/>
+      <c r="N50" s="85"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5205,7 +6320,7 @@
       <c r="A2" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="56">
+      <c r="B2" s="58">
         <v>43548</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -5289,7 +6404,7 @@
       <c r="A3" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="58"/>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
@@ -5371,7 +6486,7 @@
       <c r="A4" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B4" s="56"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
@@ -5453,7 +6568,7 @@
       <c r="A5" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B5" s="56"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
@@ -5535,7 +6650,7 @@
       <c r="A6" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B6" s="56"/>
+      <c r="B6" s="58"/>
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
@@ -5617,7 +6732,7 @@
       <c r="A7" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B7" s="56"/>
+      <c r="B7" s="58"/>
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
@@ -5699,7 +6814,7 @@
       <c r="A8" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B8" s="56"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
@@ -5778,7 +6893,7 @@
       <c r="A9" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B9" s="56"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="44">
         <v>0.25</v>
       </c>
@@ -6271,8 +7386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:AC39"/>
+    <sheetView topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1:AR39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6311,138 +7426,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="66" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="66"/>
-      <c r="P1" s="64" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="68"/>
+      <c r="P1" s="66" t="s">
         <v>177</v>
       </c>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="66"/>
-      <c r="AE1" s="64" t="s">
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="68"/>
+      <c r="AE1" s="66" t="s">
         <v>180</v>
       </c>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="65"/>
-      <c r="AK1" s="65"/>
-      <c r="AL1" s="65"/>
-      <c r="AM1" s="65"/>
-      <c r="AN1" s="65"/>
-      <c r="AO1" s="65"/>
-      <c r="AP1" s="65"/>
-      <c r="AQ1" s="65"/>
-      <c r="AR1" s="66"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="67"/>
+      <c r="AH1" s="67"/>
+      <c r="AI1" s="67"/>
+      <c r="AJ1" s="67"/>
+      <c r="AK1" s="67"/>
+      <c r="AL1" s="67"/>
+      <c r="AM1" s="67"/>
+      <c r="AN1" s="67"/>
+      <c r="AO1" s="67"/>
+      <c r="AP1" s="67"/>
+      <c r="AQ1" s="67"/>
+      <c r="AR1" s="68"/>
     </row>
     <row r="2" spans="1:44" s="31" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="64" t="s">
+      <c r="D2" s="67"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="G2" s="65"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="64" t="s">
+      <c r="G2" s="67"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="66" t="s">
         <v>129</v>
       </c>
-      <c r="J2" s="65"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="69" t="s">
+      <c r="J2" s="67"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="M2" s="70"/>
-      <c r="N2" s="71"/>
-      <c r="P2" s="67" t="s">
+      <c r="M2" s="72"/>
+      <c r="N2" s="73"/>
+      <c r="P2" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="Q2" s="67" t="s">
+      <c r="Q2" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="R2" s="64" t="s">
+      <c r="R2" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="S2" s="65"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="64" t="s">
+      <c r="S2" s="67"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="V2" s="65"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="64" t="s">
+      <c r="V2" s="67"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="66" t="s">
         <v>129</v>
       </c>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="69" t="s">
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="AB2" s="70"/>
-      <c r="AC2" s="71"/>
-      <c r="AE2" s="67" t="s">
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="73"/>
+      <c r="AE2" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="AF2" s="67" t="s">
+      <c r="AF2" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="AG2" s="64" t="s">
+      <c r="AG2" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="AH2" s="65"/>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="64" t="s">
+      <c r="AH2" s="67"/>
+      <c r="AI2" s="68"/>
+      <c r="AJ2" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="AK2" s="65"/>
-      <c r="AL2" s="66"/>
-      <c r="AM2" s="64" t="s">
+      <c r="AK2" s="67"/>
+      <c r="AL2" s="68"/>
+      <c r="AM2" s="66" t="s">
         <v>129</v>
       </c>
-      <c r="AN2" s="65"/>
-      <c r="AO2" s="66"/>
-      <c r="AP2" s="69" t="s">
+      <c r="AN2" s="67"/>
+      <c r="AO2" s="68"/>
+      <c r="AP2" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="AQ2" s="70"/>
-      <c r="AR2" s="71"/>
+      <c r="AQ2" s="72"/>
+      <c r="AR2" s="73"/>
     </row>
     <row r="3" spans="1:44" s="31" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="70"/>
       <c r="C3" s="36" t="s">
         <v>125</v>
       </c>
@@ -6479,8 +7594,8 @@
       <c r="N3" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
       <c r="R3" s="36" t="s">
         <v>125</v>
       </c>
@@ -6517,8 +7632,8 @@
       <c r="AC3" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="AE3" s="68"/>
-      <c r="AF3" s="68"/>
+      <c r="AE3" s="70"/>
+      <c r="AF3" s="70"/>
       <c r="AG3" s="36" t="s">
         <v>125</v>
       </c>
@@ -6557,7 +7672,7 @@
       </c>
     </row>
     <row r="4" spans="1:44" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="59" t="s">
         <v>136</v>
       </c>
       <c r="B4" s="38" t="s">
@@ -6596,7 +7711,7 @@
       <c r="O4" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="P4" s="57" t="s">
+      <c r="P4" s="59" t="s">
         <v>136</v>
       </c>
       <c r="Q4" s="38" t="s">
@@ -6632,27 +7747,45 @@
       <c r="AC4" s="40">
         <v>0.80864800000000003</v>
       </c>
-      <c r="AE4" s="57" t="s">
+      <c r="AE4" s="59" t="s">
         <v>136</v>
       </c>
       <c r="AF4" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="39"/>
-      <c r="AI4" s="38"/>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="39"/>
-      <c r="AL4" s="38"/>
+      <c r="AG4" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH4" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI4" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ4" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK4" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL4" s="38" t="s">
+        <v>108</v>
+      </c>
       <c r="AM4" s="38"/>
       <c r="AN4" s="39"/>
       <c r="AO4" s="38"/>
-      <c r="AP4" s="40"/>
-      <c r="AQ4" s="40"/>
-      <c r="AR4" s="40"/>
+      <c r="AP4" s="40">
+        <v>0.72185900000000003</v>
+      </c>
+      <c r="AQ4" s="40">
+        <v>0.14366699999999999</v>
+      </c>
+      <c r="AR4" s="40">
+        <v>6.3313099999999997E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:44" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="38" t="s">
         <v>133</v>
       </c>
@@ -6674,13 +7807,13 @@
       <c r="H5" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="I5" s="83" t="s">
-        <v>108</v>
-      </c>
-      <c r="J5" s="84" t="s">
-        <v>108</v>
-      </c>
-      <c r="K5" s="84" t="s">
+      <c r="I5" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="J5" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="K5" s="57" t="s">
         <v>108</v>
       </c>
       <c r="L5" s="40">
@@ -6692,7 +7825,7 @@
       <c r="N5" s="40">
         <v>0.53922099999999995</v>
       </c>
-      <c r="P5" s="58"/>
+      <c r="P5" s="60"/>
       <c r="Q5" s="38" t="s">
         <v>133</v>
       </c>
@@ -6714,13 +7847,13 @@
       <c r="W5" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="X5" s="83" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y5" s="84" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z5" s="84" t="s">
+      <c r="X5" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y5" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z5" s="57" t="s">
         <v>108</v>
       </c>
       <c r="AA5" s="40">
@@ -6732,25 +7865,49 @@
       <c r="AC5" s="40">
         <v>0.74212500000000003</v>
       </c>
-      <c r="AE5" s="58"/>
+      <c r="AE5" s="60"/>
       <c r="AF5" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="AG5" s="38"/>
-      <c r="AH5" s="39"/>
-      <c r="AI5" s="39"/>
-      <c r="AJ5" s="38"/>
-      <c r="AK5" s="39"/>
-      <c r="AL5" s="39"/>
-      <c r="AM5" s="38"/>
-      <c r="AN5" s="39"/>
-      <c r="AO5" s="39"/>
-      <c r="AP5" s="40"/>
-      <c r="AQ5" s="40"/>
-      <c r="AR5" s="40"/>
+      <c r="AG5" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH5" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI5" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ5" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK5" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL5" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM5" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN5" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO5" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP5" s="40">
+        <v>7.6537400000000005E-2</v>
+      </c>
+      <c r="AQ5" s="40">
+        <v>2.2092799999999999E-2</v>
+      </c>
+      <c r="AR5" s="40">
+        <v>0.48709999999999998</v>
+      </c>
     </row>
     <row r="6" spans="1:44" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="58"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="38" t="s">
         <v>134</v>
       </c>
@@ -6786,7 +7943,7 @@
       <c r="N6" s="40">
         <v>4.9845799999999997E-3</v>
       </c>
-      <c r="P6" s="58"/>
+      <c r="P6" s="60"/>
       <c r="Q6" s="38" t="s">
         <v>134</v>
       </c>
@@ -6820,25 +7977,47 @@
       <c r="AC6" s="40">
         <v>0.32851900000000001</v>
       </c>
-      <c r="AE6" s="58"/>
+      <c r="AE6" s="60"/>
       <c r="AF6" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="AG6" s="38"/>
-      <c r="AH6" s="39"/>
-      <c r="AI6" s="39"/>
-      <c r="AJ6" s="38"/>
-      <c r="AK6" s="39"/>
-      <c r="AL6" s="39"/>
+      <c r="AG6" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH6" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI6" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ6" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK6" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL6" s="39" t="s">
+        <v>108</v>
+      </c>
       <c r="AM6" s="38"/>
-      <c r="AN6" s="39"/>
-      <c r="AO6" s="39"/>
-      <c r="AP6" s="40"/>
-      <c r="AQ6" s="40"/>
-      <c r="AR6" s="40"/>
+      <c r="AN6" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO6" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP6" s="40">
+        <v>3.8796799999999999E-2</v>
+      </c>
+      <c r="AQ6" s="40">
+        <v>2.2092799999999999E-2</v>
+      </c>
+      <c r="AR6" s="40">
+        <v>2.13978E-3</v>
+      </c>
     </row>
     <row r="7" spans="1:44" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="59"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="41" t="s">
         <v>135</v>
       </c>
@@ -6860,7 +8039,7 @@
       <c r="N7" s="42">
         <v>6.9331199999999996E-4</v>
       </c>
-      <c r="P7" s="59"/>
+      <c r="P7" s="61"/>
       <c r="Q7" s="41" t="s">
         <v>135</v>
       </c>
@@ -6882,25 +8061,31 @@
       <c r="AC7" s="42">
         <v>5.0963000000000001E-2</v>
       </c>
-      <c r="AE7" s="59"/>
-      <c r="AF7" s="41" t="s">
+      <c r="AE7" s="61"/>
+      <c r="AF7" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="AG7" s="41"/>
-      <c r="AH7" s="41"/>
-      <c r="AI7" s="41"/>
-      <c r="AJ7" s="41"/>
-      <c r="AK7" s="41"/>
-      <c r="AL7" s="41"/>
-      <c r="AM7" s="41"/>
-      <c r="AN7" s="41"/>
-      <c r="AO7" s="41"/>
-      <c r="AP7" s="42"/>
-      <c r="AQ7" s="42"/>
-      <c r="AR7" s="42"/>
+      <c r="AG7" s="38"/>
+      <c r="AH7" s="39"/>
+      <c r="AI7" s="39"/>
+      <c r="AJ7" s="38"/>
+      <c r="AK7" s="39"/>
+      <c r="AL7" s="39"/>
+      <c r="AM7" s="38"/>
+      <c r="AN7" s="39"/>
+      <c r="AO7" s="39"/>
+      <c r="AP7" s="40">
+        <v>4.0784200000000001E-3</v>
+      </c>
+      <c r="AQ7" s="40">
+        <v>2.7042799999999999E-3</v>
+      </c>
+      <c r="AR7" s="40">
+        <v>5.1244800000000001E-5</v>
+      </c>
     </row>
     <row r="8" spans="1:44" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="59" t="s">
         <v>137</v>
       </c>
       <c r="B8" s="38" t="s">
@@ -6936,7 +8121,7 @@
       <c r="N8" s="40">
         <v>0.34474100000000002</v>
       </c>
-      <c r="P8" s="57" t="s">
+      <c r="P8" s="59" t="s">
         <v>137</v>
       </c>
       <c r="Q8" s="38" t="s">
@@ -6972,27 +8157,45 @@
       <c r="AC8" s="40">
         <v>0.83276700000000003</v>
       </c>
-      <c r="AE8" s="57" t="s">
+      <c r="AE8" s="59" t="s">
         <v>137</v>
       </c>
       <c r="AF8" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="AG8" s="38"/>
-      <c r="AH8" s="38"/>
-      <c r="AI8" s="39"/>
-      <c r="AJ8" s="38"/>
-      <c r="AK8" s="38"/>
-      <c r="AL8" s="39"/>
+      <c r="AG8" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH8" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI8" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ8" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK8" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL8" s="39" t="s">
+        <v>108</v>
+      </c>
       <c r="AM8" s="38"/>
       <c r="AN8" s="38"/>
       <c r="AO8" s="38"/>
-      <c r="AP8" s="40"/>
-      <c r="AQ8" s="40"/>
-      <c r="AR8" s="40"/>
+      <c r="AP8" s="40">
+        <v>0.86891399999999996</v>
+      </c>
+      <c r="AQ8" s="40">
+        <v>0.62708399999999997</v>
+      </c>
+      <c r="AR8" s="40">
+        <v>0.35993000000000003</v>
+      </c>
     </row>
     <row r="9" spans="1:44" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="58"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="38" t="s">
         <v>133</v>
       </c>
@@ -7014,13 +8217,13 @@
       <c r="H9" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="I9" s="83" t="s">
-        <v>108</v>
-      </c>
-      <c r="J9" s="84" t="s">
-        <v>108</v>
-      </c>
-      <c r="K9" s="84" t="s">
+      <c r="I9" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="J9" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" s="57" t="s">
         <v>108</v>
       </c>
       <c r="L9" s="40">
@@ -7032,7 +8235,7 @@
       <c r="N9" s="40">
         <v>0.93847400000000003</v>
       </c>
-      <c r="P9" s="58"/>
+      <c r="P9" s="60"/>
       <c r="Q9" s="38" t="s">
         <v>133</v>
       </c>
@@ -7054,13 +8257,13 @@
       <c r="W9" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="X9" s="83" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y9" s="84" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z9" s="84" t="s">
+      <c r="X9" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y9" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z9" s="57" t="s">
         <v>108</v>
       </c>
       <c r="AA9" s="40">
@@ -7072,25 +8275,49 @@
       <c r="AC9" s="40">
         <v>0.36027500000000001</v>
       </c>
-      <c r="AE9" s="58"/>
+      <c r="AE9" s="60"/>
       <c r="AF9" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="AG9" s="38"/>
-      <c r="AH9" s="38"/>
-      <c r="AI9" s="39"/>
-      <c r="AJ9" s="38"/>
-      <c r="AK9" s="38"/>
-      <c r="AL9" s="39"/>
-      <c r="AM9" s="38"/>
-      <c r="AN9" s="38"/>
-      <c r="AO9" s="39"/>
-      <c r="AP9" s="40"/>
-      <c r="AQ9" s="40"/>
-      <c r="AR9" s="40"/>
+      <c r="AG9" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH9" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI9" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ9" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK9" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL9" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM9" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN9" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO9" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP9" s="40">
+        <v>0.05</v>
+      </c>
+      <c r="AQ9" s="40">
+        <v>0.05</v>
+      </c>
+      <c r="AR9" s="40">
+        <v>0.63156500000000004</v>
+      </c>
     </row>
     <row r="10" spans="1:44" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="58"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="38" t="s">
         <v>134</v>
       </c>
@@ -7126,7 +8353,7 @@
       <c r="N10" s="40">
         <v>1.1750500000000001E-2</v>
       </c>
-      <c r="P10" s="58"/>
+      <c r="P10" s="60"/>
       <c r="Q10" s="38" t="s">
         <v>134</v>
       </c>
@@ -7160,25 +8387,49 @@
       <c r="AC10" s="40">
         <v>0.42157099999999997</v>
       </c>
-      <c r="AE10" s="58"/>
+      <c r="AE10" s="60"/>
       <c r="AF10" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="AG10" s="38"/>
-      <c r="AH10" s="38"/>
-      <c r="AI10" s="39"/>
-      <c r="AJ10" s="38"/>
-      <c r="AK10" s="38"/>
-      <c r="AL10" s="39"/>
-      <c r="AM10" s="38"/>
-      <c r="AN10" s="38"/>
-      <c r="AO10" s="39"/>
-      <c r="AP10" s="40"/>
-      <c r="AQ10" s="40"/>
-      <c r="AR10" s="40"/>
+      <c r="AG10" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH10" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI10" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ10" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK10" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL10" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM10" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN10" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO10" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP10" s="40">
+        <v>1.8550500000000001E-2</v>
+      </c>
+      <c r="AQ10" s="40">
+        <v>2.2803400000000001E-2</v>
+      </c>
+      <c r="AR10" s="40">
+        <v>5.0504499999999997E-3</v>
+      </c>
     </row>
     <row r="11" spans="1:44" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="59"/>
+      <c r="A11" s="61"/>
       <c r="B11" s="41" t="s">
         <v>135</v>
       </c>
@@ -7200,7 +8451,7 @@
       <c r="N11" s="42">
         <v>4.1270400000000002E-3</v>
       </c>
-      <c r="P11" s="59"/>
+      <c r="P11" s="61"/>
       <c r="Q11" s="41" t="s">
         <v>135</v>
       </c>
@@ -7228,25 +8479,35 @@
       <c r="AC11" s="42">
         <v>8.3578299999999994E-2</v>
       </c>
-      <c r="AE11" s="59"/>
-      <c r="AF11" s="41" t="s">
+      <c r="AE11" s="61"/>
+      <c r="AF11" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="AG11" s="41"/>
-      <c r="AH11" s="41"/>
-      <c r="AI11" s="41"/>
-      <c r="AJ11" s="41"/>
-      <c r="AK11" s="41"/>
-      <c r="AL11" s="41"/>
-      <c r="AM11" s="41"/>
-      <c r="AN11" s="41"/>
-      <c r="AO11" s="41"/>
-      <c r="AP11" s="42"/>
-      <c r="AQ11" s="42"/>
-      <c r="AR11" s="42"/>
+      <c r="AG11" s="38"/>
+      <c r="AH11" s="39"/>
+      <c r="AI11" s="39"/>
+      <c r="AJ11" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK11" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL11" s="39"/>
+      <c r="AM11" s="38"/>
+      <c r="AN11" s="39"/>
+      <c r="AO11" s="39"/>
+      <c r="AP11" s="40">
+        <v>1.5259699999999999E-2</v>
+      </c>
+      <c r="AQ11" s="40">
+        <v>9.72809E-3</v>
+      </c>
+      <c r="AR11" s="40">
+        <v>2.9956699999999999E-4</v>
+      </c>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="59" t="s">
         <v>110</v>
       </c>
       <c r="B12" s="38" t="s">
@@ -7282,7 +8543,7 @@
       <c r="N12" s="40">
         <v>0.61764799999999997</v>
       </c>
-      <c r="P12" s="57" t="s">
+      <c r="P12" s="59" t="s">
         <v>110</v>
       </c>
       <c r="Q12" s="38" t="s">
@@ -7318,27 +8579,45 @@
       <c r="AC12" s="40">
         <v>0.72725300000000004</v>
       </c>
-      <c r="AE12" s="57" t="s">
+      <c r="AE12" s="59" t="s">
         <v>110</v>
       </c>
       <c r="AF12" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="AG12" s="38"/>
-      <c r="AH12" s="39"/>
-      <c r="AI12" s="38"/>
-      <c r="AJ12" s="38"/>
-      <c r="AK12" s="39"/>
-      <c r="AL12" s="38"/>
+      <c r="AG12" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH12" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI12" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ12" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK12" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL12" s="38" t="s">
+        <v>108</v>
+      </c>
       <c r="AM12" s="38"/>
       <c r="AN12" s="39"/>
       <c r="AO12" s="38"/>
-      <c r="AP12" s="40"/>
-      <c r="AQ12" s="40"/>
-      <c r="AR12" s="40"/>
+      <c r="AP12" s="40">
+        <v>0.155637</v>
+      </c>
+      <c r="AQ12" s="40">
+        <v>0.183336</v>
+      </c>
+      <c r="AR12" s="40">
+        <v>0.29955799999999999</v>
+      </c>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A13" s="58"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="38" t="s">
         <v>133</v>
       </c>
@@ -7372,7 +8651,7 @@
       <c r="N13" s="40">
         <v>0.18202299999999999</v>
       </c>
-      <c r="P13" s="58"/>
+      <c r="P13" s="60"/>
       <c r="Q13" s="38" t="s">
         <v>133</v>
       </c>
@@ -7406,25 +8685,43 @@
       <c r="AC13" s="40">
         <v>0.50264500000000001</v>
       </c>
-      <c r="AE13" s="58"/>
+      <c r="AE13" s="60"/>
       <c r="AF13" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="AG13" s="38"/>
-      <c r="AH13" s="39"/>
-      <c r="AI13" s="39"/>
-      <c r="AJ13" s="38"/>
-      <c r="AK13" s="39"/>
-      <c r="AL13" s="39"/>
+      <c r="AG13" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH13" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI13" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ13" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK13" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL13" s="39" t="s">
+        <v>108</v>
+      </c>
       <c r="AM13" s="38"/>
       <c r="AN13" s="39"/>
       <c r="AO13" s="39"/>
-      <c r="AP13" s="40"/>
-      <c r="AQ13" s="40"/>
-      <c r="AR13" s="40"/>
+      <c r="AP13" s="40">
+        <v>1.28065E-2</v>
+      </c>
+      <c r="AQ13" s="40">
+        <v>1.8652100000000001E-2</v>
+      </c>
+      <c r="AR13" s="40">
+        <v>4.23083E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A14" s="58"/>
+      <c r="A14" s="60"/>
       <c r="B14" s="38" t="s">
         <v>134</v>
       </c>
@@ -7458,7 +8755,7 @@
       <c r="N14" s="40">
         <v>5.4985399999999997E-2</v>
       </c>
-      <c r="P14" s="58"/>
+      <c r="P14" s="60"/>
       <c r="Q14" s="38" t="s">
         <v>134</v>
       </c>
@@ -7492,25 +8789,43 @@
       <c r="AC14" s="40">
         <v>0.35624899999999998</v>
       </c>
-      <c r="AE14" s="58"/>
+      <c r="AE14" s="60"/>
       <c r="AF14" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="AG14" s="38"/>
-      <c r="AH14" s="39"/>
-      <c r="AI14" s="39"/>
-      <c r="AJ14" s="38"/>
-      <c r="AK14" s="39"/>
-      <c r="AL14" s="39"/>
+      <c r="AG14" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH14" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI14" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ14" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK14" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL14" s="39" t="s">
+        <v>108</v>
+      </c>
       <c r="AM14" s="38"/>
       <c r="AN14" s="39"/>
       <c r="AO14" s="39"/>
-      <c r="AP14" s="40"/>
-      <c r="AQ14" s="40"/>
-      <c r="AR14" s="40"/>
+      <c r="AP14" s="40">
+        <v>0.22331999999999999</v>
+      </c>
+      <c r="AQ14" s="40">
+        <v>2.27297E-3</v>
+      </c>
+      <c r="AR14" s="40">
+        <v>1.6263400000000001E-2</v>
+      </c>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A15" s="59"/>
+      <c r="A15" s="61"/>
       <c r="B15" s="41" t="s">
         <v>135</v>
       </c>
@@ -7532,7 +8847,7 @@
       <c r="N15" s="42">
         <v>0</v>
       </c>
-      <c r="P15" s="59"/>
+      <c r="P15" s="61"/>
       <c r="Q15" s="41" t="s">
         <v>135</v>
       </c>
@@ -7560,25 +8875,33 @@
       <c r="AC15" s="42">
         <v>0.228573</v>
       </c>
-      <c r="AE15" s="59"/>
-      <c r="AF15" s="41" t="s">
+      <c r="AE15" s="61"/>
+      <c r="AF15" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="AG15" s="41"/>
-      <c r="AH15" s="41"/>
-      <c r="AI15" s="41"/>
-      <c r="AJ15" s="41"/>
-      <c r="AK15" s="41"/>
-      <c r="AL15" s="41"/>
-      <c r="AM15" s="41"/>
-      <c r="AN15" s="41"/>
-      <c r="AO15" s="41"/>
-      <c r="AP15" s="42"/>
-      <c r="AQ15" s="42"/>
-      <c r="AR15" s="42"/>
+      <c r="AG15" s="38"/>
+      <c r="AH15" s="39"/>
+      <c r="AI15" s="39"/>
+      <c r="AJ15" s="38"/>
+      <c r="AK15" s="39"/>
+      <c r="AL15" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM15" s="38"/>
+      <c r="AN15" s="39"/>
+      <c r="AO15" s="39"/>
+      <c r="AP15" s="40">
+        <v>0.244815</v>
+      </c>
+      <c r="AQ15" s="40">
+        <v>3.7187800000000003E-5</v>
+      </c>
+      <c r="AR15" s="40">
+        <v>1.84249E-3</v>
+      </c>
     </row>
     <row r="16" spans="1:44" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="63" t="s">
         <v>138</v>
       </c>
       <c r="B16" s="39" t="s">
@@ -7602,7 +8925,7 @@
       <c r="H16" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="I16" s="83" t="s">
+      <c r="I16" s="56" t="s">
         <v>108</v>
       </c>
       <c r="J16" s="39"/>
@@ -7616,7 +8939,7 @@
       <c r="N16" s="40">
         <v>0.29320299999999999</v>
       </c>
-      <c r="P16" s="61" t="s">
+      <c r="P16" s="63" t="s">
         <v>138</v>
       </c>
       <c r="Q16" s="39" t="s">
@@ -7640,7 +8963,7 @@
       <c r="W16" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="X16" s="83" t="s">
+      <c r="X16" s="56" t="s">
         <v>108</v>
       </c>
       <c r="Y16" s="39" t="s">
@@ -7656,7 +8979,7 @@
       <c r="AC16" s="40">
         <v>0.81892100000000001</v>
       </c>
-      <c r="AE16" s="61" t="s">
+      <c r="AE16" s="63" t="s">
         <v>138</v>
       </c>
       <c r="AF16" s="39" t="s">
@@ -7680,10 +9003,10 @@
       <c r="AL16" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="AM16" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="AN16" s="39" t="s">
+      <c r="AM16" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN16" s="57" t="s">
         <v>108</v>
       </c>
       <c r="AO16" s="39" t="s">
@@ -7700,7 +9023,7 @@
       </c>
     </row>
     <row r="17" spans="1:44" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="62"/>
+      <c r="A17" s="64"/>
       <c r="B17" s="39" t="s">
         <v>133</v>
       </c>
@@ -7734,7 +9057,7 @@
       <c r="N17" s="40">
         <v>0.174321</v>
       </c>
-      <c r="P17" s="62"/>
+      <c r="P17" s="64"/>
       <c r="Q17" s="39" t="s">
         <v>133</v>
       </c>
@@ -7768,7 +9091,7 @@
       <c r="AC17" s="40">
         <v>0.46240999999999999</v>
       </c>
-      <c r="AE17" s="62"/>
+      <c r="AE17" s="64"/>
       <c r="AF17" s="39" t="s">
         <v>133</v>
       </c>
@@ -7791,10 +9114,10 @@
         <v>108</v>
       </c>
       <c r="AM17" s="38"/>
-      <c r="AN17" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="AO17" s="39" t="s">
+      <c r="AN17" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO17" s="57" t="s">
         <v>108</v>
       </c>
       <c r="AP17" s="40">
@@ -7808,7 +9131,7 @@
       </c>
     </row>
     <row r="18" spans="1:44" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="62"/>
+      <c r="A18" s="64"/>
       <c r="B18" s="38" t="s">
         <v>134</v>
       </c>
@@ -7846,7 +9169,7 @@
       <c r="N18" s="40">
         <v>1.3136500000000001E-2</v>
       </c>
-      <c r="P18" s="62"/>
+      <c r="P18" s="64"/>
       <c r="Q18" s="38" t="s">
         <v>134</v>
       </c>
@@ -7880,7 +9203,7 @@
       <c r="AC18" s="40">
         <v>0.97048199999999996</v>
       </c>
-      <c r="AE18" s="62"/>
+      <c r="AE18" s="64"/>
       <c r="AF18" s="38" t="s">
         <v>134</v>
       </c>
@@ -7902,13 +9225,13 @@
       <c r="AL18" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="AM18" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="AN18" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="AO18" s="39" t="s">
+      <c r="AM18" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN18" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO18" s="57" t="s">
         <v>108</v>
       </c>
       <c r="AP18" s="40">
@@ -7922,7 +9245,7 @@
       </c>
     </row>
     <row r="19" spans="1:44" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="63"/>
+      <c r="A19" s="65"/>
       <c r="B19" s="41" t="s">
         <v>135</v>
       </c>
@@ -7944,7 +9267,7 @@
       <c r="N19" s="42">
         <v>3.6087900000000002E-3</v>
       </c>
-      <c r="P19" s="63"/>
+      <c r="P19" s="65"/>
       <c r="Q19" s="41" t="s">
         <v>135</v>
       </c>
@@ -7974,35 +9297,35 @@
       <c r="AC19" s="42">
         <v>0.75703299999999996</v>
       </c>
-      <c r="AE19" s="63"/>
-      <c r="AF19" s="41" t="s">
+      <c r="AE19" s="65"/>
+      <c r="AF19" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="AG19" s="41"/>
-      <c r="AH19" s="41"/>
-      <c r="AI19" s="41"/>
-      <c r="AJ19" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK19" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="AL19" s="41"/>
-      <c r="AM19" s="41"/>
-      <c r="AN19" s="41"/>
-      <c r="AO19" s="41"/>
-      <c r="AP19" s="42">
+      <c r="AG19" s="38"/>
+      <c r="AH19" s="39"/>
+      <c r="AI19" s="39"/>
+      <c r="AJ19" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK19" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL19" s="39"/>
+      <c r="AM19" s="38"/>
+      <c r="AN19" s="39"/>
+      <c r="AO19" s="39"/>
+      <c r="AP19" s="40">
         <v>2.3891699999999998E-2</v>
       </c>
-      <c r="AQ19" s="42">
+      <c r="AQ19" s="40">
         <v>0.26253700000000002</v>
       </c>
-      <c r="AR19" s="42">
+      <c r="AR19" s="40">
         <v>1.8078400000000001E-2</v>
       </c>
     </row>
     <row r="20" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="63" t="s">
         <v>139</v>
       </c>
       <c r="B20" s="38" t="s">
@@ -8038,7 +9361,7 @@
       <c r="N20" s="40">
         <v>5.4854E-2</v>
       </c>
-      <c r="P20" s="61" t="s">
+      <c r="P20" s="63" t="s">
         <v>139</v>
       </c>
       <c r="Q20" s="38" t="s">
@@ -8074,7 +9397,7 @@
       <c r="AC20" s="40">
         <v>0.97633400000000004</v>
       </c>
-      <c r="AE20" s="61" t="s">
+      <c r="AE20" s="63" t="s">
         <v>139</v>
       </c>
       <c r="AF20" s="38" t="s">
@@ -8112,7 +9435,7 @@
       </c>
     </row>
     <row r="21" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A21" s="62"/>
+      <c r="A21" s="64"/>
       <c r="B21" s="38" t="s">
         <v>133</v>
       </c>
@@ -8150,7 +9473,7 @@
       <c r="N21" s="40">
         <v>0.40772999999999998</v>
       </c>
-      <c r="P21" s="62"/>
+      <c r="P21" s="64"/>
       <c r="Q21" s="38" t="s">
         <v>133</v>
       </c>
@@ -8184,7 +9507,7 @@
       <c r="AC21" s="40">
         <v>0.34917199999999998</v>
       </c>
-      <c r="AE21" s="62"/>
+      <c r="AE21" s="64"/>
       <c r="AF21" s="38" t="s">
         <v>133</v>
       </c>
@@ -8206,7 +9529,7 @@
       <c r="AL21" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="AM21" s="38" t="s">
+      <c r="AM21" s="56" t="s">
         <v>108</v>
       </c>
       <c r="AN21" s="39"/>
@@ -8222,7 +9545,7 @@
       </c>
     </row>
     <row r="22" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A22" s="62"/>
+      <c r="A22" s="64"/>
       <c r="B22" s="38" t="s">
         <v>134</v>
       </c>
@@ -8256,7 +9579,7 @@
       <c r="N22" s="40">
         <v>5.7199100000000003E-2</v>
       </c>
-      <c r="P22" s="62"/>
+      <c r="P22" s="64"/>
       <c r="Q22" s="38" t="s">
         <v>134</v>
       </c>
@@ -8290,7 +9613,7 @@
       <c r="AC22" s="40">
         <v>0.98668299999999998</v>
       </c>
-      <c r="AE22" s="62"/>
+      <c r="AE22" s="64"/>
       <c r="AF22" s="38" t="s">
         <v>134</v>
       </c>
@@ -8310,7 +9633,7 @@
         <v>108</v>
       </c>
       <c r="AL22" s="39"/>
-      <c r="AM22" s="38" t="s">
+      <c r="AM22" s="56" t="s">
         <v>108</v>
       </c>
       <c r="AN22" s="39" t="s">
@@ -8328,7 +9651,7 @@
       </c>
     </row>
     <row r="23" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A23" s="63"/>
+      <c r="A23" s="65"/>
       <c r="B23" s="41" t="s">
         <v>135</v>
       </c>
@@ -8350,7 +9673,7 @@
       <c r="N23" s="42">
         <v>7.4505699999999994E-2</v>
       </c>
-      <c r="P23" s="63"/>
+      <c r="P23" s="65"/>
       <c r="Q23" s="41" t="s">
         <v>135</v>
       </c>
@@ -8380,35 +9703,35 @@
       <c r="AC23" s="42">
         <v>0.96269300000000002</v>
       </c>
-      <c r="AE23" s="63"/>
-      <c r="AF23" s="41" t="s">
+      <c r="AE23" s="65"/>
+      <c r="AF23" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="AG23" s="41"/>
-      <c r="AH23" s="41"/>
-      <c r="AI23" s="41"/>
-      <c r="AJ23" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK23" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="AL23" s="41"/>
-      <c r="AM23" s="41"/>
-      <c r="AN23" s="41"/>
-      <c r="AO23" s="41"/>
-      <c r="AP23" s="42">
+      <c r="AG23" s="38"/>
+      <c r="AH23" s="39"/>
+      <c r="AI23" s="39"/>
+      <c r="AJ23" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK23" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL23" s="39"/>
+      <c r="AM23" s="38"/>
+      <c r="AN23" s="39"/>
+      <c r="AO23" s="39"/>
+      <c r="AP23" s="40">
         <v>1.78631E-2</v>
       </c>
-      <c r="AQ23" s="42">
+      <c r="AQ23" s="40">
         <v>1.0533300000000001E-2</v>
       </c>
-      <c r="AR23" s="42">
+      <c r="AR23" s="40">
         <v>0.190696</v>
       </c>
     </row>
     <row r="24" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A24" s="57" t="s">
+      <c r="A24" s="59" t="s">
         <v>140</v>
       </c>
       <c r="B24" s="38" t="s">
@@ -8450,7 +9773,7 @@
       <c r="N24" s="40">
         <v>0.25895099999999999</v>
       </c>
-      <c r="P24" s="57" t="s">
+      <c r="P24" s="59" t="s">
         <v>140</v>
       </c>
       <c r="Q24" s="38" t="s">
@@ -8486,7 +9809,7 @@
       <c r="AC24" s="40">
         <v>0.391177</v>
       </c>
-      <c r="AE24" s="57" t="s">
+      <c r="AE24" s="59" t="s">
         <v>140</v>
       </c>
       <c r="AF24" s="38" t="s">
@@ -8528,7 +9851,7 @@
       </c>
     </row>
     <row r="25" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A25" s="58"/>
+      <c r="A25" s="60"/>
       <c r="B25" s="38" t="s">
         <v>133</v>
       </c>
@@ -8562,7 +9885,7 @@
       <c r="N25" s="40">
         <v>8.7913599999999995E-2</v>
       </c>
-      <c r="P25" s="58"/>
+      <c r="P25" s="60"/>
       <c r="Q25" s="38" t="s">
         <v>133</v>
       </c>
@@ -8596,7 +9919,7 @@
       <c r="AC25" s="40">
         <v>0.992869</v>
       </c>
-      <c r="AE25" s="58"/>
+      <c r="AE25" s="60"/>
       <c r="AF25" s="38" t="s">
         <v>133</v>
       </c>
@@ -8632,7 +9955,7 @@
       </c>
     </row>
     <row r="26" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A26" s="58"/>
+      <c r="A26" s="60"/>
       <c r="B26" s="38" t="s">
         <v>134</v>
       </c>
@@ -8668,7 +9991,7 @@
       <c r="N26" s="40">
         <v>8.6047599999999999E-5</v>
       </c>
-      <c r="P26" s="58"/>
+      <c r="P26" s="60"/>
       <c r="Q26" s="38" t="s">
         <v>134</v>
       </c>
@@ -8704,7 +10027,7 @@
       <c r="AC26" s="40">
         <v>0.49700499999999997</v>
       </c>
-      <c r="AE26" s="58"/>
+      <c r="AE26" s="60"/>
       <c r="AF26" s="38" t="s">
         <v>134</v>
       </c>
@@ -8727,7 +10050,7 @@
         <v>108</v>
       </c>
       <c r="AM26" s="38"/>
-      <c r="AN26" s="39" t="s">
+      <c r="AN26" s="57" t="s">
         <v>108</v>
       </c>
       <c r="AO26" s="39" t="s">
@@ -8744,7 +10067,7 @@
       </c>
     </row>
     <row r="27" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A27" s="59"/>
+      <c r="A27" s="61"/>
       <c r="B27" s="41" t="s">
         <v>135</v>
       </c>
@@ -8766,7 +10089,7 @@
       <c r="N27" s="42">
         <v>5.1660999999999999E-2</v>
       </c>
-      <c r="P27" s="59"/>
+      <c r="P27" s="61"/>
       <c r="Q27" s="41" t="s">
         <v>135</v>
       </c>
@@ -8794,33 +10117,33 @@
       <c r="AC27" s="42">
         <v>0.59972999999999999</v>
       </c>
-      <c r="AE27" s="59"/>
-      <c r="AF27" s="41" t="s">
+      <c r="AE27" s="61"/>
+      <c r="AF27" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="AG27" s="41"/>
-      <c r="AH27" s="41"/>
-      <c r="AI27" s="41"/>
-      <c r="AJ27" s="41"/>
-      <c r="AK27" s="41"/>
-      <c r="AL27" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="AM27" s="41"/>
-      <c r="AN27" s="41"/>
-      <c r="AO27" s="41"/>
-      <c r="AP27" s="42">
+      <c r="AG27" s="38"/>
+      <c r="AH27" s="39"/>
+      <c r="AI27" s="39"/>
+      <c r="AJ27" s="38"/>
+      <c r="AK27" s="39"/>
+      <c r="AL27" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM27" s="38"/>
+      <c r="AN27" s="39"/>
+      <c r="AO27" s="39"/>
+      <c r="AP27" s="40">
         <v>5.3174899999999997E-2</v>
       </c>
-      <c r="AQ27" s="42">
+      <c r="AQ27" s="40">
         <v>7.1961000000000004E-3</v>
       </c>
-      <c r="AR27" s="42">
+      <c r="AR27" s="40">
         <v>2.1038399999999999E-2</v>
       </c>
     </row>
     <row r="28" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A28" s="57" t="s">
+      <c r="A28" s="59" t="s">
         <v>116</v>
       </c>
       <c r="B28" s="38" t="s">
@@ -8856,7 +10179,7 @@
       <c r="N28" s="40">
         <v>0.21804599999999999</v>
       </c>
-      <c r="P28" s="57" t="s">
+      <c r="P28" s="59" t="s">
         <v>116</v>
       </c>
       <c r="Q28" s="38" t="s">
@@ -8892,27 +10215,45 @@
       <c r="AC28" s="40">
         <v>0.79758499999999999</v>
       </c>
-      <c r="AE28" s="57" t="s">
+      <c r="AE28" s="59" t="s">
         <v>116</v>
       </c>
       <c r="AF28" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="AG28" s="38"/>
-      <c r="AH28" s="39"/>
-      <c r="AI28" s="39"/>
-      <c r="AJ28" s="38"/>
-      <c r="AK28" s="39"/>
-      <c r="AL28" s="39"/>
+      <c r="AG28" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH28" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI28" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ28" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK28" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL28" s="39" t="s">
+        <v>108</v>
+      </c>
       <c r="AM28" s="38"/>
       <c r="AN28" s="39"/>
       <c r="AO28" s="39"/>
-      <c r="AP28" s="40"/>
-      <c r="AQ28" s="40"/>
-      <c r="AR28" s="40"/>
+      <c r="AP28" s="40">
+        <v>0.28936299999999998</v>
+      </c>
+      <c r="AQ28" s="40">
+        <v>0.80910199999999999</v>
+      </c>
+      <c r="AR28" s="40">
+        <v>4.2327399999999996E-3</v>
+      </c>
     </row>
     <row r="29" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A29" s="58"/>
+      <c r="A29" s="60"/>
       <c r="B29" s="38" t="s">
         <v>133</v>
       </c>
@@ -8946,7 +10287,7 @@
       <c r="N29" s="40">
         <v>1.9599700000000001E-2</v>
       </c>
-      <c r="P29" s="58"/>
+      <c r="P29" s="60"/>
       <c r="Q29" s="38" t="s">
         <v>133</v>
       </c>
@@ -8980,25 +10321,43 @@
       <c r="AC29" s="40">
         <v>0.20802399999999999</v>
       </c>
-      <c r="AE29" s="58"/>
+      <c r="AE29" s="60"/>
       <c r="AF29" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="AG29" s="38"/>
-      <c r="AH29" s="39"/>
-      <c r="AI29" s="39"/>
-      <c r="AJ29" s="38"/>
-      <c r="AK29" s="39"/>
-      <c r="AL29" s="39"/>
+      <c r="AG29" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH29" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI29" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ29" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK29" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL29" s="39" t="s">
+        <v>108</v>
+      </c>
       <c r="AM29" s="38"/>
       <c r="AN29" s="39"/>
       <c r="AO29" s="39"/>
-      <c r="AP29" s="40"/>
-      <c r="AQ29" s="40"/>
-      <c r="AR29" s="40"/>
+      <c r="AP29" s="40">
+        <v>0.12768599999999999</v>
+      </c>
+      <c r="AQ29" s="40">
+        <v>0.23233300000000001</v>
+      </c>
+      <c r="AR29" s="40">
+        <v>1.1742900000000001E-2</v>
+      </c>
     </row>
     <row r="30" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A30" s="58"/>
+      <c r="A30" s="60"/>
       <c r="B30" s="38" t="s">
         <v>134</v>
       </c>
@@ -9032,7 +10391,7 @@
       <c r="N30" s="40">
         <v>7.6017100000000002E-4</v>
       </c>
-      <c r="P30" s="58"/>
+      <c r="P30" s="60"/>
       <c r="Q30" s="38" t="s">
         <v>134</v>
       </c>
@@ -9066,25 +10425,43 @@
       <c r="AC30" s="40">
         <v>0.55451899999999998</v>
       </c>
-      <c r="AE30" s="58"/>
+      <c r="AE30" s="60"/>
       <c r="AF30" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="AG30" s="38"/>
-      <c r="AH30" s="39"/>
-      <c r="AI30" s="39"/>
-      <c r="AJ30" s="38"/>
-      <c r="AK30" s="39"/>
-      <c r="AL30" s="39"/>
+      <c r="AG30" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH30" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI30" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ30" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK30" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL30" s="39" t="s">
+        <v>108</v>
+      </c>
       <c r="AM30" s="38"/>
       <c r="AN30" s="39"/>
       <c r="AO30" s="39"/>
-      <c r="AP30" s="40"/>
-      <c r="AQ30" s="40"/>
-      <c r="AR30" s="40"/>
+      <c r="AP30" s="40">
+        <v>6.3838300000000001E-2</v>
+      </c>
+      <c r="AQ30" s="40">
+        <v>0.39498299999999997</v>
+      </c>
+      <c r="AR30" s="40">
+        <v>1.8096000000000001E-2</v>
+      </c>
     </row>
     <row r="31" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A31" s="59"/>
+      <c r="A31" s="61"/>
       <c r="B31" s="41" t="s">
         <v>135</v>
       </c>
@@ -9106,7 +10483,7 @@
       <c r="N31" s="42">
         <v>6.0392800000000003E-2</v>
       </c>
-      <c r="P31" s="59"/>
+      <c r="P31" s="61"/>
       <c r="Q31" s="41" t="s">
         <v>135</v>
       </c>
@@ -9134,25 +10511,35 @@
       <c r="AC31" s="42">
         <v>0.40330300000000002</v>
       </c>
-      <c r="AE31" s="59"/>
-      <c r="AF31" s="41" t="s">
+      <c r="AE31" s="61"/>
+      <c r="AF31" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="AG31" s="41"/>
-      <c r="AH31" s="41"/>
-      <c r="AI31" s="41"/>
-      <c r="AJ31" s="41"/>
-      <c r="AK31" s="41"/>
-      <c r="AL31" s="41"/>
-      <c r="AM31" s="41"/>
-      <c r="AN31" s="41"/>
-      <c r="AO31" s="41"/>
-      <c r="AP31" s="42"/>
-      <c r="AQ31" s="42"/>
-      <c r="AR31" s="42"/>
+      <c r="AG31" s="38"/>
+      <c r="AH31" s="39"/>
+      <c r="AI31" s="39"/>
+      <c r="AJ31" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK31" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL31" s="39"/>
+      <c r="AM31" s="38"/>
+      <c r="AN31" s="39"/>
+      <c r="AO31" s="39"/>
+      <c r="AP31" s="40">
+        <v>7.8202800000000003E-2</v>
+      </c>
+      <c r="AQ31" s="40">
+        <v>7.1798000000000001E-2</v>
+      </c>
+      <c r="AR31" s="40">
+        <v>2.3383000000000001E-2</v>
+      </c>
     </row>
     <row r="32" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A32" s="57" t="s">
+      <c r="A32" s="59" t="s">
         <v>141</v>
       </c>
       <c r="B32" s="38" t="s">
@@ -9192,7 +10579,7 @@
       <c r="N32" s="40">
         <v>6.8416699999999997E-2</v>
       </c>
-      <c r="P32" s="57" t="s">
+      <c r="P32" s="59" t="s">
         <v>141</v>
       </c>
       <c r="Q32" s="38" t="s">
@@ -9228,27 +10615,49 @@
       <c r="AC32" s="40">
         <v>0.79306100000000002</v>
       </c>
-      <c r="AE32" s="57" t="s">
+      <c r="AE32" s="59" t="s">
         <v>141</v>
       </c>
       <c r="AF32" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="AG32" s="38"/>
-      <c r="AH32" s="39"/>
-      <c r="AI32" s="39"/>
-      <c r="AJ32" s="38"/>
-      <c r="AK32" s="39"/>
-      <c r="AL32" s="39"/>
-      <c r="AM32" s="38"/>
+      <c r="AG32" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH32" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI32" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ32" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK32" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL32" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM32" s="56" t="s">
+        <v>108</v>
+      </c>
       <c r="AN32" s="39"/>
-      <c r="AO32" s="39"/>
-      <c r="AP32" s="40"/>
-      <c r="AQ32" s="40"/>
-      <c r="AR32" s="40"/>
+      <c r="AO32" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP32" s="40">
+        <v>0.14907400000000001</v>
+      </c>
+      <c r="AQ32" s="40">
+        <v>3.2127000000000003E-2</v>
+      </c>
+      <c r="AR32" s="40">
+        <v>2.40463E-2</v>
+      </c>
     </row>
     <row r="33" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A33" s="58"/>
+      <c r="A33" s="60"/>
       <c r="B33" s="38" t="s">
         <v>133</v>
       </c>
@@ -9282,7 +10691,7 @@
       <c r="N33" s="40">
         <v>0.24232799999999999</v>
       </c>
-      <c r="P33" s="58"/>
+      <c r="P33" s="60"/>
       <c r="Q33" s="38" t="s">
         <v>133</v>
       </c>
@@ -9316,25 +10725,43 @@
       <c r="AC33" s="40">
         <v>0.79171599999999998</v>
       </c>
-      <c r="AE33" s="58"/>
+      <c r="AE33" s="60"/>
       <c r="AF33" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="AG33" s="38"/>
-      <c r="AH33" s="39"/>
-      <c r="AI33" s="39"/>
-      <c r="AJ33" s="38"/>
-      <c r="AK33" s="39"/>
-      <c r="AL33" s="39"/>
+      <c r="AG33" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH33" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI33" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ33" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK33" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL33" s="39" t="s">
+        <v>108</v>
+      </c>
       <c r="AM33" s="38"/>
       <c r="AN33" s="39"/>
       <c r="AO33" s="39"/>
-      <c r="AP33" s="40"/>
-      <c r="AQ33" s="40"/>
-      <c r="AR33" s="40"/>
+      <c r="AP33" s="40">
+        <v>0.42867</v>
+      </c>
+      <c r="AQ33" s="40">
+        <v>8.9202199999999995E-2</v>
+      </c>
+      <c r="AR33" s="40">
+        <v>0.12592999999999999</v>
+      </c>
     </row>
     <row r="34" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A34" s="58"/>
+      <c r="A34" s="60"/>
       <c r="B34" s="38" t="s">
         <v>134</v>
       </c>
@@ -9368,7 +10795,7 @@
       <c r="N34" s="40">
         <v>9.2139299999999993E-2</v>
       </c>
-      <c r="P34" s="58"/>
+      <c r="P34" s="60"/>
       <c r="Q34" s="38" t="s">
         <v>134</v>
       </c>
@@ -9404,25 +10831,47 @@
       <c r="AC34" s="40">
         <v>5.10708E-2</v>
       </c>
-      <c r="AE34" s="58"/>
+      <c r="AE34" s="60"/>
       <c r="AF34" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="AG34" s="38"/>
-      <c r="AH34" s="39"/>
-      <c r="AI34" s="39"/>
-      <c r="AJ34" s="38"/>
-      <c r="AK34" s="39"/>
-      <c r="AL34" s="39"/>
-      <c r="AM34" s="38"/>
+      <c r="AG34" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH34" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI34" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ34" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK34" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL34" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM34" s="56" t="s">
+        <v>108</v>
+      </c>
       <c r="AN34" s="39"/>
-      <c r="AO34" s="39"/>
-      <c r="AP34" s="40"/>
-      <c r="AQ34" s="40"/>
-      <c r="AR34" s="40"/>
+      <c r="AO34" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP34" s="40">
+        <v>0.36803900000000001</v>
+      </c>
+      <c r="AQ34" s="40">
+        <v>7.62462E-2</v>
+      </c>
+      <c r="AR34" s="40">
+        <v>3.55566E-3</v>
+      </c>
     </row>
     <row r="35" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A35" s="59"/>
+      <c r="A35" s="61"/>
       <c r="B35" s="41" t="s">
         <v>135</v>
       </c>
@@ -9444,7 +10893,7 @@
       <c r="N35" s="42">
         <v>3.5705899999999999E-2</v>
       </c>
-      <c r="P35" s="59"/>
+      <c r="P35" s="61"/>
       <c r="Q35" s="41" t="s">
         <v>135</v>
       </c>
@@ -9476,25 +10925,41 @@
       <c r="AC35" s="42">
         <v>0.37054599999999999</v>
       </c>
-      <c r="AE35" s="59"/>
-      <c r="AF35" s="41" t="s">
+      <c r="AE35" s="61"/>
+      <c r="AF35" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="AG35" s="41"/>
-      <c r="AH35" s="41"/>
-      <c r="AI35" s="41"/>
-      <c r="AJ35" s="41"/>
-      <c r="AK35" s="41"/>
-      <c r="AL35" s="41"/>
-      <c r="AM35" s="41"/>
-      <c r="AN35" s="41"/>
-      <c r="AO35" s="41"/>
-      <c r="AP35" s="42"/>
-      <c r="AQ35" s="42"/>
-      <c r="AR35" s="42"/>
+      <c r="AG35" s="38"/>
+      <c r="AH35" s="39"/>
+      <c r="AI35" s="39"/>
+      <c r="AJ35" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK35" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL35" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM35" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN35" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO35" s="39"/>
+      <c r="AP35" s="40">
+        <v>3.6327900000000003E-2</v>
+      </c>
+      <c r="AQ35" s="40">
+        <v>0.111786</v>
+      </c>
+      <c r="AR35" s="40">
+        <v>1.11094E-2</v>
+      </c>
     </row>
     <row r="36" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A36" s="60" t="s">
+      <c r="A36" s="62" t="s">
         <v>142</v>
       </c>
       <c r="B36" s="38" t="s">
@@ -9536,7 +11001,7 @@
       <c r="N36" s="40">
         <v>0.79885600000000001</v>
       </c>
-      <c r="P36" s="60" t="s">
+      <c r="P36" s="62" t="s">
         <v>142</v>
       </c>
       <c r="Q36" s="38" t="s">
@@ -9572,27 +11037,51 @@
       <c r="AC36" s="40">
         <v>0.119131</v>
       </c>
-      <c r="AE36" s="60" t="s">
+      <c r="AE36" s="62" t="s">
         <v>142</v>
       </c>
       <c r="AF36" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="AG36" s="38"/>
-      <c r="AH36" s="39"/>
-      <c r="AI36" s="39"/>
-      <c r="AJ36" s="38"/>
-      <c r="AK36" s="39"/>
-      <c r="AL36" s="39"/>
-      <c r="AM36" s="38"/>
-      <c r="AN36" s="39"/>
-      <c r="AO36" s="39"/>
-      <c r="AP36" s="40"/>
-      <c r="AQ36" s="40"/>
-      <c r="AR36" s="40"/>
+      <c r="AG36" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH36" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI36" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ36" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK36" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL36" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM36" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN36" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO36" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP36" s="40">
+        <v>1.91909E-3</v>
+      </c>
+      <c r="AQ36" s="40">
+        <v>2.6462300000000001E-2</v>
+      </c>
+      <c r="AR36" s="40">
+        <v>0.16523299999999999</v>
+      </c>
     </row>
     <row r="37" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A37" s="60"/>
+      <c r="A37" s="62"/>
       <c r="B37" s="38" t="s">
         <v>133</v>
       </c>
@@ -9626,7 +11115,7 @@
       <c r="N37" s="40">
         <v>0.51789499999999999</v>
       </c>
-      <c r="P37" s="60"/>
+      <c r="P37" s="62"/>
       <c r="Q37" s="38" t="s">
         <v>133</v>
       </c>
@@ -9660,25 +11149,43 @@
       <c r="AC37" s="40">
         <v>0.74060099999999995</v>
       </c>
-      <c r="AE37" s="60"/>
+      <c r="AE37" s="62"/>
       <c r="AF37" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="AG37" s="38"/>
-      <c r="AH37" s="39"/>
-      <c r="AI37" s="39"/>
-      <c r="AJ37" s="38"/>
-      <c r="AK37" s="39"/>
-      <c r="AL37" s="39"/>
+      <c r="AG37" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH37" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI37" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ37" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK37" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL37" s="39" t="s">
+        <v>108</v>
+      </c>
       <c r="AM37" s="38"/>
       <c r="AN37" s="39"/>
       <c r="AO37" s="39"/>
-      <c r="AP37" s="40"/>
-      <c r="AQ37" s="40"/>
-      <c r="AR37" s="40"/>
+      <c r="AP37" s="40">
+        <v>0.12167699999999999</v>
+      </c>
+      <c r="AQ37" s="40">
+        <v>0.34179199999999998</v>
+      </c>
+      <c r="AR37" s="40">
+        <v>0.30942399999999998</v>
+      </c>
     </row>
     <row r="38" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A38" s="60"/>
+      <c r="A38" s="62"/>
       <c r="B38" s="38" t="s">
         <v>134</v>
       </c>
@@ -9700,13 +11207,13 @@
       <c r="H38" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="I38" s="83" t="s">
-        <v>108</v>
-      </c>
-      <c r="J38" s="84" t="s">
-        <v>108</v>
-      </c>
-      <c r="K38" s="84" t="s">
+      <c r="I38" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="J38" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="K38" s="39" t="s">
         <v>108</v>
       </c>
       <c r="L38" s="40">
@@ -9718,7 +11225,7 @@
       <c r="N38" s="40">
         <v>1.3228699999999999E-2</v>
       </c>
-      <c r="P38" s="60"/>
+      <c r="P38" s="62"/>
       <c r="Q38" s="38" t="s">
         <v>134</v>
       </c>
@@ -9740,13 +11247,13 @@
       <c r="W38" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="X38" s="83" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y38" s="84" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z38" s="84" t="s">
+      <c r="X38" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y38" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z38" s="57" t="s">
         <v>108</v>
       </c>
       <c r="AA38" s="40">
@@ -9758,25 +11265,49 @@
       <c r="AC38" s="40">
         <v>0.59381899999999999</v>
       </c>
-      <c r="AE38" s="60"/>
+      <c r="AE38" s="62"/>
       <c r="AF38" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="AG38" s="38"/>
-      <c r="AH38" s="39"/>
-      <c r="AI38" s="39"/>
-      <c r="AJ38" s="38"/>
-      <c r="AK38" s="39"/>
-      <c r="AL38" s="39"/>
-      <c r="AM38" s="38"/>
-      <c r="AN38" s="39"/>
-      <c r="AO38" s="39"/>
-      <c r="AP38" s="40"/>
-      <c r="AQ38" s="40"/>
-      <c r="AR38" s="40"/>
+      <c r="AG38" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH38" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI38" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ38" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK38" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL38" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM38" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN38" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO38" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP38" s="40">
+        <v>0.147316</v>
+      </c>
+      <c r="AQ38" s="40">
+        <v>0.24088399999999999</v>
+      </c>
+      <c r="AR38" s="40">
+        <v>4.1844199999999998E-2</v>
+      </c>
     </row>
     <row r="39" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A39" s="60"/>
+      <c r="A39" s="62"/>
       <c r="B39" s="41" t="s">
         <v>135</v>
       </c>
@@ -9798,7 +11329,7 @@
       <c r="N39" s="42">
         <v>0.12786700000000001</v>
       </c>
-      <c r="P39" s="60"/>
+      <c r="P39" s="62"/>
       <c r="Q39" s="41" t="s">
         <v>135</v>
       </c>
@@ -9832,22 +11363,34 @@
       <c r="AC39" s="42">
         <v>0.94489999999999996</v>
       </c>
-      <c r="AE39" s="60"/>
-      <c r="AF39" s="41" t="s">
+      <c r="AE39" s="62"/>
+      <c r="AF39" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="AG39" s="41"/>
-      <c r="AH39" s="41"/>
-      <c r="AI39" s="41"/>
-      <c r="AJ39" s="41"/>
-      <c r="AK39" s="41"/>
-      <c r="AL39" s="41"/>
-      <c r="AM39" s="41"/>
-      <c r="AN39" s="41"/>
-      <c r="AO39" s="41"/>
-      <c r="AP39" s="42"/>
-      <c r="AQ39" s="42"/>
-      <c r="AR39" s="42"/>
+      <c r="AG39" s="38"/>
+      <c r="AH39" s="39"/>
+      <c r="AI39" s="39"/>
+      <c r="AJ39" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK39" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL39" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM39" s="38"/>
+      <c r="AN39" s="39"/>
+      <c r="AO39" s="39"/>
+      <c r="AP39" s="40">
+        <v>4.3738800000000001E-2</v>
+      </c>
+      <c r="AQ39" s="40">
+        <v>3.2079400000000001E-2</v>
+      </c>
+      <c r="AR39" s="40">
+        <v>3.1233299999999999E-2</v>
+      </c>
     </row>
     <row r="40" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="23"/>
@@ -12029,36 +13572,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="31" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="65"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="64" t="s">
+      <c r="D1" s="67"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="G1" s="65"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="64" t="s">
+      <c r="G1" s="67"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="66" t="s">
         <v>129</v>
       </c>
-      <c r="J1" s="65"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="69" t="s">
+      <c r="J1" s="67"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="M1" s="70"/>
-      <c r="N1" s="71"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="73"/>
     </row>
     <row r="2" spans="1:17" s="31" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
       <c r="C2" s="36" t="s">
         <v>125</v>
       </c>
@@ -12098,7 +13641,7 @@
       <c r="Q2" s="35"/>
     </row>
     <row r="3" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="59" t="s">
         <v>136</v>
       </c>
       <c r="B3" s="38" t="s">
@@ -12139,7 +13682,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="38" t="s">
         <v>133</v>
       </c>
@@ -12181,7 +13724,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="38" t="s">
         <v>134</v>
       </c>
@@ -12217,7 +13760,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="59"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="41" t="s">
         <v>135</v>
       </c>
@@ -12250,7 +13793,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="59" t="s">
         <v>137</v>
       </c>
       <c r="B7" s="38" t="s">
@@ -12288,7 +13831,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="58"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="38" t="s">
         <v>133</v>
       </c>
@@ -12330,7 +13873,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="58"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="38" t="s">
         <v>134</v>
       </c>
@@ -12366,7 +13909,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="59"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="41" t="s">
         <v>135</v>
       </c>
@@ -12396,7 +13939,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="59" t="s">
         <v>110</v>
       </c>
       <c r="B11" s="38" t="s">
@@ -12434,7 +13977,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="58"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="38" t="s">
         <v>133</v>
       </c>
@@ -12470,7 +14013,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="58"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="38" t="s">
         <v>134</v>
       </c>
@@ -12506,7 +14049,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="59"/>
+      <c r="A14" s="61"/>
       <c r="B14" s="41" t="s">
         <v>135</v>
       </c>
@@ -12536,7 +14079,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="63" t="s">
         <v>138</v>
       </c>
       <c r="B15" s="39" t="s">
@@ -12578,7 +14121,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="62"/>
+      <c r="A16" s="64"/>
       <c r="B16" s="39" t="s">
         <v>133</v>
       </c>
@@ -12617,7 +14160,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="62"/>
+      <c r="A17" s="64"/>
       <c r="B17" s="38" t="s">
         <v>134</v>
       </c>
@@ -12653,7 +14196,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="63"/>
+      <c r="A18" s="65"/>
       <c r="B18" s="41" t="s">
         <v>135</v>
       </c>
@@ -12685,7 +14228,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="61" t="s">
+      <c r="A19" s="63" t="s">
         <v>139</v>
       </c>
       <c r="B19" s="38" t="s">
@@ -12723,7 +14266,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="62"/>
+      <c r="A20" s="64"/>
       <c r="B20" s="38" t="s">
         <v>133</v>
       </c>
@@ -12759,7 +14302,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="62"/>
+      <c r="A21" s="64"/>
       <c r="B21" s="38" t="s">
         <v>134</v>
       </c>
@@ -12795,7 +14338,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="63"/>
+      <c r="A22" s="65"/>
       <c r="B22" s="41" t="s">
         <v>135</v>
       </c>
@@ -12827,7 +14370,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="59" t="s">
         <v>140</v>
       </c>
       <c r="B23" s="38" t="s">
@@ -12865,7 +14408,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="58"/>
+      <c r="A24" s="60"/>
       <c r="B24" s="38" t="s">
         <v>133</v>
       </c>
@@ -12901,7 +14444,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="58"/>
+      <c r="A25" s="60"/>
       <c r="B25" s="38" t="s">
         <v>134</v>
       </c>
@@ -12939,7 +14482,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="59"/>
+      <c r="A26" s="61"/>
       <c r="B26" s="41" t="s">
         <v>135</v>
       </c>
@@ -12969,7 +14512,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="57" t="s">
+      <c r="A27" s="59" t="s">
         <v>116</v>
       </c>
       <c r="B27" s="38" t="s">
@@ -13007,7 +14550,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="58"/>
+      <c r="A28" s="60"/>
       <c r="B28" s="38" t="s">
         <v>133</v>
       </c>
@@ -13043,7 +14586,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="58"/>
+      <c r="A29" s="60"/>
       <c r="B29" s="38" t="s">
         <v>134</v>
       </c>
@@ -13079,7 +14622,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="59"/>
+      <c r="A30" s="61"/>
       <c r="B30" s="41" t="s">
         <v>135</v>
       </c>
@@ -13109,7 +14652,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="57" t="s">
+      <c r="A31" s="59" t="s">
         <v>141</v>
       </c>
       <c r="B31" s="38" t="s">
@@ -13147,7 +14690,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="58"/>
+      <c r="A32" s="60"/>
       <c r="B32" s="38" t="s">
         <v>133</v>
       </c>
@@ -13183,7 +14726,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="58"/>
+      <c r="A33" s="60"/>
       <c r="B33" s="38" t="s">
         <v>134</v>
       </c>
@@ -13221,7 +14764,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="59"/>
+      <c r="A34" s="61"/>
       <c r="B34" s="41" t="s">
         <v>135</v>
       </c>
@@ -13255,7 +14798,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="60" t="s">
+      <c r="A35" s="62" t="s">
         <v>142</v>
       </c>
       <c r="B35" s="38" t="s">
@@ -13293,7 +14836,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="60"/>
+      <c r="A36" s="62"/>
       <c r="B36" s="38" t="s">
         <v>133</v>
       </c>
@@ -13329,7 +14872,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="60"/>
+      <c r="A37" s="62"/>
       <c r="B37" s="38" t="s">
         <v>134</v>
       </c>
@@ -13371,7 +14914,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="60"/>
+      <c r="A38" s="62"/>
       <c r="B38" s="41" t="s">
         <v>135</v>
       </c>
@@ -14770,7 +16313,7 @@
       <c r="AT1" s="1"/>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="75" t="s">
         <v>110</v>
       </c>
       <c r="B2" s="27" t="s">
@@ -14788,7 +16331,7 @@
       </c>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A3" s="74"/>
+      <c r="A3" s="76"/>
       <c r="B3" s="27" t="s">
         <v>109</v>
       </c>
@@ -14804,7 +16347,7 @@
       </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A4" s="74"/>
+      <c r="A4" s="76"/>
       <c r="B4" s="27" t="s">
         <v>111</v>
       </c>
@@ -14820,7 +16363,7 @@
       </c>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="27" t="s">
         <v>112</v>
       </c>
@@ -14832,7 +16375,7 @@
       <c r="F5" s="21"/>
     </row>
     <row r="6" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="78" t="s">
         <v>113</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -14850,7 +16393,7 @@
       </c>
     </row>
     <row r="7" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="77"/>
+      <c r="A7" s="79"/>
       <c r="B7" s="21" t="s">
         <v>109</v>
       </c>
@@ -14866,7 +16409,7 @@
       </c>
     </row>
     <row r="8" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="77"/>
+      <c r="A8" s="79"/>
       <c r="B8" s="21" t="s">
         <v>111</v>
       </c>
@@ -14884,7 +16427,7 @@
       </c>
     </row>
     <row r="9" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="78"/>
+      <c r="A9" s="80"/>
       <c r="B9" s="21" t="s">
         <v>112</v>
       </c>
@@ -14896,7 +16439,7 @@
       <c r="F9" s="21"/>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="75" t="s">
         <v>114</v>
       </c>
       <c r="B10" s="27" t="s">
@@ -14914,7 +16457,7 @@
       </c>
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A11" s="74"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="27" t="s">
         <v>109</v>
       </c>
@@ -14932,7 +16475,7 @@
       </c>
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A12" s="74"/>
+      <c r="A12" s="76"/>
       <c r="B12" s="27" t="s">
         <v>111</v>
       </c>
@@ -14948,7 +16491,7 @@
       </c>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A13" s="75"/>
+      <c r="A13" s="77"/>
       <c r="B13" s="27" t="s">
         <v>112</v>
       </c>
@@ -14960,7 +16503,7 @@
       <c r="F13" s="21"/>
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="75" t="s">
         <v>115</v>
       </c>
       <c r="B14" s="27" t="s">
@@ -14980,7 +16523,7 @@
       </c>
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A15" s="74"/>
+      <c r="A15" s="76"/>
       <c r="B15" s="27" t="s">
         <v>109</v>
       </c>
@@ -14996,7 +16539,7 @@
       </c>
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A16" s="74"/>
+      <c r="A16" s="76"/>
       <c r="B16" s="27" t="s">
         <v>111</v>
       </c>
@@ -15014,7 +16557,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="75"/>
+      <c r="A17" s="77"/>
       <c r="B17" s="27" t="s">
         <v>112</v>
       </c>
@@ -15026,7 +16569,7 @@
       <c r="F17" s="21"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="75" t="s">
         <v>116</v>
       </c>
       <c r="B18" s="27" t="s">
@@ -15044,7 +16587,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="74"/>
+      <c r="A19" s="76"/>
       <c r="B19" s="27" t="s">
         <v>109</v>
       </c>
@@ -15060,7 +16603,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="74"/>
+      <c r="A20" s="76"/>
       <c r="B20" s="27" t="s">
         <v>111</v>
       </c>
@@ -15076,7 +16619,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="75"/>
+      <c r="A21" s="77"/>
       <c r="B21" s="27" t="s">
         <v>112</v>
       </c>
@@ -15088,7 +16631,7 @@
       <c r="F21" s="21"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="73" t="s">
+      <c r="A22" s="75" t="s">
         <v>83</v>
       </c>
       <c r="B22" s="27" t="s">
@@ -15108,7 +16651,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="74"/>
+      <c r="A23" s="76"/>
       <c r="B23" s="27" t="s">
         <v>109</v>
       </c>
@@ -15125,7 +16668,7 @@
       <c r="H23" s="19"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="74"/>
+      <c r="A24" s="76"/>
       <c r="B24" s="27" t="s">
         <v>111</v>
       </c>
@@ -15141,7 +16684,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="75"/>
+      <c r="A25" s="77"/>
       <c r="B25" s="27" t="s">
         <v>112</v>
       </c>
@@ -15153,7 +16696,7 @@
       <c r="F25" s="21"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="72" t="s">
+      <c r="A26" s="74" t="s">
         <v>117</v>
       </c>
       <c r="B26" s="27" t="s">
@@ -15173,7 +16716,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="72"/>
+      <c r="A27" s="74"/>
       <c r="B27" s="27" t="s">
         <v>109</v>
       </c>
@@ -15189,7 +16732,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="72"/>
+      <c r="A28" s="74"/>
       <c r="B28" s="27" t="s">
         <v>111</v>
       </c>
@@ -15207,7 +16750,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="72"/>
+      <c r="A29" s="74"/>
       <c r="B29" s="27" t="s">
         <v>112</v>
       </c>
@@ -16170,7 +17713,7 @@
       <c r="AT1" s="1"/>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="75" t="s">
         <v>110</v>
       </c>
       <c r="B2" s="27" t="s">
@@ -16188,7 +17731,7 @@
       </c>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A3" s="74"/>
+      <c r="A3" s="76"/>
       <c r="B3" s="27" t="s">
         <v>109</v>
       </c>
@@ -16204,7 +17747,7 @@
       </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A4" s="74"/>
+      <c r="A4" s="76"/>
       <c r="B4" s="27" t="s">
         <v>111</v>
       </c>
@@ -16220,7 +17763,7 @@
       </c>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="27" t="s">
         <v>112</v>
       </c>
@@ -16232,7 +17775,7 @@
       <c r="F5" s="21"/>
     </row>
     <row r="6" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="78" t="s">
         <v>113</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -16250,7 +17793,7 @@
       </c>
     </row>
     <row r="7" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="77"/>
+      <c r="A7" s="79"/>
       <c r="B7" s="21" t="s">
         <v>109</v>
       </c>
@@ -16266,7 +17809,7 @@
       </c>
     </row>
     <row r="8" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="77"/>
+      <c r="A8" s="79"/>
       <c r="B8" s="21" t="s">
         <v>111</v>
       </c>
@@ -16282,7 +17825,7 @@
       </c>
     </row>
     <row r="9" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="78"/>
+      <c r="A9" s="80"/>
       <c r="B9" s="21" t="s">
         <v>112</v>
       </c>
@@ -16294,7 +17837,7 @@
       <c r="F9" s="21"/>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="75" t="s">
         <v>114</v>
       </c>
       <c r="B10" s="27" t="s">
@@ -16312,7 +17855,7 @@
       </c>
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A11" s="74"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="27" t="s">
         <v>109</v>
       </c>
@@ -16328,7 +17871,7 @@
       </c>
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A12" s="74"/>
+      <c r="A12" s="76"/>
       <c r="B12" s="27" t="s">
         <v>111</v>
       </c>
@@ -16344,7 +17887,7 @@
       </c>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A13" s="75"/>
+      <c r="A13" s="77"/>
       <c r="B13" s="27" t="s">
         <v>112</v>
       </c>
@@ -16356,7 +17899,7 @@
       <c r="F13" s="21"/>
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="75" t="s">
         <v>115</v>
       </c>
       <c r="B14" s="27" t="s">
@@ -16376,7 +17919,7 @@
       </c>
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A15" s="74"/>
+      <c r="A15" s="76"/>
       <c r="B15" s="27" t="s">
         <v>109</v>
       </c>
@@ -16392,7 +17935,7 @@
       </c>
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A16" s="74"/>
+      <c r="A16" s="76"/>
       <c r="B16" s="27" t="s">
         <v>111</v>
       </c>
@@ -16408,7 +17951,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="75"/>
+      <c r="A17" s="77"/>
       <c r="B17" s="27" t="s">
         <v>112</v>
       </c>
@@ -16420,7 +17963,7 @@
       <c r="F17" s="21"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="75" t="s">
         <v>116</v>
       </c>
       <c r="B18" s="27" t="s">
@@ -16438,7 +17981,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="74"/>
+      <c r="A19" s="76"/>
       <c r="B19" s="27" t="s">
         <v>109</v>
       </c>
@@ -16454,7 +17997,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="74"/>
+      <c r="A20" s="76"/>
       <c r="B20" s="27" t="s">
         <v>111</v>
       </c>
@@ -16470,7 +18013,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="75"/>
+      <c r="A21" s="77"/>
       <c r="B21" s="27" t="s">
         <v>112</v>
       </c>
@@ -16482,7 +18025,7 @@
       <c r="F21" s="21"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="73" t="s">
+      <c r="A22" s="75" t="s">
         <v>83</v>
       </c>
       <c r="B22" s="27" t="s">
@@ -16502,7 +18045,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="74"/>
+      <c r="A23" s="76"/>
       <c r="B23" s="27" t="s">
         <v>109</v>
       </c>
@@ -16519,7 +18062,7 @@
       <c r="H23" s="19"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="74"/>
+      <c r="A24" s="76"/>
       <c r="B24" s="27" t="s">
         <v>111</v>
       </c>
@@ -16535,7 +18078,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="75"/>
+      <c r="A25" s="77"/>
       <c r="B25" s="27" t="s">
         <v>112</v>
       </c>
@@ -16547,7 +18090,7 @@
       <c r="F25" s="21"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="72" t="s">
+      <c r="A26" s="74" t="s">
         <v>117</v>
       </c>
       <c r="B26" s="27" t="s">
@@ -16567,7 +18110,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="72"/>
+      <c r="A27" s="74"/>
       <c r="B27" s="27" t="s">
         <v>109</v>
       </c>
@@ -16583,7 +18126,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="72"/>
+      <c r="A28" s="74"/>
       <c r="B28" s="27" t="s">
         <v>111</v>
       </c>
@@ -16601,7 +18144,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="72"/>
+      <c r="A29" s="74"/>
       <c r="B29" s="27" t="s">
         <v>112</v>
       </c>
@@ -17501,18 +19044,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="81" t="s">
         <v>173</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="81"/>
-      <c r="H1" s="79" t="s">
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="83"/>
+      <c r="H1" s="81" t="s">
         <v>174</v>
       </c>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="81"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="83"/>
     </row>
     <row r="2" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
@@ -19085,18 +20628,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="84" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="F1" s="82" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="F1" s="84" t="s">
         <v>177</v>
       </c>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
     </row>
     <row r="2" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="54" t="s">

--- a/DataSet_VersionRecuperada.xlsx
+++ b/DataSet_VersionRecuperada.xlsx
@@ -49,7 +49,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Daniela Alejandra Ortega Rosero:</t>
         </r>
@@ -58,7 +58,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Dos factores, ambos discriminan igual </t>
@@ -73,7 +73,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Daniela Alejandra Ortega Rosero:</t>
         </r>
@@ -82,7 +82,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Dos factor igual conclusion </t>
@@ -97,7 +97,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Daniela Alejandra Ortega Rosero:</t>
         </r>
@@ -106,7 +106,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">resultado del segundo factor </t>
         </r>
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1799" uniqueCount="194">
   <si>
     <t>7:00 a 8:00</t>
   </si>
@@ -661,6 +661,45 @@
   <si>
     <t>Group 1 + Group 2</t>
   </si>
+  <si>
+    <t>S25</t>
+  </si>
+  <si>
+    <t>S26</t>
+  </si>
+  <si>
+    <t>S27</t>
+  </si>
+  <si>
+    <t>S28</t>
+  </si>
+  <si>
+    <t>S29</t>
+  </si>
+  <si>
+    <t>S30</t>
+  </si>
+  <si>
+    <t>S31</t>
+  </si>
+  <si>
+    <t>S32</t>
+  </si>
+  <si>
+    <t>S33</t>
+  </si>
+  <si>
+    <t>S34</t>
+  </si>
+  <si>
+    <t>S35</t>
+  </si>
+  <si>
+    <t>S36</t>
+  </si>
+  <si>
+    <t>S37</t>
+  </si>
 </sst>
 </file>
 
@@ -721,14 +760,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -945,7 +984,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1118,7 +1157,37 @@
     <xf numFmtId="164" fontId="11" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1128,6 +1197,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1140,30 +1215,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1199,17 +1250,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1494,10 +1536,10 @@
   <dimension ref="A1:AV26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V4" sqref="V4"/>
+      <selection pane="bottomRight" activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1660,7 +1702,7 @@
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="62"/>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1792,7 +1834,7 @@
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="58"/>
+      <c r="B3" s="62"/>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1933,7 +1975,7 @@
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="58"/>
+      <c r="B4" s="62"/>
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
@@ -2077,7 +2119,7 @@
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="58"/>
+      <c r="B5" s="62"/>
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
@@ -2361,7 +2403,7 @@
       <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="58"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
@@ -2505,7 +2547,7 @@
       <c r="A8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="58"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
@@ -2646,7 +2688,7 @@
       <c r="A9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="58"/>
+      <c r="B9" s="62"/>
       <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
@@ -2790,7 +2832,7 @@
       <c r="A10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="58"/>
+      <c r="B10" s="62"/>
       <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
@@ -2931,7 +2973,7 @@
       <c r="A11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="58">
+      <c r="B11" s="62">
         <v>43555</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -3074,7 +3116,7 @@
       <c r="A12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="58"/>
+      <c r="B12" s="62"/>
       <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
@@ -3218,7 +3260,7 @@
       <c r="A13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="58">
+      <c r="B13" s="62">
         <v>43561</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -3361,7 +3403,7 @@
       <c r="A14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="58"/>
+      <c r="B14" s="62"/>
       <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
@@ -3505,7 +3547,7 @@
       <c r="A15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="58"/>
+      <c r="B15" s="62"/>
       <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
@@ -3649,7 +3691,7 @@
       <c r="A16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="58"/>
+      <c r="B16" s="62"/>
       <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
@@ -3787,7 +3829,7 @@
       <c r="A17" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="58"/>
+      <c r="B17" s="62"/>
       <c r="C17" s="2" t="s">
         <v>5</v>
       </c>
@@ -3928,7 +3970,7 @@
       <c r="A18" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="58"/>
+      <c r="B18" s="62"/>
       <c r="C18" s="2" t="s">
         <v>8</v>
       </c>
@@ -4069,7 +4111,7 @@
       <c r="A19" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="58"/>
+      <c r="B19" s="62"/>
       <c r="C19" s="2" t="s">
         <v>41</v>
       </c>
@@ -5048,10 +5090,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:AC41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AG9" sqref="AG9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5065,57 +5107,108 @@
     <col min="10" max="10" width="2.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="2.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
-        <v>180</v>
-      </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="68"/>
-    </row>
-    <row r="2" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" s="63" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="65"/>
+      <c r="P1" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="65"/>
+    </row>
+    <row r="2" spans="1:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="72" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="66" t="s">
+      <c r="D2" s="64"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="G2" s="67"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="66" t="s">
+      <c r="G2" s="64"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="J2" s="67"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="71" t="s">
+      <c r="J2" s="64"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="M2" s="72"/>
-      <c r="N2" s="73"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="70"/>
-      <c r="B3" s="70"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="68"/>
+      <c r="P2" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q2" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="R2" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="S2" s="64"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="63" t="s">
+        <v>127</v>
+      </c>
+      <c r="V2" s="64"/>
+      <c r="W2" s="65"/>
+      <c r="X2" s="63" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="66" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="68"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
       <c r="C3" s="36" t="s">
         <v>125</v>
       </c>
@@ -5152,990 +5245,1601 @@
       <c r="N3" s="37" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="S3" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="T3" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="U3" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="V3" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="W3" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="X3" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y3" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z3" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA3" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB3" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC3" s="37" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" s="69" t="s">
         <v>136</v>
       </c>
-      <c r="B4" s="86">
+      <c r="B4" s="59">
         <v>1</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="87" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="86" t="s">
-        <v>108</v>
-      </c>
-      <c r="F4" s="86"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="87" t="s">
-        <v>108</v>
-      </c>
-      <c r="K4" s="86" t="s">
-        <v>108</v>
-      </c>
-      <c r="L4" s="88">
-        <v>3.5309399999999998E-2</v>
-      </c>
-      <c r="M4" s="88">
-        <v>0.17068800000000001</v>
-      </c>
-      <c r="N4" s="88">
-        <v>0.21309</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
-      <c r="B5" s="86">
+      <c r="C4" s="59"/>
+      <c r="D4" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="K4" s="59"/>
+      <c r="L4" s="61">
+        <v>2.91369E-2</v>
+      </c>
+      <c r="M4" s="61">
+        <v>1.45153E-2</v>
+      </c>
+      <c r="N4" s="61">
+        <v>2.99864E-2</v>
+      </c>
+      <c r="P4" s="69" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="60"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="59"/>
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="59"/>
+      <c r="AA4" s="61"/>
+      <c r="AB4" s="61"/>
+      <c r="AC4" s="61"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="70"/>
+      <c r="B5" s="59">
         <v>2</v>
       </c>
-      <c r="C5" s="86" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" s="87" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" s="87" t="s">
-        <v>108</v>
-      </c>
-      <c r="F5" s="86"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87" t="s">
-        <v>108</v>
-      </c>
-      <c r="I5" s="86" t="s">
-        <v>108</v>
-      </c>
-      <c r="J5" s="87" t="s">
-        <v>108</v>
-      </c>
-      <c r="K5" s="87"/>
-      <c r="L5" s="88">
-        <v>8.57768E-2</v>
-      </c>
-      <c r="M5" s="88">
-        <v>6.2725100000000006E-2</v>
-      </c>
-      <c r="N5" s="88">
-        <v>4.8309499999999998E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="60"/>
-      <c r="B6" s="86">
+      <c r="C5" s="59"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="59"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="K5" s="60"/>
+      <c r="L5" s="61">
+        <v>0.16153899999999999</v>
+      </c>
+      <c r="M5" s="61">
+        <v>9.0434200000000006E-2</v>
+      </c>
+      <c r="N5" s="61">
+        <v>0.107514</v>
+      </c>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="60"/>
+      <c r="T5" s="60"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="60"/>
+      <c r="W5" s="60"/>
+      <c r="X5" s="59"/>
+      <c r="Y5" s="60"/>
+      <c r="Z5" s="60"/>
+      <c r="AA5" s="61"/>
+      <c r="AB5" s="61"/>
+      <c r="AC5" s="61"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" s="70"/>
+      <c r="B6" s="59">
         <v>3</v>
       </c>
-      <c r="C6" s="86"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87" t="s">
-        <v>108</v>
-      </c>
-      <c r="F6" s="86"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="87" t="s">
-        <v>108</v>
-      </c>
-      <c r="K6" s="87"/>
-      <c r="L6" s="88">
-        <v>0.16553100000000001</v>
-      </c>
-      <c r="M6" s="88">
-        <v>2.7691400000000001E-2</v>
-      </c>
-      <c r="N6" s="88">
-        <v>3.1797300000000001E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="60"/>
-      <c r="B7" s="86">
+      <c r="C6" s="59"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="K6" s="60"/>
+      <c r="L6" s="61">
+        <v>2.5561799999999999E-2</v>
+      </c>
+      <c r="M6" s="61">
+        <v>1.98738E-2</v>
+      </c>
+      <c r="N6" s="61">
+        <v>0.14727499999999999</v>
+      </c>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="60"/>
+      <c r="W6" s="60"/>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="60"/>
+      <c r="Z6" s="60"/>
+      <c r="AA6" s="61"/>
+      <c r="AB6" s="61"/>
+      <c r="AC6" s="61"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" s="70"/>
+      <c r="B7" s="59">
         <v>4</v>
       </c>
-      <c r="C7" s="86"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="87" t="s">
-        <v>108</v>
-      </c>
-      <c r="K7" s="87"/>
-      <c r="L7" s="88">
-        <v>0.113597</v>
-      </c>
-      <c r="M7" s="88">
-        <v>0.20688300000000001</v>
-      </c>
-      <c r="N7" s="88">
-        <v>0.21010699999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="61"/>
-      <c r="B8" s="86">
-        <v>5</v>
-      </c>
-      <c r="C8" s="86"/>
-      <c r="D8" s="87" t="s">
-        <v>108</v>
-      </c>
-      <c r="E8" s="87"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="87" t="s">
-        <v>108</v>
-      </c>
-      <c r="K8" s="87"/>
-      <c r="L8" s="88">
-        <v>1.91167E-2</v>
-      </c>
-      <c r="M8" s="88">
-        <v>5.7552800000000001E-2</v>
-      </c>
-      <c r="N8" s="88">
-        <v>0.19677700000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="s">
+      <c r="C7" s="59"/>
+      <c r="D7" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="60"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="K7" s="60"/>
+      <c r="L7" s="61">
+        <v>0.14423</v>
+      </c>
+      <c r="M7" s="61">
+        <v>3.3205999999999999E-2</v>
+      </c>
+      <c r="N7" s="61">
+        <v>0.13202700000000001</v>
+      </c>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="60"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="59"/>
+      <c r="V7" s="60"/>
+      <c r="W7" s="60"/>
+      <c r="X7" s="59"/>
+      <c r="Y7" s="60"/>
+      <c r="Z7" s="60"/>
+      <c r="AA7" s="61"/>
+      <c r="AB7" s="61"/>
+      <c r="AC7" s="61"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="B9" s="86">
+      <c r="B8" s="59">
         <v>1</v>
       </c>
-      <c r="C9" s="86" t="s">
-        <v>108</v>
-      </c>
-      <c r="D9" s="86" t="s">
-        <v>108</v>
-      </c>
-      <c r="E9" s="87" t="s">
-        <v>108</v>
-      </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86" t="s">
-        <v>108</v>
-      </c>
-      <c r="H9" s="87"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="88">
-        <v>4.3114899999999998E-2</v>
-      </c>
-      <c r="M9" s="88">
-        <v>6.0272600000000003E-2</v>
-      </c>
-      <c r="N9" s="88">
-        <v>4.5336700000000001E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="60"/>
-      <c r="B10" s="86">
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" s="59"/>
+      <c r="H8" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="61">
+        <v>3.9539600000000001E-2</v>
+      </c>
+      <c r="M8" s="61">
+        <v>0.100823</v>
+      </c>
+      <c r="N8" s="61">
+        <v>4.5043399999999997E-2</v>
+      </c>
+      <c r="P8" s="69" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="60"/>
+      <c r="U8" s="59"/>
+      <c r="V8" s="59"/>
+      <c r="W8" s="60"/>
+      <c r="X8" s="59"/>
+      <c r="Y8" s="59"/>
+      <c r="Z8" s="59"/>
+      <c r="AA8" s="61"/>
+      <c r="AB8" s="61"/>
+      <c r="AC8" s="61"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9" s="70"/>
+      <c r="B9" s="59">
         <v>2</v>
       </c>
-      <c r="C10" s="86" t="s">
-        <v>108</v>
-      </c>
-      <c r="D10" s="86" t="s">
-        <v>108</v>
-      </c>
-      <c r="E10" s="87" t="s">
-        <v>108</v>
-      </c>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="87" t="s">
-        <v>108</v>
-      </c>
-      <c r="I10" s="86"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="88">
-        <v>0.10954899999999999</v>
-      </c>
-      <c r="M10" s="88">
-        <v>1.7465700000000001E-2</v>
-      </c>
-      <c r="N10" s="88">
-        <v>1.7925099999999999E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="60"/>
-      <c r="B11" s="86">
+      <c r="C9" s="59"/>
+      <c r="D9" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="60"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="61">
+        <v>0.12649199999999999</v>
+      </c>
+      <c r="M9" s="61">
+        <v>0.29973899999999998</v>
+      </c>
+      <c r="N9" s="61">
+        <v>8.2884700000000006E-2</v>
+      </c>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="59"/>
+      <c r="V9" s="59"/>
+      <c r="W9" s="60"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="59"/>
+      <c r="Z9" s="60"/>
+      <c r="AA9" s="61"/>
+      <c r="AB9" s="61"/>
+      <c r="AC9" s="61"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10" s="70"/>
+      <c r="B10" s="59">
         <v>3</v>
       </c>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="87" t="s">
-        <v>108</v>
-      </c>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="88">
-        <v>0.122132</v>
-      </c>
-      <c r="M11" s="88">
-        <v>0.175541</v>
-      </c>
-      <c r="N11" s="88">
-        <v>4.7662099999999999E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="60"/>
-      <c r="B12" s="86">
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="61">
+        <v>0.186223</v>
+      </c>
+      <c r="M10" s="61">
+        <v>0.16948199999999999</v>
+      </c>
+      <c r="N10" s="61">
+        <v>0.22123100000000001</v>
+      </c>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="59"/>
+      <c r="W10" s="60"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="59"/>
+      <c r="Z10" s="60"/>
+      <c r="AA10" s="61"/>
+      <c r="AB10" s="61"/>
+      <c r="AC10" s="61"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11" s="70"/>
+      <c r="B11" s="59">
         <v>4</v>
       </c>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86" t="s">
-        <v>108</v>
-      </c>
-      <c r="E12" s="87"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="86" t="s">
-        <v>108</v>
-      </c>
-      <c r="K12" s="87"/>
-      <c r="L12" s="88">
-        <v>6.7224999999999993E-2</v>
-      </c>
-      <c r="M12" s="88">
-        <v>8.6080299999999998E-2</v>
-      </c>
-      <c r="N12" s="88">
-        <v>0.119604</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="61"/>
-      <c r="B13" s="86">
-        <v>5</v>
-      </c>
-      <c r="C13" s="86"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="88">
-        <v>0.208122</v>
-      </c>
-      <c r="M13" s="88">
-        <v>0.146788</v>
-      </c>
-      <c r="N13" s="88">
-        <v>0.22092400000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="59" t="s">
+      <c r="C11" s="59"/>
+      <c r="D11" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="60"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="61">
+        <v>5.8236200000000002E-2</v>
+      </c>
+      <c r="M11" s="61">
+        <v>0.14315600000000001</v>
+      </c>
+      <c r="N11" s="61">
+        <v>5.2803900000000001E-2</v>
+      </c>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="59"/>
+      <c r="T11" s="60"/>
+      <c r="U11" s="59"/>
+      <c r="V11" s="59"/>
+      <c r="W11" s="60"/>
+      <c r="X11" s="59"/>
+      <c r="Y11" s="59"/>
+      <c r="Z11" s="60"/>
+      <c r="AA11" s="61"/>
+      <c r="AB11" s="61"/>
+      <c r="AC11" s="61"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="B14" s="86">
+      <c r="B12" s="59">
         <v>1</v>
       </c>
-      <c r="C14" s="86"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="86"/>
-      <c r="L14" s="88"/>
-      <c r="M14" s="88"/>
-      <c r="N14" s="88"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="60"/>
-      <c r="B15" s="86">
+      <c r="C12" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" s="60"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="K12" s="59"/>
+      <c r="L12" s="61">
+        <v>0.50726700000000002</v>
+      </c>
+      <c r="M12" s="61">
+        <v>0.62829100000000004</v>
+      </c>
+      <c r="N12" s="61">
+        <v>0.239091</v>
+      </c>
+      <c r="P12" s="69" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="60"/>
+      <c r="T12" s="60"/>
+      <c r="U12" s="59"/>
+      <c r="V12" s="60"/>
+      <c r="W12" s="59"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="60"/>
+      <c r="Z12" s="59"/>
+      <c r="AA12" s="61"/>
+      <c r="AB12" s="61"/>
+      <c r="AC12" s="61"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13" s="70"/>
+      <c r="B13" s="59">
         <v>2</v>
       </c>
-      <c r="C15" s="86"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="88"/>
-      <c r="M15" s="88"/>
-      <c r="N15" s="88"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="60"/>
-      <c r="B16" s="86">
+      <c r="C13" s="59"/>
+      <c r="D13" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="60"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="61">
+        <v>0.67396699999999998</v>
+      </c>
+      <c r="M13" s="61">
+        <v>0.62235300000000005</v>
+      </c>
+      <c r="N13" s="61">
+        <v>0.38023499999999999</v>
+      </c>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="60"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="59"/>
+      <c r="V13" s="60"/>
+      <c r="W13" s="60"/>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="60"/>
+      <c r="Z13" s="60"/>
+      <c r="AA13" s="61"/>
+      <c r="AB13" s="61"/>
+      <c r="AC13" s="61"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14" s="70"/>
+      <c r="B14" s="59">
         <v>3</v>
       </c>
-      <c r="C16" s="86"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="87"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="87"/>
-      <c r="K16" s="87"/>
-      <c r="L16" s="88"/>
-      <c r="M16" s="88"/>
-      <c r="N16" s="88"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="60"/>
-      <c r="B17" s="86">
+      <c r="C14" s="59"/>
+      <c r="D14" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="60"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="K14" s="60"/>
+      <c r="L14" s="61">
+        <v>0.61845499999999998</v>
+      </c>
+      <c r="M14" s="61">
+        <v>0.34423300000000001</v>
+      </c>
+      <c r="N14" s="61">
+        <v>0.50038199999999999</v>
+      </c>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="59"/>
+      <c r="S14" s="60"/>
+      <c r="T14" s="60"/>
+      <c r="U14" s="59"/>
+      <c r="V14" s="60"/>
+      <c r="W14" s="60"/>
+      <c r="X14" s="59"/>
+      <c r="Y14" s="60"/>
+      <c r="Z14" s="60"/>
+      <c r="AA14" s="61"/>
+      <c r="AB14" s="61"/>
+      <c r="AC14" s="61"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A15" s="70"/>
+      <c r="B15" s="59">
         <v>4</v>
       </c>
-      <c r="C17" s="86"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="88"/>
-      <c r="M17" s="88"/>
-      <c r="N17" s="88"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="61"/>
-      <c r="B18" s="86">
-        <v>5</v>
-      </c>
-      <c r="C18" s="86"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="88"/>
-      <c r="M18" s="88"/>
-      <c r="N18" s="88"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="63" t="s">
+      <c r="C15" s="59"/>
+      <c r="D15" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="60"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="61">
+        <v>0.62914199999999998</v>
+      </c>
+      <c r="M15" s="61">
+        <v>0.882938</v>
+      </c>
+      <c r="N15" s="61">
+        <v>0.65549299999999999</v>
+      </c>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="60"/>
+      <c r="T15" s="60"/>
+      <c r="U15" s="59"/>
+      <c r="V15" s="60"/>
+      <c r="W15" s="60"/>
+      <c r="X15" s="59"/>
+      <c r="Y15" s="60"/>
+      <c r="Z15" s="60"/>
+      <c r="AA15" s="61"/>
+      <c r="AB15" s="61"/>
+      <c r="AC15" s="61"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A16" s="75" t="s">
         <v>138</v>
       </c>
-      <c r="B19" s="86">
+      <c r="B16" s="59">
         <v>1</v>
       </c>
-      <c r="C19" s="86"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="88"/>
-      <c r="M19" s="88"/>
-      <c r="N19" s="88"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="64"/>
-      <c r="B20" s="86">
+      <c r="C16" s="59"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="61">
+        <v>2.5672299999999999E-2</v>
+      </c>
+      <c r="M16" s="61">
+        <v>0.115594</v>
+      </c>
+      <c r="N16" s="61">
+        <v>4.5844200000000002E-2</v>
+      </c>
+      <c r="P16" s="75" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="59"/>
+      <c r="S16" s="60"/>
+      <c r="T16" s="60"/>
+      <c r="U16" s="59"/>
+      <c r="V16" s="60"/>
+      <c r="W16" s="60"/>
+      <c r="X16" s="59"/>
+      <c r="Y16" s="60"/>
+      <c r="Z16" s="60"/>
+      <c r="AA16" s="61"/>
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="61"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A17" s="76"/>
+      <c r="B17" s="59">
         <v>2</v>
       </c>
-      <c r="C20" s="86"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="86"/>
-      <c r="J20" s="87"/>
-      <c r="K20" s="87"/>
-      <c r="L20" s="88"/>
-      <c r="M20" s="88"/>
-      <c r="N20" s="88"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="64"/>
-      <c r="B21" s="86">
+      <c r="C17" s="59"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="61">
+        <v>2.6453999999999998E-2</v>
+      </c>
+      <c r="M17" s="61">
+        <v>0.35543400000000003</v>
+      </c>
+      <c r="N17" s="61">
+        <v>5.7418299999999999E-2</v>
+      </c>
+      <c r="P17" s="76"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="59"/>
+      <c r="S17" s="60"/>
+      <c r="T17" s="60"/>
+      <c r="U17" s="59"/>
+      <c r="V17" s="60"/>
+      <c r="W17" s="60"/>
+      <c r="X17" s="59"/>
+      <c r="Y17" s="60"/>
+      <c r="Z17" s="60"/>
+      <c r="AA17" s="61"/>
+      <c r="AB17" s="61"/>
+      <c r="AC17" s="61"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A18" s="76"/>
+      <c r="B18" s="59">
         <v>3</v>
       </c>
-      <c r="C21" s="86"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="87"/>
-      <c r="K21" s="87"/>
-      <c r="L21" s="88"/>
-      <c r="M21" s="88"/>
-      <c r="N21" s="88"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="64"/>
-      <c r="B22" s="86">
+      <c r="C18" s="59"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="61">
+        <v>2.9248199999999999E-2</v>
+      </c>
+      <c r="M18" s="61">
+        <v>0.172481</v>
+      </c>
+      <c r="N18" s="61">
+        <v>3.5646999999999998E-2</v>
+      </c>
+      <c r="P18" s="76"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="59"/>
+      <c r="S18" s="60"/>
+      <c r="T18" s="60"/>
+      <c r="U18" s="59"/>
+      <c r="V18" s="60"/>
+      <c r="W18" s="60"/>
+      <c r="X18" s="59"/>
+      <c r="Y18" s="60"/>
+      <c r="Z18" s="60"/>
+      <c r="AA18" s="61"/>
+      <c r="AB18" s="61"/>
+      <c r="AC18" s="61"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A19" s="76"/>
+      <c r="B19" s="59">
         <v>4</v>
       </c>
-      <c r="C22" s="86"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="88"/>
-      <c r="M22" s="88"/>
-      <c r="N22" s="88"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="65"/>
-      <c r="B23" s="86">
-        <v>5</v>
-      </c>
-      <c r="C23" s="86"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="87"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="88"/>
-      <c r="M23" s="88"/>
-      <c r="N23" s="88"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="63" t="s">
+      <c r="C19" s="59"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="61">
+        <v>8.7885699999999997E-2</v>
+      </c>
+      <c r="M19" s="61">
+        <v>8.6522600000000005E-2</v>
+      </c>
+      <c r="N19" s="61">
+        <v>4.3813699999999997E-2</v>
+      </c>
+      <c r="P19" s="76"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="59"/>
+      <c r="S19" s="60"/>
+      <c r="T19" s="60"/>
+      <c r="U19" s="59"/>
+      <c r="V19" s="60"/>
+      <c r="W19" s="60"/>
+      <c r="X19" s="59"/>
+      <c r="Y19" s="60"/>
+      <c r="Z19" s="60"/>
+      <c r="AA19" s="61"/>
+      <c r="AB19" s="61"/>
+      <c r="AC19" s="61"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A20" s="75" t="s">
         <v>139</v>
       </c>
-      <c r="B24" s="86">
+      <c r="B20" s="59">
         <v>1</v>
       </c>
-      <c r="C24" s="86"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="87"/>
-      <c r="K24" s="87"/>
-      <c r="L24" s="88"/>
-      <c r="M24" s="88"/>
-      <c r="N24" s="88"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="64"/>
-      <c r="B25" s="86">
+      <c r="C20" s="59"/>
+      <c r="D20" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" s="59"/>
+      <c r="G20" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20" s="60"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="61">
+        <v>3.3128400000000002E-2</v>
+      </c>
+      <c r="M20" s="61">
+        <v>0.25805600000000001</v>
+      </c>
+      <c r="N20" s="61">
+        <v>0.48419000000000001</v>
+      </c>
+      <c r="P20" s="75" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="59"/>
+      <c r="S20" s="60"/>
+      <c r="T20" s="60"/>
+      <c r="U20" s="59"/>
+      <c r="V20" s="60"/>
+      <c r="W20" s="60"/>
+      <c r="X20" s="59"/>
+      <c r="Y20" s="60"/>
+      <c r="Z20" s="60"/>
+      <c r="AA20" s="61"/>
+      <c r="AB20" s="61"/>
+      <c r="AC20" s="61"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A21" s="76"/>
+      <c r="B21" s="59">
         <v>2</v>
       </c>
-      <c r="C25" s="86"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="86"/>
-      <c r="J25" s="87"/>
-      <c r="K25" s="87"/>
-      <c r="L25" s="88"/>
-      <c r="M25" s="88"/>
-      <c r="N25" s="88"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="64"/>
-      <c r="B26" s="86">
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="61">
+        <v>0.24836900000000001</v>
+      </c>
+      <c r="M21" s="61">
+        <v>0.241401</v>
+      </c>
+      <c r="N21" s="61">
+        <v>0.78103</v>
+      </c>
+      <c r="P21" s="76"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="59"/>
+      <c r="S21" s="60"/>
+      <c r="T21" s="60"/>
+      <c r="U21" s="59"/>
+      <c r="V21" s="60"/>
+      <c r="W21" s="60"/>
+      <c r="X21" s="59"/>
+      <c r="Y21" s="60"/>
+      <c r="Z21" s="60"/>
+      <c r="AA21" s="61"/>
+      <c r="AB21" s="61"/>
+      <c r="AC21" s="61"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A22" s="76"/>
+      <c r="B22" s="59">
         <v>3</v>
       </c>
-      <c r="C26" s="86"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="86"/>
-      <c r="J26" s="87"/>
-      <c r="K26" s="87"/>
-      <c r="L26" s="88"/>
-      <c r="M26" s="88"/>
-      <c r="N26" s="88"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="64"/>
-      <c r="B27" s="86">
+      <c r="C22" s="59"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="61">
+        <v>5.7623500000000001E-2</v>
+      </c>
+      <c r="M22" s="61">
+        <v>0.52781199999999995</v>
+      </c>
+      <c r="N22" s="61">
+        <v>0.897227</v>
+      </c>
+      <c r="P22" s="76"/>
+      <c r="Q22" s="59"/>
+      <c r="R22" s="59"/>
+      <c r="S22" s="60"/>
+      <c r="T22" s="60"/>
+      <c r="U22" s="59"/>
+      <c r="V22" s="60"/>
+      <c r="W22" s="60"/>
+      <c r="X22" s="59"/>
+      <c r="Y22" s="60"/>
+      <c r="Z22" s="60"/>
+      <c r="AA22" s="61"/>
+      <c r="AB22" s="61"/>
+      <c r="AC22" s="61"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A23" s="76"/>
+      <c r="B23" s="59">
         <v>4</v>
       </c>
-      <c r="C27" s="86"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="87"/>
-      <c r="K27" s="87"/>
-      <c r="L27" s="88"/>
-      <c r="M27" s="88"/>
-      <c r="N27" s="88"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="65"/>
-      <c r="B28" s="86">
-        <v>5</v>
-      </c>
-      <c r="C28" s="86"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="87"/>
-      <c r="H28" s="87"/>
-      <c r="I28" s="86"/>
-      <c r="J28" s="87"/>
-      <c r="K28" s="87"/>
-      <c r="L28" s="88"/>
-      <c r="M28" s="88"/>
-      <c r="N28" s="88"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="59" t="s">
+      <c r="C23" s="59"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="61">
+        <v>0.157918</v>
+      </c>
+      <c r="M23" s="61">
+        <v>0.33754800000000001</v>
+      </c>
+      <c r="N23" s="61">
+        <v>0.91763700000000004</v>
+      </c>
+      <c r="P23" s="76"/>
+      <c r="Q23" s="59"/>
+      <c r="R23" s="59"/>
+      <c r="S23" s="60"/>
+      <c r="T23" s="60"/>
+      <c r="U23" s="59"/>
+      <c r="V23" s="60"/>
+      <c r="W23" s="60"/>
+      <c r="X23" s="59"/>
+      <c r="Y23" s="60"/>
+      <c r="Z23" s="60"/>
+      <c r="AA23" s="61"/>
+      <c r="AB23" s="61"/>
+      <c r="AC23" s="61"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A24" s="69" t="s">
         <v>140</v>
       </c>
-      <c r="B29" s="86">
+      <c r="B24" s="59">
         <v>1</v>
       </c>
-      <c r="C29" s="86"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="86"/>
-      <c r="J29" s="87"/>
-      <c r="K29" s="87"/>
-      <c r="L29" s="88"/>
-      <c r="M29" s="88"/>
-      <c r="N29" s="88"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="60"/>
-      <c r="B30" s="86">
+      <c r="C24" s="59"/>
+      <c r="D24" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="60"/>
+      <c r="F24" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="I24" s="59"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="61">
+        <v>0.221722</v>
+      </c>
+      <c r="M24" s="61">
+        <v>0.174151</v>
+      </c>
+      <c r="N24" s="61">
+        <v>0.16942399999999999</v>
+      </c>
+      <c r="P24" s="69" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q24" s="59"/>
+      <c r="R24" s="59"/>
+      <c r="S24" s="60"/>
+      <c r="T24" s="60"/>
+      <c r="U24" s="59"/>
+      <c r="V24" s="60"/>
+      <c r="W24" s="60"/>
+      <c r="X24" s="59"/>
+      <c r="Y24" s="60"/>
+      <c r="Z24" s="60"/>
+      <c r="AA24" s="61"/>
+      <c r="AB24" s="61"/>
+      <c r="AC24" s="61"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A25" s="70"/>
+      <c r="B25" s="59">
         <v>2</v>
       </c>
-      <c r="C30" s="86"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="87"/>
-      <c r="H30" s="87"/>
-      <c r="I30" s="86"/>
-      <c r="J30" s="87"/>
-      <c r="K30" s="87"/>
-      <c r="L30" s="88"/>
-      <c r="M30" s="88"/>
-      <c r="N30" s="88"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="60"/>
-      <c r="B31" s="86">
+      <c r="C25" s="59"/>
+      <c r="D25" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="60"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="61">
+        <v>0.15726200000000001</v>
+      </c>
+      <c r="M25" s="61">
+        <v>7.1764800000000004E-2</v>
+      </c>
+      <c r="N25" s="61">
+        <v>0.120402</v>
+      </c>
+      <c r="P25" s="70"/>
+      <c r="Q25" s="59"/>
+      <c r="R25" s="59"/>
+      <c r="S25" s="60"/>
+      <c r="T25" s="60"/>
+      <c r="U25" s="59"/>
+      <c r="V25" s="60"/>
+      <c r="W25" s="60"/>
+      <c r="X25" s="59"/>
+      <c r="Y25" s="60"/>
+      <c r="Z25" s="60"/>
+      <c r="AA25" s="61"/>
+      <c r="AB25" s="61"/>
+      <c r="AC25" s="61"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A26" s="70"/>
+      <c r="B26" s="59">
         <v>3</v>
       </c>
-      <c r="C31" s="86"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="86"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="87"/>
-      <c r="I31" s="86"/>
-      <c r="J31" s="87"/>
-      <c r="K31" s="87"/>
-      <c r="L31" s="88"/>
-      <c r="M31" s="88"/>
-      <c r="N31" s="88"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="60"/>
-      <c r="B32" s="86">
+      <c r="C26" s="59"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="H26" s="60"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="61">
+        <v>0.19787399999999999</v>
+      </c>
+      <c r="M26" s="61">
+        <v>0.119321</v>
+      </c>
+      <c r="N26" s="61">
+        <v>4.74008E-2</v>
+      </c>
+      <c r="P26" s="70"/>
+      <c r="Q26" s="59"/>
+      <c r="R26" s="59"/>
+      <c r="S26" s="60"/>
+      <c r="T26" s="60"/>
+      <c r="U26" s="59"/>
+      <c r="V26" s="60"/>
+      <c r="W26" s="60"/>
+      <c r="X26" s="59"/>
+      <c r="Y26" s="60"/>
+      <c r="Z26" s="60"/>
+      <c r="AA26" s="61"/>
+      <c r="AB26" s="61"/>
+      <c r="AC26" s="61"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A27" s="70"/>
+      <c r="B27" s="59">
         <v>4</v>
       </c>
-      <c r="C32" s="86"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="86"/>
-      <c r="G32" s="87"/>
-      <c r="H32" s="87"/>
-      <c r="I32" s="86"/>
-      <c r="J32" s="87"/>
-      <c r="K32" s="87"/>
-      <c r="L32" s="88"/>
-      <c r="M32" s="88"/>
-      <c r="N32" s="88"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="61"/>
-      <c r="B33" s="86">
-        <v>5</v>
-      </c>
-      <c r="C33" s="86"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="86"/>
-      <c r="G33" s="87"/>
-      <c r="H33" s="87"/>
-      <c r="I33" s="86"/>
-      <c r="J33" s="87"/>
-      <c r="K33" s="87"/>
-      <c r="L33" s="88"/>
-      <c r="M33" s="88"/>
-      <c r="N33" s="88"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="59" t="s">
+      <c r="C27" s="59"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="61">
+        <v>0.40436899999999998</v>
+      </c>
+      <c r="M27" s="61">
+        <v>0.29417599999999999</v>
+      </c>
+      <c r="N27" s="61">
+        <v>7.8227500000000005E-2</v>
+      </c>
+      <c r="P27" s="70"/>
+      <c r="Q27" s="59"/>
+      <c r="R27" s="59"/>
+      <c r="S27" s="60"/>
+      <c r="T27" s="60"/>
+      <c r="U27" s="59"/>
+      <c r="V27" s="60"/>
+      <c r="W27" s="60"/>
+      <c r="X27" s="59"/>
+      <c r="Y27" s="60"/>
+      <c r="Z27" s="60"/>
+      <c r="AA27" s="61"/>
+      <c r="AB27" s="61"/>
+      <c r="AC27" s="61"/>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A28" s="69" t="s">
         <v>116</v>
       </c>
-      <c r="B34" s="86">
+      <c r="B28" s="59">
         <v>1</v>
       </c>
-      <c r="C34" s="86"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="87"/>
-      <c r="H34" s="87"/>
-      <c r="I34" s="86"/>
-      <c r="J34" s="87"/>
-      <c r="K34" s="87"/>
-      <c r="L34" s="88"/>
-      <c r="M34" s="88"/>
-      <c r="N34" s="88"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="60"/>
-      <c r="B35" s="86">
+      <c r="C28" s="59"/>
+      <c r="D28" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="F28" s="59"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="61">
+        <v>0.10212300000000001</v>
+      </c>
+      <c r="M28" s="61">
+        <v>0.72323599999999999</v>
+      </c>
+      <c r="N28" s="61">
+        <v>6.9860400000000003E-2</v>
+      </c>
+      <c r="P28" s="69" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q28" s="59"/>
+      <c r="R28" s="59"/>
+      <c r="S28" s="60"/>
+      <c r="T28" s="60"/>
+      <c r="U28" s="59"/>
+      <c r="V28" s="60"/>
+      <c r="W28" s="60"/>
+      <c r="X28" s="59"/>
+      <c r="Y28" s="60"/>
+      <c r="Z28" s="60"/>
+      <c r="AA28" s="61"/>
+      <c r="AB28" s="61"/>
+      <c r="AC28" s="61"/>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A29" s="70"/>
+      <c r="B29" s="59">
         <v>2</v>
       </c>
-      <c r="C35" s="86"/>
-      <c r="D35" s="87"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="87"/>
-      <c r="H35" s="87"/>
-      <c r="I35" s="86"/>
-      <c r="J35" s="87"/>
-      <c r="K35" s="87"/>
-      <c r="L35" s="88"/>
-      <c r="M35" s="88"/>
-      <c r="N35" s="88"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="60"/>
-      <c r="B36" s="86">
+      <c r="C29" s="59"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="61">
+        <v>0.21118100000000001</v>
+      </c>
+      <c r="M29" s="61">
+        <v>0.353182</v>
+      </c>
+      <c r="N29" s="61">
+        <v>2.2438900000000001E-2</v>
+      </c>
+      <c r="P29" s="70"/>
+      <c r="Q29" s="59"/>
+      <c r="R29" s="59"/>
+      <c r="S29" s="60"/>
+      <c r="T29" s="60"/>
+      <c r="U29" s="59"/>
+      <c r="V29" s="60"/>
+      <c r="W29" s="60"/>
+      <c r="X29" s="59"/>
+      <c r="Y29" s="60"/>
+      <c r="Z29" s="60"/>
+      <c r="AA29" s="61"/>
+      <c r="AB29" s="61"/>
+      <c r="AC29" s="61"/>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A30" s="70"/>
+      <c r="B30" s="59">
         <v>3</v>
       </c>
-      <c r="C36" s="86"/>
-      <c r="D36" s="87"/>
-      <c r="E36" s="87"/>
-      <c r="F36" s="86"/>
-      <c r="G36" s="87"/>
-      <c r="H36" s="87"/>
-      <c r="I36" s="86"/>
-      <c r="J36" s="87"/>
-      <c r="K36" s="87"/>
-      <c r="L36" s="88"/>
-      <c r="M36" s="88"/>
-      <c r="N36" s="88"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="60"/>
-      <c r="B37" s="86">
+      <c r="C30" s="59"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="61">
+        <v>7.4843400000000004E-2</v>
+      </c>
+      <c r="M30" s="61">
+        <v>0.76319999999999999</v>
+      </c>
+      <c r="N30" s="61">
+        <v>0.18915299999999999</v>
+      </c>
+      <c r="P30" s="70"/>
+      <c r="Q30" s="59"/>
+      <c r="R30" s="59"/>
+      <c r="S30" s="60"/>
+      <c r="T30" s="60"/>
+      <c r="U30" s="59"/>
+      <c r="V30" s="60"/>
+      <c r="W30" s="60"/>
+      <c r="X30" s="59"/>
+      <c r="Y30" s="60"/>
+      <c r="Z30" s="60"/>
+      <c r="AA30" s="61"/>
+      <c r="AB30" s="61"/>
+      <c r="AC30" s="61"/>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A31" s="70"/>
+      <c r="B31" s="59">
         <v>4</v>
       </c>
-      <c r="C37" s="86"/>
-      <c r="D37" s="87"/>
-      <c r="E37" s="87"/>
-      <c r="F37" s="86"/>
-      <c r="G37" s="87"/>
-      <c r="H37" s="87"/>
-      <c r="I37" s="86"/>
-      <c r="J37" s="87"/>
-      <c r="K37" s="87"/>
-      <c r="L37" s="88"/>
-      <c r="M37" s="88"/>
-      <c r="N37" s="88"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="61"/>
-      <c r="B38" s="86">
-        <v>5</v>
-      </c>
-      <c r="C38" s="86"/>
-      <c r="D38" s="87"/>
-      <c r="E38" s="87"/>
-      <c r="F38" s="86"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="86"/>
-      <c r="J38" s="87"/>
-      <c r="K38" s="87"/>
-      <c r="L38" s="88"/>
-      <c r="M38" s="88"/>
-      <c r="N38" s="88"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="59" t="s">
+      <c r="C31" s="59"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="61">
+        <v>0.110955</v>
+      </c>
+      <c r="M31" s="61">
+        <v>0.45248699999999997</v>
+      </c>
+      <c r="N31" s="61">
+        <v>3.4277799999999997E-2</v>
+      </c>
+      <c r="P31" s="70"/>
+      <c r="Q31" s="59"/>
+      <c r="R31" s="59"/>
+      <c r="S31" s="60"/>
+      <c r="T31" s="60"/>
+      <c r="U31" s="59"/>
+      <c r="V31" s="60"/>
+      <c r="W31" s="60"/>
+      <c r="X31" s="59"/>
+      <c r="Y31" s="60"/>
+      <c r="Z31" s="60"/>
+      <c r="AA31" s="61"/>
+      <c r="AB31" s="61"/>
+      <c r="AC31" s="61"/>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A32" s="69" t="s">
         <v>141</v>
       </c>
-      <c r="B39" s="86">
+      <c r="B32" s="59">
         <v>1</v>
       </c>
-      <c r="C39" s="86"/>
-      <c r="D39" s="87"/>
-      <c r="E39" s="87"/>
-      <c r="F39" s="86"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="86"/>
-      <c r="J39" s="87"/>
-      <c r="K39" s="87"/>
-      <c r="L39" s="88"/>
-      <c r="M39" s="88"/>
-      <c r="N39" s="88"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="60"/>
-      <c r="B40" s="86">
+      <c r="C32" s="59"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="G32" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="H32" s="60"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="61">
+        <v>0.15229200000000001</v>
+      </c>
+      <c r="M32" s="61">
+        <v>0.14747199999999999</v>
+      </c>
+      <c r="N32" s="61">
+        <v>5.9273100000000002E-2</v>
+      </c>
+      <c r="P32" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q32" s="59"/>
+      <c r="R32" s="59"/>
+      <c r="S32" s="60"/>
+      <c r="T32" s="60"/>
+      <c r="U32" s="59"/>
+      <c r="V32" s="60"/>
+      <c r="W32" s="60"/>
+      <c r="X32" s="59"/>
+      <c r="Y32" s="60"/>
+      <c r="Z32" s="60"/>
+      <c r="AA32" s="61"/>
+      <c r="AB32" s="61"/>
+      <c r="AC32" s="61"/>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A33" s="70"/>
+      <c r="B33" s="59">
         <v>2</v>
       </c>
-      <c r="C40" s="86"/>
-      <c r="D40" s="87"/>
-      <c r="E40" s="87"/>
-      <c r="F40" s="86"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="86"/>
-      <c r="J40" s="87"/>
-      <c r="K40" s="87"/>
-      <c r="L40" s="88"/>
-      <c r="M40" s="88"/>
-      <c r="N40" s="88"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="60"/>
-      <c r="B41" s="86">
+      <c r="C33" s="59"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="60"/>
+      <c r="K33" s="60"/>
+      <c r="L33" s="61">
+        <v>0.102085</v>
+      </c>
+      <c r="M33" s="61">
+        <v>6.1790299999999999E-2</v>
+      </c>
+      <c r="N33" s="61">
+        <v>1.77678E-2</v>
+      </c>
+      <c r="P33" s="70"/>
+      <c r="Q33" s="59"/>
+      <c r="R33" s="59"/>
+      <c r="S33" s="60"/>
+      <c r="T33" s="60"/>
+      <c r="U33" s="59"/>
+      <c r="V33" s="60"/>
+      <c r="W33" s="60"/>
+      <c r="X33" s="59"/>
+      <c r="Y33" s="60"/>
+      <c r="Z33" s="60"/>
+      <c r="AA33" s="61"/>
+      <c r="AB33" s="61"/>
+      <c r="AC33" s="61"/>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A34" s="70"/>
+      <c r="B34" s="59">
         <v>3</v>
       </c>
-      <c r="C41" s="86"/>
-      <c r="D41" s="87"/>
-      <c r="E41" s="87"/>
-      <c r="F41" s="86"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="86"/>
-      <c r="J41" s="87"/>
-      <c r="K41" s="87"/>
-      <c r="L41" s="88"/>
-      <c r="M41" s="88"/>
-      <c r="N41" s="88"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="60"/>
-      <c r="B42" s="86">
+      <c r="C34" s="59"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="61">
+        <v>6.6528400000000001E-2</v>
+      </c>
+      <c r="M34" s="61">
+        <v>6.3364299999999998E-2</v>
+      </c>
+      <c r="N34" s="61">
+        <v>7.3289699999999999E-2</v>
+      </c>
+      <c r="P34" s="70"/>
+      <c r="Q34" s="59"/>
+      <c r="R34" s="59"/>
+      <c r="S34" s="60"/>
+      <c r="T34" s="60"/>
+      <c r="U34" s="59"/>
+      <c r="V34" s="60"/>
+      <c r="W34" s="60"/>
+      <c r="X34" s="59"/>
+      <c r="Y34" s="60"/>
+      <c r="Z34" s="60"/>
+      <c r="AA34" s="61"/>
+      <c r="AB34" s="61"/>
+      <c r="AC34" s="61"/>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A35" s="70"/>
+      <c r="B35" s="59">
         <v>4</v>
       </c>
-      <c r="C42" s="86"/>
-      <c r="D42" s="87"/>
-      <c r="E42" s="87"/>
-      <c r="F42" s="86"/>
-      <c r="G42" s="87"/>
-      <c r="H42" s="87"/>
-      <c r="I42" s="86"/>
-      <c r="J42" s="87"/>
-      <c r="K42" s="87"/>
-      <c r="L42" s="88"/>
-      <c r="M42" s="88"/>
-      <c r="N42" s="88"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="61"/>
-      <c r="B43" s="86">
-        <v>5</v>
-      </c>
-      <c r="C43" s="86"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="86"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="86"/>
-      <c r="J43" s="87"/>
-      <c r="K43" s="87"/>
-      <c r="L43" s="88"/>
-      <c r="M43" s="88"/>
-      <c r="N43" s="88"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="62" t="s">
+      <c r="C35" s="59"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="61">
+        <v>0.17912700000000001</v>
+      </c>
+      <c r="M35" s="61">
+        <v>7.1185999999999999E-2</v>
+      </c>
+      <c r="N35" s="61">
+        <v>2.0179599999999999E-2</v>
+      </c>
+      <c r="P35" s="70"/>
+      <c r="Q35" s="59"/>
+      <c r="R35" s="59"/>
+      <c r="S35" s="60"/>
+      <c r="T35" s="60"/>
+      <c r="U35" s="59"/>
+      <c r="V35" s="60"/>
+      <c r="W35" s="60"/>
+      <c r="X35" s="59"/>
+      <c r="Y35" s="60"/>
+      <c r="Z35" s="60"/>
+      <c r="AA35" s="61"/>
+      <c r="AB35" s="61"/>
+      <c r="AC35" s="61"/>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A36" s="74" t="s">
         <v>142</v>
       </c>
-      <c r="B44" s="86">
+      <c r="B36" s="59">
         <v>1</v>
       </c>
-      <c r="C44" s="86"/>
-      <c r="D44" s="87"/>
-      <c r="E44" s="87"/>
-      <c r="F44" s="86"/>
-      <c r="G44" s="87"/>
-      <c r="H44" s="87"/>
-      <c r="I44" s="86"/>
-      <c r="J44" s="87"/>
-      <c r="K44" s="87"/>
-      <c r="L44" s="88"/>
-      <c r="M44" s="88"/>
-      <c r="N44" s="88"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="62"/>
-      <c r="B45" s="86">
+      <c r="C36" s="59"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="G36" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="H36" s="60"/>
+      <c r="I36" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="J36" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="K36" s="60"/>
+      <c r="L36" s="61">
+        <v>1.2422600000000001E-2</v>
+      </c>
+      <c r="M36" s="61">
+        <v>1.55269E-2</v>
+      </c>
+      <c r="N36" s="61">
+        <v>1.61917E-2</v>
+      </c>
+      <c r="P36" s="74" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q36" s="59"/>
+      <c r="R36" s="59"/>
+      <c r="S36" s="60"/>
+      <c r="T36" s="60"/>
+      <c r="U36" s="59"/>
+      <c r="V36" s="60"/>
+      <c r="W36" s="60"/>
+      <c r="X36" s="59"/>
+      <c r="Y36" s="60"/>
+      <c r="Z36" s="60"/>
+      <c r="AA36" s="61"/>
+      <c r="AB36" s="61"/>
+      <c r="AC36" s="61"/>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A37" s="74"/>
+      <c r="B37" s="59">
         <v>2</v>
       </c>
-      <c r="C45" s="86"/>
-      <c r="D45" s="87"/>
-      <c r="E45" s="87"/>
-      <c r="F45" s="86"/>
-      <c r="G45" s="87"/>
-      <c r="H45" s="87"/>
-      <c r="I45" s="86"/>
-      <c r="J45" s="87"/>
-      <c r="K45" s="87"/>
-      <c r="L45" s="88"/>
-      <c r="M45" s="88"/>
-      <c r="N45" s="88"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="62"/>
-      <c r="B46" s="86">
+      <c r="C37" s="59"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="G37" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="H37" s="60"/>
+      <c r="I37" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="J37" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="K37" s="60"/>
+      <c r="L37" s="61">
+        <v>1.6939800000000001E-2</v>
+      </c>
+      <c r="M37" s="61">
+        <v>6.2077E-3</v>
+      </c>
+      <c r="N37" s="61">
+        <v>5.7760399999999996E-3</v>
+      </c>
+      <c r="P37" s="74"/>
+      <c r="Q37" s="59"/>
+      <c r="R37" s="59"/>
+      <c r="S37" s="60"/>
+      <c r="T37" s="60"/>
+      <c r="U37" s="59"/>
+      <c r="V37" s="60"/>
+      <c r="W37" s="60"/>
+      <c r="X37" s="59"/>
+      <c r="Y37" s="60"/>
+      <c r="Z37" s="60"/>
+      <c r="AA37" s="61"/>
+      <c r="AB37" s="61"/>
+      <c r="AC37" s="61"/>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A38" s="74"/>
+      <c r="B38" s="59">
         <v>3</v>
       </c>
-      <c r="C46" s="86"/>
-      <c r="D46" s="87"/>
-      <c r="E46" s="87"/>
-      <c r="F46" s="86"/>
-      <c r="G46" s="87"/>
-      <c r="H46" s="87"/>
-      <c r="I46" s="86"/>
-      <c r="J46" s="87"/>
-      <c r="K46" s="87"/>
-      <c r="L46" s="88"/>
-      <c r="M46" s="88"/>
-      <c r="N46" s="88"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="62"/>
-      <c r="B47" s="86">
+      <c r="C38" s="59"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="G38" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="H38" s="60"/>
+      <c r="I38" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="J38" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="K38" s="60"/>
+      <c r="L38" s="61">
+        <v>2.3556799999999999E-2</v>
+      </c>
+      <c r="M38" s="61">
+        <v>1.8430599999999998E-2</v>
+      </c>
+      <c r="N38" s="61">
+        <v>2.91655E-2</v>
+      </c>
+      <c r="P38" s="74"/>
+      <c r="Q38" s="59"/>
+      <c r="R38" s="59"/>
+      <c r="S38" s="60"/>
+      <c r="T38" s="60"/>
+      <c r="U38" s="59"/>
+      <c r="V38" s="60"/>
+      <c r="W38" s="60"/>
+      <c r="X38" s="59"/>
+      <c r="Y38" s="60"/>
+      <c r="Z38" s="60"/>
+      <c r="AA38" s="61"/>
+      <c r="AB38" s="61"/>
+      <c r="AC38" s="61"/>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A39" s="74"/>
+      <c r="B39" s="59">
         <v>4</v>
       </c>
-      <c r="C47" s="86"/>
-      <c r="D47" s="87"/>
-      <c r="E47" s="87"/>
-      <c r="F47" s="86"/>
-      <c r="G47" s="87"/>
-      <c r="H47" s="87"/>
-      <c r="I47" s="86"/>
-      <c r="J47" s="87"/>
-      <c r="K47" s="87"/>
-      <c r="L47" s="88"/>
-      <c r="M47" s="88"/>
-      <c r="N47" s="88"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="62"/>
-      <c r="B48" s="86">
-        <v>5</v>
-      </c>
-      <c r="C48" s="86"/>
-      <c r="D48" s="87"/>
-      <c r="E48" s="87"/>
-      <c r="F48" s="86"/>
-      <c r="G48" s="87"/>
-      <c r="H48" s="87"/>
-      <c r="I48" s="86"/>
-      <c r="J48" s="87"/>
-      <c r="K48" s="87"/>
-      <c r="L48" s="88"/>
-      <c r="M48" s="88"/>
-      <c r="N48" s="88"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="85"/>
-      <c r="B49" s="85"/>
-      <c r="C49" s="85"/>
-      <c r="D49" s="85"/>
-      <c r="E49" s="85"/>
-      <c r="F49" s="85"/>
-      <c r="G49" s="85"/>
-      <c r="H49" s="85"/>
-      <c r="I49" s="85"/>
-      <c r="J49" s="85"/>
-      <c r="K49" s="85"/>
-      <c r="L49" s="85"/>
-      <c r="M49" s="85"/>
-      <c r="N49" s="85"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="85"/>
-      <c r="B50" s="85"/>
-      <c r="C50" s="85"/>
-      <c r="D50" s="85"/>
-      <c r="E50" s="85"/>
-      <c r="F50" s="85"/>
-      <c r="G50" s="85"/>
-      <c r="H50" s="85"/>
-      <c r="I50" s="85"/>
-      <c r="J50" s="85"/>
-      <c r="K50" s="85"/>
-      <c r="L50" s="85"/>
-      <c r="M50" s="85"/>
-      <c r="N50" s="85"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="G39" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="H39" s="60"/>
+      <c r="I39" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="J39" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="K39" s="60"/>
+      <c r="L39" s="61">
+        <v>1.2890499999999999E-2</v>
+      </c>
+      <c r="M39" s="61">
+        <v>7.1112900000000001E-3</v>
+      </c>
+      <c r="N39" s="61">
+        <v>1.0556299999999999E-2</v>
+      </c>
+      <c r="P39" s="74"/>
+      <c r="Q39" s="59"/>
+      <c r="R39" s="59"/>
+      <c r="S39" s="60"/>
+      <c r="T39" s="60"/>
+      <c r="U39" s="59"/>
+      <c r="V39" s="60"/>
+      <c r="W39" s="60"/>
+      <c r="X39" s="59"/>
+      <c r="Y39" s="60"/>
+      <c r="Z39" s="60"/>
+      <c r="AA39" s="61"/>
+      <c r="AB39" s="61"/>
+      <c r="AC39" s="61"/>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A40" s="58"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="89"/>
+      <c r="J40" s="58"/>
+      <c r="K40" s="58"/>
+      <c r="L40" s="58"/>
+      <c r="M40" s="58"/>
+      <c r="N40" s="58"/>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A41" s="58"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="58"/>
+      <c r="J41" s="58"/>
+      <c r="K41" s="58"/>
+      <c r="L41" s="58"/>
+      <c r="M41" s="58"/>
+      <c r="N41" s="58"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="A44:A48"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
+  <mergeCells count="32">
+    <mergeCell ref="P24:P27"/>
+    <mergeCell ref="P28:P31"/>
+    <mergeCell ref="P32:P35"/>
+    <mergeCell ref="P36:P39"/>
+    <mergeCell ref="P4:P7"/>
+    <mergeCell ref="P8:P11"/>
+    <mergeCell ref="P12:P15"/>
+    <mergeCell ref="P16:P19"/>
+    <mergeCell ref="P20:P23"/>
+    <mergeCell ref="P1:AC1"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AA2:AC2"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -6143,6 +6847,15 @@
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="L2:N2"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6150,11 +6863,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW14"/>
+  <dimension ref="A1:AX14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F2" sqref="F2:I14"/>
+      <pane xSplit="7" topLeftCell="AR1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F2" sqref="F2:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6163,13 +6876,14 @@
     <col min="2" max="2" width="0" style="5" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" style="5" hidden="1" customWidth="1"/>
     <col min="4" max="5" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" style="5" customWidth="1"/>
-    <col min="7" max="48" width="11.42578125" style="5"/>
-    <col min="49" max="49" width="22.5703125" style="5" customWidth="1"/>
-    <col min="50" max="16384" width="11.42578125" style="5"/>
+    <col min="6" max="6" width="11.42578125" style="5"/>
+    <col min="7" max="7" width="21.5703125" style="5" customWidth="1"/>
+    <col min="8" max="49" width="11.42578125" style="5"/>
+    <col min="50" max="50" width="22.5703125" style="5" customWidth="1"/>
+    <col min="51" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="12" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" s="12" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>60</v>
       </c>
@@ -6183,144 +6897,145 @@
       <c r="E1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="58">
+      <c r="B2" s="62">
         <v>43548</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -6333,42 +7048,44 @@
         <v>6.2</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="H2" s="5">
+      <c r="I2" s="5">
         <v>23</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="J2" s="5">
+      <c r="K2" s="5">
         <v>10</v>
       </c>
-      <c r="K2" s="5">
+      <c r="L2" s="5">
         <v>54</v>
       </c>
-      <c r="L2" s="5">
+      <c r="M2" s="5">
         <v>76</v>
       </c>
-      <c r="M2" s="5">
+      <c r="N2" s="5">
         <v>53</v>
       </c>
-      <c r="N2" s="5">
+      <c r="O2" s="5">
         <v>60</v>
       </c>
-      <c r="O2" s="5">
+      <c r="P2" s="5">
         <v>45</v>
       </c>
-      <c r="P2" s="5">
+      <c r="Q2" s="5">
         <v>69</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="R2" s="5">
         <v>87</v>
       </c>
-      <c r="R2" s="8"/>
       <c r="S2" s="8"/>
       <c r="T2" s="8"/>
       <c r="U2" s="8"/>
@@ -6379,32 +7096,33 @@
       <c r="Z2" s="8"/>
       <c r="AA2" s="8"/>
       <c r="AB2" s="8"/>
-      <c r="AC2" s="10"/>
+      <c r="AC2" s="8"/>
       <c r="AD2" s="10"/>
       <c r="AE2" s="10"/>
       <c r="AF2" s="10"/>
       <c r="AG2" s="10"/>
       <c r="AH2" s="10"/>
-      <c r="AI2" s="8"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="8"/>
+      <c r="AI2" s="10"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="49"/>
       <c r="AL2" s="8"/>
       <c r="AM2" s="8"/>
-      <c r="AN2" s="51"/>
+      <c r="AN2" s="8"/>
       <c r="AO2" s="51"/>
-      <c r="AP2" s="8"/>
+      <c r="AP2" s="51"/>
       <c r="AQ2" s="8"/>
       <c r="AR2" s="8"/>
       <c r="AS2" s="8"/>
       <c r="AT2" s="8"/>
-      <c r="AU2" s="10"/>
-      <c r="AV2" s="8"/>
-    </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AU2" s="8"/>
+      <c r="AV2" s="10"/>
+      <c r="AW2" s="8"/>
+    </row>
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B3" s="58"/>
+      <c r="B3" s="62"/>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
@@ -6415,42 +7133,44 @@
         <v>5.9</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="H3" s="5">
+      <c r="I3" s="5">
         <v>23</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="J3" s="5">
+      <c r="K3" s="5">
         <v>99</v>
       </c>
-      <c r="K3" s="5">
+      <c r="L3" s="5">
         <v>40</v>
       </c>
-      <c r="L3" s="5">
+      <c r="M3" s="5">
         <v>11</v>
       </c>
-      <c r="M3" s="5">
+      <c r="N3" s="5">
         <v>33</v>
       </c>
-      <c r="N3" s="5">
+      <c r="O3" s="5">
         <v>29</v>
       </c>
-      <c r="O3" s="5">
+      <c r="P3" s="5">
         <v>49</v>
       </c>
-      <c r="P3" s="5">
+      <c r="Q3" s="5">
         <v>47</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="R3" s="5">
         <v>33</v>
       </c>
-      <c r="R3" s="8"/>
       <c r="S3" s="8"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
@@ -6463,10 +7183,10 @@
       <c r="AB3" s="8"/>
       <c r="AC3" s="8"/>
       <c r="AD3" s="8"/>
-      <c r="AE3" s="10"/>
+      <c r="AE3" s="8"/>
       <c r="AF3" s="10"/>
       <c r="AG3" s="10"/>
-      <c r="AH3" s="8"/>
+      <c r="AH3" s="10"/>
       <c r="AI3" s="8"/>
       <c r="AJ3" s="8"/>
       <c r="AK3" s="8"/>
@@ -6478,15 +7198,16 @@
       <c r="AQ3" s="8"/>
       <c r="AR3" s="8"/>
       <c r="AS3" s="8"/>
-      <c r="AT3" s="49"/>
+      <c r="AT3" s="8"/>
       <c r="AU3" s="49"/>
       <c r="AV3" s="49"/>
-    </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AW3" s="49"/>
+    </row>
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B4" s="58"/>
+      <c r="B4" s="62"/>
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
@@ -6497,42 +7218,44 @@
         <v>5.6</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="H4" s="5">
+      <c r="I4" s="5">
         <v>23</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="J4" s="5">
-        <v>0</v>
-      </c>
       <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
         <v>31</v>
       </c>
-      <c r="L4" s="5">
+      <c r="M4" s="5">
         <v>26</v>
-      </c>
-      <c r="M4" s="5">
-        <v>24</v>
       </c>
       <c r="N4" s="5">
         <v>24</v>
       </c>
       <c r="O4" s="5">
+        <v>24</v>
+      </c>
+      <c r="P4" s="5">
         <v>30</v>
       </c>
-      <c r="P4" s="5">
+      <c r="Q4" s="5">
         <v>65</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="R4" s="5">
         <v>39</v>
       </c>
-      <c r="R4" s="8"/>
       <c r="S4" s="8"/>
       <c r="T4" s="8"/>
       <c r="U4" s="8"/>
@@ -6563,12 +7286,13 @@
       <c r="AT4" s="8"/>
       <c r="AU4" s="8"/>
       <c r="AV4" s="8"/>
-    </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AW4" s="8"/>
+    </row>
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B5" s="58"/>
+      <c r="B5" s="62"/>
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
@@ -6579,42 +7303,44 @@
         <v>5.6</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="H5" s="5">
+      <c r="I5" s="5">
         <v>24</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="J5" s="5">
+      <c r="K5" s="5">
         <v>5</v>
       </c>
-      <c r="K5" s="5">
+      <c r="L5" s="5">
         <v>73</v>
       </c>
-      <c r="L5" s="5">
+      <c r="M5" s="5">
         <v>82</v>
       </c>
-      <c r="M5" s="5">
+      <c r="N5" s="5">
         <v>71</v>
       </c>
-      <c r="N5" s="5">
+      <c r="O5" s="5">
         <v>82</v>
       </c>
-      <c r="O5" s="5">
+      <c r="P5" s="5">
         <v>95</v>
       </c>
-      <c r="P5" s="5">
-        <v>0</v>
-      </c>
       <c r="Q5" s="5">
+        <v>0</v>
+      </c>
+      <c r="R5" s="5">
         <v>67</v>
       </c>
-      <c r="R5" s="8"/>
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
       <c r="U5" s="8"/>
@@ -6636,21 +7362,22 @@
       <c r="AK5" s="8"/>
       <c r="AL5" s="8"/>
       <c r="AM5" s="8"/>
-      <c r="AN5" s="49"/>
-      <c r="AO5" s="10"/>
-      <c r="AP5" s="8"/>
+      <c r="AN5" s="8"/>
+      <c r="AO5" s="49"/>
+      <c r="AP5" s="10"/>
       <c r="AQ5" s="8"/>
       <c r="AR5" s="8"/>
       <c r="AS5" s="8"/>
       <c r="AT5" s="8"/>
       <c r="AU5" s="8"/>
       <c r="AV5" s="8"/>
-    </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AW5" s="8"/>
+    </row>
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B6" s="58"/>
+      <c r="B6" s="62"/>
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
@@ -6661,42 +7388,44 @@
         <v>5.5</v>
       </c>
       <c r="F6" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="H6" s="5">
+      <c r="I6" s="5">
         <v>29</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="J6" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="J6" s="5">
+      <c r="K6" s="5">
         <v>22</v>
       </c>
-      <c r="K6" s="5">
+      <c r="L6" s="5">
         <v>77</v>
       </c>
-      <c r="L6" s="5">
+      <c r="M6" s="5">
         <v>82</v>
       </c>
-      <c r="M6" s="5">
+      <c r="N6" s="5">
         <v>63</v>
       </c>
-      <c r="N6" s="5">
+      <c r="O6" s="5">
         <v>57</v>
       </c>
-      <c r="O6" s="5">
+      <c r="P6" s="5">
         <v>58</v>
       </c>
-      <c r="P6" s="5">
+      <c r="Q6" s="5">
         <v>71</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="R6" s="5">
         <v>2</v>
       </c>
-      <c r="R6" s="8"/>
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
       <c r="U6" s="8"/>
@@ -6715,11 +7444,11 @@
       <c r="AH6" s="8"/>
       <c r="AI6" s="8"/>
       <c r="AJ6" s="8"/>
-      <c r="AK6" s="50"/>
-      <c r="AL6" s="8"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="50"/>
       <c r="AM6" s="8"/>
-      <c r="AN6" s="50"/>
-      <c r="AO6" s="8"/>
+      <c r="AN6" s="8"/>
+      <c r="AO6" s="50"/>
       <c r="AP6" s="8"/>
       <c r="AQ6" s="8"/>
       <c r="AR6" s="8"/>
@@ -6727,12 +7456,13 @@
       <c r="AT6" s="8"/>
       <c r="AU6" s="8"/>
       <c r="AV6" s="8"/>
-    </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AW6" s="8"/>
+    </row>
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B7" s="58"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
@@ -6743,42 +7473,44 @@
         <v>5.5</v>
       </c>
       <c r="F7" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="H7" s="5">
+      <c r="I7" s="5">
         <v>53</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="J7" s="5">
+      <c r="K7" s="5">
         <v>50</v>
       </c>
-      <c r="K7" s="5">
+      <c r="L7" s="5">
         <v>112</v>
       </c>
-      <c r="L7" s="5">
+      <c r="M7" s="5">
         <v>104</v>
       </c>
-      <c r="M7" s="5">
+      <c r="N7" s="5">
         <v>65</v>
       </c>
-      <c r="N7" s="5">
+      <c r="O7" s="5">
         <v>66</v>
       </c>
-      <c r="O7" s="5">
+      <c r="P7" s="5">
         <v>102</v>
       </c>
-      <c r="P7" s="5">
+      <c r="Q7" s="5">
         <v>114</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="R7" s="5">
         <v>6</v>
       </c>
-      <c r="R7" s="8"/>
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
       <c r="U7" s="8"/>
@@ -6809,12 +7541,13 @@
       <c r="AT7" s="8"/>
       <c r="AU7" s="8"/>
       <c r="AV7" s="8"/>
-    </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AW7" s="8"/>
+    </row>
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B8" s="58"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
@@ -6825,39 +7558,41 @@
         <v>5.4</v>
       </c>
       <c r="F8" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="H8" s="5">
+      <c r="I8" s="5">
         <v>24</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="J8" s="5">
+      <c r="K8" s="5">
         <v>13</v>
       </c>
-      <c r="K8" s="5">
+      <c r="L8" s="5">
         <v>45</v>
       </c>
-      <c r="L8" s="5">
+      <c r="M8" s="5">
         <v>66</v>
       </c>
-      <c r="M8" s="5">
+      <c r="N8" s="5">
         <v>65</v>
       </c>
-      <c r="N8" s="5">
+      <c r="O8" s="5">
         <v>50</v>
       </c>
-      <c r="O8" s="5">
+      <c r="P8" s="5">
         <v>57</v>
       </c>
-      <c r="P8" s="5">
-        <v>0</v>
-      </c>
       <c r="Q8" s="5">
         <v>0</v>
       </c>
-      <c r="R8" s="8"/>
+      <c r="R8" s="5">
+        <v>0</v>
+      </c>
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
       <c r="U8" s="8"/>
@@ -6870,11 +7605,11 @@
       <c r="AB8" s="8"/>
       <c r="AC8" s="8"/>
       <c r="AD8" s="8"/>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="10"/>
       <c r="AG8" s="8"/>
-      <c r="AH8" s="50"/>
-      <c r="AI8" s="8"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="50"/>
       <c r="AJ8" s="8"/>
       <c r="AK8" s="8"/>
       <c r="AL8" s="8"/>
@@ -6888,12 +7623,13 @@
       <c r="AT8" s="8"/>
       <c r="AU8" s="8"/>
       <c r="AV8" s="8"/>
-    </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AW8" s="8"/>
+    </row>
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B9" s="58"/>
+      <c r="B9" s="62"/>
       <c r="C9" s="44">
         <v>0.25</v>
       </c>
@@ -6904,42 +7640,44 @@
         <v>4.25</v>
       </c>
       <c r="F9" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="H9" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="H9" s="5">
+      <c r="I9" s="5">
         <v>22</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="J9" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="J9" s="5">
+      <c r="K9" s="5">
         <v>16</v>
       </c>
-      <c r="K9" s="5">
+      <c r="L9" s="5">
         <v>48</v>
       </c>
-      <c r="L9" s="5">
+      <c r="M9" s="5">
         <v>75</v>
       </c>
-      <c r="M9" s="5">
+      <c r="N9" s="5">
         <v>53</v>
       </c>
-      <c r="N9" s="5">
+      <c r="O9" s="5">
         <v>45</v>
       </c>
-      <c r="O9" s="5">
+      <c r="P9" s="5">
         <v>77</v>
       </c>
-      <c r="P9" s="5">
+      <c r="Q9" s="5">
         <v>70</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="R9" s="5">
         <v>75</v>
       </c>
-      <c r="R9" s="8"/>
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
       <c r="U9" s="8"/>
@@ -6956,13 +7694,13 @@
       <c r="AF9" s="8"/>
       <c r="AG9" s="8"/>
       <c r="AH9" s="8"/>
-      <c r="AI9" s="50"/>
-      <c r="AJ9" s="8"/>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="50"/>
       <c r="AK9" s="8"/>
       <c r="AL9" s="8"/>
       <c r="AM9" s="8"/>
-      <c r="AN9" s="50"/>
-      <c r="AO9" s="8"/>
+      <c r="AN9" s="8"/>
+      <c r="AO9" s="50"/>
       <c r="AP9" s="8"/>
       <c r="AQ9" s="8"/>
       <c r="AR9" s="8"/>
@@ -6970,8 +7708,9 @@
       <c r="AT9" s="8"/>
       <c r="AU9" s="8"/>
       <c r="AV9" s="8"/>
-    </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AW9" s="8"/>
+    </row>
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>162</v>
       </c>
@@ -6985,42 +7724,44 @@
         <v>5.25</v>
       </c>
       <c r="F10" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="H10" s="5">
+      <c r="I10" s="5">
         <v>25</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="J10" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="J10" s="5">
+      <c r="K10" s="5">
         <v>4</v>
       </c>
-      <c r="K10" s="5">
+      <c r="L10" s="5">
         <v>170</v>
       </c>
-      <c r="L10" s="5">
+      <c r="M10" s="5">
         <v>200</v>
       </c>
-      <c r="M10" s="5">
+      <c r="N10" s="5">
         <v>140</v>
       </c>
-      <c r="N10" s="5">
+      <c r="O10" s="5">
         <v>56</v>
       </c>
-      <c r="O10" s="5">
+      <c r="P10" s="5">
         <v>145</v>
       </c>
-      <c r="P10" s="5">
+      <c r="Q10" s="5">
         <v>170</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="R10" s="5">
         <v>110</v>
       </c>
-      <c r="R10" s="8"/>
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
       <c r="U10" s="8"/>
@@ -7051,8 +7792,9 @@
       <c r="AT10" s="8"/>
       <c r="AU10" s="8"/>
       <c r="AV10" s="8"/>
-    </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AW10" s="8"/>
+    </row>
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>165</v>
       </c>
@@ -7066,39 +7808,41 @@
         <v>5.4</v>
       </c>
       <c r="F11" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="H11" s="5">
+      <c r="I11" s="5">
         <v>25</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="J11" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="J11" s="5">
-        <v>17</v>
       </c>
       <c r="K11" s="5">
         <v>17</v>
       </c>
       <c r="L11" s="5">
+        <v>17</v>
+      </c>
+      <c r="M11" s="5">
         <v>32</v>
       </c>
-      <c r="M11" s="5">
+      <c r="N11" s="5">
         <v>9</v>
       </c>
-      <c r="N11" s="5">
+      <c r="O11" s="5">
         <v>26</v>
       </c>
-      <c r="O11" s="5">
+      <c r="P11" s="5">
         <v>20</v>
       </c>
-      <c r="P11" s="5">
+      <c r="Q11" s="5">
         <v>48</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="R11" s="5">
         <v>26</v>
       </c>
-      <c r="R11" s="8"/>
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
       <c r="U11" s="8"/>
@@ -7129,8 +7873,9 @@
       <c r="AT11" s="8"/>
       <c r="AU11" s="8"/>
       <c r="AV11" s="8"/>
-    </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AW11" s="8"/>
+    </row>
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>167</v>
       </c>
@@ -7143,29 +7888,29 @@
       <c r="E12" s="5">
         <v>5.55</v>
       </c>
-      <c r="F12" s="43" t="s">
+      <c r="F12" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="G12" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="H12" s="5">
+      <c r="I12" s="5">
         <v>25</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="J12" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="J12" s="5">
+      <c r="K12" s="5">
         <v>100</v>
       </c>
-      <c r="K12" s="5">
+      <c r="L12" s="5">
         <v>79</v>
       </c>
-      <c r="L12" s="5">
+      <c r="M12" s="5">
         <v>300</v>
-      </c>
-      <c r="M12" s="5">
-        <v>200</v>
       </c>
       <c r="N12" s="5">
         <v>200</v>
@@ -7174,12 +7919,14 @@
         <v>200</v>
       </c>
       <c r="P12" s="5">
+        <v>200</v>
+      </c>
+      <c r="Q12" s="5">
         <v>300</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="R12" s="5">
         <v>250</v>
       </c>
-      <c r="R12" s="8"/>
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
       <c r="U12" s="8"/>
@@ -7194,8 +7941,8 @@
       <c r="AD12" s="8"/>
       <c r="AE12" s="8"/>
       <c r="AF12" s="8"/>
-      <c r="AG12" s="50"/>
-      <c r="AH12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="50"/>
       <c r="AI12" s="8"/>
       <c r="AJ12" s="8"/>
       <c r="AK12" s="8"/>
@@ -7210,11 +7957,12 @@
       <c r="AT12" s="8"/>
       <c r="AU12" s="8"/>
       <c r="AV12" s="8"/>
-      <c r="AW12" s="5" t="s">
+      <c r="AW12" s="8"/>
+      <c r="AX12" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>169</v>
       </c>
@@ -7228,39 +7976,41 @@
         <v>5.6</v>
       </c>
       <c r="F13" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="H13" s="5">
+      <c r="I13" s="5">
         <v>35</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="J13" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="J13" s="5">
+      <c r="K13" s="5">
         <v>60</v>
       </c>
-      <c r="K13" s="5">
+      <c r="L13" s="5">
         <v>43</v>
       </c>
-      <c r="L13" s="5">
+      <c r="M13" s="5">
         <v>30</v>
       </c>
-      <c r="M13" s="5">
+      <c r="N13" s="5">
         <v>24</v>
       </c>
-      <c r="N13" s="5">
+      <c r="O13" s="5">
         <v>35</v>
       </c>
-      <c r="O13" s="5">
+      <c r="P13" s="5">
         <v>24</v>
       </c>
-      <c r="P13" s="5">
+      <c r="Q13" s="5">
         <v>65</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="R13" s="5">
         <v>50</v>
       </c>
-      <c r="R13" s="8"/>
       <c r="S13" s="8"/>
       <c r="T13" s="8"/>
       <c r="U13" s="8"/>
@@ -7291,8 +8041,9 @@
       <c r="AT13" s="8"/>
       <c r="AU13" s="8"/>
       <c r="AV13" s="8"/>
-    </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AW13" s="8"/>
+    </row>
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>172</v>
       </c>
@@ -7306,42 +8057,44 @@
         <v>5.4</v>
       </c>
       <c r="F14" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="H14" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="H14" s="5">
+      <c r="I14" s="5">
         <v>22</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="J14" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="J14" s="5">
+      <c r="K14" s="5">
         <v>6</v>
       </c>
-      <c r="K14" s="5">
+      <c r="L14" s="5">
         <v>54</v>
       </c>
-      <c r="L14" s="5">
+      <c r="M14" s="5">
         <v>46</v>
       </c>
-      <c r="M14" s="5">
+      <c r="N14" s="5">
         <v>45</v>
       </c>
-      <c r="N14" s="5">
+      <c r="O14" s="5">
         <v>57</v>
       </c>
-      <c r="O14" s="5">
+      <c r="P14" s="5">
         <v>51</v>
       </c>
-      <c r="P14" s="5">
+      <c r="Q14" s="5">
         <v>72</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="R14" s="5">
         <v>50</v>
       </c>
-      <c r="R14" s="8"/>
       <c r="S14" s="8"/>
       <c r="T14" s="8"/>
       <c r="U14" s="8"/>
@@ -7354,10 +8107,10 @@
       <c r="AB14" s="8"/>
       <c r="AC14" s="8"/>
       <c r="AD14" s="8"/>
-      <c r="AE14" s="53"/>
-      <c r="AF14" s="8"/>
-      <c r="AG14" s="52"/>
-      <c r="AH14" s="8"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="53"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="52"/>
       <c r="AI14" s="8"/>
       <c r="AJ14" s="8"/>
       <c r="AK14" s="8"/>
@@ -7372,6 +8125,7 @@
       <c r="AT14" s="8"/>
       <c r="AU14" s="8"/>
       <c r="AV14" s="8"/>
+      <c r="AW14" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7426,138 +8180,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="63" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="68"/>
-      <c r="P1" s="66" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="65"/>
+      <c r="P1" s="63" t="s">
         <v>177</v>
       </c>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="68"/>
-      <c r="AE1" s="66" t="s">
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="65"/>
+      <c r="AE1" s="63" t="s">
         <v>180</v>
       </c>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="67"/>
-      <c r="AH1" s="67"/>
-      <c r="AI1" s="67"/>
-      <c r="AJ1" s="67"/>
-      <c r="AK1" s="67"/>
-      <c r="AL1" s="67"/>
-      <c r="AM1" s="67"/>
-      <c r="AN1" s="67"/>
-      <c r="AO1" s="67"/>
-      <c r="AP1" s="67"/>
-      <c r="AQ1" s="67"/>
-      <c r="AR1" s="68"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="64"/>
+      <c r="AH1" s="64"/>
+      <c r="AI1" s="64"/>
+      <c r="AJ1" s="64"/>
+      <c r="AK1" s="64"/>
+      <c r="AL1" s="64"/>
+      <c r="AM1" s="64"/>
+      <c r="AN1" s="64"/>
+      <c r="AO1" s="64"/>
+      <c r="AP1" s="64"/>
+      <c r="AQ1" s="64"/>
+      <c r="AR1" s="65"/>
     </row>
     <row r="2" spans="1:44" s="31" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="72" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="66" t="s">
+      <c r="D2" s="64"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="G2" s="67"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="66" t="s">
+      <c r="G2" s="64"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="J2" s="67"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="71" t="s">
+      <c r="J2" s="64"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="M2" s="72"/>
-      <c r="N2" s="73"/>
-      <c r="P2" s="69" t="s">
+      <c r="M2" s="67"/>
+      <c r="N2" s="68"/>
+      <c r="P2" s="72" t="s">
         <v>130</v>
       </c>
-      <c r="Q2" s="69" t="s">
+      <c r="Q2" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="R2" s="66" t="s">
+      <c r="R2" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="S2" s="67"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="66" t="s">
+      <c r="S2" s="64"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="V2" s="67"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="66" t="s">
+      <c r="V2" s="64"/>
+      <c r="W2" s="65"/>
+      <c r="X2" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="68"/>
-      <c r="AA2" s="71" t="s">
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="73"/>
-      <c r="AE2" s="69" t="s">
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="68"/>
+      <c r="AE2" s="72" t="s">
         <v>130</v>
       </c>
-      <c r="AF2" s="69" t="s">
+      <c r="AF2" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="AG2" s="66" t="s">
+      <c r="AG2" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="AH2" s="67"/>
-      <c r="AI2" s="68"/>
-      <c r="AJ2" s="66" t="s">
+      <c r="AH2" s="64"/>
+      <c r="AI2" s="65"/>
+      <c r="AJ2" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="AK2" s="67"/>
-      <c r="AL2" s="68"/>
-      <c r="AM2" s="66" t="s">
+      <c r="AK2" s="64"/>
+      <c r="AL2" s="65"/>
+      <c r="AM2" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="AN2" s="67"/>
-      <c r="AO2" s="68"/>
-      <c r="AP2" s="71" t="s">
+      <c r="AN2" s="64"/>
+      <c r="AO2" s="65"/>
+      <c r="AP2" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="AQ2" s="72"/>
-      <c r="AR2" s="73"/>
+      <c r="AQ2" s="67"/>
+      <c r="AR2" s="68"/>
     </row>
     <row r="3" spans="1:44" s="31" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="70"/>
-      <c r="B3" s="70"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
       <c r="C3" s="36" t="s">
         <v>125</v>
       </c>
@@ -7594,8 +8348,8 @@
       <c r="N3" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
       <c r="R3" s="36" t="s">
         <v>125</v>
       </c>
@@ -7632,8 +8386,8 @@
       <c r="AC3" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="AE3" s="70"/>
-      <c r="AF3" s="70"/>
+      <c r="AE3" s="73"/>
+      <c r="AF3" s="73"/>
       <c r="AG3" s="36" t="s">
         <v>125</v>
       </c>
@@ -7672,7 +8426,7 @@
       </c>
     </row>
     <row r="4" spans="1:44" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="69" t="s">
         <v>136</v>
       </c>
       <c r="B4" s="38" t="s">
@@ -7711,7 +8465,7 @@
       <c r="O4" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="P4" s="59" t="s">
+      <c r="P4" s="69" t="s">
         <v>136</v>
       </c>
       <c r="Q4" s="38" t="s">
@@ -7747,7 +8501,7 @@
       <c r="AC4" s="40">
         <v>0.80864800000000003</v>
       </c>
-      <c r="AE4" s="59" t="s">
+      <c r="AE4" s="69" t="s">
         <v>136</v>
       </c>
       <c r="AF4" s="38" t="s">
@@ -7785,7 +8539,7 @@
       </c>
     </row>
     <row r="5" spans="1:44" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="38" t="s">
         <v>133</v>
       </c>
@@ -7825,7 +8579,7 @@
       <c r="N5" s="40">
         <v>0.53922099999999995</v>
       </c>
-      <c r="P5" s="60"/>
+      <c r="P5" s="70"/>
       <c r="Q5" s="38" t="s">
         <v>133</v>
       </c>
@@ -7865,7 +8619,7 @@
       <c r="AC5" s="40">
         <v>0.74212500000000003</v>
       </c>
-      <c r="AE5" s="60"/>
+      <c r="AE5" s="70"/>
       <c r="AF5" s="38" t="s">
         <v>133</v>
       </c>
@@ -7907,7 +8661,7 @@
       </c>
     </row>
     <row r="6" spans="1:44" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="60"/>
+      <c r="A6" s="70"/>
       <c r="B6" s="38" t="s">
         <v>134</v>
       </c>
@@ -7943,7 +8697,7 @@
       <c r="N6" s="40">
         <v>4.9845799999999997E-3</v>
       </c>
-      <c r="P6" s="60"/>
+      <c r="P6" s="70"/>
       <c r="Q6" s="38" t="s">
         <v>134</v>
       </c>
@@ -7977,7 +8731,7 @@
       <c r="AC6" s="40">
         <v>0.32851900000000001</v>
       </c>
-      <c r="AE6" s="60"/>
+      <c r="AE6" s="70"/>
       <c r="AF6" s="38" t="s">
         <v>134</v>
       </c>
@@ -8017,7 +8771,7 @@
       </c>
     </row>
     <row r="7" spans="1:44" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="61"/>
+      <c r="A7" s="71"/>
       <c r="B7" s="41" t="s">
         <v>135</v>
       </c>
@@ -8039,7 +8793,7 @@
       <c r="N7" s="42">
         <v>6.9331199999999996E-4</v>
       </c>
-      <c r="P7" s="61"/>
+      <c r="P7" s="71"/>
       <c r="Q7" s="41" t="s">
         <v>135</v>
       </c>
@@ -8061,7 +8815,7 @@
       <c r="AC7" s="42">
         <v>5.0963000000000001E-2</v>
       </c>
-      <c r="AE7" s="61"/>
+      <c r="AE7" s="71"/>
       <c r="AF7" s="38" t="s">
         <v>135</v>
       </c>
@@ -8085,7 +8839,7 @@
       </c>
     </row>
     <row r="8" spans="1:44" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="69" t="s">
         <v>137</v>
       </c>
       <c r="B8" s="38" t="s">
@@ -8121,7 +8875,7 @@
       <c r="N8" s="40">
         <v>0.34474100000000002</v>
       </c>
-      <c r="P8" s="59" t="s">
+      <c r="P8" s="69" t="s">
         <v>137</v>
       </c>
       <c r="Q8" s="38" t="s">
@@ -8157,7 +8911,7 @@
       <c r="AC8" s="40">
         <v>0.83276700000000003</v>
       </c>
-      <c r="AE8" s="59" t="s">
+      <c r="AE8" s="69" t="s">
         <v>137</v>
       </c>
       <c r="AF8" s="38" t="s">
@@ -8195,7 +8949,7 @@
       </c>
     </row>
     <row r="9" spans="1:44" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="60"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="38" t="s">
         <v>133</v>
       </c>
@@ -8235,7 +8989,7 @@
       <c r="N9" s="40">
         <v>0.93847400000000003</v>
       </c>
-      <c r="P9" s="60"/>
+      <c r="P9" s="70"/>
       <c r="Q9" s="38" t="s">
         <v>133</v>
       </c>
@@ -8275,7 +9029,7 @@
       <c r="AC9" s="40">
         <v>0.36027500000000001</v>
       </c>
-      <c r="AE9" s="60"/>
+      <c r="AE9" s="70"/>
       <c r="AF9" s="38" t="s">
         <v>133</v>
       </c>
@@ -8317,7 +9071,7 @@
       </c>
     </row>
     <row r="10" spans="1:44" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="60"/>
+      <c r="A10" s="70"/>
       <c r="B10" s="38" t="s">
         <v>134</v>
       </c>
@@ -8353,7 +9107,7 @@
       <c r="N10" s="40">
         <v>1.1750500000000001E-2</v>
       </c>
-      <c r="P10" s="60"/>
+      <c r="P10" s="70"/>
       <c r="Q10" s="38" t="s">
         <v>134</v>
       </c>
@@ -8387,7 +9141,7 @@
       <c r="AC10" s="40">
         <v>0.42157099999999997</v>
       </c>
-      <c r="AE10" s="60"/>
+      <c r="AE10" s="70"/>
       <c r="AF10" s="38" t="s">
         <v>134</v>
       </c>
@@ -8429,7 +9183,7 @@
       </c>
     </row>
     <row r="11" spans="1:44" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="61"/>
+      <c r="A11" s="71"/>
       <c r="B11" s="41" t="s">
         <v>135</v>
       </c>
@@ -8451,7 +9205,7 @@
       <c r="N11" s="42">
         <v>4.1270400000000002E-3</v>
       </c>
-      <c r="P11" s="61"/>
+      <c r="P11" s="71"/>
       <c r="Q11" s="41" t="s">
         <v>135</v>
       </c>
@@ -8479,7 +9233,7 @@
       <c r="AC11" s="42">
         <v>8.3578299999999994E-2</v>
       </c>
-      <c r="AE11" s="61"/>
+      <c r="AE11" s="71"/>
       <c r="AF11" s="38" t="s">
         <v>135</v>
       </c>
@@ -8507,7 +9261,7 @@
       </c>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="69" t="s">
         <v>110</v>
       </c>
       <c r="B12" s="38" t="s">
@@ -8543,7 +9297,7 @@
       <c r="N12" s="40">
         <v>0.61764799999999997</v>
       </c>
-      <c r="P12" s="59" t="s">
+      <c r="P12" s="69" t="s">
         <v>110</v>
       </c>
       <c r="Q12" s="38" t="s">
@@ -8579,7 +9333,7 @@
       <c r="AC12" s="40">
         <v>0.72725300000000004</v>
       </c>
-      <c r="AE12" s="59" t="s">
+      <c r="AE12" s="69" t="s">
         <v>110</v>
       </c>
       <c r="AF12" s="38" t="s">
@@ -8617,7 +9371,7 @@
       </c>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A13" s="60"/>
+      <c r="A13" s="70"/>
       <c r="B13" s="38" t="s">
         <v>133</v>
       </c>
@@ -8651,7 +9405,7 @@
       <c r="N13" s="40">
         <v>0.18202299999999999</v>
       </c>
-      <c r="P13" s="60"/>
+      <c r="P13" s="70"/>
       <c r="Q13" s="38" t="s">
         <v>133</v>
       </c>
@@ -8685,7 +9439,7 @@
       <c r="AC13" s="40">
         <v>0.50264500000000001</v>
       </c>
-      <c r="AE13" s="60"/>
+      <c r="AE13" s="70"/>
       <c r="AF13" s="38" t="s">
         <v>133</v>
       </c>
@@ -8721,7 +9475,7 @@
       </c>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A14" s="60"/>
+      <c r="A14" s="70"/>
       <c r="B14" s="38" t="s">
         <v>134</v>
       </c>
@@ -8755,7 +9509,7 @@
       <c r="N14" s="40">
         <v>5.4985399999999997E-2</v>
       </c>
-      <c r="P14" s="60"/>
+      <c r="P14" s="70"/>
       <c r="Q14" s="38" t="s">
         <v>134</v>
       </c>
@@ -8789,7 +9543,7 @@
       <c r="AC14" s="40">
         <v>0.35624899999999998</v>
       </c>
-      <c r="AE14" s="60"/>
+      <c r="AE14" s="70"/>
       <c r="AF14" s="38" t="s">
         <v>134</v>
       </c>
@@ -8825,7 +9579,7 @@
       </c>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A15" s="61"/>
+      <c r="A15" s="71"/>
       <c r="B15" s="41" t="s">
         <v>135</v>
       </c>
@@ -8847,7 +9601,7 @@
       <c r="N15" s="42">
         <v>0</v>
       </c>
-      <c r="P15" s="61"/>
+      <c r="P15" s="71"/>
       <c r="Q15" s="41" t="s">
         <v>135</v>
       </c>
@@ -8875,7 +9629,7 @@
       <c r="AC15" s="42">
         <v>0.228573</v>
       </c>
-      <c r="AE15" s="61"/>
+      <c r="AE15" s="71"/>
       <c r="AF15" s="38" t="s">
         <v>135</v>
       </c>
@@ -8901,7 +9655,7 @@
       </c>
     </row>
     <row r="16" spans="1:44" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="75" t="s">
         <v>138</v>
       </c>
       <c r="B16" s="39" t="s">
@@ -8939,7 +9693,7 @@
       <c r="N16" s="40">
         <v>0.29320299999999999</v>
       </c>
-      <c r="P16" s="63" t="s">
+      <c r="P16" s="75" t="s">
         <v>138</v>
       </c>
       <c r="Q16" s="39" t="s">
@@ -8979,7 +9733,7 @@
       <c r="AC16" s="40">
         <v>0.81892100000000001</v>
       </c>
-      <c r="AE16" s="63" t="s">
+      <c r="AE16" s="75" t="s">
         <v>138</v>
       </c>
       <c r="AF16" s="39" t="s">
@@ -9023,7 +9777,7 @@
       </c>
     </row>
     <row r="17" spans="1:44" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
+      <c r="A17" s="76"/>
       <c r="B17" s="39" t="s">
         <v>133</v>
       </c>
@@ -9057,7 +9811,7 @@
       <c r="N17" s="40">
         <v>0.174321</v>
       </c>
-      <c r="P17" s="64"/>
+      <c r="P17" s="76"/>
       <c r="Q17" s="39" t="s">
         <v>133</v>
       </c>
@@ -9091,7 +9845,7 @@
       <c r="AC17" s="40">
         <v>0.46240999999999999</v>
       </c>
-      <c r="AE17" s="64"/>
+      <c r="AE17" s="76"/>
       <c r="AF17" s="39" t="s">
         <v>133</v>
       </c>
@@ -9131,7 +9885,7 @@
       </c>
     </row>
     <row r="18" spans="1:44" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="64"/>
+      <c r="A18" s="76"/>
       <c r="B18" s="38" t="s">
         <v>134</v>
       </c>
@@ -9169,7 +9923,7 @@
       <c r="N18" s="40">
         <v>1.3136500000000001E-2</v>
       </c>
-      <c r="P18" s="64"/>
+      <c r="P18" s="76"/>
       <c r="Q18" s="38" t="s">
         <v>134</v>
       </c>
@@ -9203,7 +9957,7 @@
       <c r="AC18" s="40">
         <v>0.97048199999999996</v>
       </c>
-      <c r="AE18" s="64"/>
+      <c r="AE18" s="76"/>
       <c r="AF18" s="38" t="s">
         <v>134</v>
       </c>
@@ -9245,7 +9999,7 @@
       </c>
     </row>
     <row r="19" spans="1:44" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="65"/>
+      <c r="A19" s="77"/>
       <c r="B19" s="41" t="s">
         <v>135</v>
       </c>
@@ -9267,7 +10021,7 @@
       <c r="N19" s="42">
         <v>3.6087900000000002E-3</v>
       </c>
-      <c r="P19" s="65"/>
+      <c r="P19" s="77"/>
       <c r="Q19" s="41" t="s">
         <v>135</v>
       </c>
@@ -9297,7 +10051,7 @@
       <c r="AC19" s="42">
         <v>0.75703299999999996</v>
       </c>
-      <c r="AE19" s="65"/>
+      <c r="AE19" s="77"/>
       <c r="AF19" s="38" t="s">
         <v>135</v>
       </c>
@@ -9325,7 +10079,7 @@
       </c>
     </row>
     <row r="20" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="63" t="s">
+      <c r="A20" s="75" t="s">
         <v>139</v>
       </c>
       <c r="B20" s="38" t="s">
@@ -9361,7 +10115,7 @@
       <c r="N20" s="40">
         <v>5.4854E-2</v>
       </c>
-      <c r="P20" s="63" t="s">
+      <c r="P20" s="75" t="s">
         <v>139</v>
       </c>
       <c r="Q20" s="38" t="s">
@@ -9397,7 +10151,7 @@
       <c r="AC20" s="40">
         <v>0.97633400000000004</v>
       </c>
-      <c r="AE20" s="63" t="s">
+      <c r="AE20" s="75" t="s">
         <v>139</v>
       </c>
       <c r="AF20" s="38" t="s">
@@ -9435,7 +10189,7 @@
       </c>
     </row>
     <row r="21" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A21" s="64"/>
+      <c r="A21" s="76"/>
       <c r="B21" s="38" t="s">
         <v>133</v>
       </c>
@@ -9473,7 +10227,7 @@
       <c r="N21" s="40">
         <v>0.40772999999999998</v>
       </c>
-      <c r="P21" s="64"/>
+      <c r="P21" s="76"/>
       <c r="Q21" s="38" t="s">
         <v>133</v>
       </c>
@@ -9507,7 +10261,7 @@
       <c r="AC21" s="40">
         <v>0.34917199999999998</v>
       </c>
-      <c r="AE21" s="64"/>
+      <c r="AE21" s="76"/>
       <c r="AF21" s="38" t="s">
         <v>133</v>
       </c>
@@ -9545,7 +10299,7 @@
       </c>
     </row>
     <row r="22" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A22" s="64"/>
+      <c r="A22" s="76"/>
       <c r="B22" s="38" t="s">
         <v>134</v>
       </c>
@@ -9579,7 +10333,7 @@
       <c r="N22" s="40">
         <v>5.7199100000000003E-2</v>
       </c>
-      <c r="P22" s="64"/>
+      <c r="P22" s="76"/>
       <c r="Q22" s="38" t="s">
         <v>134</v>
       </c>
@@ -9613,7 +10367,7 @@
       <c r="AC22" s="40">
         <v>0.98668299999999998</v>
       </c>
-      <c r="AE22" s="64"/>
+      <c r="AE22" s="76"/>
       <c r="AF22" s="38" t="s">
         <v>134</v>
       </c>
@@ -9651,7 +10405,7 @@
       </c>
     </row>
     <row r="23" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A23" s="65"/>
+      <c r="A23" s="77"/>
       <c r="B23" s="41" t="s">
         <v>135</v>
       </c>
@@ -9673,7 +10427,7 @@
       <c r="N23" s="42">
         <v>7.4505699999999994E-2</v>
       </c>
-      <c r="P23" s="65"/>
+      <c r="P23" s="77"/>
       <c r="Q23" s="41" t="s">
         <v>135</v>
       </c>
@@ -9703,7 +10457,7 @@
       <c r="AC23" s="42">
         <v>0.96269300000000002</v>
       </c>
-      <c r="AE23" s="65"/>
+      <c r="AE23" s="77"/>
       <c r="AF23" s="38" t="s">
         <v>135</v>
       </c>
@@ -9731,7 +10485,7 @@
       </c>
     </row>
     <row r="24" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="69" t="s">
         <v>140</v>
       </c>
       <c r="B24" s="38" t="s">
@@ -9773,7 +10527,7 @@
       <c r="N24" s="40">
         <v>0.25895099999999999</v>
       </c>
-      <c r="P24" s="59" t="s">
+      <c r="P24" s="69" t="s">
         <v>140</v>
       </c>
       <c r="Q24" s="38" t="s">
@@ -9809,7 +10563,7 @@
       <c r="AC24" s="40">
         <v>0.391177</v>
       </c>
-      <c r="AE24" s="59" t="s">
+      <c r="AE24" s="69" t="s">
         <v>140</v>
       </c>
       <c r="AF24" s="38" t="s">
@@ -9851,7 +10605,7 @@
       </c>
     </row>
     <row r="25" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A25" s="60"/>
+      <c r="A25" s="70"/>
       <c r="B25" s="38" t="s">
         <v>133</v>
       </c>
@@ -9885,7 +10639,7 @@
       <c r="N25" s="40">
         <v>8.7913599999999995E-2</v>
       </c>
-      <c r="P25" s="60"/>
+      <c r="P25" s="70"/>
       <c r="Q25" s="38" t="s">
         <v>133</v>
       </c>
@@ -9919,7 +10673,7 @@
       <c r="AC25" s="40">
         <v>0.992869</v>
       </c>
-      <c r="AE25" s="60"/>
+      <c r="AE25" s="70"/>
       <c r="AF25" s="38" t="s">
         <v>133</v>
       </c>
@@ -9955,7 +10709,7 @@
       </c>
     </row>
     <row r="26" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A26" s="60"/>
+      <c r="A26" s="70"/>
       <c r="B26" s="38" t="s">
         <v>134</v>
       </c>
@@ -9991,7 +10745,7 @@
       <c r="N26" s="40">
         <v>8.6047599999999999E-5</v>
       </c>
-      <c r="P26" s="60"/>
+      <c r="P26" s="70"/>
       <c r="Q26" s="38" t="s">
         <v>134</v>
       </c>
@@ -10027,7 +10781,7 @@
       <c r="AC26" s="40">
         <v>0.49700499999999997</v>
       </c>
-      <c r="AE26" s="60"/>
+      <c r="AE26" s="70"/>
       <c r="AF26" s="38" t="s">
         <v>134</v>
       </c>
@@ -10067,7 +10821,7 @@
       </c>
     </row>
     <row r="27" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A27" s="61"/>
+      <c r="A27" s="71"/>
       <c r="B27" s="41" t="s">
         <v>135</v>
       </c>
@@ -10089,7 +10843,7 @@
       <c r="N27" s="42">
         <v>5.1660999999999999E-2</v>
       </c>
-      <c r="P27" s="61"/>
+      <c r="P27" s="71"/>
       <c r="Q27" s="41" t="s">
         <v>135</v>
       </c>
@@ -10117,7 +10871,7 @@
       <c r="AC27" s="42">
         <v>0.59972999999999999</v>
       </c>
-      <c r="AE27" s="61"/>
+      <c r="AE27" s="71"/>
       <c r="AF27" s="38" t="s">
         <v>135</v>
       </c>
@@ -10143,7 +10897,7 @@
       </c>
     </row>
     <row r="28" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A28" s="59" t="s">
+      <c r="A28" s="69" t="s">
         <v>116</v>
       </c>
       <c r="B28" s="38" t="s">
@@ -10179,7 +10933,7 @@
       <c r="N28" s="40">
         <v>0.21804599999999999</v>
       </c>
-      <c r="P28" s="59" t="s">
+      <c r="P28" s="69" t="s">
         <v>116</v>
       </c>
       <c r="Q28" s="38" t="s">
@@ -10215,7 +10969,7 @@
       <c r="AC28" s="40">
         <v>0.79758499999999999</v>
       </c>
-      <c r="AE28" s="59" t="s">
+      <c r="AE28" s="69" t="s">
         <v>116</v>
       </c>
       <c r="AF28" s="38" t="s">
@@ -10253,7 +11007,7 @@
       </c>
     </row>
     <row r="29" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A29" s="60"/>
+      <c r="A29" s="70"/>
       <c r="B29" s="38" t="s">
         <v>133</v>
       </c>
@@ -10287,7 +11041,7 @@
       <c r="N29" s="40">
         <v>1.9599700000000001E-2</v>
       </c>
-      <c r="P29" s="60"/>
+      <c r="P29" s="70"/>
       <c r="Q29" s="38" t="s">
         <v>133</v>
       </c>
@@ -10321,7 +11075,7 @@
       <c r="AC29" s="40">
         <v>0.20802399999999999</v>
       </c>
-      <c r="AE29" s="60"/>
+      <c r="AE29" s="70"/>
       <c r="AF29" s="38" t="s">
         <v>133</v>
       </c>
@@ -10357,7 +11111,7 @@
       </c>
     </row>
     <row r="30" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A30" s="60"/>
+      <c r="A30" s="70"/>
       <c r="B30" s="38" t="s">
         <v>134</v>
       </c>
@@ -10391,7 +11145,7 @@
       <c r="N30" s="40">
         <v>7.6017100000000002E-4</v>
       </c>
-      <c r="P30" s="60"/>
+      <c r="P30" s="70"/>
       <c r="Q30" s="38" t="s">
         <v>134</v>
       </c>
@@ -10425,7 +11179,7 @@
       <c r="AC30" s="40">
         <v>0.55451899999999998</v>
       </c>
-      <c r="AE30" s="60"/>
+      <c r="AE30" s="70"/>
       <c r="AF30" s="38" t="s">
         <v>134</v>
       </c>
@@ -10461,7 +11215,7 @@
       </c>
     </row>
     <row r="31" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A31" s="61"/>
+      <c r="A31" s="71"/>
       <c r="B31" s="41" t="s">
         <v>135</v>
       </c>
@@ -10483,7 +11237,7 @@
       <c r="N31" s="42">
         <v>6.0392800000000003E-2</v>
       </c>
-      <c r="P31" s="61"/>
+      <c r="P31" s="71"/>
       <c r="Q31" s="41" t="s">
         <v>135</v>
       </c>
@@ -10511,7 +11265,7 @@
       <c r="AC31" s="42">
         <v>0.40330300000000002</v>
       </c>
-      <c r="AE31" s="61"/>
+      <c r="AE31" s="71"/>
       <c r="AF31" s="38" t="s">
         <v>135</v>
       </c>
@@ -10539,7 +11293,7 @@
       </c>
     </row>
     <row r="32" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A32" s="59" t="s">
+      <c r="A32" s="69" t="s">
         <v>141</v>
       </c>
       <c r="B32" s="38" t="s">
@@ -10579,7 +11333,7 @@
       <c r="N32" s="40">
         <v>6.8416699999999997E-2</v>
       </c>
-      <c r="P32" s="59" t="s">
+      <c r="P32" s="69" t="s">
         <v>141</v>
       </c>
       <c r="Q32" s="38" t="s">
@@ -10615,7 +11369,7 @@
       <c r="AC32" s="40">
         <v>0.79306100000000002</v>
       </c>
-      <c r="AE32" s="59" t="s">
+      <c r="AE32" s="69" t="s">
         <v>141</v>
       </c>
       <c r="AF32" s="38" t="s">
@@ -10657,7 +11411,7 @@
       </c>
     </row>
     <row r="33" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A33" s="60"/>
+      <c r="A33" s="70"/>
       <c r="B33" s="38" t="s">
         <v>133</v>
       </c>
@@ -10691,7 +11445,7 @@
       <c r="N33" s="40">
         <v>0.24232799999999999</v>
       </c>
-      <c r="P33" s="60"/>
+      <c r="P33" s="70"/>
       <c r="Q33" s="38" t="s">
         <v>133</v>
       </c>
@@ -10725,7 +11479,7 @@
       <c r="AC33" s="40">
         <v>0.79171599999999998</v>
       </c>
-      <c r="AE33" s="60"/>
+      <c r="AE33" s="70"/>
       <c r="AF33" s="38" t="s">
         <v>133</v>
       </c>
@@ -10761,7 +11515,7 @@
       </c>
     </row>
     <row r="34" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A34" s="60"/>
+      <c r="A34" s="70"/>
       <c r="B34" s="38" t="s">
         <v>134</v>
       </c>
@@ -10795,7 +11549,7 @@
       <c r="N34" s="40">
         <v>9.2139299999999993E-2</v>
       </c>
-      <c r="P34" s="60"/>
+      <c r="P34" s="70"/>
       <c r="Q34" s="38" t="s">
         <v>134</v>
       </c>
@@ -10831,7 +11585,7 @@
       <c r="AC34" s="40">
         <v>5.10708E-2</v>
       </c>
-      <c r="AE34" s="60"/>
+      <c r="AE34" s="70"/>
       <c r="AF34" s="38" t="s">
         <v>134</v>
       </c>
@@ -10871,7 +11625,7 @@
       </c>
     </row>
     <row r="35" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A35" s="61"/>
+      <c r="A35" s="71"/>
       <c r="B35" s="41" t="s">
         <v>135</v>
       </c>
@@ -10893,7 +11647,7 @@
       <c r="N35" s="42">
         <v>3.5705899999999999E-2</v>
       </c>
-      <c r="P35" s="61"/>
+      <c r="P35" s="71"/>
       <c r="Q35" s="41" t="s">
         <v>135</v>
       </c>
@@ -10925,7 +11679,7 @@
       <c r="AC35" s="42">
         <v>0.37054599999999999</v>
       </c>
-      <c r="AE35" s="61"/>
+      <c r="AE35" s="71"/>
       <c r="AF35" s="38" t="s">
         <v>135</v>
       </c>
@@ -10959,7 +11713,7 @@
       </c>
     </row>
     <row r="36" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A36" s="62" t="s">
+      <c r="A36" s="74" t="s">
         <v>142</v>
       </c>
       <c r="B36" s="38" t="s">
@@ -11001,7 +11755,7 @@
       <c r="N36" s="40">
         <v>0.79885600000000001</v>
       </c>
-      <c r="P36" s="62" t="s">
+      <c r="P36" s="74" t="s">
         <v>142</v>
       </c>
       <c r="Q36" s="38" t="s">
@@ -11037,7 +11791,7 @@
       <c r="AC36" s="40">
         <v>0.119131</v>
       </c>
-      <c r="AE36" s="62" t="s">
+      <c r="AE36" s="74" t="s">
         <v>142</v>
       </c>
       <c r="AF36" s="38" t="s">
@@ -11081,7 +11835,7 @@
       </c>
     </row>
     <row r="37" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A37" s="62"/>
+      <c r="A37" s="74"/>
       <c r="B37" s="38" t="s">
         <v>133</v>
       </c>
@@ -11115,7 +11869,7 @@
       <c r="N37" s="40">
         <v>0.51789499999999999</v>
       </c>
-      <c r="P37" s="62"/>
+      <c r="P37" s="74"/>
       <c r="Q37" s="38" t="s">
         <v>133</v>
       </c>
@@ -11149,7 +11903,7 @@
       <c r="AC37" s="40">
         <v>0.74060099999999995</v>
       </c>
-      <c r="AE37" s="62"/>
+      <c r="AE37" s="74"/>
       <c r="AF37" s="38" t="s">
         <v>133</v>
       </c>
@@ -11185,7 +11939,7 @@
       </c>
     </row>
     <row r="38" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A38" s="62"/>
+      <c r="A38" s="74"/>
       <c r="B38" s="38" t="s">
         <v>134</v>
       </c>
@@ -11225,7 +11979,7 @@
       <c r="N38" s="40">
         <v>1.3228699999999999E-2</v>
       </c>
-      <c r="P38" s="62"/>
+      <c r="P38" s="74"/>
       <c r="Q38" s="38" t="s">
         <v>134</v>
       </c>
@@ -11265,7 +12019,7 @@
       <c r="AC38" s="40">
         <v>0.59381899999999999</v>
       </c>
-      <c r="AE38" s="62"/>
+      <c r="AE38" s="74"/>
       <c r="AF38" s="38" t="s">
         <v>134</v>
       </c>
@@ -11307,7 +12061,7 @@
       </c>
     </row>
     <row r="39" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A39" s="62"/>
+      <c r="A39" s="74"/>
       <c r="B39" s="41" t="s">
         <v>135</v>
       </c>
@@ -11329,7 +12083,7 @@
       <c r="N39" s="42">
         <v>0.12786700000000001</v>
       </c>
-      <c r="P39" s="62"/>
+      <c r="P39" s="74"/>
       <c r="Q39" s="41" t="s">
         <v>135</v>
       </c>
@@ -11363,7 +12117,7 @@
       <c r="AC39" s="42">
         <v>0.94489999999999996</v>
       </c>
-      <c r="AE39" s="62"/>
+      <c r="AE39" s="74"/>
       <c r="AF39" s="38" t="s">
         <v>135</v>
       </c>
@@ -13494,6 +14248,44 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="AE24:AE27"/>
+    <mergeCell ref="AE28:AE31"/>
+    <mergeCell ref="AE32:AE35"/>
+    <mergeCell ref="AE36:AE39"/>
+    <mergeCell ref="AE4:AE7"/>
+    <mergeCell ref="AE8:AE11"/>
+    <mergeCell ref="AE12:AE15"/>
+    <mergeCell ref="AE16:AE19"/>
+    <mergeCell ref="AE20:AE23"/>
+    <mergeCell ref="AE1:AR1"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
+    <mergeCell ref="P20:P23"/>
+    <mergeCell ref="P24:P27"/>
+    <mergeCell ref="P28:P31"/>
+    <mergeCell ref="P32:P35"/>
+    <mergeCell ref="P36:P39"/>
+    <mergeCell ref="P8:P11"/>
+    <mergeCell ref="P12:P15"/>
+    <mergeCell ref="P16:P19"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="P1:AC1"/>
     <mergeCell ref="L2:N2"/>
@@ -13504,44 +14296,6 @@
     <mergeCell ref="R2:T2"/>
     <mergeCell ref="U2:W2"/>
     <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="P8:P11"/>
-    <mergeCell ref="P12:P15"/>
-    <mergeCell ref="P16:P19"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="P20:P23"/>
-    <mergeCell ref="P24:P27"/>
-    <mergeCell ref="P28:P31"/>
-    <mergeCell ref="P32:P35"/>
-    <mergeCell ref="P36:P39"/>
-    <mergeCell ref="AE1:AR1"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
-    <mergeCell ref="AE24:AE27"/>
-    <mergeCell ref="AE28:AE31"/>
-    <mergeCell ref="AE32:AE35"/>
-    <mergeCell ref="AE36:AE39"/>
-    <mergeCell ref="AE4:AE7"/>
-    <mergeCell ref="AE8:AE11"/>
-    <mergeCell ref="AE12:AE15"/>
-    <mergeCell ref="AE16:AE19"/>
-    <mergeCell ref="AE20:AE23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -13572,36 +14326,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="31" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="72" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="67"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="66" t="s">
+      <c r="D1" s="64"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="G1" s="67"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="66" t="s">
+      <c r="G1" s="64"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="J1" s="67"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="71" t="s">
+      <c r="J1" s="64"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="M1" s="72"/>
-      <c r="N1" s="73"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="68"/>
     </row>
     <row r="2" spans="1:17" s="31" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70"/>
-      <c r="B2" s="70"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
       <c r="C2" s="36" t="s">
         <v>125</v>
       </c>
@@ -13641,7 +14395,7 @@
       <c r="Q2" s="35"/>
     </row>
     <row r="3" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="69" t="s">
         <v>136</v>
       </c>
       <c r="B3" s="38" t="s">
@@ -13682,7 +14436,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="60"/>
+      <c r="A4" s="70"/>
       <c r="B4" s="38" t="s">
         <v>133</v>
       </c>
@@ -13724,7 +14478,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="38" t="s">
         <v>134</v>
       </c>
@@ -13760,7 +14514,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
+      <c r="A6" s="71"/>
       <c r="B6" s="41" t="s">
         <v>135</v>
       </c>
@@ -13793,7 +14547,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="69" t="s">
         <v>137</v>
       </c>
       <c r="B7" s="38" t="s">
@@ -13831,7 +14585,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="38" t="s">
         <v>133</v>
       </c>
@@ -13873,7 +14627,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="60"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="38" t="s">
         <v>134</v>
       </c>
@@ -13909,7 +14663,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="61"/>
+      <c r="A10" s="71"/>
       <c r="B10" s="41" t="s">
         <v>135</v>
       </c>
@@ -13939,7 +14693,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="69" t="s">
         <v>110</v>
       </c>
       <c r="B11" s="38" t="s">
@@ -13977,7 +14731,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="60"/>
+      <c r="A12" s="70"/>
       <c r="B12" s="38" t="s">
         <v>133</v>
       </c>
@@ -14013,7 +14767,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="60"/>
+      <c r="A13" s="70"/>
       <c r="B13" s="38" t="s">
         <v>134</v>
       </c>
@@ -14049,7 +14803,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="61"/>
+      <c r="A14" s="71"/>
       <c r="B14" s="41" t="s">
         <v>135</v>
       </c>
@@ -14079,7 +14833,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="75" t="s">
         <v>138</v>
       </c>
       <c r="B15" s="39" t="s">
@@ -14121,7 +14875,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="64"/>
+      <c r="A16" s="76"/>
       <c r="B16" s="39" t="s">
         <v>133</v>
       </c>
@@ -14160,7 +14914,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
+      <c r="A17" s="76"/>
       <c r="B17" s="38" t="s">
         <v>134</v>
       </c>
@@ -14196,7 +14950,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="65"/>
+      <c r="A18" s="77"/>
       <c r="B18" s="41" t="s">
         <v>135</v>
       </c>
@@ -14228,7 +14982,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="75" t="s">
         <v>139</v>
       </c>
       <c r="B19" s="38" t="s">
@@ -14266,7 +15020,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="64"/>
+      <c r="A20" s="76"/>
       <c r="B20" s="38" t="s">
         <v>133</v>
       </c>
@@ -14302,7 +15056,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="64"/>
+      <c r="A21" s="76"/>
       <c r="B21" s="38" t="s">
         <v>134</v>
       </c>
@@ -14338,7 +15092,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="65"/>
+      <c r="A22" s="77"/>
       <c r="B22" s="41" t="s">
         <v>135</v>
       </c>
@@ -14370,7 +15124,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="59" t="s">
+      <c r="A23" s="69" t="s">
         <v>140</v>
       </c>
       <c r="B23" s="38" t="s">
@@ -14408,7 +15162,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="60"/>
+      <c r="A24" s="70"/>
       <c r="B24" s="38" t="s">
         <v>133</v>
       </c>
@@ -14444,7 +15198,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="60"/>
+      <c r="A25" s="70"/>
       <c r="B25" s="38" t="s">
         <v>134</v>
       </c>
@@ -14482,7 +15236,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="61"/>
+      <c r="A26" s="71"/>
       <c r="B26" s="41" t="s">
         <v>135</v>
       </c>
@@ -14512,7 +15266,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="59" t="s">
+      <c r="A27" s="69" t="s">
         <v>116</v>
       </c>
       <c r="B27" s="38" t="s">
@@ -14550,7 +15304,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="60"/>
+      <c r="A28" s="70"/>
       <c r="B28" s="38" t="s">
         <v>133</v>
       </c>
@@ -14586,7 +15340,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="60"/>
+      <c r="A29" s="70"/>
       <c r="B29" s="38" t="s">
         <v>134</v>
       </c>
@@ -14622,7 +15376,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="61"/>
+      <c r="A30" s="71"/>
       <c r="B30" s="41" t="s">
         <v>135</v>
       </c>
@@ -14652,7 +15406,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="59" t="s">
+      <c r="A31" s="69" t="s">
         <v>141</v>
       </c>
       <c r="B31" s="38" t="s">
@@ -14690,7 +15444,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="60"/>
+      <c r="A32" s="70"/>
       <c r="B32" s="38" t="s">
         <v>133</v>
       </c>
@@ -14726,7 +15480,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="60"/>
+      <c r="A33" s="70"/>
       <c r="B33" s="38" t="s">
         <v>134</v>
       </c>
@@ -14764,7 +15518,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="61"/>
+      <c r="A34" s="71"/>
       <c r="B34" s="41" t="s">
         <v>135</v>
       </c>
@@ -14798,7 +15552,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="62" t="s">
+      <c r="A35" s="74" t="s">
         <v>142</v>
       </c>
       <c r="B35" s="38" t="s">
@@ -14836,7 +15590,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="62"/>
+      <c r="A36" s="74"/>
       <c r="B36" s="38" t="s">
         <v>133</v>
       </c>
@@ -14872,7 +15626,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="62"/>
+      <c r="A37" s="74"/>
       <c r="B37" s="38" t="s">
         <v>134</v>
       </c>
@@ -14914,7 +15668,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="62"/>
+      <c r="A38" s="74"/>
       <c r="B38" s="41" t="s">
         <v>135</v>
       </c>
@@ -16211,6 +16965,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="A31:A34"/>
     <mergeCell ref="A35:A38"/>
@@ -16220,12 +16980,6 @@
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A26"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -16313,7 +17067,7 @@
       <c r="AT1" s="1"/>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="79" t="s">
         <v>110</v>
       </c>
       <c r="B2" s="27" t="s">
@@ -16331,7 +17085,7 @@
       </c>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A3" s="76"/>
+      <c r="A3" s="80"/>
       <c r="B3" s="27" t="s">
         <v>109</v>
       </c>
@@ -16347,7 +17101,7 @@
       </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A4" s="76"/>
+      <c r="A4" s="80"/>
       <c r="B4" s="27" t="s">
         <v>111</v>
       </c>
@@ -16363,7 +17117,7 @@
       </c>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="27" t="s">
         <v>112</v>
       </c>
@@ -16375,7 +17129,7 @@
       <c r="F5" s="21"/>
     </row>
     <row r="6" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="82" t="s">
         <v>113</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -16393,7 +17147,7 @@
       </c>
     </row>
     <row r="7" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="79"/>
+      <c r="A7" s="83"/>
       <c r="B7" s="21" t="s">
         <v>109</v>
       </c>
@@ -16409,7 +17163,7 @@
       </c>
     </row>
     <row r="8" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="79"/>
+      <c r="A8" s="83"/>
       <c r="B8" s="21" t="s">
         <v>111</v>
       </c>
@@ -16427,7 +17181,7 @@
       </c>
     </row>
     <row r="9" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="80"/>
+      <c r="A9" s="84"/>
       <c r="B9" s="21" t="s">
         <v>112</v>
       </c>
@@ -16439,7 +17193,7 @@
       <c r="F9" s="21"/>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="79" t="s">
         <v>114</v>
       </c>
       <c r="B10" s="27" t="s">
@@ -16457,7 +17211,7 @@
       </c>
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A11" s="76"/>
+      <c r="A11" s="80"/>
       <c r="B11" s="27" t="s">
         <v>109</v>
       </c>
@@ -16475,7 +17229,7 @@
       </c>
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A12" s="76"/>
+      <c r="A12" s="80"/>
       <c r="B12" s="27" t="s">
         <v>111</v>
       </c>
@@ -16491,7 +17245,7 @@
       </c>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A13" s="77"/>
+      <c r="A13" s="81"/>
       <c r="B13" s="27" t="s">
         <v>112</v>
       </c>
@@ -16503,7 +17257,7 @@
       <c r="F13" s="21"/>
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="79" t="s">
         <v>115</v>
       </c>
       <c r="B14" s="27" t="s">
@@ -16523,7 +17277,7 @@
       </c>
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A15" s="76"/>
+      <c r="A15" s="80"/>
       <c r="B15" s="27" t="s">
         <v>109</v>
       </c>
@@ -16539,7 +17293,7 @@
       </c>
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A16" s="76"/>
+      <c r="A16" s="80"/>
       <c r="B16" s="27" t="s">
         <v>111</v>
       </c>
@@ -16557,7 +17311,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="77"/>
+      <c r="A17" s="81"/>
       <c r="B17" s="27" t="s">
         <v>112</v>
       </c>
@@ -16569,7 +17323,7 @@
       <c r="F17" s="21"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="75" t="s">
+      <c r="A18" s="79" t="s">
         <v>116</v>
       </c>
       <c r="B18" s="27" t="s">
@@ -16587,7 +17341,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="76"/>
+      <c r="A19" s="80"/>
       <c r="B19" s="27" t="s">
         <v>109</v>
       </c>
@@ -16603,7 +17357,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="76"/>
+      <c r="A20" s="80"/>
       <c r="B20" s="27" t="s">
         <v>111</v>
       </c>
@@ -16619,7 +17373,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="77"/>
+      <c r="A21" s="81"/>
       <c r="B21" s="27" t="s">
         <v>112</v>
       </c>
@@ -16631,7 +17385,7 @@
       <c r="F21" s="21"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="75" t="s">
+      <c r="A22" s="79" t="s">
         <v>83</v>
       </c>
       <c r="B22" s="27" t="s">
@@ -16651,7 +17405,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="76"/>
+      <c r="A23" s="80"/>
       <c r="B23" s="27" t="s">
         <v>109</v>
       </c>
@@ -16668,7 +17422,7 @@
       <c r="H23" s="19"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="76"/>
+      <c r="A24" s="80"/>
       <c r="B24" s="27" t="s">
         <v>111</v>
       </c>
@@ -16684,7 +17438,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="77"/>
+      <c r="A25" s="81"/>
       <c r="B25" s="27" t="s">
         <v>112</v>
       </c>
@@ -16696,7 +17450,7 @@
       <c r="F25" s="21"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="74" t="s">
+      <c r="A26" s="78" t="s">
         <v>117</v>
       </c>
       <c r="B26" s="27" t="s">
@@ -16716,7 +17470,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="74"/>
+      <c r="A27" s="78"/>
       <c r="B27" s="27" t="s">
         <v>109</v>
       </c>
@@ -16732,7 +17486,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="74"/>
+      <c r="A28" s="78"/>
       <c r="B28" s="27" t="s">
         <v>111</v>
       </c>
@@ -16750,7 +17504,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="74"/>
+      <c r="A29" s="78"/>
       <c r="B29" s="27" t="s">
         <v>112</v>
       </c>
@@ -17713,7 +18467,7 @@
       <c r="AT1" s="1"/>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="79" t="s">
         <v>110</v>
       </c>
       <c r="B2" s="27" t="s">
@@ -17731,7 +18485,7 @@
       </c>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A3" s="76"/>
+      <c r="A3" s="80"/>
       <c r="B3" s="27" t="s">
         <v>109</v>
       </c>
@@ -17747,7 +18501,7 @@
       </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A4" s="76"/>
+      <c r="A4" s="80"/>
       <c r="B4" s="27" t="s">
         <v>111</v>
       </c>
@@ -17763,7 +18517,7 @@
       </c>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="27" t="s">
         <v>112</v>
       </c>
@@ -17775,7 +18529,7 @@
       <c r="F5" s="21"/>
     </row>
     <row r="6" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="82" t="s">
         <v>113</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -17793,7 +18547,7 @@
       </c>
     </row>
     <row r="7" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="79"/>
+      <c r="A7" s="83"/>
       <c r="B7" s="21" t="s">
         <v>109</v>
       </c>
@@ -17809,7 +18563,7 @@
       </c>
     </row>
     <row r="8" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="79"/>
+      <c r="A8" s="83"/>
       <c r="B8" s="21" t="s">
         <v>111</v>
       </c>
@@ -17825,7 +18579,7 @@
       </c>
     </row>
     <row r="9" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="80"/>
+      <c r="A9" s="84"/>
       <c r="B9" s="21" t="s">
         <v>112</v>
       </c>
@@ -17837,7 +18591,7 @@
       <c r="F9" s="21"/>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="79" t="s">
         <v>114</v>
       </c>
       <c r="B10" s="27" t="s">
@@ -17855,7 +18609,7 @@
       </c>
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A11" s="76"/>
+      <c r="A11" s="80"/>
       <c r="B11" s="27" t="s">
         <v>109</v>
       </c>
@@ -17871,7 +18625,7 @@
       </c>
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A12" s="76"/>
+      <c r="A12" s="80"/>
       <c r="B12" s="27" t="s">
         <v>111</v>
       </c>
@@ -17887,7 +18641,7 @@
       </c>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A13" s="77"/>
+      <c r="A13" s="81"/>
       <c r="B13" s="27" t="s">
         <v>112</v>
       </c>
@@ -17899,7 +18653,7 @@
       <c r="F13" s="21"/>
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="79" t="s">
         <v>115</v>
       </c>
       <c r="B14" s="27" t="s">
@@ -17919,7 +18673,7 @@
       </c>
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A15" s="76"/>
+      <c r="A15" s="80"/>
       <c r="B15" s="27" t="s">
         <v>109</v>
       </c>
@@ -17935,7 +18689,7 @@
       </c>
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A16" s="76"/>
+      <c r="A16" s="80"/>
       <c r="B16" s="27" t="s">
         <v>111</v>
       </c>
@@ -17951,7 +18705,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="77"/>
+      <c r="A17" s="81"/>
       <c r="B17" s="27" t="s">
         <v>112</v>
       </c>
@@ -17963,7 +18717,7 @@
       <c r="F17" s="21"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="75" t="s">
+      <c r="A18" s="79" t="s">
         <v>116</v>
       </c>
       <c r="B18" s="27" t="s">
@@ -17981,7 +18735,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="76"/>
+      <c r="A19" s="80"/>
       <c r="B19" s="27" t="s">
         <v>109</v>
       </c>
@@ -17997,7 +18751,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="76"/>
+      <c r="A20" s="80"/>
       <c r="B20" s="27" t="s">
         <v>111</v>
       </c>
@@ -18013,7 +18767,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="77"/>
+      <c r="A21" s="81"/>
       <c r="B21" s="27" t="s">
         <v>112</v>
       </c>
@@ -18025,7 +18779,7 @@
       <c r="F21" s="21"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="75" t="s">
+      <c r="A22" s="79" t="s">
         <v>83</v>
       </c>
       <c r="B22" s="27" t="s">
@@ -18045,7 +18799,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="76"/>
+      <c r="A23" s="80"/>
       <c r="B23" s="27" t="s">
         <v>109</v>
       </c>
@@ -18062,7 +18816,7 @@
       <c r="H23" s="19"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="76"/>
+      <c r="A24" s="80"/>
       <c r="B24" s="27" t="s">
         <v>111</v>
       </c>
@@ -18078,7 +18832,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="77"/>
+      <c r="A25" s="81"/>
       <c r="B25" s="27" t="s">
         <v>112</v>
       </c>
@@ -18090,7 +18844,7 @@
       <c r="F25" s="21"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="74" t="s">
+      <c r="A26" s="78" t="s">
         <v>117</v>
       </c>
       <c r="B26" s="27" t="s">
@@ -18110,7 +18864,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="74"/>
+      <c r="A27" s="78"/>
       <c r="B27" s="27" t="s">
         <v>109</v>
       </c>
@@ -18126,7 +18880,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="74"/>
+      <c r="A28" s="78"/>
       <c r="B28" s="27" t="s">
         <v>111</v>
       </c>
@@ -18144,7 +18898,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="74"/>
+      <c r="A29" s="78"/>
       <c r="B29" s="27" t="s">
         <v>112</v>
       </c>
@@ -19044,18 +19798,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="85" t="s">
         <v>173</v>
       </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="83"/>
-      <c r="H1" s="81" t="s">
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87"/>
+      <c r="H1" s="85" t="s">
         <v>174</v>
       </c>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="83"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="87"/>
     </row>
     <row r="2" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
@@ -20614,7 +21368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1:I15"/>
     </sheetView>
   </sheetViews>
@@ -20628,18 +21382,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="88" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="F1" s="84" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="F1" s="88" t="s">
         <v>177</v>
       </c>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
     </row>
     <row r="2" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="54" t="s">

--- a/DataSet_VersionRecuperada.xlsx
+++ b/DataSet_VersionRecuperada.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Group 1" sheetId="1" r:id="rId1"/>
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1799" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="194">
   <si>
     <t>7:00 a 8:00</t>
   </si>
@@ -708,7 +708,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -798,6 +798,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -984,7 +992,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1169,25 +1177,10 @@
     <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1197,12 +1190,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1215,6 +1202,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1250,9 +1261,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1702,7 +1711,7 @@
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="63"/>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1834,7 +1843,7 @@
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="62"/>
+      <c r="B3" s="63"/>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1975,7 +1984,7 @@
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="62"/>
+      <c r="B4" s="63"/>
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
@@ -2119,7 +2128,7 @@
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="62"/>
+      <c r="B5" s="63"/>
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
@@ -2403,7 +2412,7 @@
       <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="62"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
@@ -2547,7 +2556,7 @@
       <c r="A8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="62"/>
+      <c r="B8" s="63"/>
       <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
@@ -2688,7 +2697,7 @@
       <c r="A9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="62"/>
+      <c r="B9" s="63"/>
       <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
@@ -2832,7 +2841,7 @@
       <c r="A10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="62"/>
+      <c r="B10" s="63"/>
       <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
@@ -2973,7 +2982,7 @@
       <c r="A11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="62">
+      <c r="B11" s="63">
         <v>43555</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -3116,7 +3125,7 @@
       <c r="A12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="62"/>
+      <c r="B12" s="63"/>
       <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
@@ -3260,7 +3269,7 @@
       <c r="A13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="62">
+      <c r="B13" s="63">
         <v>43561</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -3403,7 +3412,7 @@
       <c r="A14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="62"/>
+      <c r="B14" s="63"/>
       <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
@@ -3547,7 +3556,7 @@
       <c r="A15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="62"/>
+      <c r="B15" s="63"/>
       <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
@@ -3691,7 +3700,7 @@
       <c r="A16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="62"/>
+      <c r="B16" s="63"/>
       <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
@@ -3829,7 +3838,7 @@
       <c r="A17" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="62"/>
+      <c r="B17" s="63"/>
       <c r="C17" s="2" t="s">
         <v>5</v>
       </c>
@@ -3970,7 +3979,7 @@
       <c r="A18" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="62"/>
+      <c r="B18" s="63"/>
       <c r="C18" s="2" t="s">
         <v>8</v>
       </c>
@@ -4111,7 +4120,7 @@
       <c r="A19" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="62"/>
+      <c r="B19" s="63"/>
       <c r="C19" s="2" t="s">
         <v>41</v>
       </c>
@@ -5090,10 +5099,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC41"/>
+  <dimension ref="A1:AE41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG9" sqref="AG9"/>
+    <sheetView tabSelected="1" topLeftCell="O22" workbookViewId="0">
+      <selection activeCell="AE35" sqref="AE35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5119,96 +5128,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="65"/>
-      <c r="P1" s="63" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="65"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="73"/>
+      <c r="P1" s="71" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72"/>
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="73"/>
     </row>
     <row r="2" spans="1:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="74" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="63" t="s">
+      <c r="D2" s="72"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="71" t="s">
         <v>127</v>
       </c>
-      <c r="G2" s="64"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="63" t="s">
+      <c r="G2" s="72"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="71" t="s">
         <v>129</v>
       </c>
-      <c r="J2" s="64"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="66" t="s">
+      <c r="J2" s="72"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="76" t="s">
         <v>128</v>
       </c>
-      <c r="M2" s="67"/>
-      <c r="N2" s="68"/>
-      <c r="P2" s="72" t="s">
+      <c r="M2" s="77"/>
+      <c r="N2" s="78"/>
+      <c r="P2" s="74" t="s">
         <v>130</v>
       </c>
-      <c r="Q2" s="72" t="s">
+      <c r="Q2" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="R2" s="63" t="s">
+      <c r="R2" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="S2" s="64"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="63" t="s">
+      <c r="S2" s="72"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="71" t="s">
         <v>127</v>
       </c>
-      <c r="V2" s="64"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="63" t="s">
+      <c r="V2" s="72"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="71" t="s">
         <v>129</v>
       </c>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="66" t="s">
+      <c r="Y2" s="72"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="76" t="s">
         <v>128</v>
       </c>
-      <c r="AB2" s="67"/>
-      <c r="AC2" s="68"/>
+      <c r="AB2" s="77"/>
+      <c r="AC2" s="78"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="73"/>
-      <c r="B3" s="73"/>
+      <c r="A3" s="75"/>
+      <c r="B3" s="75"/>
       <c r="C3" s="36" t="s">
         <v>125</v>
       </c>
@@ -5245,8 +5254,8 @@
       <c r="N3" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
       <c r="R3" s="36" t="s">
         <v>125</v>
       </c>
@@ -5285,7 +5294,7 @@
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="64" t="s">
         <v>136</v>
       </c>
       <c r="B4" s="59">
@@ -5315,25 +5324,41 @@
       <c r="N4" s="61">
         <v>2.99864E-2</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="60"/>
+      <c r="Q4" s="59">
+        <v>1</v>
+      </c>
+      <c r="R4" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="S4" s="60" t="s">
+        <v>108</v>
+      </c>
       <c r="T4" s="59"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="60"/>
+      <c r="U4" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="V4" s="60" t="s">
+        <v>108</v>
+      </c>
       <c r="W4" s="59"/>
       <c r="X4" s="59"/>
       <c r="Y4" s="60"/>
       <c r="Z4" s="59"/>
-      <c r="AA4" s="61"/>
-      <c r="AB4" s="61"/>
-      <c r="AC4" s="61"/>
+      <c r="AA4" s="61">
+        <v>4.4682300000000001E-2</v>
+      </c>
+      <c r="AB4" s="61">
+        <v>4.6162099999999998E-2</v>
+      </c>
+      <c r="AC4" s="61">
+        <v>9.2442800000000006E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="59">
         <v>2</v>
       </c>
@@ -5359,10 +5384,16 @@
       <c r="N5" s="61">
         <v>0.107514</v>
       </c>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="60"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="59">
+        <v>2</v>
+      </c>
+      <c r="R5" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="S5" s="60" t="s">
+        <v>108</v>
+      </c>
       <c r="T5" s="60"/>
       <c r="U5" s="59"/>
       <c r="V5" s="60"/>
@@ -5370,12 +5401,18 @@
       <c r="X5" s="59"/>
       <c r="Y5" s="60"/>
       <c r="Z5" s="60"/>
-      <c r="AA5" s="61"/>
-      <c r="AB5" s="61"/>
-      <c r="AC5" s="61"/>
+      <c r="AA5" s="61">
+        <v>0.23427000000000001</v>
+      </c>
+      <c r="AB5" s="61">
+        <v>6.207E-2</v>
+      </c>
+      <c r="AC5" s="61">
+        <v>9.9664000000000003E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="70"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="59">
         <v>3</v>
       </c>
@@ -5399,23 +5436,37 @@
       <c r="N6" s="61">
         <v>0.14727499999999999</v>
       </c>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="60"/>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="59">
+        <v>3</v>
+      </c>
+      <c r="R6" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="S6" s="60" t="s">
+        <v>108</v>
+      </c>
       <c r="T6" s="60"/>
-      <c r="U6" s="59"/>
+      <c r="U6" s="59" t="s">
+        <v>108</v>
+      </c>
       <c r="V6" s="60"/>
       <c r="W6" s="60"/>
       <c r="X6" s="59"/>
       <c r="Y6" s="60"/>
       <c r="Z6" s="60"/>
-      <c r="AA6" s="61"/>
-      <c r="AB6" s="61"/>
-      <c r="AC6" s="61"/>
+      <c r="AA6" s="61">
+        <v>2.8394900000000001E-2</v>
+      </c>
+      <c r="AB6" s="61">
+        <v>0.28921799999999998</v>
+      </c>
+      <c r="AC6" s="61">
+        <v>0.30416900000000002</v>
+      </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="70"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="59">
         <v>4</v>
       </c>
@@ -5441,9 +5492,13 @@
       <c r="N7" s="61">
         <v>0.13202700000000001</v>
       </c>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
+      <c r="P7" s="65"/>
+      <c r="Q7" s="59">
+        <v>4</v>
+      </c>
+      <c r="R7" s="59" t="s">
+        <v>108</v>
+      </c>
       <c r="S7" s="60"/>
       <c r="T7" s="60"/>
       <c r="U7" s="59"/>
@@ -5452,12 +5507,18 @@
       <c r="X7" s="59"/>
       <c r="Y7" s="60"/>
       <c r="Z7" s="60"/>
-      <c r="AA7" s="61"/>
-      <c r="AB7" s="61"/>
-      <c r="AC7" s="61"/>
+      <c r="AA7" s="61">
+        <v>0.22923299999999999</v>
+      </c>
+      <c r="AB7" s="61">
+        <v>0.117913</v>
+      </c>
+      <c r="AC7" s="61">
+        <v>0.15479200000000001</v>
+      </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="64" t="s">
         <v>137</v>
       </c>
       <c r="B8" s="59">
@@ -5487,25 +5548,45 @@
       <c r="N8" s="61">
         <v>4.5043399999999997E-2</v>
       </c>
-      <c r="P8" s="69" t="s">
+      <c r="P8" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="60"/>
-      <c r="U8" s="59"/>
-      <c r="V8" s="59"/>
-      <c r="W8" s="60"/>
-      <c r="X8" s="59"/>
+      <c r="Q8" s="59">
+        <v>1</v>
+      </c>
+      <c r="R8" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="S8" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="T8" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="U8" s="60"/>
+      <c r="V8" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="W8" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="X8" s="60" t="s">
+        <v>108</v>
+      </c>
       <c r="Y8" s="59"/>
       <c r="Z8" s="59"/>
-      <c r="AA8" s="61"/>
-      <c r="AB8" s="61"/>
-      <c r="AC8" s="61"/>
+      <c r="AA8" s="61">
+        <v>2.50066E-2</v>
+      </c>
+      <c r="AB8" s="61">
+        <v>4.3434100000000003E-2</v>
+      </c>
+      <c r="AC8" s="61">
+        <v>0.115948</v>
+      </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="70"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="59">
         <v>2</v>
       </c>
@@ -5529,23 +5610,37 @@
       <c r="N9" s="61">
         <v>8.2884700000000006E-2</v>
       </c>
-      <c r="P9" s="70"/>
-      <c r="Q9" s="59"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="59">
+        <v>2</v>
+      </c>
       <c r="R9" s="59"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="60"/>
-      <c r="U9" s="59"/>
+      <c r="S9" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="T9" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="U9" s="60"/>
       <c r="V9" s="59"/>
-      <c r="W9" s="60"/>
-      <c r="X9" s="59"/>
+      <c r="W9" s="59"/>
+      <c r="X9" s="60" t="s">
+        <v>108</v>
+      </c>
       <c r="Y9" s="59"/>
       <c r="Z9" s="60"/>
-      <c r="AA9" s="61"/>
-      <c r="AB9" s="61"/>
-      <c r="AC9" s="61"/>
+      <c r="AA9" s="61">
+        <v>0.13772300000000001</v>
+      </c>
+      <c r="AB9" s="61">
+        <v>9.2259099999999997E-2</v>
+      </c>
+      <c r="AC9" s="61">
+        <v>0.238126</v>
+      </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="70"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="59">
         <v>3</v>
       </c>
@@ -5567,23 +5662,33 @@
       <c r="N10" s="61">
         <v>0.22123100000000001</v>
       </c>
-      <c r="P10" s="70"/>
-      <c r="Q10" s="59"/>
+      <c r="P10" s="65"/>
+      <c r="Q10" s="59">
+        <v>3</v>
+      </c>
       <c r="R10" s="59"/>
-      <c r="S10" s="59"/>
-      <c r="T10" s="60"/>
-      <c r="U10" s="59"/>
+      <c r="S10" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="T10" s="59"/>
+      <c r="U10" s="60"/>
       <c r="V10" s="59"/>
-      <c r="W10" s="60"/>
-      <c r="X10" s="59"/>
+      <c r="W10" s="59"/>
+      <c r="X10" s="60"/>
       <c r="Y10" s="59"/>
       <c r="Z10" s="60"/>
-      <c r="AA10" s="61"/>
-      <c r="AB10" s="61"/>
-      <c r="AC10" s="61"/>
+      <c r="AA10" s="61">
+        <v>3.9797600000000002E-2</v>
+      </c>
+      <c r="AB10" s="61">
+        <v>0.315361</v>
+      </c>
+      <c r="AC10" s="61">
+        <v>0.24934700000000001</v>
+      </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="70"/>
+      <c r="A11" s="65"/>
       <c r="B11" s="59">
         <v>4</v>
       </c>
@@ -5607,23 +5712,35 @@
       <c r="N11" s="61">
         <v>5.2803900000000001E-2</v>
       </c>
-      <c r="P11" s="70"/>
-      <c r="Q11" s="59"/>
+      <c r="P11" s="65"/>
+      <c r="Q11" s="59">
+        <v>4</v>
+      </c>
       <c r="R11" s="59"/>
-      <c r="S11" s="59"/>
-      <c r="T11" s="60"/>
-      <c r="U11" s="59"/>
+      <c r="S11" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="T11" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="U11" s="60"/>
       <c r="V11" s="59"/>
-      <c r="W11" s="60"/>
-      <c r="X11" s="59"/>
+      <c r="W11" s="59"/>
+      <c r="X11" s="60"/>
       <c r="Y11" s="59"/>
       <c r="Z11" s="60"/>
-      <c r="AA11" s="61"/>
-      <c r="AB11" s="61"/>
-      <c r="AC11" s="61"/>
+      <c r="AA11" s="61">
+        <v>6.6281800000000002E-2</v>
+      </c>
+      <c r="AB11" s="61">
+        <v>0.175895</v>
+      </c>
+      <c r="AC11" s="61">
+        <v>0.36552299999999999</v>
+      </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="64" t="s">
         <v>110</v>
       </c>
       <c r="B12" s="59">
@@ -5657,25 +5774,45 @@
       <c r="N12" s="61">
         <v>0.239091</v>
       </c>
-      <c r="P12" s="69" t="s">
+      <c r="P12" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
-      <c r="S12" s="60"/>
-      <c r="T12" s="60"/>
-      <c r="U12" s="59"/>
-      <c r="V12" s="60"/>
-      <c r="W12" s="59"/>
+      <c r="Q12" s="59">
+        <v>1</v>
+      </c>
+      <c r="R12" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="S12" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="T12" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="U12" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="V12" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="W12" s="60" t="s">
+        <v>108</v>
+      </c>
       <c r="X12" s="59"/>
       <c r="Y12" s="60"/>
       <c r="Z12" s="59"/>
-      <c r="AA12" s="61"/>
-      <c r="AB12" s="61"/>
-      <c r="AC12" s="61"/>
+      <c r="AA12" s="61">
+        <v>0.760965</v>
+      </c>
+      <c r="AB12" s="61">
+        <v>0.20913799999999999</v>
+      </c>
+      <c r="AC12" s="61">
+        <v>0.26166600000000001</v>
+      </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="70"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="59">
         <v>2</v>
       </c>
@@ -5699,23 +5836,39 @@
       <c r="N13" s="61">
         <v>0.38023499999999999</v>
       </c>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="59"/>
+      <c r="P13" s="65"/>
+      <c r="Q13" s="59">
+        <v>2</v>
+      </c>
       <c r="R13" s="59"/>
-      <c r="S13" s="60"/>
-      <c r="T13" s="60"/>
-      <c r="U13" s="59"/>
-      <c r="V13" s="60"/>
+      <c r="S13" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="T13" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="U13" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="V13" s="59"/>
       <c r="W13" s="60"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="60"/>
+      <c r="X13" s="60"/>
+      <c r="Y13" s="60" t="s">
+        <v>108</v>
+      </c>
       <c r="Z13" s="60"/>
-      <c r="AA13" s="61"/>
-      <c r="AB13" s="61"/>
-      <c r="AC13" s="61"/>
+      <c r="AA13" s="61">
+        <v>0.771976</v>
+      </c>
+      <c r="AB13" s="61">
+        <v>0.12044000000000001</v>
+      </c>
+      <c r="AC13" s="61">
+        <v>0.44320599999999999</v>
+      </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="70"/>
+      <c r="A14" s="65"/>
       <c r="B14" s="59">
         <v>3</v>
       </c>
@@ -5741,23 +5894,35 @@
       <c r="N14" s="61">
         <v>0.50038199999999999</v>
       </c>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="59"/>
+      <c r="P14" s="65"/>
+      <c r="Q14" s="59">
+        <v>3</v>
+      </c>
       <c r="R14" s="59"/>
-      <c r="S14" s="60"/>
-      <c r="T14" s="60"/>
-      <c r="U14" s="59"/>
-      <c r="V14" s="60"/>
+      <c r="S14" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="T14" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="U14" s="60"/>
+      <c r="V14" s="59"/>
       <c r="W14" s="60"/>
-      <c r="X14" s="59"/>
+      <c r="X14" s="60"/>
       <c r="Y14" s="60"/>
       <c r="Z14" s="60"/>
-      <c r="AA14" s="61"/>
-      <c r="AB14" s="61"/>
-      <c r="AC14" s="61"/>
+      <c r="AA14" s="61">
+        <v>0.71874000000000005</v>
+      </c>
+      <c r="AB14" s="61">
+        <v>0.33988299999999999</v>
+      </c>
+      <c r="AC14" s="61">
+        <v>0.36161599999999999</v>
+      </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="70"/>
+      <c r="A15" s="65"/>
       <c r="B15" s="59">
         <v>4</v>
       </c>
@@ -5781,23 +5946,39 @@
       <c r="N15" s="61">
         <v>0.65549299999999999</v>
       </c>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="60"/>
-      <c r="T15" s="60"/>
-      <c r="U15" s="59"/>
-      <c r="V15" s="60"/>
+      <c r="P15" s="65"/>
+      <c r="Q15" s="59">
+        <v>4</v>
+      </c>
+      <c r="R15" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="S15" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="T15" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="U15" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="V15" s="59"/>
       <c r="W15" s="60"/>
-      <c r="X15" s="59"/>
+      <c r="X15" s="60"/>
       <c r="Y15" s="60"/>
       <c r="Z15" s="60"/>
-      <c r="AA15" s="61"/>
-      <c r="AB15" s="61"/>
-      <c r="AC15" s="61"/>
+      <c r="AA15" s="61">
+        <v>0.77580099999999996</v>
+      </c>
+      <c r="AB15" s="61">
+        <v>0.56372800000000001</v>
+      </c>
+      <c r="AC15" s="61">
+        <v>0.71121199999999996</v>
+      </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="75" t="s">
+      <c r="A16" s="68" t="s">
         <v>138</v>
       </c>
       <c r="B16" s="59">
@@ -5821,25 +6002,39 @@
       <c r="N16" s="61">
         <v>4.5844200000000002E-2</v>
       </c>
-      <c r="P16" s="75" t="s">
+      <c r="P16" s="68" t="s">
         <v>138</v>
       </c>
-      <c r="Q16" s="59"/>
+      <c r="Q16" s="59">
+        <v>1</v>
+      </c>
       <c r="R16" s="59"/>
-      <c r="S16" s="60"/>
-      <c r="T16" s="60"/>
+      <c r="S16" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="T16" s="60" t="s">
+        <v>108</v>
+      </c>
       <c r="U16" s="59"/>
-      <c r="V16" s="60"/>
+      <c r="V16" s="60" t="s">
+        <v>108</v>
+      </c>
       <c r="W16" s="60"/>
       <c r="X16" s="59"/>
       <c r="Y16" s="60"/>
       <c r="Z16" s="60"/>
-      <c r="AA16" s="61"/>
-      <c r="AB16" s="61"/>
-      <c r="AC16" s="61"/>
+      <c r="AA16" s="61">
+        <v>2.8388199999999999E-2</v>
+      </c>
+      <c r="AB16" s="61">
+        <v>0.21817</v>
+      </c>
+      <c r="AC16" s="61">
+        <v>3.4310300000000002E-2</v>
+      </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A17" s="76"/>
+      <c r="A17" s="69"/>
       <c r="B17" s="59">
         <v>2</v>
       </c>
@@ -5861,10 +6056,14 @@
       <c r="N17" s="61">
         <v>5.7418299999999999E-2</v>
       </c>
-      <c r="P17" s="76"/>
-      <c r="Q17" s="59"/>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="59">
+        <v>2</v>
+      </c>
       <c r="R17" s="59"/>
-      <c r="S17" s="60"/>
+      <c r="S17" s="60" t="s">
+        <v>108</v>
+      </c>
       <c r="T17" s="60"/>
       <c r="U17" s="59"/>
       <c r="V17" s="60"/>
@@ -5872,12 +6071,18 @@
       <c r="X17" s="59"/>
       <c r="Y17" s="60"/>
       <c r="Z17" s="60"/>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="61"/>
-      <c r="AC17" s="61"/>
+      <c r="AA17" s="61">
+        <v>1.0223899999999999E-2</v>
+      </c>
+      <c r="AB17" s="61">
+        <v>0.29745300000000002</v>
+      </c>
+      <c r="AC17" s="61">
+        <v>1.7144099999999999E-2</v>
+      </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18" s="76"/>
+      <c r="A18" s="69"/>
       <c r="B18" s="59">
         <v>3</v>
       </c>
@@ -5899,10 +6104,14 @@
       <c r="N18" s="61">
         <v>3.5646999999999998E-2</v>
       </c>
-      <c r="P18" s="76"/>
-      <c r="Q18" s="59"/>
+      <c r="P18" s="69"/>
+      <c r="Q18" s="59">
+        <v>3</v>
+      </c>
       <c r="R18" s="59"/>
-      <c r="S18" s="60"/>
+      <c r="S18" s="60" t="s">
+        <v>108</v>
+      </c>
       <c r="T18" s="60"/>
       <c r="U18" s="59"/>
       <c r="V18" s="60"/>
@@ -5910,12 +6119,18 @@
       <c r="X18" s="59"/>
       <c r="Y18" s="60"/>
       <c r="Z18" s="60"/>
-      <c r="AA18" s="61"/>
-      <c r="AB18" s="61"/>
-      <c r="AC18" s="61"/>
+      <c r="AA18" s="61">
+        <v>1.53943E-2</v>
+      </c>
+      <c r="AB18" s="61">
+        <v>0.436334</v>
+      </c>
+      <c r="AC18" s="61">
+        <v>4.2146799999999998E-2</v>
+      </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A19" s="76"/>
+      <c r="A19" s="69"/>
       <c r="B19" s="59">
         <v>4</v>
       </c>
@@ -5937,8 +6152,10 @@
       <c r="N19" s="61">
         <v>4.3813699999999997E-2</v>
       </c>
-      <c r="P19" s="76"/>
-      <c r="Q19" s="59"/>
+      <c r="P19" s="69"/>
+      <c r="Q19" s="59">
+        <v>4</v>
+      </c>
       <c r="R19" s="59"/>
       <c r="S19" s="60"/>
       <c r="T19" s="60"/>
@@ -5948,12 +6165,18 @@
       <c r="X19" s="59"/>
       <c r="Y19" s="60"/>
       <c r="Z19" s="60"/>
-      <c r="AA19" s="61"/>
-      <c r="AB19" s="61"/>
-      <c r="AC19" s="61"/>
+      <c r="AA19" s="61">
+        <v>7.22159E-2</v>
+      </c>
+      <c r="AB19" s="61">
+        <v>0.12693199999999999</v>
+      </c>
+      <c r="AC19" s="61">
+        <v>2.94764E-2</v>
+      </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A20" s="75" t="s">
+      <c r="A20" s="68" t="s">
         <v>139</v>
       </c>
       <c r="B20" s="59">
@@ -5983,25 +6206,45 @@
       <c r="N20" s="61">
         <v>0.48419000000000001</v>
       </c>
-      <c r="P20" s="75" t="s">
+      <c r="P20" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="59"/>
-      <c r="S20" s="60"/>
-      <c r="T20" s="60"/>
-      <c r="U20" s="59"/>
-      <c r="V20" s="60"/>
-      <c r="W20" s="60"/>
+      <c r="Q20" s="59">
+        <v>1</v>
+      </c>
+      <c r="R20" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="S20" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="T20" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="U20" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="V20" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="W20" s="60" t="s">
+        <v>108</v>
+      </c>
       <c r="X20" s="59"/>
       <c r="Y20" s="60"/>
       <c r="Z20" s="60"/>
-      <c r="AA20" s="61"/>
-      <c r="AB20" s="61"/>
-      <c r="AC20" s="61"/>
+      <c r="AA20" s="61">
+        <v>6.9039699999999996E-2</v>
+      </c>
+      <c r="AB20" s="61">
+        <v>0.38139499999999998</v>
+      </c>
+      <c r="AC20" s="61">
+        <v>0.253668</v>
+      </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A21" s="76"/>
+      <c r="A21" s="69"/>
       <c r="B21" s="59">
         <v>2</v>
       </c>
@@ -6023,23 +6266,39 @@
       <c r="N21" s="61">
         <v>0.78103</v>
       </c>
-      <c r="P21" s="76"/>
-      <c r="Q21" s="59"/>
+      <c r="P21" s="69"/>
+      <c r="Q21" s="59">
+        <v>2</v>
+      </c>
       <c r="R21" s="59"/>
-      <c r="S21" s="60"/>
-      <c r="T21" s="60"/>
-      <c r="U21" s="59"/>
-      <c r="V21" s="60"/>
+      <c r="S21" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="T21" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="U21" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="V21" s="60" t="s">
+        <v>108</v>
+      </c>
       <c r="W21" s="60"/>
       <c r="X21" s="59"/>
       <c r="Y21" s="60"/>
       <c r="Z21" s="60"/>
-      <c r="AA21" s="61"/>
-      <c r="AB21" s="61"/>
-      <c r="AC21" s="61"/>
+      <c r="AA21" s="61">
+        <v>0.36532500000000001</v>
+      </c>
+      <c r="AB21" s="61">
+        <v>0.38601200000000002</v>
+      </c>
+      <c r="AC21" s="61">
+        <v>0.62565700000000002</v>
+      </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A22" s="76"/>
+      <c r="A22" s="69"/>
       <c r="B22" s="59">
         <v>3</v>
       </c>
@@ -6061,23 +6320,37 @@
       <c r="N22" s="61">
         <v>0.897227</v>
       </c>
-      <c r="P22" s="76"/>
-      <c r="Q22" s="59"/>
+      <c r="P22" s="69"/>
+      <c r="Q22" s="59">
+        <v>3</v>
+      </c>
       <c r="R22" s="59"/>
-      <c r="S22" s="60"/>
+      <c r="S22" s="60" t="s">
+        <v>108</v>
+      </c>
       <c r="T22" s="60"/>
-      <c r="U22" s="59"/>
-      <c r="V22" s="60"/>
+      <c r="U22" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="V22" s="60" t="s">
+        <v>108</v>
+      </c>
       <c r="W22" s="60"/>
       <c r="X22" s="59"/>
       <c r="Y22" s="60"/>
       <c r="Z22" s="60"/>
-      <c r="AA22" s="61"/>
-      <c r="AB22" s="61"/>
-      <c r="AC22" s="61"/>
+      <c r="AA22" s="61">
+        <v>9.6229499999999996E-2</v>
+      </c>
+      <c r="AB22" s="61">
+        <v>0.5</v>
+      </c>
+      <c r="AC22" s="61">
+        <v>0.71034299999999995</v>
+      </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" s="76"/>
+      <c r="A23" s="69"/>
       <c r="B23" s="59">
         <v>4</v>
       </c>
@@ -6099,23 +6372,37 @@
       <c r="N23" s="61">
         <v>0.91763700000000004</v>
       </c>
-      <c r="P23" s="76"/>
-      <c r="Q23" s="59"/>
+      <c r="P23" s="69"/>
+      <c r="Q23" s="59">
+        <v>4</v>
+      </c>
       <c r="R23" s="59"/>
-      <c r="S23" s="60"/>
+      <c r="S23" s="60" t="s">
+        <v>108</v>
+      </c>
       <c r="T23" s="60"/>
-      <c r="U23" s="59"/>
-      <c r="V23" s="60"/>
+      <c r="U23" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="V23" s="60" t="s">
+        <v>108</v>
+      </c>
       <c r="W23" s="60"/>
       <c r="X23" s="59"/>
       <c r="Y23" s="60"/>
       <c r="Z23" s="60"/>
-      <c r="AA23" s="61"/>
-      <c r="AB23" s="61"/>
-      <c r="AC23" s="61"/>
+      <c r="AA23" s="61">
+        <v>0.171456</v>
+      </c>
+      <c r="AB23" s="61">
+        <v>0.70474099999999995</v>
+      </c>
+      <c r="AC23" s="61">
+        <v>0.83937700000000004</v>
+      </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A24" s="69" t="s">
+      <c r="A24" s="64" t="s">
         <v>140</v>
       </c>
       <c r="B24" s="59">
@@ -6147,25 +6434,39 @@
       <c r="N24" s="61">
         <v>0.16942399999999999</v>
       </c>
-      <c r="P24" s="69" t="s">
+      <c r="P24" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="Q24" s="59"/>
+      <c r="Q24" s="59">
+        <v>1</v>
+      </c>
       <c r="R24" s="59"/>
-      <c r="S24" s="60"/>
+      <c r="S24" s="60" t="s">
+        <v>108</v>
+      </c>
       <c r="T24" s="60"/>
-      <c r="U24" s="59"/>
-      <c r="V24" s="60"/>
+      <c r="U24" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="V24" s="60" t="s">
+        <v>108</v>
+      </c>
       <c r="W24" s="60"/>
       <c r="X24" s="59"/>
       <c r="Y24" s="60"/>
       <c r="Z24" s="60"/>
-      <c r="AA24" s="61"/>
-      <c r="AB24" s="61"/>
-      <c r="AC24" s="61"/>
+      <c r="AA24" s="61">
+        <v>0.205375</v>
+      </c>
+      <c r="AB24" s="61">
+        <v>0.36593900000000001</v>
+      </c>
+      <c r="AC24" s="61">
+        <v>0.29181800000000002</v>
+      </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A25" s="70"/>
+      <c r="A25" s="65"/>
       <c r="B25" s="59">
         <v>2</v>
       </c>
@@ -6189,23 +6490,41 @@
       <c r="N25" s="61">
         <v>0.120402</v>
       </c>
-      <c r="P25" s="70"/>
-      <c r="Q25" s="59"/>
+      <c r="P25" s="65"/>
+      <c r="Q25" s="59">
+        <v>2</v>
+      </c>
       <c r="R25" s="59"/>
-      <c r="S25" s="60"/>
-      <c r="T25" s="60"/>
-      <c r="U25" s="59"/>
-      <c r="V25" s="60"/>
-      <c r="W25" s="60"/>
+      <c r="S25" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="T25" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="U25" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="V25" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="W25" s="60" t="s">
+        <v>108</v>
+      </c>
       <c r="X25" s="59"/>
       <c r="Y25" s="60"/>
       <c r="Z25" s="60"/>
-      <c r="AA25" s="61"/>
-      <c r="AB25" s="61"/>
-      <c r="AC25" s="61"/>
+      <c r="AA25" s="61">
+        <v>0.28221499999999999</v>
+      </c>
+      <c r="AB25" s="61">
+        <v>0.15160499999999999</v>
+      </c>
+      <c r="AC25" s="61">
+        <v>7.0994699999999994E-2</v>
+      </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A26" s="70"/>
+      <c r="A26" s="65"/>
       <c r="B26" s="59">
         <v>3</v>
       </c>
@@ -6229,23 +6548,39 @@
       <c r="N26" s="61">
         <v>4.74008E-2</v>
       </c>
-      <c r="P26" s="70"/>
-      <c r="Q26" s="59"/>
+      <c r="P26" s="65"/>
+      <c r="Q26" s="59">
+        <v>3</v>
+      </c>
       <c r="R26" s="59"/>
-      <c r="S26" s="60"/>
+      <c r="S26" s="60" t="s">
+        <v>108</v>
+      </c>
       <c r="T26" s="60"/>
-      <c r="U26" s="59"/>
-      <c r="V26" s="60"/>
+      <c r="U26" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="V26" s="60" t="s">
+        <v>108</v>
+      </c>
       <c r="W26" s="60"/>
-      <c r="X26" s="59"/>
+      <c r="X26" s="59" t="s">
+        <v>108</v>
+      </c>
       <c r="Y26" s="60"/>
       <c r="Z26" s="60"/>
-      <c r="AA26" s="61"/>
-      <c r="AB26" s="61"/>
-      <c r="AC26" s="61"/>
+      <c r="AA26" s="61">
+        <v>0.239731</v>
+      </c>
+      <c r="AB26" s="61">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="61">
+        <v>0.16056699999999999</v>
+      </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A27" s="70"/>
+      <c r="A27" s="65"/>
       <c r="B27" s="59">
         <v>4</v>
       </c>
@@ -6267,23 +6602,37 @@
       <c r="N27" s="61">
         <v>7.8227500000000005E-2</v>
       </c>
-      <c r="P27" s="70"/>
-      <c r="Q27" s="59"/>
+      <c r="P27" s="65"/>
+      <c r="Q27" s="59">
+        <v>4</v>
+      </c>
       <c r="R27" s="59"/>
       <c r="S27" s="60"/>
       <c r="T27" s="60"/>
-      <c r="U27" s="59"/>
-      <c r="V27" s="60"/>
-      <c r="W27" s="60"/>
+      <c r="U27" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="V27" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="W27" s="60" t="s">
+        <v>108</v>
+      </c>
       <c r="X27" s="59"/>
       <c r="Y27" s="60"/>
       <c r="Z27" s="60"/>
-      <c r="AA27" s="61"/>
-      <c r="AB27" s="61"/>
-      <c r="AC27" s="61"/>
+      <c r="AA27" s="61">
+        <v>5.96958E-2</v>
+      </c>
+      <c r="AB27" s="61">
+        <v>0.46757500000000002</v>
+      </c>
+      <c r="AC27" s="61">
+        <v>0.12478400000000001</v>
+      </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A28" s="69" t="s">
+      <c r="A28" s="64" t="s">
         <v>116</v>
       </c>
       <c r="B28" s="59">
@@ -6311,25 +6660,41 @@
       <c r="N28" s="61">
         <v>6.9860400000000003E-2</v>
       </c>
-      <c r="P28" s="69" t="s">
+      <c r="P28" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="Q28" s="59"/>
-      <c r="R28" s="59"/>
-      <c r="S28" s="60"/>
+      <c r="Q28" s="59">
+        <v>1</v>
+      </c>
+      <c r="R28" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="S28" s="60" t="s">
+        <v>108</v>
+      </c>
       <c r="T28" s="60"/>
-      <c r="U28" s="59"/>
-      <c r="V28" s="60"/>
+      <c r="U28" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="V28" s="60" t="s">
+        <v>108</v>
+      </c>
       <c r="W28" s="60"/>
       <c r="X28" s="59"/>
       <c r="Y28" s="60"/>
       <c r="Z28" s="60"/>
-      <c r="AA28" s="61"/>
-      <c r="AB28" s="61"/>
-      <c r="AC28" s="61"/>
+      <c r="AA28" s="61">
+        <v>0.20547000000000001</v>
+      </c>
+      <c r="AB28" s="61">
+        <v>0.62508399999999997</v>
+      </c>
+      <c r="AC28" s="61">
+        <v>0.34813899999999998</v>
+      </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A29" s="70"/>
+      <c r="A29" s="65"/>
       <c r="B29" s="59">
         <v>2</v>
       </c>
@@ -6351,23 +6716,37 @@
       <c r="N29" s="61">
         <v>2.2438900000000001E-2</v>
       </c>
-      <c r="P29" s="70"/>
-      <c r="Q29" s="59"/>
+      <c r="P29" s="65"/>
+      <c r="Q29" s="59">
+        <v>2</v>
+      </c>
       <c r="R29" s="59"/>
-      <c r="S29" s="60"/>
+      <c r="S29" s="60" t="s">
+        <v>108</v>
+      </c>
       <c r="T29" s="60"/>
-      <c r="U29" s="59"/>
+      <c r="U29" s="59" t="s">
+        <v>108</v>
+      </c>
       <c r="V29" s="60"/>
-      <c r="W29" s="60"/>
+      <c r="W29" s="60" t="s">
+        <v>108</v>
+      </c>
       <c r="X29" s="59"/>
       <c r="Y29" s="60"/>
       <c r="Z29" s="60"/>
-      <c r="AA29" s="61"/>
-      <c r="AB29" s="61"/>
-      <c r="AC29" s="61"/>
+      <c r="AA29" s="61">
+        <v>0.18086099999999999</v>
+      </c>
+      <c r="AB29" s="61">
+        <v>0.53647800000000001</v>
+      </c>
+      <c r="AC29" s="61">
+        <v>0.109679</v>
+      </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A30" s="70"/>
+      <c r="A30" s="65"/>
       <c r="B30" s="59">
         <v>3</v>
       </c>
@@ -6389,23 +6768,39 @@
       <c r="N30" s="61">
         <v>0.18915299999999999</v>
       </c>
-      <c r="P30" s="70"/>
-      <c r="Q30" s="59"/>
+      <c r="P30" s="65"/>
+      <c r="Q30" s="59">
+        <v>3</v>
+      </c>
       <c r="R30" s="59"/>
-      <c r="S30" s="60"/>
-      <c r="T30" s="60"/>
-      <c r="U30" s="59"/>
+      <c r="S30" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="T30" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="U30" s="59" t="s">
+        <v>108</v>
+      </c>
       <c r="V30" s="60"/>
-      <c r="W30" s="60"/>
+      <c r="W30" s="60" t="s">
+        <v>108</v>
+      </c>
       <c r="X30" s="59"/>
       <c r="Y30" s="60"/>
       <c r="Z30" s="60"/>
-      <c r="AA30" s="61"/>
-      <c r="AB30" s="61"/>
-      <c r="AC30" s="61"/>
+      <c r="AA30" s="61">
+        <v>0.32645200000000002</v>
+      </c>
+      <c r="AB30" s="61">
+        <v>0.67659599999999998</v>
+      </c>
+      <c r="AC30" s="61">
+        <v>0.19315499999999999</v>
+      </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A31" s="70"/>
+      <c r="A31" s="65"/>
       <c r="B31" s="59">
         <v>4</v>
       </c>
@@ -6427,23 +6822,33 @@
       <c r="N31" s="61">
         <v>3.4277799999999997E-2</v>
       </c>
-      <c r="P31" s="70"/>
-      <c r="Q31" s="59"/>
+      <c r="P31" s="65"/>
+      <c r="Q31" s="59">
+        <v>4</v>
+      </c>
       <c r="R31" s="59"/>
       <c r="S31" s="60"/>
       <c r="T31" s="60"/>
-      <c r="U31" s="59"/>
+      <c r="U31" s="59" t="s">
+        <v>108</v>
+      </c>
       <c r="V31" s="60"/>
       <c r="W31" s="60"/>
       <c r="X31" s="59"/>
       <c r="Y31" s="60"/>
       <c r="Z31" s="60"/>
-      <c r="AA31" s="61"/>
-      <c r="AB31" s="61"/>
-      <c r="AC31" s="61"/>
+      <c r="AA31" s="61">
+        <v>0.26365699999999997</v>
+      </c>
+      <c r="AB31" s="61">
+        <v>0.74311899999999997</v>
+      </c>
+      <c r="AC31" s="61">
+        <v>0.421541</v>
+      </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A32" s="69" t="s">
+      <c r="A32" s="64" t="s">
         <v>141</v>
       </c>
       <c r="B32" s="59">
@@ -6471,25 +6876,45 @@
       <c r="N32" s="61">
         <v>5.9273100000000002E-2</v>
       </c>
-      <c r="P32" s="69" t="s">
+      <c r="P32" s="64" t="s">
         <v>141</v>
       </c>
-      <c r="Q32" s="59"/>
-      <c r="R32" s="59"/>
-      <c r="S32" s="60"/>
-      <c r="T32" s="60"/>
-      <c r="U32" s="59"/>
-      <c r="V32" s="60"/>
-      <c r="W32" s="60"/>
+      <c r="Q32" s="59">
+        <v>1</v>
+      </c>
+      <c r="R32" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="S32" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="T32" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="U32" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="V32" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="W32" s="60" t="s">
+        <v>108</v>
+      </c>
       <c r="X32" s="59"/>
       <c r="Y32" s="60"/>
       <c r="Z32" s="60"/>
-      <c r="AA32" s="61"/>
-      <c r="AB32" s="61"/>
-      <c r="AC32" s="61"/>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A33" s="70"/>
+      <c r="AA32" s="61">
+        <v>0.344526</v>
+      </c>
+      <c r="AB32" s="61">
+        <v>0.37226100000000001</v>
+      </c>
+      <c r="AC32" s="61">
+        <v>0.123201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A33" s="65"/>
       <c r="B33" s="59">
         <v>2</v>
       </c>
@@ -6511,10 +6936,14 @@
       <c r="N33" s="61">
         <v>1.77678E-2</v>
       </c>
-      <c r="P33" s="70"/>
-      <c r="Q33" s="59"/>
+      <c r="P33" s="65"/>
+      <c r="Q33" s="59">
+        <v>2</v>
+      </c>
       <c r="R33" s="59"/>
-      <c r="S33" s="60"/>
+      <c r="S33" s="60" t="s">
+        <v>108</v>
+      </c>
       <c r="T33" s="60"/>
       <c r="U33" s="59"/>
       <c r="V33" s="60"/>
@@ -6522,12 +6951,18 @@
       <c r="X33" s="59"/>
       <c r="Y33" s="60"/>
       <c r="Z33" s="60"/>
-      <c r="AA33" s="61"/>
-      <c r="AB33" s="61"/>
-      <c r="AC33" s="61"/>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A34" s="70"/>
+      <c r="AA33" s="61">
+        <v>0.101634</v>
+      </c>
+      <c r="AB33" s="61">
+        <v>0.107222</v>
+      </c>
+      <c r="AC33" s="61">
+        <v>2.6450399999999999E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A34" s="65"/>
       <c r="B34" s="59">
         <v>3</v>
       </c>
@@ -6549,23 +6984,35 @@
       <c r="N34" s="61">
         <v>7.3289699999999999E-2</v>
       </c>
-      <c r="P34" s="70"/>
-      <c r="Q34" s="59"/>
+      <c r="P34" s="65"/>
+      <c r="Q34" s="59">
+        <v>3</v>
+      </c>
       <c r="R34" s="59"/>
-      <c r="S34" s="60"/>
+      <c r="S34" s="60" t="s">
+        <v>108</v>
+      </c>
       <c r="T34" s="60"/>
       <c r="U34" s="59"/>
-      <c r="V34" s="60"/>
+      <c r="V34" s="60" t="s">
+        <v>108</v>
+      </c>
       <c r="W34" s="60"/>
       <c r="X34" s="59"/>
       <c r="Y34" s="60"/>
       <c r="Z34" s="60"/>
-      <c r="AA34" s="61"/>
-      <c r="AB34" s="61"/>
-      <c r="AC34" s="61"/>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A35" s="70"/>
+      <c r="AA34" s="61">
+        <v>0.120474</v>
+      </c>
+      <c r="AB34" s="61">
+        <v>0.121201</v>
+      </c>
+      <c r="AC34" s="61">
+        <v>5.6012300000000001E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A35" s="65"/>
       <c r="B35" s="59">
         <v>4</v>
       </c>
@@ -6587,23 +7034,34 @@
       <c r="N35" s="61">
         <v>2.0179599999999999E-2</v>
       </c>
-      <c r="P35" s="70"/>
-      <c r="Q35" s="59"/>
+      <c r="P35" s="65"/>
+      <c r="Q35" s="59">
+        <v>4</v>
+      </c>
       <c r="R35" s="59"/>
       <c r="S35" s="60"/>
       <c r="T35" s="60"/>
       <c r="U35" s="59"/>
       <c r="V35" s="60"/>
-      <c r="W35" s="60"/>
+      <c r="W35" s="60" t="s">
+        <v>108</v>
+      </c>
       <c r="X35" s="59"/>
       <c r="Y35" s="60"/>
       <c r="Z35" s="60"/>
-      <c r="AA35" s="61"/>
-      <c r="AB35" s="61"/>
-      <c r="AC35" s="61"/>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A36" s="74" t="s">
+      <c r="AA35" s="61">
+        <v>0.29453800000000002</v>
+      </c>
+      <c r="AB35" s="61">
+        <v>0.118483</v>
+      </c>
+      <c r="AC35" s="61">
+        <v>3.8278E-2</v>
+      </c>
+      <c r="AE35" s="90"/>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A36" s="67" t="s">
         <v>142</v>
       </c>
       <c r="B36" s="59">
@@ -6635,25 +7093,43 @@
       <c r="N36" s="61">
         <v>1.61917E-2</v>
       </c>
-      <c r="P36" s="74" t="s">
+      <c r="P36" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="Q36" s="59"/>
+      <c r="Q36" s="59">
+        <v>1</v>
+      </c>
       <c r="R36" s="59"/>
-      <c r="S36" s="60"/>
+      <c r="S36" s="60" t="s">
+        <v>108</v>
+      </c>
       <c r="T36" s="60"/>
-      <c r="U36" s="59"/>
-      <c r="V36" s="60"/>
+      <c r="U36" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="V36" s="60" t="s">
+        <v>108</v>
+      </c>
       <c r="W36" s="60"/>
-      <c r="X36" s="59"/>
-      <c r="Y36" s="60"/>
+      <c r="X36" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y36" s="60" t="s">
+        <v>108</v>
+      </c>
       <c r="Z36" s="60"/>
-      <c r="AA36" s="61"/>
-      <c r="AB36" s="61"/>
-      <c r="AC36" s="61"/>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A37" s="74"/>
+      <c r="AA36" s="61">
+        <v>4.7301299999999998E-2</v>
+      </c>
+      <c r="AB36" s="61">
+        <v>0.114191</v>
+      </c>
+      <c r="AC36" s="61">
+        <v>0.27968700000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A37" s="67"/>
       <c r="B37" s="59">
         <v>2</v>
       </c>
@@ -6683,23 +7159,37 @@
       <c r="N37" s="61">
         <v>5.7760399999999996E-3</v>
       </c>
-      <c r="P37" s="74"/>
-      <c r="Q37" s="59"/>
+      <c r="P37" s="67"/>
+      <c r="Q37" s="59">
+        <v>2</v>
+      </c>
       <c r="R37" s="59"/>
       <c r="S37" s="60"/>
       <c r="T37" s="60"/>
-      <c r="U37" s="59"/>
-      <c r="V37" s="60"/>
+      <c r="U37" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="V37" s="60" t="s">
+        <v>108</v>
+      </c>
       <c r="W37" s="60"/>
-      <c r="X37" s="59"/>
+      <c r="X37" s="59" t="s">
+        <v>108</v>
+      </c>
       <c r="Y37" s="60"/>
       <c r="Z37" s="60"/>
-      <c r="AA37" s="61"/>
-      <c r="AB37" s="61"/>
-      <c r="AC37" s="61"/>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A38" s="74"/>
+      <c r="AA37" s="61">
+        <v>6.3255199999999998E-2</v>
+      </c>
+      <c r="AB37" s="61">
+        <v>3.0970500000000002E-2</v>
+      </c>
+      <c r="AC37" s="61">
+        <v>0.24784999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A38" s="67"/>
       <c r="B38" s="59">
         <v>3</v>
       </c>
@@ -6729,23 +7219,39 @@
       <c r="N38" s="61">
         <v>2.91655E-2</v>
       </c>
-      <c r="P38" s="74"/>
-      <c r="Q38" s="59"/>
+      <c r="P38" s="67"/>
+      <c r="Q38" s="59">
+        <v>3</v>
+      </c>
       <c r="R38" s="59"/>
       <c r="S38" s="60"/>
       <c r="T38" s="60"/>
-      <c r="U38" s="59"/>
-      <c r="V38" s="60"/>
+      <c r="U38" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="V38" s="60" t="s">
+        <v>108</v>
+      </c>
       <c r="W38" s="60"/>
-      <c r="X38" s="59"/>
-      <c r="Y38" s="60"/>
+      <c r="X38" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y38" s="60" t="s">
+        <v>108</v>
+      </c>
       <c r="Z38" s="60"/>
-      <c r="AA38" s="61"/>
-      <c r="AB38" s="61"/>
-      <c r="AC38" s="61"/>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A39" s="74"/>
+      <c r="AA38" s="61">
+        <v>2.5454000000000001E-2</v>
+      </c>
+      <c r="AB38" s="61">
+        <v>4.07082E-2</v>
+      </c>
+      <c r="AC38" s="61">
+        <v>0.167187</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A39" s="67"/>
       <c r="B39" s="59">
         <v>4</v>
       </c>
@@ -6775,22 +7281,36 @@
       <c r="N39" s="61">
         <v>1.0556299999999999E-2</v>
       </c>
-      <c r="P39" s="74"/>
-      <c r="Q39" s="59"/>
+      <c r="P39" s="67"/>
+      <c r="Q39" s="59">
+        <v>4</v>
+      </c>
       <c r="R39" s="59"/>
       <c r="S39" s="60"/>
       <c r="T39" s="60"/>
-      <c r="U39" s="59"/>
-      <c r="V39" s="60"/>
+      <c r="U39" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="V39" s="60" t="s">
+        <v>108</v>
+      </c>
       <c r="W39" s="60"/>
-      <c r="X39" s="59"/>
+      <c r="X39" s="59" t="s">
+        <v>108</v>
+      </c>
       <c r="Y39" s="60"/>
       <c r="Z39" s="60"/>
-      <c r="AA39" s="61"/>
-      <c r="AB39" s="61"/>
-      <c r="AC39" s="61"/>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA39" s="61">
+        <v>2.1160499999999999E-2</v>
+      </c>
+      <c r="AB39" s="61">
+        <v>8.1721299999999997E-2</v>
+      </c>
+      <c r="AC39" s="61">
+        <v>0.26826100000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="58"/>
       <c r="B40" s="58"/>
       <c r="C40" s="58"/>
@@ -6799,14 +7319,14 @@
       <c r="F40" s="58"/>
       <c r="G40" s="58"/>
       <c r="H40" s="58"/>
-      <c r="I40" s="89"/>
+      <c r="I40" s="62"/>
       <c r="J40" s="58"/>
       <c r="K40" s="58"/>
       <c r="L40" s="58"/>
       <c r="M40" s="58"/>
       <c r="N40" s="58"/>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" s="58"/>
       <c r="B41" s="58"/>
       <c r="C41" s="58"/>
@@ -6824,6 +7344,29 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="P1:AC1"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AA2:AC2"/>
     <mergeCell ref="P24:P27"/>
     <mergeCell ref="P28:P31"/>
     <mergeCell ref="P32:P35"/>
@@ -6833,31 +7376,9 @@
     <mergeCell ref="P12:P15"/>
     <mergeCell ref="P16:P19"/>
     <mergeCell ref="P20:P23"/>
-    <mergeCell ref="P1:AC1"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7035,7 +7556,7 @@
       <c r="A2" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="62">
+      <c r="B2" s="63">
         <v>43548</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -7122,7 +7643,7 @@
       <c r="A3" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B3" s="62"/>
+      <c r="B3" s="63"/>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
@@ -7207,7 +7728,7 @@
       <c r="A4" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B4" s="62"/>
+      <c r="B4" s="63"/>
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
@@ -7292,7 +7813,7 @@
       <c r="A5" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B5" s="62"/>
+      <c r="B5" s="63"/>
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
@@ -7377,7 +7898,7 @@
       <c r="A6" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B6" s="62"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
@@ -7462,7 +7983,7 @@
       <c r="A7" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B7" s="62"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
@@ -7547,7 +8068,7 @@
       <c r="A8" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B8" s="62"/>
+      <c r="B8" s="63"/>
       <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
@@ -7629,7 +8150,7 @@
       <c r="A9" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B9" s="62"/>
+      <c r="B9" s="63"/>
       <c r="C9" s="44">
         <v>0.25</v>
       </c>
@@ -8180,138 +8701,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="71" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="65"/>
-      <c r="P1" s="63" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="73"/>
+      <c r="P1" s="71" t="s">
         <v>177</v>
       </c>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="65"/>
-      <c r="AE1" s="63" t="s">
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72"/>
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="73"/>
+      <c r="AE1" s="71" t="s">
         <v>180</v>
       </c>
-      <c r="AF1" s="64"/>
-      <c r="AG1" s="64"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="64"/>
-      <c r="AO1" s="64"/>
-      <c r="AP1" s="64"/>
-      <c r="AQ1" s="64"/>
-      <c r="AR1" s="65"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="72"/>
+      <c r="AH1" s="72"/>
+      <c r="AI1" s="72"/>
+      <c r="AJ1" s="72"/>
+      <c r="AK1" s="72"/>
+      <c r="AL1" s="72"/>
+      <c r="AM1" s="72"/>
+      <c r="AN1" s="72"/>
+      <c r="AO1" s="72"/>
+      <c r="AP1" s="72"/>
+      <c r="AQ1" s="72"/>
+      <c r="AR1" s="73"/>
     </row>
     <row r="2" spans="1:44" s="31" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="74" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="63" t="s">
+      <c r="D2" s="72"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="71" t="s">
         <v>127</v>
       </c>
-      <c r="G2" s="64"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="63" t="s">
+      <c r="G2" s="72"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="71" t="s">
         <v>129</v>
       </c>
-      <c r="J2" s="64"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="66" t="s">
+      <c r="J2" s="72"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="76" t="s">
         <v>128</v>
       </c>
-      <c r="M2" s="67"/>
-      <c r="N2" s="68"/>
-      <c r="P2" s="72" t="s">
+      <c r="M2" s="77"/>
+      <c r="N2" s="78"/>
+      <c r="P2" s="74" t="s">
         <v>130</v>
       </c>
-      <c r="Q2" s="72" t="s">
+      <c r="Q2" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="R2" s="63" t="s">
+      <c r="R2" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="S2" s="64"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="63" t="s">
+      <c r="S2" s="72"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="71" t="s">
         <v>127</v>
       </c>
-      <c r="V2" s="64"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="63" t="s">
+      <c r="V2" s="72"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="71" t="s">
         <v>129</v>
       </c>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="66" t="s">
+      <c r="Y2" s="72"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="76" t="s">
         <v>128</v>
       </c>
-      <c r="AB2" s="67"/>
-      <c r="AC2" s="68"/>
-      <c r="AE2" s="72" t="s">
+      <c r="AB2" s="77"/>
+      <c r="AC2" s="78"/>
+      <c r="AE2" s="74" t="s">
         <v>130</v>
       </c>
-      <c r="AF2" s="72" t="s">
+      <c r="AF2" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="AG2" s="63" t="s">
+      <c r="AG2" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="AH2" s="64"/>
-      <c r="AI2" s="65"/>
-      <c r="AJ2" s="63" t="s">
+      <c r="AH2" s="72"/>
+      <c r="AI2" s="73"/>
+      <c r="AJ2" s="71" t="s">
         <v>127</v>
       </c>
-      <c r="AK2" s="64"/>
-      <c r="AL2" s="65"/>
-      <c r="AM2" s="63" t="s">
+      <c r="AK2" s="72"/>
+      <c r="AL2" s="73"/>
+      <c r="AM2" s="71" t="s">
         <v>129</v>
       </c>
-      <c r="AN2" s="64"/>
-      <c r="AO2" s="65"/>
-      <c r="AP2" s="66" t="s">
+      <c r="AN2" s="72"/>
+      <c r="AO2" s="73"/>
+      <c r="AP2" s="76" t="s">
         <v>128</v>
       </c>
-      <c r="AQ2" s="67"/>
-      <c r="AR2" s="68"/>
+      <c r="AQ2" s="77"/>
+      <c r="AR2" s="78"/>
     </row>
     <row r="3" spans="1:44" s="31" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="73"/>
-      <c r="B3" s="73"/>
+      <c r="A3" s="75"/>
+      <c r="B3" s="75"/>
       <c r="C3" s="36" t="s">
         <v>125</v>
       </c>
@@ -8348,8 +8869,8 @@
       <c r="N3" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
       <c r="R3" s="36" t="s">
         <v>125</v>
       </c>
@@ -8386,8 +8907,8 @@
       <c r="AC3" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="AE3" s="73"/>
-      <c r="AF3" s="73"/>
+      <c r="AE3" s="75"/>
+      <c r="AF3" s="75"/>
       <c r="AG3" s="36" t="s">
         <v>125</v>
       </c>
@@ -8426,7 +8947,7 @@
       </c>
     </row>
     <row r="4" spans="1:44" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="64" t="s">
         <v>136</v>
       </c>
       <c r="B4" s="38" t="s">
@@ -8465,7 +8986,7 @@
       <c r="O4" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="64" t="s">
         <v>136</v>
       </c>
       <c r="Q4" s="38" t="s">
@@ -8501,7 +9022,7 @@
       <c r="AC4" s="40">
         <v>0.80864800000000003</v>
       </c>
-      <c r="AE4" s="69" t="s">
+      <c r="AE4" s="64" t="s">
         <v>136</v>
       </c>
       <c r="AF4" s="38" t="s">
@@ -8539,7 +9060,7 @@
       </c>
     </row>
     <row r="5" spans="1:44" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="38" t="s">
         <v>133</v>
       </c>
@@ -8579,7 +9100,7 @@
       <c r="N5" s="40">
         <v>0.53922099999999995</v>
       </c>
-      <c r="P5" s="70"/>
+      <c r="P5" s="65"/>
       <c r="Q5" s="38" t="s">
         <v>133</v>
       </c>
@@ -8619,7 +9140,7 @@
       <c r="AC5" s="40">
         <v>0.74212500000000003</v>
       </c>
-      <c r="AE5" s="70"/>
+      <c r="AE5" s="65"/>
       <c r="AF5" s="38" t="s">
         <v>133</v>
       </c>
@@ -8661,7 +9182,7 @@
       </c>
     </row>
     <row r="6" spans="1:44" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="70"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="38" t="s">
         <v>134</v>
       </c>
@@ -8697,7 +9218,7 @@
       <c r="N6" s="40">
         <v>4.9845799999999997E-3</v>
       </c>
-      <c r="P6" s="70"/>
+      <c r="P6" s="65"/>
       <c r="Q6" s="38" t="s">
         <v>134</v>
       </c>
@@ -8731,7 +9252,7 @@
       <c r="AC6" s="40">
         <v>0.32851900000000001</v>
       </c>
-      <c r="AE6" s="70"/>
+      <c r="AE6" s="65"/>
       <c r="AF6" s="38" t="s">
         <v>134</v>
       </c>
@@ -8771,7 +9292,7 @@
       </c>
     </row>
     <row r="7" spans="1:44" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="71"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="41" t="s">
         <v>135</v>
       </c>
@@ -8793,7 +9314,7 @@
       <c r="N7" s="42">
         <v>6.9331199999999996E-4</v>
       </c>
-      <c r="P7" s="71"/>
+      <c r="P7" s="66"/>
       <c r="Q7" s="41" t="s">
         <v>135</v>
       </c>
@@ -8815,7 +9336,7 @@
       <c r="AC7" s="42">
         <v>5.0963000000000001E-2</v>
       </c>
-      <c r="AE7" s="71"/>
+      <c r="AE7" s="66"/>
       <c r="AF7" s="38" t="s">
         <v>135</v>
       </c>
@@ -8839,7 +9360,7 @@
       </c>
     </row>
     <row r="8" spans="1:44" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="64" t="s">
         <v>137</v>
       </c>
       <c r="B8" s="38" t="s">
@@ -8875,7 +9396,7 @@
       <c r="N8" s="40">
         <v>0.34474100000000002</v>
       </c>
-      <c r="P8" s="69" t="s">
+      <c r="P8" s="64" t="s">
         <v>137</v>
       </c>
       <c r="Q8" s="38" t="s">
@@ -8911,7 +9432,7 @@
       <c r="AC8" s="40">
         <v>0.83276700000000003</v>
       </c>
-      <c r="AE8" s="69" t="s">
+      <c r="AE8" s="64" t="s">
         <v>137</v>
       </c>
       <c r="AF8" s="38" t="s">
@@ -8949,7 +9470,7 @@
       </c>
     </row>
     <row r="9" spans="1:44" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="70"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="38" t="s">
         <v>133</v>
       </c>
@@ -8989,7 +9510,7 @@
       <c r="N9" s="40">
         <v>0.93847400000000003</v>
       </c>
-      <c r="P9" s="70"/>
+      <c r="P9" s="65"/>
       <c r="Q9" s="38" t="s">
         <v>133</v>
       </c>
@@ -9029,7 +9550,7 @@
       <c r="AC9" s="40">
         <v>0.36027500000000001</v>
       </c>
-      <c r="AE9" s="70"/>
+      <c r="AE9" s="65"/>
       <c r="AF9" s="38" t="s">
         <v>133</v>
       </c>
@@ -9071,7 +9592,7 @@
       </c>
     </row>
     <row r="10" spans="1:44" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="70"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="38" t="s">
         <v>134</v>
       </c>
@@ -9107,7 +9628,7 @@
       <c r="N10" s="40">
         <v>1.1750500000000001E-2</v>
       </c>
-      <c r="P10" s="70"/>
+      <c r="P10" s="65"/>
       <c r="Q10" s="38" t="s">
         <v>134</v>
       </c>
@@ -9141,7 +9662,7 @@
       <c r="AC10" s="40">
         <v>0.42157099999999997</v>
       </c>
-      <c r="AE10" s="70"/>
+      <c r="AE10" s="65"/>
       <c r="AF10" s="38" t="s">
         <v>134</v>
       </c>
@@ -9183,7 +9704,7 @@
       </c>
     </row>
     <row r="11" spans="1:44" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="71"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="41" t="s">
         <v>135</v>
       </c>
@@ -9205,7 +9726,7 @@
       <c r="N11" s="42">
         <v>4.1270400000000002E-3</v>
       </c>
-      <c r="P11" s="71"/>
+      <c r="P11" s="66"/>
       <c r="Q11" s="41" t="s">
         <v>135</v>
       </c>
@@ -9233,7 +9754,7 @@
       <c r="AC11" s="42">
         <v>8.3578299999999994E-2</v>
       </c>
-      <c r="AE11" s="71"/>
+      <c r="AE11" s="66"/>
       <c r="AF11" s="38" t="s">
         <v>135</v>
       </c>
@@ -9261,7 +9782,7 @@
       </c>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="64" t="s">
         <v>110</v>
       </c>
       <c r="B12" s="38" t="s">
@@ -9297,7 +9818,7 @@
       <c r="N12" s="40">
         <v>0.61764799999999997</v>
       </c>
-      <c r="P12" s="69" t="s">
+      <c r="P12" s="64" t="s">
         <v>110</v>
       </c>
       <c r="Q12" s="38" t="s">
@@ -9333,7 +9854,7 @@
       <c r="AC12" s="40">
         <v>0.72725300000000004</v>
       </c>
-      <c r="AE12" s="69" t="s">
+      <c r="AE12" s="64" t="s">
         <v>110</v>
       </c>
       <c r="AF12" s="38" t="s">
@@ -9371,7 +9892,7 @@
       </c>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A13" s="70"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="38" t="s">
         <v>133</v>
       </c>
@@ -9405,7 +9926,7 @@
       <c r="N13" s="40">
         <v>0.18202299999999999</v>
       </c>
-      <c r="P13" s="70"/>
+      <c r="P13" s="65"/>
       <c r="Q13" s="38" t="s">
         <v>133</v>
       </c>
@@ -9439,7 +9960,7 @@
       <c r="AC13" s="40">
         <v>0.50264500000000001</v>
       </c>
-      <c r="AE13" s="70"/>
+      <c r="AE13" s="65"/>
       <c r="AF13" s="38" t="s">
         <v>133</v>
       </c>
@@ -9475,7 +9996,7 @@
       </c>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A14" s="70"/>
+      <c r="A14" s="65"/>
       <c r="B14" s="38" t="s">
         <v>134</v>
       </c>
@@ -9509,7 +10030,7 @@
       <c r="N14" s="40">
         <v>5.4985399999999997E-2</v>
       </c>
-      <c r="P14" s="70"/>
+      <c r="P14" s="65"/>
       <c r="Q14" s="38" t="s">
         <v>134</v>
       </c>
@@ -9543,7 +10064,7 @@
       <c r="AC14" s="40">
         <v>0.35624899999999998</v>
       </c>
-      <c r="AE14" s="70"/>
+      <c r="AE14" s="65"/>
       <c r="AF14" s="38" t="s">
         <v>134</v>
       </c>
@@ -9579,7 +10100,7 @@
       </c>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A15" s="71"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="41" t="s">
         <v>135</v>
       </c>
@@ -9601,7 +10122,7 @@
       <c r="N15" s="42">
         <v>0</v>
       </c>
-      <c r="P15" s="71"/>
+      <c r="P15" s="66"/>
       <c r="Q15" s="41" t="s">
         <v>135</v>
       </c>
@@ -9629,7 +10150,7 @@
       <c r="AC15" s="42">
         <v>0.228573</v>
       </c>
-      <c r="AE15" s="71"/>
+      <c r="AE15" s="66"/>
       <c r="AF15" s="38" t="s">
         <v>135</v>
       </c>
@@ -9655,7 +10176,7 @@
       </c>
     </row>
     <row r="16" spans="1:44" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="75" t="s">
+      <c r="A16" s="68" t="s">
         <v>138</v>
       </c>
       <c r="B16" s="39" t="s">
@@ -9693,7 +10214,7 @@
       <c r="N16" s="40">
         <v>0.29320299999999999</v>
       </c>
-      <c r="P16" s="75" t="s">
+      <c r="P16" s="68" t="s">
         <v>138</v>
       </c>
       <c r="Q16" s="39" t="s">
@@ -9733,7 +10254,7 @@
       <c r="AC16" s="40">
         <v>0.81892100000000001</v>
       </c>
-      <c r="AE16" s="75" t="s">
+      <c r="AE16" s="68" t="s">
         <v>138</v>
       </c>
       <c r="AF16" s="39" t="s">
@@ -9777,7 +10298,7 @@
       </c>
     </row>
     <row r="17" spans="1:44" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="76"/>
+      <c r="A17" s="69"/>
       <c r="B17" s="39" t="s">
         <v>133</v>
       </c>
@@ -9811,7 +10332,7 @@
       <c r="N17" s="40">
         <v>0.174321</v>
       </c>
-      <c r="P17" s="76"/>
+      <c r="P17" s="69"/>
       <c r="Q17" s="39" t="s">
         <v>133</v>
       </c>
@@ -9845,7 +10366,7 @@
       <c r="AC17" s="40">
         <v>0.46240999999999999</v>
       </c>
-      <c r="AE17" s="76"/>
+      <c r="AE17" s="69"/>
       <c r="AF17" s="39" t="s">
         <v>133</v>
       </c>
@@ -9885,7 +10406,7 @@
       </c>
     </row>
     <row r="18" spans="1:44" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="76"/>
+      <c r="A18" s="69"/>
       <c r="B18" s="38" t="s">
         <v>134</v>
       </c>
@@ -9923,7 +10444,7 @@
       <c r="N18" s="40">
         <v>1.3136500000000001E-2</v>
       </c>
-      <c r="P18" s="76"/>
+      <c r="P18" s="69"/>
       <c r="Q18" s="38" t="s">
         <v>134</v>
       </c>
@@ -9957,7 +10478,7 @@
       <c r="AC18" s="40">
         <v>0.97048199999999996</v>
       </c>
-      <c r="AE18" s="76"/>
+      <c r="AE18" s="69"/>
       <c r="AF18" s="38" t="s">
         <v>134</v>
       </c>
@@ -9999,7 +10520,7 @@
       </c>
     </row>
     <row r="19" spans="1:44" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="77"/>
+      <c r="A19" s="70"/>
       <c r="B19" s="41" t="s">
         <v>135</v>
       </c>
@@ -10021,7 +10542,7 @@
       <c r="N19" s="42">
         <v>3.6087900000000002E-3</v>
       </c>
-      <c r="P19" s="77"/>
+      <c r="P19" s="70"/>
       <c r="Q19" s="41" t="s">
         <v>135</v>
       </c>
@@ -10051,7 +10572,7 @@
       <c r="AC19" s="42">
         <v>0.75703299999999996</v>
       </c>
-      <c r="AE19" s="77"/>
+      <c r="AE19" s="70"/>
       <c r="AF19" s="38" t="s">
         <v>135</v>
       </c>
@@ -10079,7 +10600,7 @@
       </c>
     </row>
     <row r="20" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="75" t="s">
+      <c r="A20" s="68" t="s">
         <v>139</v>
       </c>
       <c r="B20" s="38" t="s">
@@ -10115,7 +10636,7 @@
       <c r="N20" s="40">
         <v>5.4854E-2</v>
       </c>
-      <c r="P20" s="75" t="s">
+      <c r="P20" s="68" t="s">
         <v>139</v>
       </c>
       <c r="Q20" s="38" t="s">
@@ -10151,7 +10672,7 @@
       <c r="AC20" s="40">
         <v>0.97633400000000004</v>
       </c>
-      <c r="AE20" s="75" t="s">
+      <c r="AE20" s="68" t="s">
         <v>139</v>
       </c>
       <c r="AF20" s="38" t="s">
@@ -10189,7 +10710,7 @@
       </c>
     </row>
     <row r="21" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A21" s="76"/>
+      <c r="A21" s="69"/>
       <c r="B21" s="38" t="s">
         <v>133</v>
       </c>
@@ -10227,7 +10748,7 @@
       <c r="N21" s="40">
         <v>0.40772999999999998</v>
       </c>
-      <c r="P21" s="76"/>
+      <c r="P21" s="69"/>
       <c r="Q21" s="38" t="s">
         <v>133</v>
       </c>
@@ -10261,7 +10782,7 @@
       <c r="AC21" s="40">
         <v>0.34917199999999998</v>
       </c>
-      <c r="AE21" s="76"/>
+      <c r="AE21" s="69"/>
       <c r="AF21" s="38" t="s">
         <v>133</v>
       </c>
@@ -10299,7 +10820,7 @@
       </c>
     </row>
     <row r="22" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A22" s="76"/>
+      <c r="A22" s="69"/>
       <c r="B22" s="38" t="s">
         <v>134</v>
       </c>
@@ -10333,7 +10854,7 @@
       <c r="N22" s="40">
         <v>5.7199100000000003E-2</v>
       </c>
-      <c r="P22" s="76"/>
+      <c r="P22" s="69"/>
       <c r="Q22" s="38" t="s">
         <v>134</v>
       </c>
@@ -10367,7 +10888,7 @@
       <c r="AC22" s="40">
         <v>0.98668299999999998</v>
       </c>
-      <c r="AE22" s="76"/>
+      <c r="AE22" s="69"/>
       <c r="AF22" s="38" t="s">
         <v>134</v>
       </c>
@@ -10405,7 +10926,7 @@
       </c>
     </row>
     <row r="23" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A23" s="77"/>
+      <c r="A23" s="70"/>
       <c r="B23" s="41" t="s">
         <v>135</v>
       </c>
@@ -10427,7 +10948,7 @@
       <c r="N23" s="42">
         <v>7.4505699999999994E-2</v>
       </c>
-      <c r="P23" s="77"/>
+      <c r="P23" s="70"/>
       <c r="Q23" s="41" t="s">
         <v>135</v>
       </c>
@@ -10457,7 +10978,7 @@
       <c r="AC23" s="42">
         <v>0.96269300000000002</v>
       </c>
-      <c r="AE23" s="77"/>
+      <c r="AE23" s="70"/>
       <c r="AF23" s="38" t="s">
         <v>135</v>
       </c>
@@ -10485,7 +11006,7 @@
       </c>
     </row>
     <row r="24" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A24" s="69" t="s">
+      <c r="A24" s="64" t="s">
         <v>140</v>
       </c>
       <c r="B24" s="38" t="s">
@@ -10527,7 +11048,7 @@
       <c r="N24" s="40">
         <v>0.25895099999999999</v>
       </c>
-      <c r="P24" s="69" t="s">
+      <c r="P24" s="64" t="s">
         <v>140</v>
       </c>
       <c r="Q24" s="38" t="s">
@@ -10563,7 +11084,7 @@
       <c r="AC24" s="40">
         <v>0.391177</v>
       </c>
-      <c r="AE24" s="69" t="s">
+      <c r="AE24" s="64" t="s">
         <v>140</v>
       </c>
       <c r="AF24" s="38" t="s">
@@ -10605,7 +11126,7 @@
       </c>
     </row>
     <row r="25" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A25" s="70"/>
+      <c r="A25" s="65"/>
       <c r="B25" s="38" t="s">
         <v>133</v>
       </c>
@@ -10639,7 +11160,7 @@
       <c r="N25" s="40">
         <v>8.7913599999999995E-2</v>
       </c>
-      <c r="P25" s="70"/>
+      <c r="P25" s="65"/>
       <c r="Q25" s="38" t="s">
         <v>133</v>
       </c>
@@ -10673,7 +11194,7 @@
       <c r="AC25" s="40">
         <v>0.992869</v>
       </c>
-      <c r="AE25" s="70"/>
+      <c r="AE25" s="65"/>
       <c r="AF25" s="38" t="s">
         <v>133</v>
       </c>
@@ -10709,7 +11230,7 @@
       </c>
     </row>
     <row r="26" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A26" s="70"/>
+      <c r="A26" s="65"/>
       <c r="B26" s="38" t="s">
         <v>134</v>
       </c>
@@ -10745,7 +11266,7 @@
       <c r="N26" s="40">
         <v>8.6047599999999999E-5</v>
       </c>
-      <c r="P26" s="70"/>
+      <c r="P26" s="65"/>
       <c r="Q26" s="38" t="s">
         <v>134</v>
       </c>
@@ -10781,7 +11302,7 @@
       <c r="AC26" s="40">
         <v>0.49700499999999997</v>
       </c>
-      <c r="AE26" s="70"/>
+      <c r="AE26" s="65"/>
       <c r="AF26" s="38" t="s">
         <v>134</v>
       </c>
@@ -10821,7 +11342,7 @@
       </c>
     </row>
     <row r="27" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A27" s="71"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="41" t="s">
         <v>135</v>
       </c>
@@ -10843,7 +11364,7 @@
       <c r="N27" s="42">
         <v>5.1660999999999999E-2</v>
       </c>
-      <c r="P27" s="71"/>
+      <c r="P27" s="66"/>
       <c r="Q27" s="41" t="s">
         <v>135</v>
       </c>
@@ -10871,7 +11392,7 @@
       <c r="AC27" s="42">
         <v>0.59972999999999999</v>
       </c>
-      <c r="AE27" s="71"/>
+      <c r="AE27" s="66"/>
       <c r="AF27" s="38" t="s">
         <v>135</v>
       </c>
@@ -10897,7 +11418,7 @@
       </c>
     </row>
     <row r="28" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A28" s="69" t="s">
+      <c r="A28" s="64" t="s">
         <v>116</v>
       </c>
       <c r="B28" s="38" t="s">
@@ -10933,7 +11454,7 @@
       <c r="N28" s="40">
         <v>0.21804599999999999</v>
       </c>
-      <c r="P28" s="69" t="s">
+      <c r="P28" s="64" t="s">
         <v>116</v>
       </c>
       <c r="Q28" s="38" t="s">
@@ -10969,7 +11490,7 @@
       <c r="AC28" s="40">
         <v>0.79758499999999999</v>
       </c>
-      <c r="AE28" s="69" t="s">
+      <c r="AE28" s="64" t="s">
         <v>116</v>
       </c>
       <c r="AF28" s="38" t="s">
@@ -11007,7 +11528,7 @@
       </c>
     </row>
     <row r="29" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A29" s="70"/>
+      <c r="A29" s="65"/>
       <c r="B29" s="38" t="s">
         <v>133</v>
       </c>
@@ -11041,7 +11562,7 @@
       <c r="N29" s="40">
         <v>1.9599700000000001E-2</v>
       </c>
-      <c r="P29" s="70"/>
+      <c r="P29" s="65"/>
       <c r="Q29" s="38" t="s">
         <v>133</v>
       </c>
@@ -11075,7 +11596,7 @@
       <c r="AC29" s="40">
         <v>0.20802399999999999</v>
       </c>
-      <c r="AE29" s="70"/>
+      <c r="AE29" s="65"/>
       <c r="AF29" s="38" t="s">
         <v>133</v>
       </c>
@@ -11111,7 +11632,7 @@
       </c>
     </row>
     <row r="30" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A30" s="70"/>
+      <c r="A30" s="65"/>
       <c r="B30" s="38" t="s">
         <v>134</v>
       </c>
@@ -11145,7 +11666,7 @@
       <c r="N30" s="40">
         <v>7.6017100000000002E-4</v>
       </c>
-      <c r="P30" s="70"/>
+      <c r="P30" s="65"/>
       <c r="Q30" s="38" t="s">
         <v>134</v>
       </c>
@@ -11179,7 +11700,7 @@
       <c r="AC30" s="40">
         <v>0.55451899999999998</v>
       </c>
-      <c r="AE30" s="70"/>
+      <c r="AE30" s="65"/>
       <c r="AF30" s="38" t="s">
         <v>134</v>
       </c>
@@ -11215,7 +11736,7 @@
       </c>
     </row>
     <row r="31" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A31" s="71"/>
+      <c r="A31" s="66"/>
       <c r="B31" s="41" t="s">
         <v>135</v>
       </c>
@@ -11237,7 +11758,7 @@
       <c r="N31" s="42">
         <v>6.0392800000000003E-2</v>
       </c>
-      <c r="P31" s="71"/>
+      <c r="P31" s="66"/>
       <c r="Q31" s="41" t="s">
         <v>135</v>
       </c>
@@ -11265,7 +11786,7 @@
       <c r="AC31" s="42">
         <v>0.40330300000000002</v>
       </c>
-      <c r="AE31" s="71"/>
+      <c r="AE31" s="66"/>
       <c r="AF31" s="38" t="s">
         <v>135</v>
       </c>
@@ -11293,7 +11814,7 @@
       </c>
     </row>
     <row r="32" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A32" s="69" t="s">
+      <c r="A32" s="64" t="s">
         <v>141</v>
       </c>
       <c r="B32" s="38" t="s">
@@ -11333,7 +11854,7 @@
       <c r="N32" s="40">
         <v>6.8416699999999997E-2</v>
       </c>
-      <c r="P32" s="69" t="s">
+      <c r="P32" s="64" t="s">
         <v>141</v>
       </c>
       <c r="Q32" s="38" t="s">
@@ -11369,7 +11890,7 @@
       <c r="AC32" s="40">
         <v>0.79306100000000002</v>
       </c>
-      <c r="AE32" s="69" t="s">
+      <c r="AE32" s="64" t="s">
         <v>141</v>
       </c>
       <c r="AF32" s="38" t="s">
@@ -11411,7 +11932,7 @@
       </c>
     </row>
     <row r="33" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A33" s="70"/>
+      <c r="A33" s="65"/>
       <c r="B33" s="38" t="s">
         <v>133</v>
       </c>
@@ -11445,7 +11966,7 @@
       <c r="N33" s="40">
         <v>0.24232799999999999</v>
       </c>
-      <c r="P33" s="70"/>
+      <c r="P33" s="65"/>
       <c r="Q33" s="38" t="s">
         <v>133</v>
       </c>
@@ -11479,7 +12000,7 @@
       <c r="AC33" s="40">
         <v>0.79171599999999998</v>
       </c>
-      <c r="AE33" s="70"/>
+      <c r="AE33" s="65"/>
       <c r="AF33" s="38" t="s">
         <v>133</v>
       </c>
@@ -11515,7 +12036,7 @@
       </c>
     </row>
     <row r="34" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A34" s="70"/>
+      <c r="A34" s="65"/>
       <c r="B34" s="38" t="s">
         <v>134</v>
       </c>
@@ -11549,7 +12070,7 @@
       <c r="N34" s="40">
         <v>9.2139299999999993E-2</v>
       </c>
-      <c r="P34" s="70"/>
+      <c r="P34" s="65"/>
       <c r="Q34" s="38" t="s">
         <v>134</v>
       </c>
@@ -11585,7 +12106,7 @@
       <c r="AC34" s="40">
         <v>5.10708E-2</v>
       </c>
-      <c r="AE34" s="70"/>
+      <c r="AE34" s="65"/>
       <c r="AF34" s="38" t="s">
         <v>134</v>
       </c>
@@ -11625,7 +12146,7 @@
       </c>
     </row>
     <row r="35" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A35" s="71"/>
+      <c r="A35" s="66"/>
       <c r="B35" s="41" t="s">
         <v>135</v>
       </c>
@@ -11647,7 +12168,7 @@
       <c r="N35" s="42">
         <v>3.5705899999999999E-2</v>
       </c>
-      <c r="P35" s="71"/>
+      <c r="P35" s="66"/>
       <c r="Q35" s="41" t="s">
         <v>135</v>
       </c>
@@ -11679,7 +12200,7 @@
       <c r="AC35" s="42">
         <v>0.37054599999999999</v>
       </c>
-      <c r="AE35" s="71"/>
+      <c r="AE35" s="66"/>
       <c r="AF35" s="38" t="s">
         <v>135</v>
       </c>
@@ -11713,7 +12234,7 @@
       </c>
     </row>
     <row r="36" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A36" s="74" t="s">
+      <c r="A36" s="67" t="s">
         <v>142</v>
       </c>
       <c r="B36" s="38" t="s">
@@ -11755,7 +12276,7 @@
       <c r="N36" s="40">
         <v>0.79885600000000001</v>
       </c>
-      <c r="P36" s="74" t="s">
+      <c r="P36" s="67" t="s">
         <v>142</v>
       </c>
       <c r="Q36" s="38" t="s">
@@ -11791,7 +12312,7 @@
       <c r="AC36" s="40">
         <v>0.119131</v>
       </c>
-      <c r="AE36" s="74" t="s">
+      <c r="AE36" s="67" t="s">
         <v>142</v>
       </c>
       <c r="AF36" s="38" t="s">
@@ -11835,7 +12356,7 @@
       </c>
     </row>
     <row r="37" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A37" s="74"/>
+      <c r="A37" s="67"/>
       <c r="B37" s="38" t="s">
         <v>133</v>
       </c>
@@ -11869,7 +12390,7 @@
       <c r="N37" s="40">
         <v>0.51789499999999999</v>
       </c>
-      <c r="P37" s="74"/>
+      <c r="P37" s="67"/>
       <c r="Q37" s="38" t="s">
         <v>133</v>
       </c>
@@ -11903,7 +12424,7 @@
       <c r="AC37" s="40">
         <v>0.74060099999999995</v>
       </c>
-      <c r="AE37" s="74"/>
+      <c r="AE37" s="67"/>
       <c r="AF37" s="38" t="s">
         <v>133</v>
       </c>
@@ -11939,7 +12460,7 @@
       </c>
     </row>
     <row r="38" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A38" s="74"/>
+      <c r="A38" s="67"/>
       <c r="B38" s="38" t="s">
         <v>134</v>
       </c>
@@ -11979,7 +12500,7 @@
       <c r="N38" s="40">
         <v>1.3228699999999999E-2</v>
       </c>
-      <c r="P38" s="74"/>
+      <c r="P38" s="67"/>
       <c r="Q38" s="38" t="s">
         <v>134</v>
       </c>
@@ -12019,7 +12540,7 @@
       <c r="AC38" s="40">
         <v>0.59381899999999999</v>
       </c>
-      <c r="AE38" s="74"/>
+      <c r="AE38" s="67"/>
       <c r="AF38" s="38" t="s">
         <v>134</v>
       </c>
@@ -12061,7 +12582,7 @@
       </c>
     </row>
     <row r="39" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A39" s="74"/>
+      <c r="A39" s="67"/>
       <c r="B39" s="41" t="s">
         <v>135</v>
       </c>
@@ -12083,7 +12604,7 @@
       <c r="N39" s="42">
         <v>0.12786700000000001</v>
       </c>
-      <c r="P39" s="74"/>
+      <c r="P39" s="67"/>
       <c r="Q39" s="41" t="s">
         <v>135</v>
       </c>
@@ -12117,7 +12638,7 @@
       <c r="AC39" s="42">
         <v>0.94489999999999996</v>
       </c>
-      <c r="AE39" s="74"/>
+      <c r="AE39" s="67"/>
       <c r="AF39" s="38" t="s">
         <v>135</v>
       </c>
@@ -14248,44 +14769,6 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="AE24:AE27"/>
-    <mergeCell ref="AE28:AE31"/>
-    <mergeCell ref="AE32:AE35"/>
-    <mergeCell ref="AE36:AE39"/>
-    <mergeCell ref="AE4:AE7"/>
-    <mergeCell ref="AE8:AE11"/>
-    <mergeCell ref="AE12:AE15"/>
-    <mergeCell ref="AE16:AE19"/>
-    <mergeCell ref="AE20:AE23"/>
-    <mergeCell ref="AE1:AR1"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
-    <mergeCell ref="P20:P23"/>
-    <mergeCell ref="P24:P27"/>
-    <mergeCell ref="P28:P31"/>
-    <mergeCell ref="P32:P35"/>
-    <mergeCell ref="P36:P39"/>
-    <mergeCell ref="P8:P11"/>
-    <mergeCell ref="P12:P15"/>
-    <mergeCell ref="P16:P19"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="P1:AC1"/>
     <mergeCell ref="L2:N2"/>
@@ -14296,6 +14779,44 @@
     <mergeCell ref="R2:T2"/>
     <mergeCell ref="U2:W2"/>
     <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="P8:P11"/>
+    <mergeCell ref="P12:P15"/>
+    <mergeCell ref="P16:P19"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="P20:P23"/>
+    <mergeCell ref="P24:P27"/>
+    <mergeCell ref="P28:P31"/>
+    <mergeCell ref="P32:P35"/>
+    <mergeCell ref="P36:P39"/>
+    <mergeCell ref="AE1:AR1"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
+    <mergeCell ref="AE24:AE27"/>
+    <mergeCell ref="AE28:AE31"/>
+    <mergeCell ref="AE32:AE35"/>
+    <mergeCell ref="AE36:AE39"/>
+    <mergeCell ref="AE4:AE7"/>
+    <mergeCell ref="AE8:AE11"/>
+    <mergeCell ref="AE12:AE15"/>
+    <mergeCell ref="AE16:AE19"/>
+    <mergeCell ref="AE20:AE23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -14326,36 +14847,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="31" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="74" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="63" t="s">
+      <c r="D1" s="72"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="71" t="s">
         <v>127</v>
       </c>
-      <c r="G1" s="64"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="63" t="s">
+      <c r="G1" s="72"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="71" t="s">
         <v>129</v>
       </c>
-      <c r="J1" s="64"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="66" t="s">
+      <c r="J1" s="72"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="76" t="s">
         <v>128</v>
       </c>
-      <c r="M1" s="67"/>
-      <c r="N1" s="68"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="78"/>
     </row>
     <row r="2" spans="1:17" s="31" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="75"/>
       <c r="C2" s="36" t="s">
         <v>125</v>
       </c>
@@ -14395,7 +14916,7 @@
       <c r="Q2" s="35"/>
     </row>
     <row r="3" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="64" t="s">
         <v>136</v>
       </c>
       <c r="B3" s="38" t="s">
@@ -14436,7 +14957,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
+      <c r="A4" s="65"/>
       <c r="B4" s="38" t="s">
         <v>133</v>
       </c>
@@ -14478,7 +14999,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="38" t="s">
         <v>134</v>
       </c>
@@ -14514,7 +15035,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="71"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="41" t="s">
         <v>135</v>
       </c>
@@ -14547,7 +15068,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="64" t="s">
         <v>137</v>
       </c>
       <c r="B7" s="38" t="s">
@@ -14585,7 +15106,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="70"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="38" t="s">
         <v>133</v>
       </c>
@@ -14627,7 +15148,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="70"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="38" t="s">
         <v>134</v>
       </c>
@@ -14663,7 +15184,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="71"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="41" t="s">
         <v>135</v>
       </c>
@@ -14693,7 +15214,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="64" t="s">
         <v>110</v>
       </c>
       <c r="B11" s="38" t="s">
@@ -14731,7 +15252,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="70"/>
+      <c r="A12" s="65"/>
       <c r="B12" s="38" t="s">
         <v>133</v>
       </c>
@@ -14767,7 +15288,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="70"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="38" t="s">
         <v>134</v>
       </c>
@@ -14803,7 +15324,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="71"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="41" t="s">
         <v>135</v>
       </c>
@@ -14833,7 +15354,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="75" t="s">
+      <c r="A15" s="68" t="s">
         <v>138</v>
       </c>
       <c r="B15" s="39" t="s">
@@ -14875,7 +15396,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="76"/>
+      <c r="A16" s="69"/>
       <c r="B16" s="39" t="s">
         <v>133</v>
       </c>
@@ -14914,7 +15435,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="76"/>
+      <c r="A17" s="69"/>
       <c r="B17" s="38" t="s">
         <v>134</v>
       </c>
@@ -14950,7 +15471,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="77"/>
+      <c r="A18" s="70"/>
       <c r="B18" s="41" t="s">
         <v>135</v>
       </c>
@@ -14982,7 +15503,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="75" t="s">
+      <c r="A19" s="68" t="s">
         <v>139</v>
       </c>
       <c r="B19" s="38" t="s">
@@ -15020,7 +15541,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="76"/>
+      <c r="A20" s="69"/>
       <c r="B20" s="38" t="s">
         <v>133</v>
       </c>
@@ -15056,7 +15577,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="76"/>
+      <c r="A21" s="69"/>
       <c r="B21" s="38" t="s">
         <v>134</v>
       </c>
@@ -15092,7 +15613,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="77"/>
+      <c r="A22" s="70"/>
       <c r="B22" s="41" t="s">
         <v>135</v>
       </c>
@@ -15124,7 +15645,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="69" t="s">
+      <c r="A23" s="64" t="s">
         <v>140</v>
       </c>
       <c r="B23" s="38" t="s">
@@ -15162,7 +15683,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="70"/>
+      <c r="A24" s="65"/>
       <c r="B24" s="38" t="s">
         <v>133</v>
       </c>
@@ -15198,7 +15719,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="70"/>
+      <c r="A25" s="65"/>
       <c r="B25" s="38" t="s">
         <v>134</v>
       </c>
@@ -15236,7 +15757,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="71"/>
+      <c r="A26" s="66"/>
       <c r="B26" s="41" t="s">
         <v>135</v>
       </c>
@@ -15266,7 +15787,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="69" t="s">
+      <c r="A27" s="64" t="s">
         <v>116</v>
       </c>
       <c r="B27" s="38" t="s">
@@ -15304,7 +15825,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="70"/>
+      <c r="A28" s="65"/>
       <c r="B28" s="38" t="s">
         <v>133</v>
       </c>
@@ -15340,7 +15861,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="70"/>
+      <c r="A29" s="65"/>
       <c r="B29" s="38" t="s">
         <v>134</v>
       </c>
@@ -15376,7 +15897,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="71"/>
+      <c r="A30" s="66"/>
       <c r="B30" s="41" t="s">
         <v>135</v>
       </c>
@@ -15406,7 +15927,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="69" t="s">
+      <c r="A31" s="64" t="s">
         <v>141</v>
       </c>
       <c r="B31" s="38" t="s">
@@ -15444,7 +15965,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="70"/>
+      <c r="A32" s="65"/>
       <c r="B32" s="38" t="s">
         <v>133</v>
       </c>
@@ -15480,7 +16001,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="70"/>
+      <c r="A33" s="65"/>
       <c r="B33" s="38" t="s">
         <v>134</v>
       </c>
@@ -15518,7 +16039,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="71"/>
+      <c r="A34" s="66"/>
       <c r="B34" s="41" t="s">
         <v>135</v>
       </c>
@@ -15552,7 +16073,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="74" t="s">
+      <c r="A35" s="67" t="s">
         <v>142</v>
       </c>
       <c r="B35" s="38" t="s">
@@ -15590,7 +16111,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="74"/>
+      <c r="A36" s="67"/>
       <c r="B36" s="38" t="s">
         <v>133</v>
       </c>
@@ -15626,7 +16147,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="74"/>
+      <c r="A37" s="67"/>
       <c r="B37" s="38" t="s">
         <v>134</v>
       </c>
@@ -15668,7 +16189,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="74"/>
+      <c r="A38" s="67"/>
       <c r="B38" s="41" t="s">
         <v>135</v>
       </c>
@@ -16965,12 +17486,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="A31:A34"/>
     <mergeCell ref="A35:A38"/>
@@ -16980,6 +17495,12 @@
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A26"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -17067,7 +17588,7 @@
       <c r="AT1" s="1"/>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="80" t="s">
         <v>110</v>
       </c>
       <c r="B2" s="27" t="s">
@@ -17085,7 +17606,7 @@
       </c>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A3" s="80"/>
+      <c r="A3" s="81"/>
       <c r="B3" s="27" t="s">
         <v>109</v>
       </c>
@@ -17101,7 +17622,7 @@
       </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A4" s="80"/>
+      <c r="A4" s="81"/>
       <c r="B4" s="27" t="s">
         <v>111</v>
       </c>
@@ -17117,7 +17638,7 @@
       </c>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="27" t="s">
         <v>112</v>
       </c>
@@ -17129,7 +17650,7 @@
       <c r="F5" s="21"/>
     </row>
     <row r="6" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="83" t="s">
         <v>113</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -17147,7 +17668,7 @@
       </c>
     </row>
     <row r="7" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="83"/>
+      <c r="A7" s="84"/>
       <c r="B7" s="21" t="s">
         <v>109</v>
       </c>
@@ -17163,7 +17684,7 @@
       </c>
     </row>
     <row r="8" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="83"/>
+      <c r="A8" s="84"/>
       <c r="B8" s="21" t="s">
         <v>111</v>
       </c>
@@ -17181,7 +17702,7 @@
       </c>
     </row>
     <row r="9" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="84"/>
+      <c r="A9" s="85"/>
       <c r="B9" s="21" t="s">
         <v>112</v>
       </c>
@@ -17193,7 +17714,7 @@
       <c r="F9" s="21"/>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="80" t="s">
         <v>114</v>
       </c>
       <c r="B10" s="27" t="s">
@@ -17211,7 +17732,7 @@
       </c>
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A11" s="80"/>
+      <c r="A11" s="81"/>
       <c r="B11" s="27" t="s">
         <v>109</v>
       </c>
@@ -17229,7 +17750,7 @@
       </c>
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A12" s="80"/>
+      <c r="A12" s="81"/>
       <c r="B12" s="27" t="s">
         <v>111</v>
       </c>
@@ -17245,7 +17766,7 @@
       </c>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A13" s="81"/>
+      <c r="A13" s="82"/>
       <c r="B13" s="27" t="s">
         <v>112</v>
       </c>
@@ -17257,7 +17778,7 @@
       <c r="F13" s="21"/>
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A14" s="79" t="s">
+      <c r="A14" s="80" t="s">
         <v>115</v>
       </c>
       <c r="B14" s="27" t="s">
@@ -17277,7 +17798,7 @@
       </c>
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A15" s="80"/>
+      <c r="A15" s="81"/>
       <c r="B15" s="27" t="s">
         <v>109</v>
       </c>
@@ -17293,7 +17814,7 @@
       </c>
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A16" s="80"/>
+      <c r="A16" s="81"/>
       <c r="B16" s="27" t="s">
         <v>111</v>
       </c>
@@ -17311,7 +17832,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="81"/>
+      <c r="A17" s="82"/>
       <c r="B17" s="27" t="s">
         <v>112</v>
       </c>
@@ -17323,7 +17844,7 @@
       <c r="F17" s="21"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="79" t="s">
+      <c r="A18" s="80" t="s">
         <v>116</v>
       </c>
       <c r="B18" s="27" t="s">
@@ -17341,7 +17862,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="80"/>
+      <c r="A19" s="81"/>
       <c r="B19" s="27" t="s">
         <v>109</v>
       </c>
@@ -17357,7 +17878,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="80"/>
+      <c r="A20" s="81"/>
       <c r="B20" s="27" t="s">
         <v>111</v>
       </c>
@@ -17373,7 +17894,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="81"/>
+      <c r="A21" s="82"/>
       <c r="B21" s="27" t="s">
         <v>112</v>
       </c>
@@ -17385,7 +17906,7 @@
       <c r="F21" s="21"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="79" t="s">
+      <c r="A22" s="80" t="s">
         <v>83</v>
       </c>
       <c r="B22" s="27" t="s">
@@ -17405,7 +17926,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="80"/>
+      <c r="A23" s="81"/>
       <c r="B23" s="27" t="s">
         <v>109</v>
       </c>
@@ -17422,7 +17943,7 @@
       <c r="H23" s="19"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="80"/>
+      <c r="A24" s="81"/>
       <c r="B24" s="27" t="s">
         <v>111</v>
       </c>
@@ -17438,7 +17959,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="81"/>
+      <c r="A25" s="82"/>
       <c r="B25" s="27" t="s">
         <v>112</v>
       </c>
@@ -17450,7 +17971,7 @@
       <c r="F25" s="21"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="78" t="s">
+      <c r="A26" s="79" t="s">
         <v>117</v>
       </c>
       <c r="B26" s="27" t="s">
@@ -17470,7 +17991,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="78"/>
+      <c r="A27" s="79"/>
       <c r="B27" s="27" t="s">
         <v>109</v>
       </c>
@@ -17486,7 +18007,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="78"/>
+      <c r="A28" s="79"/>
       <c r="B28" s="27" t="s">
         <v>111</v>
       </c>
@@ -17504,7 +18025,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="78"/>
+      <c r="A29" s="79"/>
       <c r="B29" s="27" t="s">
         <v>112</v>
       </c>
@@ -18467,7 +18988,7 @@
       <c r="AT1" s="1"/>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="80" t="s">
         <v>110</v>
       </c>
       <c r="B2" s="27" t="s">
@@ -18485,7 +19006,7 @@
       </c>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A3" s="80"/>
+      <c r="A3" s="81"/>
       <c r="B3" s="27" t="s">
         <v>109</v>
       </c>
@@ -18501,7 +19022,7 @@
       </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A4" s="80"/>
+      <c r="A4" s="81"/>
       <c r="B4" s="27" t="s">
         <v>111</v>
       </c>
@@ -18517,7 +19038,7 @@
       </c>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="27" t="s">
         <v>112</v>
       </c>
@@ -18529,7 +19050,7 @@
       <c r="F5" s="21"/>
     </row>
     <row r="6" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="83" t="s">
         <v>113</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -18547,7 +19068,7 @@
       </c>
     </row>
     <row r="7" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="83"/>
+      <c r="A7" s="84"/>
       <c r="B7" s="21" t="s">
         <v>109</v>
       </c>
@@ -18563,7 +19084,7 @@
       </c>
     </row>
     <row r="8" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="83"/>
+      <c r="A8" s="84"/>
       <c r="B8" s="21" t="s">
         <v>111</v>
       </c>
@@ -18579,7 +19100,7 @@
       </c>
     </row>
     <row r="9" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="84"/>
+      <c r="A9" s="85"/>
       <c r="B9" s="21" t="s">
         <v>112</v>
       </c>
@@ -18591,7 +19112,7 @@
       <c r="F9" s="21"/>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="80" t="s">
         <v>114</v>
       </c>
       <c r="B10" s="27" t="s">
@@ -18609,7 +19130,7 @@
       </c>
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A11" s="80"/>
+      <c r="A11" s="81"/>
       <c r="B11" s="27" t="s">
         <v>109</v>
       </c>
@@ -18625,7 +19146,7 @@
       </c>
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A12" s="80"/>
+      <c r="A12" s="81"/>
       <c r="B12" s="27" t="s">
         <v>111</v>
       </c>
@@ -18641,7 +19162,7 @@
       </c>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A13" s="81"/>
+      <c r="A13" s="82"/>
       <c r="B13" s="27" t="s">
         <v>112</v>
       </c>
@@ -18653,7 +19174,7 @@
       <c r="F13" s="21"/>
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A14" s="79" t="s">
+      <c r="A14" s="80" t="s">
         <v>115</v>
       </c>
       <c r="B14" s="27" t="s">
@@ -18673,7 +19194,7 @@
       </c>
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A15" s="80"/>
+      <c r="A15" s="81"/>
       <c r="B15" s="27" t="s">
         <v>109</v>
       </c>
@@ -18689,7 +19210,7 @@
       </c>
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A16" s="80"/>
+      <c r="A16" s="81"/>
       <c r="B16" s="27" t="s">
         <v>111</v>
       </c>
@@ -18705,7 +19226,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="81"/>
+      <c r="A17" s="82"/>
       <c r="B17" s="27" t="s">
         <v>112</v>
       </c>
@@ -18717,7 +19238,7 @@
       <c r="F17" s="21"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="79" t="s">
+      <c r="A18" s="80" t="s">
         <v>116</v>
       </c>
       <c r="B18" s="27" t="s">
@@ -18735,7 +19256,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="80"/>
+      <c r="A19" s="81"/>
       <c r="B19" s="27" t="s">
         <v>109</v>
       </c>
@@ -18751,7 +19272,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="80"/>
+      <c r="A20" s="81"/>
       <c r="B20" s="27" t="s">
         <v>111</v>
       </c>
@@ -18767,7 +19288,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="81"/>
+      <c r="A21" s="82"/>
       <c r="B21" s="27" t="s">
         <v>112</v>
       </c>
@@ -18779,7 +19300,7 @@
       <c r="F21" s="21"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="79" t="s">
+      <c r="A22" s="80" t="s">
         <v>83</v>
       </c>
       <c r="B22" s="27" t="s">
@@ -18799,7 +19320,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="80"/>
+      <c r="A23" s="81"/>
       <c r="B23" s="27" t="s">
         <v>109</v>
       </c>
@@ -18816,7 +19337,7 @@
       <c r="H23" s="19"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="80"/>
+      <c r="A24" s="81"/>
       <c r="B24" s="27" t="s">
         <v>111</v>
       </c>
@@ -18832,7 +19353,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="81"/>
+      <c r="A25" s="82"/>
       <c r="B25" s="27" t="s">
         <v>112</v>
       </c>
@@ -18844,7 +19365,7 @@
       <c r="F25" s="21"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="78" t="s">
+      <c r="A26" s="79" t="s">
         <v>117</v>
       </c>
       <c r="B26" s="27" t="s">
@@ -18864,7 +19385,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="78"/>
+      <c r="A27" s="79"/>
       <c r="B27" s="27" t="s">
         <v>109</v>
       </c>
@@ -18880,7 +19401,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="78"/>
+      <c r="A28" s="79"/>
       <c r="B28" s="27" t="s">
         <v>111</v>
       </c>
@@ -18898,7 +19419,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="78"/>
+      <c r="A29" s="79"/>
       <c r="B29" s="27" t="s">
         <v>112</v>
       </c>
@@ -19798,18 +20319,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="86" t="s">
         <v>173</v>
       </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87"/>
-      <c r="H1" s="85" t="s">
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="88"/>
+      <c r="H1" s="86" t="s">
         <v>174</v>
       </c>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="88"/>
     </row>
     <row r="2" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
@@ -21382,18 +21903,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="89" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="F1" s="88" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="F1" s="89" t="s">
         <v>177</v>
       </c>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
     </row>
     <row r="2" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="54" t="s">

--- a/DataSet_VersionRecuperada.xlsx
+++ b/DataSet_VersionRecuperada.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Group 1" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,9 @@
     <sheet name="Resumen right" sheetId="7" r:id="rId6"/>
     <sheet name="Totales" sheetId="5" r:id="rId7"/>
     <sheet name="Hoja1" sheetId="10" r:id="rId8"/>
-    <sheet name="Hoja2" sheetId="11" r:id="rId9"/>
-    <sheet name="Sincronization" sheetId="12" r:id="rId10"/>
+    <sheet name="Hoja3" sheetId="13" r:id="rId9"/>
+    <sheet name="Hoja2" sheetId="11" r:id="rId10"/>
+    <sheet name="Sincronization" sheetId="12" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Group 1'!$A$1:$AV$19</definedName>
@@ -117,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="206">
   <si>
     <t>7:00 a 8:00</t>
   </si>
@@ -700,6 +701,42 @@
   <si>
     <t>S37</t>
   </si>
+  <si>
+    <t>Delta Oz</t>
+  </si>
+  <si>
+    <t>Theta Oz</t>
+  </si>
+  <si>
+    <t>Alpha Oz</t>
+  </si>
+  <si>
+    <t>Beta Oz</t>
+  </si>
+  <si>
+    <t>Delta O1 O2</t>
+  </si>
+  <si>
+    <t>Theta O1 O2</t>
+  </si>
+  <si>
+    <t>Alpha O1 O2</t>
+  </si>
+  <si>
+    <t>Beta O1 O2</t>
+  </si>
+  <si>
+    <t>Delta PO</t>
+  </si>
+  <si>
+    <t>Theta PO</t>
+  </si>
+  <si>
+    <t>Alpha PO</t>
+  </si>
+  <si>
+    <t>Beta PO</t>
+  </si>
 </sst>
 </file>
 
@@ -1180,7 +1217,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1190,6 +1246,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1202,30 +1264,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1261,7 +1299,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1545,7 +1582,7 @@
   <dimension ref="A1:AV26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="Z11" sqref="Z11"/>
@@ -1711,7 +1748,7 @@
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="63"/>
+      <c r="B2" s="64"/>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1843,7 +1880,7 @@
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="63"/>
+      <c r="B3" s="64"/>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1984,7 +2021,7 @@
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="63"/>
+      <c r="B4" s="64"/>
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
@@ -2128,7 +2165,7 @@
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="63"/>
+      <c r="B5" s="64"/>
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
@@ -2412,7 +2449,7 @@
       <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="63"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
@@ -2556,7 +2593,7 @@
       <c r="A8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="63"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
@@ -2697,7 +2734,7 @@
       <c r="A9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="63"/>
+      <c r="B9" s="64"/>
       <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
@@ -2841,7 +2878,7 @@
       <c r="A10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="63"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
@@ -2982,7 +3019,7 @@
       <c r="A11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="63">
+      <c r="B11" s="64">
         <v>43555</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -3125,7 +3162,7 @@
       <c r="A12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="63"/>
+      <c r="B12" s="64"/>
       <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
@@ -3269,7 +3306,7 @@
       <c r="A13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="63">
+      <c r="B13" s="64">
         <v>43561</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -3412,7 +3449,7 @@
       <c r="A14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="63"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
@@ -3556,7 +3593,7 @@
       <c r="A15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="63"/>
+      <c r="B15" s="64"/>
       <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
@@ -3700,7 +3737,7 @@
       <c r="A16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="63"/>
+      <c r="B16" s="64"/>
       <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
@@ -3838,7 +3875,7 @@
       <c r="A17" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="63"/>
+      <c r="B17" s="64"/>
       <c r="C17" s="2" t="s">
         <v>5</v>
       </c>
@@ -3979,7 +4016,7 @@
       <c r="A18" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="63"/>
+      <c r="B18" s="64"/>
       <c r="C18" s="2" t="s">
         <v>8</v>
       </c>
@@ -4120,7 +4157,7 @@
       <c r="A19" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="63"/>
+      <c r="B19" s="64"/>
       <c r="C19" s="2" t="s">
         <v>41</v>
       </c>
@@ -5099,9 +5136,36 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O22" workbookViewId="0">
+    <sheetView topLeftCell="O1" workbookViewId="0">
       <selection activeCell="AE35" sqref="AE35"/>
     </sheetView>
   </sheetViews>
@@ -5128,38 +5192,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="65" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="73"/>
-      <c r="P1" s="71" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="67"/>
+      <c r="P1" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72"/>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="73"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="67"/>
     </row>
     <row r="2" spans="1:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="74" t="s">
@@ -5168,52 +5232,52 @@
       <c r="B2" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="71" t="s">
+      <c r="D2" s="66"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="G2" s="72"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="71" t="s">
+      <c r="G2" s="66"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="J2" s="72"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="76" t="s">
+      <c r="J2" s="66"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="M2" s="77"/>
-      <c r="N2" s="78"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="70"/>
       <c r="P2" s="74" t="s">
         <v>130</v>
       </c>
       <c r="Q2" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="R2" s="71" t="s">
+      <c r="R2" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="S2" s="72"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="71" t="s">
+      <c r="S2" s="66"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="V2" s="72"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="71" t="s">
+      <c r="V2" s="66"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="73"/>
-      <c r="AA2" s="76" t="s">
+      <c r="Y2" s="66"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="AB2" s="77"/>
-      <c r="AC2" s="78"/>
+      <c r="AB2" s="69"/>
+      <c r="AC2" s="70"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="75"/>
@@ -5294,7 +5358,7 @@
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="71" t="s">
         <v>136</v>
       </c>
       <c r="B4" s="59">
@@ -5324,7 +5388,7 @@
       <c r="N4" s="61">
         <v>2.99864E-2</v>
       </c>
-      <c r="P4" s="64" t="s">
+      <c r="P4" s="71" t="s">
         <v>136</v>
       </c>
       <c r="Q4" s="59">
@@ -5358,7 +5422,7 @@
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="59">
         <v>2</v>
       </c>
@@ -5384,7 +5448,7 @@
       <c r="N5" s="61">
         <v>0.107514</v>
       </c>
-      <c r="P5" s="65"/>
+      <c r="P5" s="72"/>
       <c r="Q5" s="59">
         <v>2</v>
       </c>
@@ -5412,7 +5476,7 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="65"/>
+      <c r="A6" s="72"/>
       <c r="B6" s="59">
         <v>3</v>
       </c>
@@ -5436,7 +5500,7 @@
       <c r="N6" s="61">
         <v>0.14727499999999999</v>
       </c>
-      <c r="P6" s="65"/>
+      <c r="P6" s="72"/>
       <c r="Q6" s="59">
         <v>3</v>
       </c>
@@ -5466,7 +5530,7 @@
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="65"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="59">
         <v>4</v>
       </c>
@@ -5492,7 +5556,7 @@
       <c r="N7" s="61">
         <v>0.13202700000000001</v>
       </c>
-      <c r="P7" s="65"/>
+      <c r="P7" s="72"/>
       <c r="Q7" s="59">
         <v>4</v>
       </c>
@@ -5518,7 +5582,7 @@
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="71" t="s">
         <v>137</v>
       </c>
       <c r="B8" s="59">
@@ -5548,7 +5612,7 @@
       <c r="N8" s="61">
         <v>4.5043399999999997E-2</v>
       </c>
-      <c r="P8" s="64" t="s">
+      <c r="P8" s="71" t="s">
         <v>137</v>
       </c>
       <c r="Q8" s="59">
@@ -5586,7 +5650,7 @@
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="65"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="59">
         <v>2</v>
       </c>
@@ -5610,7 +5674,7 @@
       <c r="N9" s="61">
         <v>8.2884700000000006E-2</v>
       </c>
-      <c r="P9" s="65"/>
+      <c r="P9" s="72"/>
       <c r="Q9" s="59">
         <v>2</v>
       </c>
@@ -5640,7 +5704,7 @@
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="65"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="59">
         <v>3</v>
       </c>
@@ -5662,7 +5726,7 @@
       <c r="N10" s="61">
         <v>0.22123100000000001</v>
       </c>
-      <c r="P10" s="65"/>
+      <c r="P10" s="72"/>
       <c r="Q10" s="59">
         <v>3</v>
       </c>
@@ -5688,7 +5752,7 @@
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="65"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="59">
         <v>4</v>
       </c>
@@ -5712,7 +5776,7 @@
       <c r="N11" s="61">
         <v>5.2803900000000001E-2</v>
       </c>
-      <c r="P11" s="65"/>
+      <c r="P11" s="72"/>
       <c r="Q11" s="59">
         <v>4</v>
       </c>
@@ -5740,7 +5804,7 @@
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="71" t="s">
         <v>110</v>
       </c>
       <c r="B12" s="59">
@@ -5774,7 +5838,7 @@
       <c r="N12" s="61">
         <v>0.239091</v>
       </c>
-      <c r="P12" s="64" t="s">
+      <c r="P12" s="71" t="s">
         <v>110</v>
       </c>
       <c r="Q12" s="59">
@@ -5812,7 +5876,7 @@
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="65"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="59">
         <v>2</v>
       </c>
@@ -5836,7 +5900,7 @@
       <c r="N13" s="61">
         <v>0.38023499999999999</v>
       </c>
-      <c r="P13" s="65"/>
+      <c r="P13" s="72"/>
       <c r="Q13" s="59">
         <v>2</v>
       </c>
@@ -5868,7 +5932,7 @@
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="65"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="59">
         <v>3</v>
       </c>
@@ -5894,7 +5958,7 @@
       <c r="N14" s="61">
         <v>0.50038199999999999</v>
       </c>
-      <c r="P14" s="65"/>
+      <c r="P14" s="72"/>
       <c r="Q14" s="59">
         <v>3</v>
       </c>
@@ -5922,7 +5986,7 @@
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="65"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="59">
         <v>4</v>
       </c>
@@ -5946,7 +6010,7 @@
       <c r="N15" s="61">
         <v>0.65549299999999999</v>
       </c>
-      <c r="P15" s="65"/>
+      <c r="P15" s="72"/>
       <c r="Q15" s="59">
         <v>4</v>
       </c>
@@ -5978,7 +6042,7 @@
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="77" t="s">
         <v>138</v>
       </c>
       <c r="B16" s="59">
@@ -6002,7 +6066,7 @@
       <c r="N16" s="61">
         <v>4.5844200000000002E-2</v>
       </c>
-      <c r="P16" s="68" t="s">
+      <c r="P16" s="77" t="s">
         <v>138</v>
       </c>
       <c r="Q16" s="59">
@@ -6034,7 +6098,7 @@
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A17" s="69"/>
+      <c r="A17" s="78"/>
       <c r="B17" s="59">
         <v>2</v>
       </c>
@@ -6056,7 +6120,7 @@
       <c r="N17" s="61">
         <v>5.7418299999999999E-2</v>
       </c>
-      <c r="P17" s="69"/>
+      <c r="P17" s="78"/>
       <c r="Q17" s="59">
         <v>2</v>
       </c>
@@ -6082,7 +6146,7 @@
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18" s="69"/>
+      <c r="A18" s="78"/>
       <c r="B18" s="59">
         <v>3</v>
       </c>
@@ -6104,7 +6168,7 @@
       <c r="N18" s="61">
         <v>3.5646999999999998E-2</v>
       </c>
-      <c r="P18" s="69"/>
+      <c r="P18" s="78"/>
       <c r="Q18" s="59">
         <v>3</v>
       </c>
@@ -6130,7 +6194,7 @@
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A19" s="69"/>
+      <c r="A19" s="78"/>
       <c r="B19" s="59">
         <v>4</v>
       </c>
@@ -6152,7 +6216,7 @@
       <c r="N19" s="61">
         <v>4.3813699999999997E-2</v>
       </c>
-      <c r="P19" s="69"/>
+      <c r="P19" s="78"/>
       <c r="Q19" s="59">
         <v>4</v>
       </c>
@@ -6176,7 +6240,7 @@
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A20" s="68" t="s">
+      <c r="A20" s="77" t="s">
         <v>139</v>
       </c>
       <c r="B20" s="59">
@@ -6206,7 +6270,7 @@
       <c r="N20" s="61">
         <v>0.48419000000000001</v>
       </c>
-      <c r="P20" s="68" t="s">
+      <c r="P20" s="77" t="s">
         <v>139</v>
       </c>
       <c r="Q20" s="59">
@@ -6244,7 +6308,7 @@
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A21" s="69"/>
+      <c r="A21" s="78"/>
       <c r="B21" s="59">
         <v>2</v>
       </c>
@@ -6266,7 +6330,7 @@
       <c r="N21" s="61">
         <v>0.78103</v>
       </c>
-      <c r="P21" s="69"/>
+      <c r="P21" s="78"/>
       <c r="Q21" s="59">
         <v>2</v>
       </c>
@@ -6298,7 +6362,7 @@
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A22" s="69"/>
+      <c r="A22" s="78"/>
       <c r="B22" s="59">
         <v>3</v>
       </c>
@@ -6320,7 +6384,7 @@
       <c r="N22" s="61">
         <v>0.897227</v>
       </c>
-      <c r="P22" s="69"/>
+      <c r="P22" s="78"/>
       <c r="Q22" s="59">
         <v>3</v>
       </c>
@@ -6350,7 +6414,7 @@
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" s="69"/>
+      <c r="A23" s="78"/>
       <c r="B23" s="59">
         <v>4</v>
       </c>
@@ -6372,7 +6436,7 @@
       <c r="N23" s="61">
         <v>0.91763700000000004</v>
       </c>
-      <c r="P23" s="69"/>
+      <c r="P23" s="78"/>
       <c r="Q23" s="59">
         <v>4</v>
       </c>
@@ -6402,7 +6466,7 @@
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A24" s="64" t="s">
+      <c r="A24" s="71" t="s">
         <v>140</v>
       </c>
       <c r="B24" s="59">
@@ -6434,7 +6498,7 @@
       <c r="N24" s="61">
         <v>0.16942399999999999</v>
       </c>
-      <c r="P24" s="64" t="s">
+      <c r="P24" s="71" t="s">
         <v>140</v>
       </c>
       <c r="Q24" s="59">
@@ -6466,7 +6530,7 @@
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A25" s="65"/>
+      <c r="A25" s="72"/>
       <c r="B25" s="59">
         <v>2</v>
       </c>
@@ -6490,7 +6554,7 @@
       <c r="N25" s="61">
         <v>0.120402</v>
       </c>
-      <c r="P25" s="65"/>
+      <c r="P25" s="72"/>
       <c r="Q25" s="59">
         <v>2</v>
       </c>
@@ -6524,7 +6588,7 @@
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A26" s="65"/>
+      <c r="A26" s="72"/>
       <c r="B26" s="59">
         <v>3</v>
       </c>
@@ -6548,7 +6612,7 @@
       <c r="N26" s="61">
         <v>4.74008E-2</v>
       </c>
-      <c r="P26" s="65"/>
+      <c r="P26" s="72"/>
       <c r="Q26" s="59">
         <v>3</v>
       </c>
@@ -6580,7 +6644,7 @@
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A27" s="65"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="59">
         <v>4</v>
       </c>
@@ -6602,7 +6666,7 @@
       <c r="N27" s="61">
         <v>7.8227500000000005E-2</v>
       </c>
-      <c r="P27" s="65"/>
+      <c r="P27" s="72"/>
       <c r="Q27" s="59">
         <v>4</v>
       </c>
@@ -6632,7 +6696,7 @@
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A28" s="64" t="s">
+      <c r="A28" s="71" t="s">
         <v>116</v>
       </c>
       <c r="B28" s="59">
@@ -6660,7 +6724,7 @@
       <c r="N28" s="61">
         <v>6.9860400000000003E-2</v>
       </c>
-      <c r="P28" s="64" t="s">
+      <c r="P28" s="71" t="s">
         <v>116</v>
       </c>
       <c r="Q28" s="59">
@@ -6694,7 +6758,7 @@
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A29" s="65"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="59">
         <v>2</v>
       </c>
@@ -6716,7 +6780,7 @@
       <c r="N29" s="61">
         <v>2.2438900000000001E-2</v>
       </c>
-      <c r="P29" s="65"/>
+      <c r="P29" s="72"/>
       <c r="Q29" s="59">
         <v>2</v>
       </c>
@@ -6746,7 +6810,7 @@
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A30" s="65"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="59">
         <v>3</v>
       </c>
@@ -6768,7 +6832,7 @@
       <c r="N30" s="61">
         <v>0.18915299999999999</v>
       </c>
-      <c r="P30" s="65"/>
+      <c r="P30" s="72"/>
       <c r="Q30" s="59">
         <v>3</v>
       </c>
@@ -6800,7 +6864,7 @@
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A31" s="65"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="59">
         <v>4</v>
       </c>
@@ -6822,7 +6886,7 @@
       <c r="N31" s="61">
         <v>3.4277799999999997E-2</v>
       </c>
-      <c r="P31" s="65"/>
+      <c r="P31" s="72"/>
       <c r="Q31" s="59">
         <v>4</v>
       </c>
@@ -6848,7 +6912,7 @@
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A32" s="64" t="s">
+      <c r="A32" s="71" t="s">
         <v>141</v>
       </c>
       <c r="B32" s="59">
@@ -6876,7 +6940,7 @@
       <c r="N32" s="61">
         <v>5.9273100000000002E-2</v>
       </c>
-      <c r="P32" s="64" t="s">
+      <c r="P32" s="71" t="s">
         <v>141</v>
       </c>
       <c r="Q32" s="59">
@@ -6914,7 +6978,7 @@
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A33" s="65"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="59">
         <v>2</v>
       </c>
@@ -6936,7 +7000,7 @@
       <c r="N33" s="61">
         <v>1.77678E-2</v>
       </c>
-      <c r="P33" s="65"/>
+      <c r="P33" s="72"/>
       <c r="Q33" s="59">
         <v>2</v>
       </c>
@@ -6962,7 +7026,7 @@
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A34" s="65"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="59">
         <v>3</v>
       </c>
@@ -6984,7 +7048,7 @@
       <c r="N34" s="61">
         <v>7.3289699999999999E-2</v>
       </c>
-      <c r="P34" s="65"/>
+      <c r="P34" s="72"/>
       <c r="Q34" s="59">
         <v>3</v>
       </c>
@@ -7012,7 +7076,7 @@
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A35" s="65"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="59">
         <v>4</v>
       </c>
@@ -7034,7 +7098,7 @@
       <c r="N35" s="61">
         <v>2.0179599999999999E-2</v>
       </c>
-      <c r="P35" s="65"/>
+      <c r="P35" s="72"/>
       <c r="Q35" s="59">
         <v>4</v>
       </c>
@@ -7058,10 +7122,10 @@
       <c r="AC35" s="61">
         <v>3.8278E-2</v>
       </c>
-      <c r="AE35" s="90"/>
+      <c r="AE35" s="63"/>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A36" s="67" t="s">
+      <c r="A36" s="76" t="s">
         <v>142</v>
       </c>
       <c r="B36" s="59">
@@ -7093,7 +7157,7 @@
       <c r="N36" s="61">
         <v>1.61917E-2</v>
       </c>
-      <c r="P36" s="67" t="s">
+      <c r="P36" s="76" t="s">
         <v>142</v>
       </c>
       <c r="Q36" s="59">
@@ -7129,7 +7193,7 @@
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A37" s="67"/>
+      <c r="A37" s="76"/>
       <c r="B37" s="59">
         <v>2</v>
       </c>
@@ -7159,7 +7223,7 @@
       <c r="N37" s="61">
         <v>5.7760399999999996E-3</v>
       </c>
-      <c r="P37" s="67"/>
+      <c r="P37" s="76"/>
       <c r="Q37" s="59">
         <v>2</v>
       </c>
@@ -7189,7 +7253,7 @@
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A38" s="67"/>
+      <c r="A38" s="76"/>
       <c r="B38" s="59">
         <v>3</v>
       </c>
@@ -7219,7 +7283,7 @@
       <c r="N38" s="61">
         <v>2.91655E-2</v>
       </c>
-      <c r="P38" s="67"/>
+      <c r="P38" s="76"/>
       <c r="Q38" s="59">
         <v>3</v>
       </c>
@@ -7251,7 +7315,7 @@
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A39" s="67"/>
+      <c r="A39" s="76"/>
       <c r="B39" s="59">
         <v>4</v>
       </c>
@@ -7281,7 +7345,7 @@
       <c r="N39" s="61">
         <v>1.0556299999999999E-2</v>
       </c>
-      <c r="P39" s="67"/>
+      <c r="P39" s="76"/>
       <c r="Q39" s="59">
         <v>4</v>
       </c>
@@ -7344,6 +7408,29 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="P24:P27"/>
+    <mergeCell ref="P28:P31"/>
+    <mergeCell ref="P32:P35"/>
+    <mergeCell ref="P36:P39"/>
+    <mergeCell ref="P4:P7"/>
+    <mergeCell ref="P8:P11"/>
+    <mergeCell ref="P12:P15"/>
+    <mergeCell ref="P16:P19"/>
+    <mergeCell ref="P20:P23"/>
+    <mergeCell ref="P1:AC1"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="A36:A39"/>
@@ -7353,29 +7440,6 @@
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="P1:AC1"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="P24:P27"/>
-    <mergeCell ref="P28:P31"/>
-    <mergeCell ref="P32:P35"/>
-    <mergeCell ref="P36:P39"/>
-    <mergeCell ref="P4:P7"/>
-    <mergeCell ref="P8:P11"/>
-    <mergeCell ref="P12:P15"/>
-    <mergeCell ref="P16:P19"/>
-    <mergeCell ref="P20:P23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -7387,8 +7451,8 @@
   <dimension ref="A1:AX14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" topLeftCell="AR1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F2" sqref="F2:F14"/>
+      <pane xSplit="7" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A4" sqref="A2:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7556,7 +7620,7 @@
       <c r="A2" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="63">
+      <c r="B2" s="64">
         <v>43548</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -7643,7 +7707,7 @@
       <c r="A3" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B3" s="63"/>
+      <c r="B3" s="64"/>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
@@ -7728,7 +7792,7 @@
       <c r="A4" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B4" s="63"/>
+      <c r="B4" s="64"/>
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
@@ -7813,7 +7877,7 @@
       <c r="A5" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B5" s="63"/>
+      <c r="B5" s="64"/>
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
@@ -7898,7 +7962,7 @@
       <c r="A6" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B6" s="63"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
@@ -7983,7 +8047,7 @@
       <c r="A7" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B7" s="63"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
@@ -8068,7 +8132,7 @@
       <c r="A8" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B8" s="63"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
@@ -8150,7 +8214,7 @@
       <c r="A9" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B9" s="63"/>
+      <c r="B9" s="64"/>
       <c r="C9" s="44">
         <v>0.25</v>
       </c>
@@ -8661,8 +8725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR249"/>
   <sheetViews>
-    <sheetView topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1:AR39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8701,54 +8765,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="65" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="73"/>
-      <c r="P1" s="71" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="67"/>
+      <c r="P1" s="65" t="s">
         <v>177</v>
       </c>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72"/>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="73"/>
-      <c r="AE1" s="71" t="s">
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="67"/>
+      <c r="AE1" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="AF1" s="72"/>
-      <c r="AG1" s="72"/>
-      <c r="AH1" s="72"/>
-      <c r="AI1" s="72"/>
-      <c r="AJ1" s="72"/>
-      <c r="AK1" s="72"/>
-      <c r="AL1" s="72"/>
-      <c r="AM1" s="72"/>
-      <c r="AN1" s="72"/>
-      <c r="AO1" s="72"/>
-      <c r="AP1" s="72"/>
-      <c r="AQ1" s="72"/>
-      <c r="AR1" s="73"/>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="66"/>
+      <c r="AH1" s="66"/>
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="66"/>
+      <c r="AK1" s="66"/>
+      <c r="AL1" s="66"/>
+      <c r="AM1" s="66"/>
+      <c r="AN1" s="66"/>
+      <c r="AO1" s="66"/>
+      <c r="AP1" s="66"/>
+      <c r="AQ1" s="66"/>
+      <c r="AR1" s="67"/>
     </row>
     <row r="2" spans="1:44" s="31" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="74" t="s">
@@ -8757,78 +8821,78 @@
       <c r="B2" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="71" t="s">
+      <c r="D2" s="66"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="G2" s="72"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="71" t="s">
+      <c r="G2" s="66"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="J2" s="72"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="76" t="s">
+      <c r="J2" s="66"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="M2" s="77"/>
-      <c r="N2" s="78"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="70"/>
       <c r="P2" s="74" t="s">
         <v>130</v>
       </c>
       <c r="Q2" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="R2" s="71" t="s">
+      <c r="R2" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="S2" s="72"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="71" t="s">
+      <c r="S2" s="66"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="V2" s="72"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="71" t="s">
+      <c r="V2" s="66"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="73"/>
-      <c r="AA2" s="76" t="s">
+      <c r="Y2" s="66"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="AB2" s="77"/>
-      <c r="AC2" s="78"/>
+      <c r="AB2" s="69"/>
+      <c r="AC2" s="70"/>
       <c r="AE2" s="74" t="s">
         <v>130</v>
       </c>
       <c r="AF2" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="AG2" s="71" t="s">
+      <c r="AG2" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="AH2" s="72"/>
-      <c r="AI2" s="73"/>
-      <c r="AJ2" s="71" t="s">
+      <c r="AH2" s="66"/>
+      <c r="AI2" s="67"/>
+      <c r="AJ2" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="AK2" s="72"/>
-      <c r="AL2" s="73"/>
-      <c r="AM2" s="71" t="s">
+      <c r="AK2" s="66"/>
+      <c r="AL2" s="67"/>
+      <c r="AM2" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="AN2" s="72"/>
-      <c r="AO2" s="73"/>
-      <c r="AP2" s="76" t="s">
+      <c r="AN2" s="66"/>
+      <c r="AO2" s="67"/>
+      <c r="AP2" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="AQ2" s="77"/>
-      <c r="AR2" s="78"/>
+      <c r="AQ2" s="69"/>
+      <c r="AR2" s="70"/>
     </row>
     <row r="3" spans="1:44" s="31" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="75"/>
@@ -8947,7 +9011,7 @@
       </c>
     </row>
     <row r="4" spans="1:44" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="71" t="s">
         <v>136</v>
       </c>
       <c r="B4" s="38" t="s">
@@ -8986,7 +9050,7 @@
       <c r="O4" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="P4" s="64" t="s">
+      <c r="P4" s="71" t="s">
         <v>136</v>
       </c>
       <c r="Q4" s="38" t="s">
@@ -9022,7 +9086,7 @@
       <c r="AC4" s="40">
         <v>0.80864800000000003</v>
       </c>
-      <c r="AE4" s="64" t="s">
+      <c r="AE4" s="71" t="s">
         <v>136</v>
       </c>
       <c r="AF4" s="38" t="s">
@@ -9060,7 +9124,7 @@
       </c>
     </row>
     <row r="5" spans="1:44" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="38" t="s">
         <v>133</v>
       </c>
@@ -9100,7 +9164,7 @@
       <c r="N5" s="40">
         <v>0.53922099999999995</v>
       </c>
-      <c r="P5" s="65"/>
+      <c r="P5" s="72"/>
       <c r="Q5" s="38" t="s">
         <v>133</v>
       </c>
@@ -9140,7 +9204,7 @@
       <c r="AC5" s="40">
         <v>0.74212500000000003</v>
       </c>
-      <c r="AE5" s="65"/>
+      <c r="AE5" s="72"/>
       <c r="AF5" s="38" t="s">
         <v>133</v>
       </c>
@@ -9182,7 +9246,7 @@
       </c>
     </row>
     <row r="6" spans="1:44" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="65"/>
+      <c r="A6" s="72"/>
       <c r="B6" s="38" t="s">
         <v>134</v>
       </c>
@@ -9218,7 +9282,7 @@
       <c r="N6" s="40">
         <v>4.9845799999999997E-3</v>
       </c>
-      <c r="P6" s="65"/>
+      <c r="P6" s="72"/>
       <c r="Q6" s="38" t="s">
         <v>134</v>
       </c>
@@ -9252,7 +9316,7 @@
       <c r="AC6" s="40">
         <v>0.32851900000000001</v>
       </c>
-      <c r="AE6" s="65"/>
+      <c r="AE6" s="72"/>
       <c r="AF6" s="38" t="s">
         <v>134</v>
       </c>
@@ -9292,7 +9356,7 @@
       </c>
     </row>
     <row r="7" spans="1:44" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="66"/>
+      <c r="A7" s="73"/>
       <c r="B7" s="41" t="s">
         <v>135</v>
       </c>
@@ -9314,7 +9378,7 @@
       <c r="N7" s="42">
         <v>6.9331199999999996E-4</v>
       </c>
-      <c r="P7" s="66"/>
+      <c r="P7" s="73"/>
       <c r="Q7" s="41" t="s">
         <v>135</v>
       </c>
@@ -9336,7 +9400,7 @@
       <c r="AC7" s="42">
         <v>5.0963000000000001E-2</v>
       </c>
-      <c r="AE7" s="66"/>
+      <c r="AE7" s="73"/>
       <c r="AF7" s="38" t="s">
         <v>135</v>
       </c>
@@ -9360,7 +9424,7 @@
       </c>
     </row>
     <row r="8" spans="1:44" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="71" t="s">
         <v>137</v>
       </c>
       <c r="B8" s="38" t="s">
@@ -9396,7 +9460,7 @@
       <c r="N8" s="40">
         <v>0.34474100000000002</v>
       </c>
-      <c r="P8" s="64" t="s">
+      <c r="P8" s="71" t="s">
         <v>137</v>
       </c>
       <c r="Q8" s="38" t="s">
@@ -9432,7 +9496,7 @@
       <c r="AC8" s="40">
         <v>0.83276700000000003</v>
       </c>
-      <c r="AE8" s="64" t="s">
+      <c r="AE8" s="71" t="s">
         <v>137</v>
       </c>
       <c r="AF8" s="38" t="s">
@@ -9470,7 +9534,7 @@
       </c>
     </row>
     <row r="9" spans="1:44" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="65"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="38" t="s">
         <v>133</v>
       </c>
@@ -9510,7 +9574,7 @@
       <c r="N9" s="40">
         <v>0.93847400000000003</v>
       </c>
-      <c r="P9" s="65"/>
+      <c r="P9" s="72"/>
       <c r="Q9" s="38" t="s">
         <v>133</v>
       </c>
@@ -9550,7 +9614,7 @@
       <c r="AC9" s="40">
         <v>0.36027500000000001</v>
       </c>
-      <c r="AE9" s="65"/>
+      <c r="AE9" s="72"/>
       <c r="AF9" s="38" t="s">
         <v>133</v>
       </c>
@@ -9592,7 +9656,7 @@
       </c>
     </row>
     <row r="10" spans="1:44" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="65"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="38" t="s">
         <v>134</v>
       </c>
@@ -9628,7 +9692,7 @@
       <c r="N10" s="40">
         <v>1.1750500000000001E-2</v>
       </c>
-      <c r="P10" s="65"/>
+      <c r="P10" s="72"/>
       <c r="Q10" s="38" t="s">
         <v>134</v>
       </c>
@@ -9662,7 +9726,7 @@
       <c r="AC10" s="40">
         <v>0.42157099999999997</v>
       </c>
-      <c r="AE10" s="65"/>
+      <c r="AE10" s="72"/>
       <c r="AF10" s="38" t="s">
         <v>134</v>
       </c>
@@ -9704,7 +9768,7 @@
       </c>
     </row>
     <row r="11" spans="1:44" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="66"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="41" t="s">
         <v>135</v>
       </c>
@@ -9726,7 +9790,7 @@
       <c r="N11" s="42">
         <v>4.1270400000000002E-3</v>
       </c>
-      <c r="P11" s="66"/>
+      <c r="P11" s="73"/>
       <c r="Q11" s="41" t="s">
         <v>135</v>
       </c>
@@ -9754,7 +9818,7 @@
       <c r="AC11" s="42">
         <v>8.3578299999999994E-2</v>
       </c>
-      <c r="AE11" s="66"/>
+      <c r="AE11" s="73"/>
       <c r="AF11" s="38" t="s">
         <v>135</v>
       </c>
@@ -9782,7 +9846,7 @@
       </c>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="71" t="s">
         <v>110</v>
       </c>
       <c r="B12" s="38" t="s">
@@ -9818,7 +9882,7 @@
       <c r="N12" s="40">
         <v>0.61764799999999997</v>
       </c>
-      <c r="P12" s="64" t="s">
+      <c r="P12" s="71" t="s">
         <v>110</v>
       </c>
       <c r="Q12" s="38" t="s">
@@ -9854,7 +9918,7 @@
       <c r="AC12" s="40">
         <v>0.72725300000000004</v>
       </c>
-      <c r="AE12" s="64" t="s">
+      <c r="AE12" s="71" t="s">
         <v>110</v>
       </c>
       <c r="AF12" s="38" t="s">
@@ -9892,7 +9956,7 @@
       </c>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A13" s="65"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="38" t="s">
         <v>133</v>
       </c>
@@ -9926,7 +9990,7 @@
       <c r="N13" s="40">
         <v>0.18202299999999999</v>
       </c>
-      <c r="P13" s="65"/>
+      <c r="P13" s="72"/>
       <c r="Q13" s="38" t="s">
         <v>133</v>
       </c>
@@ -9960,7 +10024,7 @@
       <c r="AC13" s="40">
         <v>0.50264500000000001</v>
       </c>
-      <c r="AE13" s="65"/>
+      <c r="AE13" s="72"/>
       <c r="AF13" s="38" t="s">
         <v>133</v>
       </c>
@@ -9996,7 +10060,7 @@
       </c>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A14" s="65"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="38" t="s">
         <v>134</v>
       </c>
@@ -10030,7 +10094,7 @@
       <c r="N14" s="40">
         <v>5.4985399999999997E-2</v>
       </c>
-      <c r="P14" s="65"/>
+      <c r="P14" s="72"/>
       <c r="Q14" s="38" t="s">
         <v>134</v>
       </c>
@@ -10064,7 +10128,7 @@
       <c r="AC14" s="40">
         <v>0.35624899999999998</v>
       </c>
-      <c r="AE14" s="65"/>
+      <c r="AE14" s="72"/>
       <c r="AF14" s="38" t="s">
         <v>134</v>
       </c>
@@ -10100,7 +10164,7 @@
       </c>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A15" s="66"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="41" t="s">
         <v>135</v>
       </c>
@@ -10122,7 +10186,7 @@
       <c r="N15" s="42">
         <v>0</v>
       </c>
-      <c r="P15" s="66"/>
+      <c r="P15" s="73"/>
       <c r="Q15" s="41" t="s">
         <v>135</v>
       </c>
@@ -10150,7 +10214,7 @@
       <c r="AC15" s="42">
         <v>0.228573</v>
       </c>
-      <c r="AE15" s="66"/>
+      <c r="AE15" s="73"/>
       <c r="AF15" s="38" t="s">
         <v>135</v>
       </c>
@@ -10176,7 +10240,7 @@
       </c>
     </row>
     <row r="16" spans="1:44" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="77" t="s">
         <v>138</v>
       </c>
       <c r="B16" s="39" t="s">
@@ -10214,7 +10278,7 @@
       <c r="N16" s="40">
         <v>0.29320299999999999</v>
       </c>
-      <c r="P16" s="68" t="s">
+      <c r="P16" s="77" t="s">
         <v>138</v>
       </c>
       <c r="Q16" s="39" t="s">
@@ -10254,7 +10318,7 @@
       <c r="AC16" s="40">
         <v>0.81892100000000001</v>
       </c>
-      <c r="AE16" s="68" t="s">
+      <c r="AE16" s="77" t="s">
         <v>138</v>
       </c>
       <c r="AF16" s="39" t="s">
@@ -10298,7 +10362,7 @@
       </c>
     </row>
     <row r="17" spans="1:44" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="69"/>
+      <c r="A17" s="78"/>
       <c r="B17" s="39" t="s">
         <v>133</v>
       </c>
@@ -10332,7 +10396,7 @@
       <c r="N17" s="40">
         <v>0.174321</v>
       </c>
-      <c r="P17" s="69"/>
+      <c r="P17" s="78"/>
       <c r="Q17" s="39" t="s">
         <v>133</v>
       </c>
@@ -10366,7 +10430,7 @@
       <c r="AC17" s="40">
         <v>0.46240999999999999</v>
       </c>
-      <c r="AE17" s="69"/>
+      <c r="AE17" s="78"/>
       <c r="AF17" s="39" t="s">
         <v>133</v>
       </c>
@@ -10406,7 +10470,7 @@
       </c>
     </row>
     <row r="18" spans="1:44" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="69"/>
+      <c r="A18" s="78"/>
       <c r="B18" s="38" t="s">
         <v>134</v>
       </c>
@@ -10444,7 +10508,7 @@
       <c r="N18" s="40">
         <v>1.3136500000000001E-2</v>
       </c>
-      <c r="P18" s="69"/>
+      <c r="P18" s="78"/>
       <c r="Q18" s="38" t="s">
         <v>134</v>
       </c>
@@ -10478,7 +10542,7 @@
       <c r="AC18" s="40">
         <v>0.97048199999999996</v>
       </c>
-      <c r="AE18" s="69"/>
+      <c r="AE18" s="78"/>
       <c r="AF18" s="38" t="s">
         <v>134</v>
       </c>
@@ -10520,7 +10584,7 @@
       </c>
     </row>
     <row r="19" spans="1:44" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="70"/>
+      <c r="A19" s="79"/>
       <c r="B19" s="41" t="s">
         <v>135</v>
       </c>
@@ -10542,7 +10606,7 @@
       <c r="N19" s="42">
         <v>3.6087900000000002E-3</v>
       </c>
-      <c r="P19" s="70"/>
+      <c r="P19" s="79"/>
       <c r="Q19" s="41" t="s">
         <v>135</v>
       </c>
@@ -10572,7 +10636,7 @@
       <c r="AC19" s="42">
         <v>0.75703299999999996</v>
       </c>
-      <c r="AE19" s="70"/>
+      <c r="AE19" s="79"/>
       <c r="AF19" s="38" t="s">
         <v>135</v>
       </c>
@@ -10600,7 +10664,7 @@
       </c>
     </row>
     <row r="20" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="68" t="s">
+      <c r="A20" s="77" t="s">
         <v>139</v>
       </c>
       <c r="B20" s="38" t="s">
@@ -10636,7 +10700,7 @@
       <c r="N20" s="40">
         <v>5.4854E-2</v>
       </c>
-      <c r="P20" s="68" t="s">
+      <c r="P20" s="77" t="s">
         <v>139</v>
       </c>
       <c r="Q20" s="38" t="s">
@@ -10672,7 +10736,7 @@
       <c r="AC20" s="40">
         <v>0.97633400000000004</v>
       </c>
-      <c r="AE20" s="68" t="s">
+      <c r="AE20" s="77" t="s">
         <v>139</v>
       </c>
       <c r="AF20" s="38" t="s">
@@ -10710,7 +10774,7 @@
       </c>
     </row>
     <row r="21" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A21" s="69"/>
+      <c r="A21" s="78"/>
       <c r="B21" s="38" t="s">
         <v>133</v>
       </c>
@@ -10748,7 +10812,7 @@
       <c r="N21" s="40">
         <v>0.40772999999999998</v>
       </c>
-      <c r="P21" s="69"/>
+      <c r="P21" s="78"/>
       <c r="Q21" s="38" t="s">
         <v>133</v>
       </c>
@@ -10782,7 +10846,7 @@
       <c r="AC21" s="40">
         <v>0.34917199999999998</v>
       </c>
-      <c r="AE21" s="69"/>
+      <c r="AE21" s="78"/>
       <c r="AF21" s="38" t="s">
         <v>133</v>
       </c>
@@ -10820,7 +10884,7 @@
       </c>
     </row>
     <row r="22" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A22" s="69"/>
+      <c r="A22" s="78"/>
       <c r="B22" s="38" t="s">
         <v>134</v>
       </c>
@@ -10854,7 +10918,7 @@
       <c r="N22" s="40">
         <v>5.7199100000000003E-2</v>
       </c>
-      <c r="P22" s="69"/>
+      <c r="P22" s="78"/>
       <c r="Q22" s="38" t="s">
         <v>134</v>
       </c>
@@ -10888,7 +10952,7 @@
       <c r="AC22" s="40">
         <v>0.98668299999999998</v>
       </c>
-      <c r="AE22" s="69"/>
+      <c r="AE22" s="78"/>
       <c r="AF22" s="38" t="s">
         <v>134</v>
       </c>
@@ -10926,7 +10990,7 @@
       </c>
     </row>
     <row r="23" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A23" s="70"/>
+      <c r="A23" s="79"/>
       <c r="B23" s="41" t="s">
         <v>135</v>
       </c>
@@ -10948,7 +11012,7 @@
       <c r="N23" s="42">
         <v>7.4505699999999994E-2</v>
       </c>
-      <c r="P23" s="70"/>
+      <c r="P23" s="79"/>
       <c r="Q23" s="41" t="s">
         <v>135</v>
       </c>
@@ -10978,7 +11042,7 @@
       <c r="AC23" s="42">
         <v>0.96269300000000002</v>
       </c>
-      <c r="AE23" s="70"/>
+      <c r="AE23" s="79"/>
       <c r="AF23" s="38" t="s">
         <v>135</v>
       </c>
@@ -11006,7 +11070,7 @@
       </c>
     </row>
     <row r="24" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A24" s="64" t="s">
+      <c r="A24" s="71" t="s">
         <v>140</v>
       </c>
       <c r="B24" s="38" t="s">
@@ -11048,7 +11112,7 @@
       <c r="N24" s="40">
         <v>0.25895099999999999</v>
       </c>
-      <c r="P24" s="64" t="s">
+      <c r="P24" s="71" t="s">
         <v>140</v>
       </c>
       <c r="Q24" s="38" t="s">
@@ -11084,7 +11148,7 @@
       <c r="AC24" s="40">
         <v>0.391177</v>
       </c>
-      <c r="AE24" s="64" t="s">
+      <c r="AE24" s="71" t="s">
         <v>140</v>
       </c>
       <c r="AF24" s="38" t="s">
@@ -11126,7 +11190,7 @@
       </c>
     </row>
     <row r="25" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A25" s="65"/>
+      <c r="A25" s="72"/>
       <c r="B25" s="38" t="s">
         <v>133</v>
       </c>
@@ -11160,7 +11224,7 @@
       <c r="N25" s="40">
         <v>8.7913599999999995E-2</v>
       </c>
-      <c r="P25" s="65"/>
+      <c r="P25" s="72"/>
       <c r="Q25" s="38" t="s">
         <v>133</v>
       </c>
@@ -11194,7 +11258,7 @@
       <c r="AC25" s="40">
         <v>0.992869</v>
       </c>
-      <c r="AE25" s="65"/>
+      <c r="AE25" s="72"/>
       <c r="AF25" s="38" t="s">
         <v>133</v>
       </c>
@@ -11230,7 +11294,7 @@
       </c>
     </row>
     <row r="26" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A26" s="65"/>
+      <c r="A26" s="72"/>
       <c r="B26" s="38" t="s">
         <v>134</v>
       </c>
@@ -11266,7 +11330,7 @@
       <c r="N26" s="40">
         <v>8.6047599999999999E-5</v>
       </c>
-      <c r="P26" s="65"/>
+      <c r="P26" s="72"/>
       <c r="Q26" s="38" t="s">
         <v>134</v>
       </c>
@@ -11302,7 +11366,7 @@
       <c r="AC26" s="40">
         <v>0.49700499999999997</v>
       </c>
-      <c r="AE26" s="65"/>
+      <c r="AE26" s="72"/>
       <c r="AF26" s="38" t="s">
         <v>134</v>
       </c>
@@ -11342,7 +11406,7 @@
       </c>
     </row>
     <row r="27" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A27" s="66"/>
+      <c r="A27" s="73"/>
       <c r="B27" s="41" t="s">
         <v>135</v>
       </c>
@@ -11364,7 +11428,7 @@
       <c r="N27" s="42">
         <v>5.1660999999999999E-2</v>
       </c>
-      <c r="P27" s="66"/>
+      <c r="P27" s="73"/>
       <c r="Q27" s="41" t="s">
         <v>135</v>
       </c>
@@ -11392,7 +11456,7 @@
       <c r="AC27" s="42">
         <v>0.59972999999999999</v>
       </c>
-      <c r="AE27" s="66"/>
+      <c r="AE27" s="73"/>
       <c r="AF27" s="38" t="s">
         <v>135</v>
       </c>
@@ -11418,7 +11482,7 @@
       </c>
     </row>
     <row r="28" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A28" s="64" t="s">
+      <c r="A28" s="71" t="s">
         <v>116</v>
       </c>
       <c r="B28" s="38" t="s">
@@ -11454,7 +11518,7 @@
       <c r="N28" s="40">
         <v>0.21804599999999999</v>
       </c>
-      <c r="P28" s="64" t="s">
+      <c r="P28" s="71" t="s">
         <v>116</v>
       </c>
       <c r="Q28" s="38" t="s">
@@ -11490,7 +11554,7 @@
       <c r="AC28" s="40">
         <v>0.79758499999999999</v>
       </c>
-      <c r="AE28" s="64" t="s">
+      <c r="AE28" s="71" t="s">
         <v>116</v>
       </c>
       <c r="AF28" s="38" t="s">
@@ -11528,7 +11592,7 @@
       </c>
     </row>
     <row r="29" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A29" s="65"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="38" t="s">
         <v>133</v>
       </c>
@@ -11562,7 +11626,7 @@
       <c r="N29" s="40">
         <v>1.9599700000000001E-2</v>
       </c>
-      <c r="P29" s="65"/>
+      <c r="P29" s="72"/>
       <c r="Q29" s="38" t="s">
         <v>133</v>
       </c>
@@ -11596,7 +11660,7 @@
       <c r="AC29" s="40">
         <v>0.20802399999999999</v>
       </c>
-      <c r="AE29" s="65"/>
+      <c r="AE29" s="72"/>
       <c r="AF29" s="38" t="s">
         <v>133</v>
       </c>
@@ -11632,7 +11696,7 @@
       </c>
     </row>
     <row r="30" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A30" s="65"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="38" t="s">
         <v>134</v>
       </c>
@@ -11666,7 +11730,7 @@
       <c r="N30" s="40">
         <v>7.6017100000000002E-4</v>
       </c>
-      <c r="P30" s="65"/>
+      <c r="P30" s="72"/>
       <c r="Q30" s="38" t="s">
         <v>134</v>
       </c>
@@ -11700,7 +11764,7 @@
       <c r="AC30" s="40">
         <v>0.55451899999999998</v>
       </c>
-      <c r="AE30" s="65"/>
+      <c r="AE30" s="72"/>
       <c r="AF30" s="38" t="s">
         <v>134</v>
       </c>
@@ -11736,7 +11800,7 @@
       </c>
     </row>
     <row r="31" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A31" s="66"/>
+      <c r="A31" s="73"/>
       <c r="B31" s="41" t="s">
         <v>135</v>
       </c>
@@ -11758,7 +11822,7 @@
       <c r="N31" s="42">
         <v>6.0392800000000003E-2</v>
       </c>
-      <c r="P31" s="66"/>
+      <c r="P31" s="73"/>
       <c r="Q31" s="41" t="s">
         <v>135</v>
       </c>
@@ -11786,7 +11850,7 @@
       <c r="AC31" s="42">
         <v>0.40330300000000002</v>
       </c>
-      <c r="AE31" s="66"/>
+      <c r="AE31" s="73"/>
       <c r="AF31" s="38" t="s">
         <v>135</v>
       </c>
@@ -11814,7 +11878,7 @@
       </c>
     </row>
     <row r="32" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A32" s="64" t="s">
+      <c r="A32" s="71" t="s">
         <v>141</v>
       </c>
       <c r="B32" s="38" t="s">
@@ -11854,7 +11918,7 @@
       <c r="N32" s="40">
         <v>6.8416699999999997E-2</v>
       </c>
-      <c r="P32" s="64" t="s">
+      <c r="P32" s="71" t="s">
         <v>141</v>
       </c>
       <c r="Q32" s="38" t="s">
@@ -11890,7 +11954,7 @@
       <c r="AC32" s="40">
         <v>0.79306100000000002</v>
       </c>
-      <c r="AE32" s="64" t="s">
+      <c r="AE32" s="71" t="s">
         <v>141</v>
       </c>
       <c r="AF32" s="38" t="s">
@@ -11932,7 +11996,7 @@
       </c>
     </row>
     <row r="33" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A33" s="65"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="38" t="s">
         <v>133</v>
       </c>
@@ -11966,7 +12030,7 @@
       <c r="N33" s="40">
         <v>0.24232799999999999</v>
       </c>
-      <c r="P33" s="65"/>
+      <c r="P33" s="72"/>
       <c r="Q33" s="38" t="s">
         <v>133</v>
       </c>
@@ -12000,7 +12064,7 @@
       <c r="AC33" s="40">
         <v>0.79171599999999998</v>
       </c>
-      <c r="AE33" s="65"/>
+      <c r="AE33" s="72"/>
       <c r="AF33" s="38" t="s">
         <v>133</v>
       </c>
@@ -12036,7 +12100,7 @@
       </c>
     </row>
     <row r="34" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A34" s="65"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="38" t="s">
         <v>134</v>
       </c>
@@ -12070,7 +12134,7 @@
       <c r="N34" s="40">
         <v>9.2139299999999993E-2</v>
       </c>
-      <c r="P34" s="65"/>
+      <c r="P34" s="72"/>
       <c r="Q34" s="38" t="s">
         <v>134</v>
       </c>
@@ -12106,7 +12170,7 @@
       <c r="AC34" s="40">
         <v>5.10708E-2</v>
       </c>
-      <c r="AE34" s="65"/>
+      <c r="AE34" s="72"/>
       <c r="AF34" s="38" t="s">
         <v>134</v>
       </c>
@@ -12146,7 +12210,7 @@
       </c>
     </row>
     <row r="35" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A35" s="66"/>
+      <c r="A35" s="73"/>
       <c r="B35" s="41" t="s">
         <v>135</v>
       </c>
@@ -12168,7 +12232,7 @@
       <c r="N35" s="42">
         <v>3.5705899999999999E-2</v>
       </c>
-      <c r="P35" s="66"/>
+      <c r="P35" s="73"/>
       <c r="Q35" s="41" t="s">
         <v>135</v>
       </c>
@@ -12200,7 +12264,7 @@
       <c r="AC35" s="42">
         <v>0.37054599999999999</v>
       </c>
-      <c r="AE35" s="66"/>
+      <c r="AE35" s="73"/>
       <c r="AF35" s="38" t="s">
         <v>135</v>
       </c>
@@ -12234,7 +12298,7 @@
       </c>
     </row>
     <row r="36" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A36" s="67" t="s">
+      <c r="A36" s="76" t="s">
         <v>142</v>
       </c>
       <c r="B36" s="38" t="s">
@@ -12276,7 +12340,7 @@
       <c r="N36" s="40">
         <v>0.79885600000000001</v>
       </c>
-      <c r="P36" s="67" t="s">
+      <c r="P36" s="76" t="s">
         <v>142</v>
       </c>
       <c r="Q36" s="38" t="s">
@@ -12312,7 +12376,7 @@
       <c r="AC36" s="40">
         <v>0.119131</v>
       </c>
-      <c r="AE36" s="67" t="s">
+      <c r="AE36" s="76" t="s">
         <v>142</v>
       </c>
       <c r="AF36" s="38" t="s">
@@ -12356,7 +12420,7 @@
       </c>
     </row>
     <row r="37" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A37" s="67"/>
+      <c r="A37" s="76"/>
       <c r="B37" s="38" t="s">
         <v>133</v>
       </c>
@@ -12390,7 +12454,7 @@
       <c r="N37" s="40">
         <v>0.51789499999999999</v>
       </c>
-      <c r="P37" s="67"/>
+      <c r="P37" s="76"/>
       <c r="Q37" s="38" t="s">
         <v>133</v>
       </c>
@@ -12424,7 +12488,7 @@
       <c r="AC37" s="40">
         <v>0.74060099999999995</v>
       </c>
-      <c r="AE37" s="67"/>
+      <c r="AE37" s="76"/>
       <c r="AF37" s="38" t="s">
         <v>133</v>
       </c>
@@ -12460,7 +12524,7 @@
       </c>
     </row>
     <row r="38" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A38" s="67"/>
+      <c r="A38" s="76"/>
       <c r="B38" s="38" t="s">
         <v>134</v>
       </c>
@@ -12500,7 +12564,7 @@
       <c r="N38" s="40">
         <v>1.3228699999999999E-2</v>
       </c>
-      <c r="P38" s="67"/>
+      <c r="P38" s="76"/>
       <c r="Q38" s="38" t="s">
         <v>134</v>
       </c>
@@ -12540,7 +12604,7 @@
       <c r="AC38" s="40">
         <v>0.59381899999999999</v>
       </c>
-      <c r="AE38" s="67"/>
+      <c r="AE38" s="76"/>
       <c r="AF38" s="38" t="s">
         <v>134</v>
       </c>
@@ -12582,7 +12646,7 @@
       </c>
     </row>
     <row r="39" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A39" s="67"/>
+      <c r="A39" s="76"/>
       <c r="B39" s="41" t="s">
         <v>135</v>
       </c>
@@ -12604,7 +12668,7 @@
       <c r="N39" s="42">
         <v>0.12786700000000001</v>
       </c>
-      <c r="P39" s="67"/>
+      <c r="P39" s="76"/>
       <c r="Q39" s="41" t="s">
         <v>135</v>
       </c>
@@ -12638,7 +12702,7 @@
       <c r="AC39" s="42">
         <v>0.94489999999999996</v>
       </c>
-      <c r="AE39" s="67"/>
+      <c r="AE39" s="76"/>
       <c r="AF39" s="38" t="s">
         <v>135</v>
       </c>
@@ -14769,6 +14833,44 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="AE24:AE27"/>
+    <mergeCell ref="AE28:AE31"/>
+    <mergeCell ref="AE32:AE35"/>
+    <mergeCell ref="AE36:AE39"/>
+    <mergeCell ref="AE4:AE7"/>
+    <mergeCell ref="AE8:AE11"/>
+    <mergeCell ref="AE12:AE15"/>
+    <mergeCell ref="AE16:AE19"/>
+    <mergeCell ref="AE20:AE23"/>
+    <mergeCell ref="AE1:AR1"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
+    <mergeCell ref="P20:P23"/>
+    <mergeCell ref="P24:P27"/>
+    <mergeCell ref="P28:P31"/>
+    <mergeCell ref="P32:P35"/>
+    <mergeCell ref="P36:P39"/>
+    <mergeCell ref="P8:P11"/>
+    <mergeCell ref="P12:P15"/>
+    <mergeCell ref="P16:P19"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="P1:AC1"/>
     <mergeCell ref="L2:N2"/>
@@ -14779,44 +14881,6 @@
     <mergeCell ref="R2:T2"/>
     <mergeCell ref="U2:W2"/>
     <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="P8:P11"/>
-    <mergeCell ref="P12:P15"/>
-    <mergeCell ref="P16:P19"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="P20:P23"/>
-    <mergeCell ref="P24:P27"/>
-    <mergeCell ref="P28:P31"/>
-    <mergeCell ref="P32:P35"/>
-    <mergeCell ref="P36:P39"/>
-    <mergeCell ref="AE1:AR1"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
-    <mergeCell ref="AE24:AE27"/>
-    <mergeCell ref="AE28:AE31"/>
-    <mergeCell ref="AE32:AE35"/>
-    <mergeCell ref="AE36:AE39"/>
-    <mergeCell ref="AE4:AE7"/>
-    <mergeCell ref="AE8:AE11"/>
-    <mergeCell ref="AE12:AE15"/>
-    <mergeCell ref="AE16:AE19"/>
-    <mergeCell ref="AE20:AE23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -14828,7 +14892,7 @@
   <dimension ref="A1:Q248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="B11" sqref="A11:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14853,26 +14917,26 @@
       <c r="B1" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="72"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="71" t="s">
+      <c r="D1" s="66"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="G1" s="72"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="71" t="s">
+      <c r="G1" s="66"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="J1" s="72"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="76" t="s">
+      <c r="J1" s="66"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="M1" s="77"/>
-      <c r="N1" s="78"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="70"/>
     </row>
     <row r="2" spans="1:17" s="31" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="75"/>
@@ -14916,7 +14980,7 @@
       <c r="Q2" s="35"/>
     </row>
     <row r="3" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="71" t="s">
         <v>136</v>
       </c>
       <c r="B3" s="38" t="s">
@@ -14957,7 +15021,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="65"/>
+      <c r="A4" s="72"/>
       <c r="B4" s="38" t="s">
         <v>133</v>
       </c>
@@ -14999,7 +15063,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="38" t="s">
         <v>134</v>
       </c>
@@ -15035,7 +15099,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="66"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="41" t="s">
         <v>135</v>
       </c>
@@ -15068,7 +15132,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="71" t="s">
         <v>137</v>
       </c>
       <c r="B7" s="38" t="s">
@@ -15106,7 +15170,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="65"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="38" t="s">
         <v>133</v>
       </c>
@@ -15148,7 +15212,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="65"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="38" t="s">
         <v>134</v>
       </c>
@@ -15184,7 +15248,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="66"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="41" t="s">
         <v>135</v>
       </c>
@@ -15214,7 +15278,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="71" t="s">
         <v>110</v>
       </c>
       <c r="B11" s="38" t="s">
@@ -15252,7 +15316,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="65"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="38" t="s">
         <v>133</v>
       </c>
@@ -15288,7 +15352,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="65"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="38" t="s">
         <v>134</v>
       </c>
@@ -15324,7 +15388,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="66"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="41" t="s">
         <v>135</v>
       </c>
@@ -15354,7 +15418,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="77" t="s">
         <v>138</v>
       </c>
       <c r="B15" s="39" t="s">
@@ -15396,7 +15460,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="69"/>
+      <c r="A16" s="78"/>
       <c r="B16" s="39" t="s">
         <v>133</v>
       </c>
@@ -15435,7 +15499,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="69"/>
+      <c r="A17" s="78"/>
       <c r="B17" s="38" t="s">
         <v>134</v>
       </c>
@@ -15471,7 +15535,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="70"/>
+      <c r="A18" s="79"/>
       <c r="B18" s="41" t="s">
         <v>135</v>
       </c>
@@ -15503,7 +15567,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="68" t="s">
+      <c r="A19" s="77" t="s">
         <v>139</v>
       </c>
       <c r="B19" s="38" t="s">
@@ -15541,7 +15605,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="69"/>
+      <c r="A20" s="78"/>
       <c r="B20" s="38" t="s">
         <v>133</v>
       </c>
@@ -15577,7 +15641,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="69"/>
+      <c r="A21" s="78"/>
       <c r="B21" s="38" t="s">
         <v>134</v>
       </c>
@@ -15613,7 +15677,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="70"/>
+      <c r="A22" s="79"/>
       <c r="B22" s="41" t="s">
         <v>135</v>
       </c>
@@ -15645,7 +15709,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="64" t="s">
+      <c r="A23" s="71" t="s">
         <v>140</v>
       </c>
       <c r="B23" s="38" t="s">
@@ -15683,7 +15747,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="65"/>
+      <c r="A24" s="72"/>
       <c r="B24" s="38" t="s">
         <v>133</v>
       </c>
@@ -15719,7 +15783,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="65"/>
+      <c r="A25" s="72"/>
       <c r="B25" s="38" t="s">
         <v>134</v>
       </c>
@@ -15757,7 +15821,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="66"/>
+      <c r="A26" s="73"/>
       <c r="B26" s="41" t="s">
         <v>135</v>
       </c>
@@ -15787,7 +15851,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="64" t="s">
+      <c r="A27" s="71" t="s">
         <v>116</v>
       </c>
       <c r="B27" s="38" t="s">
@@ -15825,7 +15889,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="65"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="38" t="s">
         <v>133</v>
       </c>
@@ -15861,7 +15925,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="65"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="38" t="s">
         <v>134</v>
       </c>
@@ -15897,7 +15961,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="66"/>
+      <c r="A30" s="73"/>
       <c r="B30" s="41" t="s">
         <v>135</v>
       </c>
@@ -15927,7 +15991,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="64" t="s">
+      <c r="A31" s="71" t="s">
         <v>141</v>
       </c>
       <c r="B31" s="38" t="s">
@@ -15965,7 +16029,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="65"/>
+      <c r="A32" s="72"/>
       <c r="B32" s="38" t="s">
         <v>133</v>
       </c>
@@ -16001,7 +16065,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="65"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="38" t="s">
         <v>134</v>
       </c>
@@ -16039,7 +16103,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="66"/>
+      <c r="A34" s="73"/>
       <c r="B34" s="41" t="s">
         <v>135</v>
       </c>
@@ -16073,7 +16137,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="67" t="s">
+      <c r="A35" s="76" t="s">
         <v>142</v>
       </c>
       <c r="B35" s="38" t="s">
@@ -16111,7 +16175,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="67"/>
+      <c r="A36" s="76"/>
       <c r="B36" s="38" t="s">
         <v>133</v>
       </c>
@@ -16147,7 +16211,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="67"/>
+      <c r="A37" s="76"/>
       <c r="B37" s="38" t="s">
         <v>134</v>
       </c>
@@ -16189,7 +16253,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="67"/>
+      <c r="A38" s="76"/>
       <c r="B38" s="41" t="s">
         <v>135</v>
       </c>
@@ -17486,6 +17550,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="A31:A34"/>
     <mergeCell ref="A35:A38"/>
@@ -17495,12 +17565,6 @@
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A26"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -17588,7 +17652,7 @@
       <c r="AT1" s="1"/>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="81" t="s">
         <v>110</v>
       </c>
       <c r="B2" s="27" t="s">
@@ -17606,7 +17670,7 @@
       </c>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A3" s="81"/>
+      <c r="A3" s="82"/>
       <c r="B3" s="27" t="s">
         <v>109</v>
       </c>
@@ -17622,7 +17686,7 @@
       </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A4" s="81"/>
+      <c r="A4" s="82"/>
       <c r="B4" s="27" t="s">
         <v>111</v>
       </c>
@@ -17638,7 +17702,7 @@
       </c>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="27" t="s">
         <v>112</v>
       </c>
@@ -17650,7 +17714,7 @@
       <c r="F5" s="21"/>
     </row>
     <row r="6" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="84" t="s">
         <v>113</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -17668,7 +17732,7 @@
       </c>
     </row>
     <row r="7" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="84"/>
+      <c r="A7" s="85"/>
       <c r="B7" s="21" t="s">
         <v>109</v>
       </c>
@@ -17684,7 +17748,7 @@
       </c>
     </row>
     <row r="8" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="84"/>
+      <c r="A8" s="85"/>
       <c r="B8" s="21" t="s">
         <v>111</v>
       </c>
@@ -17702,7 +17766,7 @@
       </c>
     </row>
     <row r="9" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="85"/>
+      <c r="A9" s="86"/>
       <c r="B9" s="21" t="s">
         <v>112</v>
       </c>
@@ -17714,7 +17778,7 @@
       <c r="F9" s="21"/>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="81" t="s">
         <v>114</v>
       </c>
       <c r="B10" s="27" t="s">
@@ -17732,7 +17796,7 @@
       </c>
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A11" s="81"/>
+      <c r="A11" s="82"/>
       <c r="B11" s="27" t="s">
         <v>109</v>
       </c>
@@ -17750,7 +17814,7 @@
       </c>
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A12" s="81"/>
+      <c r="A12" s="82"/>
       <c r="B12" s="27" t="s">
         <v>111</v>
       </c>
@@ -17766,7 +17830,7 @@
       </c>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A13" s="82"/>
+      <c r="A13" s="83"/>
       <c r="B13" s="27" t="s">
         <v>112</v>
       </c>
@@ -17778,7 +17842,7 @@
       <c r="F13" s="21"/>
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="81" t="s">
         <v>115</v>
       </c>
       <c r="B14" s="27" t="s">
@@ -17798,7 +17862,7 @@
       </c>
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A15" s="81"/>
+      <c r="A15" s="82"/>
       <c r="B15" s="27" t="s">
         <v>109</v>
       </c>
@@ -17814,7 +17878,7 @@
       </c>
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A16" s="81"/>
+      <c r="A16" s="82"/>
       <c r="B16" s="27" t="s">
         <v>111</v>
       </c>
@@ -17832,7 +17896,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="82"/>
+      <c r="A17" s="83"/>
       <c r="B17" s="27" t="s">
         <v>112</v>
       </c>
@@ -17844,7 +17908,7 @@
       <c r="F17" s="21"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="80" t="s">
+      <c r="A18" s="81" t="s">
         <v>116</v>
       </c>
       <c r="B18" s="27" t="s">
@@ -17862,7 +17926,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="81"/>
+      <c r="A19" s="82"/>
       <c r="B19" s="27" t="s">
         <v>109</v>
       </c>
@@ -17878,7 +17942,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="81"/>
+      <c r="A20" s="82"/>
       <c r="B20" s="27" t="s">
         <v>111</v>
       </c>
@@ -17894,7 +17958,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="82"/>
+      <c r="A21" s="83"/>
       <c r="B21" s="27" t="s">
         <v>112</v>
       </c>
@@ -17906,7 +17970,7 @@
       <c r="F21" s="21"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="80" t="s">
+      <c r="A22" s="81" t="s">
         <v>83</v>
       </c>
       <c r="B22" s="27" t="s">
@@ -17926,7 +17990,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="81"/>
+      <c r="A23" s="82"/>
       <c r="B23" s="27" t="s">
         <v>109</v>
       </c>
@@ -17943,7 +18007,7 @@
       <c r="H23" s="19"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="81"/>
+      <c r="A24" s="82"/>
       <c r="B24" s="27" t="s">
         <v>111</v>
       </c>
@@ -17959,7 +18023,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="82"/>
+      <c r="A25" s="83"/>
       <c r="B25" s="27" t="s">
         <v>112</v>
       </c>
@@ -17971,7 +18035,7 @@
       <c r="F25" s="21"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="79" t="s">
+      <c r="A26" s="80" t="s">
         <v>117</v>
       </c>
       <c r="B26" s="27" t="s">
@@ -17991,7 +18055,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="79"/>
+      <c r="A27" s="80"/>
       <c r="B27" s="27" t="s">
         <v>109</v>
       </c>
@@ -18007,7 +18071,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="79"/>
+      <c r="A28" s="80"/>
       <c r="B28" s="27" t="s">
         <v>111</v>
       </c>
@@ -18025,7 +18089,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="79"/>
+      <c r="A29" s="80"/>
       <c r="B29" s="27" t="s">
         <v>112</v>
       </c>
@@ -18988,7 +19052,7 @@
       <c r="AT1" s="1"/>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="81" t="s">
         <v>110</v>
       </c>
       <c r="B2" s="27" t="s">
@@ -19006,7 +19070,7 @@
       </c>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A3" s="81"/>
+      <c r="A3" s="82"/>
       <c r="B3" s="27" t="s">
         <v>109</v>
       </c>
@@ -19022,7 +19086,7 @@
       </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A4" s="81"/>
+      <c r="A4" s="82"/>
       <c r="B4" s="27" t="s">
         <v>111</v>
       </c>
@@ -19038,7 +19102,7 @@
       </c>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="27" t="s">
         <v>112</v>
       </c>
@@ -19050,7 +19114,7 @@
       <c r="F5" s="21"/>
     </row>
     <row r="6" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="84" t="s">
         <v>113</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -19068,7 +19132,7 @@
       </c>
     </row>
     <row r="7" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="84"/>
+      <c r="A7" s="85"/>
       <c r="B7" s="21" t="s">
         <v>109</v>
       </c>
@@ -19084,7 +19148,7 @@
       </c>
     </row>
     <row r="8" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="84"/>
+      <c r="A8" s="85"/>
       <c r="B8" s="21" t="s">
         <v>111</v>
       </c>
@@ -19100,7 +19164,7 @@
       </c>
     </row>
     <row r="9" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="85"/>
+      <c r="A9" s="86"/>
       <c r="B9" s="21" t="s">
         <v>112</v>
       </c>
@@ -19112,7 +19176,7 @@
       <c r="F9" s="21"/>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="81" t="s">
         <v>114</v>
       </c>
       <c r="B10" s="27" t="s">
@@ -19130,7 +19194,7 @@
       </c>
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A11" s="81"/>
+      <c r="A11" s="82"/>
       <c r="B11" s="27" t="s">
         <v>109</v>
       </c>
@@ -19146,7 +19210,7 @@
       </c>
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A12" s="81"/>
+      <c r="A12" s="82"/>
       <c r="B12" s="27" t="s">
         <v>111</v>
       </c>
@@ -19162,7 +19226,7 @@
       </c>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A13" s="82"/>
+      <c r="A13" s="83"/>
       <c r="B13" s="27" t="s">
         <v>112</v>
       </c>
@@ -19174,7 +19238,7 @@
       <c r="F13" s="21"/>
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="81" t="s">
         <v>115</v>
       </c>
       <c r="B14" s="27" t="s">
@@ -19194,7 +19258,7 @@
       </c>
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A15" s="81"/>
+      <c r="A15" s="82"/>
       <c r="B15" s="27" t="s">
         <v>109</v>
       </c>
@@ -19210,7 +19274,7 @@
       </c>
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A16" s="81"/>
+      <c r="A16" s="82"/>
       <c r="B16" s="27" t="s">
         <v>111</v>
       </c>
@@ -19226,7 +19290,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="82"/>
+      <c r="A17" s="83"/>
       <c r="B17" s="27" t="s">
         <v>112</v>
       </c>
@@ -19238,7 +19302,7 @@
       <c r="F17" s="21"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="80" t="s">
+      <c r="A18" s="81" t="s">
         <v>116</v>
       </c>
       <c r="B18" s="27" t="s">
@@ -19256,7 +19320,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="81"/>
+      <c r="A19" s="82"/>
       <c r="B19" s="27" t="s">
         <v>109</v>
       </c>
@@ -19272,7 +19336,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="81"/>
+      <c r="A20" s="82"/>
       <c r="B20" s="27" t="s">
         <v>111</v>
       </c>
@@ -19288,7 +19352,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="82"/>
+      <c r="A21" s="83"/>
       <c r="B21" s="27" t="s">
         <v>112</v>
       </c>
@@ -19300,7 +19364,7 @@
       <c r="F21" s="21"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="80" t="s">
+      <c r="A22" s="81" t="s">
         <v>83</v>
       </c>
       <c r="B22" s="27" t="s">
@@ -19320,7 +19384,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="81"/>
+      <c r="A23" s="82"/>
       <c r="B23" s="27" t="s">
         <v>109</v>
       </c>
@@ -19337,7 +19401,7 @@
       <c r="H23" s="19"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="81"/>
+      <c r="A24" s="82"/>
       <c r="B24" s="27" t="s">
         <v>111</v>
       </c>
@@ -19353,7 +19417,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="82"/>
+      <c r="A25" s="83"/>
       <c r="B25" s="27" t="s">
         <v>112</v>
       </c>
@@ -19365,7 +19429,7 @@
       <c r="F25" s="21"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="79" t="s">
+      <c r="A26" s="80" t="s">
         <v>117</v>
       </c>
       <c r="B26" s="27" t="s">
@@ -19385,7 +19449,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="79"/>
+      <c r="A27" s="80"/>
       <c r="B27" s="27" t="s">
         <v>109</v>
       </c>
@@ -19401,7 +19465,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="79"/>
+      <c r="A28" s="80"/>
       <c r="B28" s="27" t="s">
         <v>111</v>
       </c>
@@ -19419,7 +19483,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="79"/>
+      <c r="A29" s="80"/>
       <c r="B29" s="27" t="s">
         <v>112</v>
       </c>
@@ -20319,18 +20383,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="87" t="s">
         <v>173</v>
       </c>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="88"/>
-      <c r="H1" s="86" t="s">
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="89"/>
+      <c r="H1" s="87" t="s">
         <v>174</v>
       </c>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="89"/>
     </row>
     <row r="2" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
@@ -21903,18 +21967,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="90" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="F1" s="89" t="s">
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="F1" s="90" t="s">
         <v>177</v>
       </c>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
     </row>
     <row r="2" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="54" t="s">
@@ -22451,27 +22515,4024 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:AA252"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="13" style="19" customWidth="1"/>
+    <col min="3" max="3" width="2.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="2.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="2.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B1" t="s">
-        <v>179</v>
-      </c>
+    <row r="1" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="66"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="66"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="J1" s="66"/>
+      <c r="K1" s="67"/>
+      <c r="N1" s="65" t="s">
+        <v>180</v>
+      </c>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="67"/>
+    </row>
+    <row r="2" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="N2" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="O2" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="P2" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="T2" s="66"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="W2" s="66"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z2" s="69"/>
+      <c r="AA2" s="70"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="38"/>
+      <c r="D3" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="38"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q3" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="R3" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="S3" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="T3" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="U3" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="V3" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="W3" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="X3" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y3" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z3" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA3" s="37" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="72"/>
+      <c r="B4" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="I4" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="N4" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="O4" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="P4" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q4" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="R4" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="S4" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="T4" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="U4" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="V4" s="38"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="40">
+        <v>0.72185900000000003</v>
+      </c>
+      <c r="Z4" s="40">
+        <v>0.14366699999999999</v>
+      </c>
+      <c r="AA4" s="40">
+        <v>6.3313099999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="72"/>
+      <c r="B5" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="39"/>
+      <c r="F5" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="39"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="P5" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="S5" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="V5" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="W5" s="39"/>
+      <c r="X5" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y5" s="40">
+        <v>7.6537400000000005E-2</v>
+      </c>
+      <c r="Z5" s="40">
+        <v>2.2092799999999999E-2</v>
+      </c>
+      <c r="AA5" s="40">
+        <v>0.48709999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="72"/>
+      <c r="B6" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" s="38"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="39"/>
+      <c r="X6" s="39"/>
+      <c r="Y6" s="40">
+        <v>3.8796799999999999E-2</v>
+      </c>
+      <c r="Z6" s="40">
+        <v>2.2092799999999999E-2</v>
+      </c>
+      <c r="AA6" s="40">
+        <v>2.13978E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="72"/>
+      <c r="B7" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="I7" s="38"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="39"/>
+      <c r="X7" s="39"/>
+      <c r="Y7" s="40">
+        <v>4.0784200000000001E-3</v>
+      </c>
+      <c r="Z7" s="40">
+        <v>2.7042799999999999E-3</v>
+      </c>
+      <c r="AA7" s="40">
+        <v>5.1244800000000001E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="72"/>
+      <c r="B8" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="H8" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="I8" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="J8" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="K8" s="56" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="72"/>
+      <c r="B9" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="H9" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="I9" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="J9" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" s="56" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="72"/>
+      <c r="B10" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="C10" s="38"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="72"/>
+      <c r="B11" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="I11" s="38"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="72"/>
+      <c r="B12" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" s="38"/>
+      <c r="D12" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="39"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="H12" s="39"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="K12" s="39"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="72"/>
+      <c r="B13" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="39"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="H13" s="39"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="K13" s="39"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="72"/>
+      <c r="B14" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="71" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="38"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="38"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="72"/>
+      <c r="B16" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="38"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="38"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17" s="72"/>
+      <c r="B17" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="38"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="38"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18" s="73"/>
+      <c r="B18" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="38"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="38"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="38"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20" s="72"/>
+      <c r="B20" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="38"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="38"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A21" s="72"/>
+      <c r="B21" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="38"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="38"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22" s="73"/>
+      <c r="B22" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="38"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="38"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A23" s="77" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="39"/>
+      <c r="E23" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="G23" s="39"/>
+      <c r="H23" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="I23" s="38"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="N23" s="77" t="s">
+        <v>138</v>
+      </c>
+      <c r="O23" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="P23" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q23" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="R23" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="S23" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="T23" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="U23" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="V23" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="W23" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="X23" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y23" s="40">
+        <v>0.23941899999999999</v>
+      </c>
+      <c r="Z23" s="40">
+        <v>0.23985999999999999</v>
+      </c>
+      <c r="AA23" s="40">
+        <v>6.7111699999999996E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="78"/>
+      <c r="B24" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="I24" s="38"/>
+      <c r="J24" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="K24" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="N24" s="78"/>
+      <c r="O24" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="P24" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q24" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="R24" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="S24" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="T24" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="U24" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="V24" s="38"/>
+      <c r="W24" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="X24" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y24" s="40">
+        <v>8.2246399999999997E-2</v>
+      </c>
+      <c r="Z24" s="40">
+        <v>6.4230999999999996E-2</v>
+      </c>
+      <c r="AA24" s="40">
+        <v>0.28881299999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25" s="78"/>
+      <c r="B25" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="C25" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="G25" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="H25" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="I25" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="J25" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="K25" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="N25" s="78"/>
+      <c r="O25" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="P25" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q25" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="R25" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="S25" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="T25" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="U25" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="V25" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="W25" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="X25" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y25" s="40">
+        <v>0.55319600000000002</v>
+      </c>
+      <c r="Z25" s="40">
+        <v>0.13298599999999999</v>
+      </c>
+      <c r="AA25" s="40">
+        <v>6.7111699999999996E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A26" s="78"/>
+      <c r="B26" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="C26" s="38"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="38"/>
+      <c r="N26" s="79"/>
+      <c r="O26" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="T26" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="U26" s="39"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="39"/>
+      <c r="X26" s="39"/>
+      <c r="Y26" s="40">
+        <v>2.3891699999999998E-2</v>
+      </c>
+      <c r="Z26" s="40">
+        <v>0.26253700000000002</v>
+      </c>
+      <c r="AA26" s="40">
+        <v>1.8078400000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A27" s="78"/>
+      <c r="B27" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="C27" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="G27" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="H27" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="I27" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="J27" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="K27" s="56" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A28" s="78"/>
+      <c r="B28" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="C28" s="38"/>
+      <c r="D28" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="F28" s="38"/>
+      <c r="G28" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="H28" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="I28" s="38"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="38" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A29" s="78"/>
+      <c r="B29" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="C29" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="G29" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="H29" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="I29" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="J29" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="K29" s="56" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A30" s="78"/>
+      <c r="B30" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="C30" s="38"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="38"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A31" s="78"/>
+      <c r="B31" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="F31" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="G31" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="H31" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="I31" s="38"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="38"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A32" s="78"/>
+      <c r="B32" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="C32" s="38"/>
+      <c r="D32" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="E32" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="F32" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="G32" s="39"/>
+      <c r="H32" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="I32" s="38"/>
+      <c r="J32" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="K32" s="38"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="78"/>
+      <c r="B33" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="C33" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="G33" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="H33" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="I33" s="38"/>
+      <c r="J33" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="K33" s="38" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="78"/>
+      <c r="B34" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="C34" s="38"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="F34" s="38"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="I34" s="38"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="38" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="71" t="s">
+        <v>140</v>
+      </c>
+      <c r="B35" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" s="38"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="38"/>
+    </row>
+    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="72"/>
+      <c r="B36" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="C36" s="38"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="38"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="72"/>
+      <c r="B37" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" s="38"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="38"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="73"/>
+      <c r="B38" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="C38" s="38"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="38"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="71" t="s">
+        <v>141</v>
+      </c>
+      <c r="B39" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="C39" s="38"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="38"/>
+    </row>
+    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="72"/>
+      <c r="B40" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="38"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="38"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="72"/>
+      <c r="B41" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" s="38"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="38"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="73"/>
+      <c r="B42" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" s="38"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="38"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="23"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+    </row>
+    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="23"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="23"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="23"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="23"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+    </row>
+    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="23"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="23"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="23"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="23"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="23"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="23"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="23"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="23"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="23"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="23"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="23"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="23"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="23"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="23"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="23"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="23"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="23"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="23"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="23"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="23"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="23"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="23"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="23"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="23"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="23"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="23"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="23"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="23"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="23"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="23"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="23"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="23"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="23"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="23"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="23"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="23"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="23"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="23"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="23"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="23"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="23"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="23"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="23"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="23"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="23"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="23"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="23"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="23"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="23"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="23"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="23"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="23"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="4"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="23"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
+      <c r="K100" s="4"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="23"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="4"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="23"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
+      <c r="K102" s="4"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="23"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
+      <c r="K103" s="4"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="23"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
+      <c r="K104" s="4"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="23"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+      <c r="K105" s="4"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="23"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="4"/>
+      <c r="K106" s="4"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" s="23"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="4"/>
+      <c r="J107" s="4"/>
+      <c r="K107" s="4"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" s="23"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="4"/>
+      <c r="K108" s="4"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="23"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="4"/>
+      <c r="J109" s="4"/>
+      <c r="K109" s="4"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="23"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="4"/>
+      <c r="K110" s="4"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="23"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4"/>
+      <c r="K111" s="4"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="23"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="4"/>
+      <c r="K112" s="4"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" s="23"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
+      <c r="I113" s="4"/>
+      <c r="J113" s="4"/>
+      <c r="K113" s="4"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" s="23"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
+      <c r="I114" s="4"/>
+      <c r="J114" s="4"/>
+      <c r="K114" s="4"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" s="23"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="4"/>
+      <c r="J115" s="4"/>
+      <c r="K115" s="4"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" s="23"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="4"/>
+      <c r="J116" s="4"/>
+      <c r="K116" s="4"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="23"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="4"/>
+      <c r="I117" s="4"/>
+      <c r="J117" s="4"/>
+      <c r="K117" s="4"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" s="23"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="4"/>
+      <c r="I118" s="4"/>
+      <c r="J118" s="4"/>
+      <c r="K118" s="4"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="23"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4"/>
+      <c r="I119" s="4"/>
+      <c r="J119" s="4"/>
+      <c r="K119" s="4"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" s="23"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="4"/>
+      <c r="I120" s="4"/>
+      <c r="J120" s="4"/>
+      <c r="K120" s="4"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" s="23"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
+      <c r="H121" s="4"/>
+      <c r="I121" s="4"/>
+      <c r="J121" s="4"/>
+      <c r="K121" s="4"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" s="23"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="4"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
+      <c r="H122" s="4"/>
+      <c r="I122" s="4"/>
+      <c r="J122" s="4"/>
+      <c r="K122" s="4"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" s="23"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="4"/>
+      <c r="I123" s="4"/>
+      <c r="J123" s="4"/>
+      <c r="K123" s="4"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" s="23"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
+      <c r="I124" s="4"/>
+      <c r="J124" s="4"/>
+      <c r="K124" s="4"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" s="23"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4"/>
+      <c r="I125" s="4"/>
+      <c r="J125" s="4"/>
+      <c r="K125" s="4"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" s="23"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
+      <c r="H126" s="4"/>
+      <c r="I126" s="4"/>
+      <c r="J126" s="4"/>
+      <c r="K126" s="4"/>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" s="23"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="4"/>
+      <c r="I127" s="4"/>
+      <c r="J127" s="4"/>
+      <c r="K127" s="4"/>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" s="23"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="4"/>
+      <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
+      <c r="H128" s="4"/>
+      <c r="I128" s="4"/>
+      <c r="J128" s="4"/>
+      <c r="K128" s="4"/>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" s="23"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="4"/>
+      <c r="F129" s="4"/>
+      <c r="G129" s="4"/>
+      <c r="H129" s="4"/>
+      <c r="I129" s="4"/>
+      <c r="J129" s="4"/>
+      <c r="K129" s="4"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" s="23"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="4"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="4"/>
+      <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
+      <c r="H130" s="4"/>
+      <c r="I130" s="4"/>
+      <c r="J130" s="4"/>
+      <c r="K130" s="4"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" s="23"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
+      <c r="H131" s="4"/>
+      <c r="I131" s="4"/>
+      <c r="J131" s="4"/>
+      <c r="K131" s="4"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" s="23"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="4"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="4"/>
+      <c r="F132" s="4"/>
+      <c r="G132" s="4"/>
+      <c r="H132" s="4"/>
+      <c r="I132" s="4"/>
+      <c r="J132" s="4"/>
+      <c r="K132" s="4"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="23"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="4"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="4"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
+      <c r="H133" s="4"/>
+      <c r="I133" s="4"/>
+      <c r="J133" s="4"/>
+      <c r="K133" s="4"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" s="23"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="4"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="4"/>
+      <c r="F134" s="4"/>
+      <c r="G134" s="4"/>
+      <c r="H134" s="4"/>
+      <c r="I134" s="4"/>
+      <c r="J134" s="4"/>
+      <c r="K134" s="4"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="23"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="4"/>
+      <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
+      <c r="H135" s="4"/>
+      <c r="I135" s="4"/>
+      <c r="J135" s="4"/>
+      <c r="K135" s="4"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="23"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="4"/>
+      <c r="D136" s="4"/>
+      <c r="E136" s="4"/>
+      <c r="F136" s="4"/>
+      <c r="G136" s="4"/>
+      <c r="H136" s="4"/>
+      <c r="I136" s="4"/>
+      <c r="J136" s="4"/>
+      <c r="K136" s="4"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" s="23"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="4"/>
+      <c r="D137" s="4"/>
+      <c r="E137" s="4"/>
+      <c r="F137" s="4"/>
+      <c r="G137" s="4"/>
+      <c r="H137" s="4"/>
+      <c r="I137" s="4"/>
+      <c r="J137" s="4"/>
+      <c r="K137" s="4"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" s="23"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="4"/>
+      <c r="D138" s="4"/>
+      <c r="E138" s="4"/>
+      <c r="F138" s="4"/>
+      <c r="G138" s="4"/>
+      <c r="H138" s="4"/>
+      <c r="I138" s="4"/>
+      <c r="J138" s="4"/>
+      <c r="K138" s="4"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" s="23"/>
+      <c r="B139" s="4"/>
+      <c r="C139" s="4"/>
+      <c r="D139" s="4"/>
+      <c r="E139" s="4"/>
+      <c r="F139" s="4"/>
+      <c r="G139" s="4"/>
+      <c r="H139" s="4"/>
+      <c r="I139" s="4"/>
+      <c r="J139" s="4"/>
+      <c r="K139" s="4"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" s="23"/>
+      <c r="B140" s="4"/>
+      <c r="C140" s="4"/>
+      <c r="D140" s="4"/>
+      <c r="E140" s="4"/>
+      <c r="F140" s="4"/>
+      <c r="G140" s="4"/>
+      <c r="H140" s="4"/>
+      <c r="I140" s="4"/>
+      <c r="J140" s="4"/>
+      <c r="K140" s="4"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" s="23"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="4"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="4"/>
+      <c r="F141" s="4"/>
+      <c r="G141" s="4"/>
+      <c r="H141" s="4"/>
+      <c r="I141" s="4"/>
+      <c r="J141" s="4"/>
+      <c r="K141" s="4"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142" s="23"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="4"/>
+      <c r="D142" s="4"/>
+      <c r="E142" s="4"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="4"/>
+      <c r="H142" s="4"/>
+      <c r="I142" s="4"/>
+      <c r="J142" s="4"/>
+      <c r="K142" s="4"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" s="23"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="4"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="4"/>
+      <c r="F143" s="4"/>
+      <c r="G143" s="4"/>
+      <c r="H143" s="4"/>
+      <c r="I143" s="4"/>
+      <c r="J143" s="4"/>
+      <c r="K143" s="4"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" s="23"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="4"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="4"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="4"/>
+      <c r="H144" s="4"/>
+      <c r="I144" s="4"/>
+      <c r="J144" s="4"/>
+      <c r="K144" s="4"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" s="23"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="4"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="4"/>
+      <c r="F145" s="4"/>
+      <c r="G145" s="4"/>
+      <c r="H145" s="4"/>
+      <c r="I145" s="4"/>
+      <c r="J145" s="4"/>
+      <c r="K145" s="4"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" s="23"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="4"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="4"/>
+      <c r="F146" s="4"/>
+      <c r="G146" s="4"/>
+      <c r="H146" s="4"/>
+      <c r="I146" s="4"/>
+      <c r="J146" s="4"/>
+      <c r="K146" s="4"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" s="23"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="4"/>
+      <c r="D147" s="4"/>
+      <c r="E147" s="4"/>
+      <c r="F147" s="4"/>
+      <c r="G147" s="4"/>
+      <c r="H147" s="4"/>
+      <c r="I147" s="4"/>
+      <c r="J147" s="4"/>
+      <c r="K147" s="4"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" s="23"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="4"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="4"/>
+      <c r="F148" s="4"/>
+      <c r="G148" s="4"/>
+      <c r="H148" s="4"/>
+      <c r="I148" s="4"/>
+      <c r="J148" s="4"/>
+      <c r="K148" s="4"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" s="23"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="4"/>
+      <c r="D149" s="4"/>
+      <c r="E149" s="4"/>
+      <c r="F149" s="4"/>
+      <c r="G149" s="4"/>
+      <c r="H149" s="4"/>
+      <c r="I149" s="4"/>
+      <c r="J149" s="4"/>
+      <c r="K149" s="4"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150" s="23"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="4"/>
+      <c r="D150" s="4"/>
+      <c r="E150" s="4"/>
+      <c r="F150" s="4"/>
+      <c r="G150" s="4"/>
+      <c r="H150" s="4"/>
+      <c r="I150" s="4"/>
+      <c r="J150" s="4"/>
+      <c r="K150" s="4"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151" s="23"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="4"/>
+      <c r="D151" s="4"/>
+      <c r="E151" s="4"/>
+      <c r="F151" s="4"/>
+      <c r="G151" s="4"/>
+      <c r="H151" s="4"/>
+      <c r="I151" s="4"/>
+      <c r="J151" s="4"/>
+      <c r="K151" s="4"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152" s="23"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="4"/>
+      <c r="D152" s="4"/>
+      <c r="E152" s="4"/>
+      <c r="F152" s="4"/>
+      <c r="G152" s="4"/>
+      <c r="H152" s="4"/>
+      <c r="I152" s="4"/>
+      <c r="J152" s="4"/>
+      <c r="K152" s="4"/>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153" s="23"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="4"/>
+      <c r="D153" s="4"/>
+      <c r="E153" s="4"/>
+      <c r="F153" s="4"/>
+      <c r="G153" s="4"/>
+      <c r="H153" s="4"/>
+      <c r="I153" s="4"/>
+      <c r="J153" s="4"/>
+      <c r="K153" s="4"/>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154" s="23"/>
+      <c r="B154" s="4"/>
+      <c r="C154" s="4"/>
+      <c r="D154" s="4"/>
+      <c r="E154" s="4"/>
+      <c r="F154" s="4"/>
+      <c r="G154" s="4"/>
+      <c r="H154" s="4"/>
+      <c r="I154" s="4"/>
+      <c r="J154" s="4"/>
+      <c r="K154" s="4"/>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155" s="23"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="4"/>
+      <c r="D155" s="4"/>
+      <c r="E155" s="4"/>
+      <c r="F155" s="4"/>
+      <c r="G155" s="4"/>
+      <c r="H155" s="4"/>
+      <c r="I155" s="4"/>
+      <c r="J155" s="4"/>
+      <c r="K155" s="4"/>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156" s="23"/>
+      <c r="B156" s="4"/>
+      <c r="C156" s="4"/>
+      <c r="D156" s="4"/>
+      <c r="E156" s="4"/>
+      <c r="F156" s="4"/>
+      <c r="G156" s="4"/>
+      <c r="H156" s="4"/>
+      <c r="I156" s="4"/>
+      <c r="J156" s="4"/>
+      <c r="K156" s="4"/>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157" s="23"/>
+      <c r="B157" s="4"/>
+      <c r="C157" s="4"/>
+      <c r="D157" s="4"/>
+      <c r="E157" s="4"/>
+      <c r="F157" s="4"/>
+      <c r="G157" s="4"/>
+      <c r="H157" s="4"/>
+      <c r="I157" s="4"/>
+      <c r="J157" s="4"/>
+      <c r="K157" s="4"/>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A158" s="23"/>
+      <c r="B158" s="4"/>
+      <c r="C158" s="4"/>
+      <c r="D158" s="4"/>
+      <c r="E158" s="4"/>
+      <c r="F158" s="4"/>
+      <c r="G158" s="4"/>
+      <c r="H158" s="4"/>
+      <c r="I158" s="4"/>
+      <c r="J158" s="4"/>
+      <c r="K158" s="4"/>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159" s="23"/>
+      <c r="B159" s="4"/>
+      <c r="C159" s="4"/>
+      <c r="D159" s="4"/>
+      <c r="E159" s="4"/>
+      <c r="F159" s="4"/>
+      <c r="G159" s="4"/>
+      <c r="H159" s="4"/>
+      <c r="I159" s="4"/>
+      <c r="J159" s="4"/>
+      <c r="K159" s="4"/>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160" s="23"/>
+      <c r="B160" s="4"/>
+      <c r="C160" s="4"/>
+      <c r="D160" s="4"/>
+      <c r="E160" s="4"/>
+      <c r="F160" s="4"/>
+      <c r="G160" s="4"/>
+      <c r="H160" s="4"/>
+      <c r="I160" s="4"/>
+      <c r="J160" s="4"/>
+      <c r="K160" s="4"/>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161" s="23"/>
+      <c r="B161" s="4"/>
+      <c r="C161" s="4"/>
+      <c r="D161" s="4"/>
+      <c r="E161" s="4"/>
+      <c r="F161" s="4"/>
+      <c r="G161" s="4"/>
+      <c r="H161" s="4"/>
+      <c r="I161" s="4"/>
+      <c r="J161" s="4"/>
+      <c r="K161" s="4"/>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A162" s="23"/>
+      <c r="B162" s="4"/>
+      <c r="C162" s="4"/>
+      <c r="D162" s="4"/>
+      <c r="E162" s="4"/>
+      <c r="F162" s="4"/>
+      <c r="G162" s="4"/>
+      <c r="H162" s="4"/>
+      <c r="I162" s="4"/>
+      <c r="J162" s="4"/>
+      <c r="K162" s="4"/>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163" s="23"/>
+      <c r="B163" s="4"/>
+      <c r="C163" s="4"/>
+      <c r="D163" s="4"/>
+      <c r="E163" s="4"/>
+      <c r="F163" s="4"/>
+      <c r="G163" s="4"/>
+      <c r="H163" s="4"/>
+      <c r="I163" s="4"/>
+      <c r="J163" s="4"/>
+      <c r="K163" s="4"/>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164" s="23"/>
+      <c r="B164" s="4"/>
+      <c r="C164" s="4"/>
+      <c r="D164" s="4"/>
+      <c r="E164" s="4"/>
+      <c r="F164" s="4"/>
+      <c r="G164" s="4"/>
+      <c r="H164" s="4"/>
+      <c r="I164" s="4"/>
+      <c r="J164" s="4"/>
+      <c r="K164" s="4"/>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165" s="23"/>
+      <c r="B165" s="4"/>
+      <c r="C165" s="4"/>
+      <c r="D165" s="4"/>
+      <c r="E165" s="4"/>
+      <c r="F165" s="4"/>
+      <c r="G165" s="4"/>
+      <c r="H165" s="4"/>
+      <c r="I165" s="4"/>
+      <c r="J165" s="4"/>
+      <c r="K165" s="4"/>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A166" s="23"/>
+      <c r="B166" s="4"/>
+      <c r="C166" s="4"/>
+      <c r="D166" s="4"/>
+      <c r="E166" s="4"/>
+      <c r="F166" s="4"/>
+      <c r="G166" s="4"/>
+      <c r="H166" s="4"/>
+      <c r="I166" s="4"/>
+      <c r="J166" s="4"/>
+      <c r="K166" s="4"/>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A167" s="23"/>
+      <c r="B167" s="4"/>
+      <c r="C167" s="4"/>
+      <c r="D167" s="4"/>
+      <c r="E167" s="4"/>
+      <c r="F167" s="4"/>
+      <c r="G167" s="4"/>
+      <c r="H167" s="4"/>
+      <c r="I167" s="4"/>
+      <c r="J167" s="4"/>
+      <c r="K167" s="4"/>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A168" s="23"/>
+      <c r="B168" s="4"/>
+      <c r="C168" s="4"/>
+      <c r="D168" s="4"/>
+      <c r="E168" s="4"/>
+      <c r="F168" s="4"/>
+      <c r="G168" s="4"/>
+      <c r="H168" s="4"/>
+      <c r="I168" s="4"/>
+      <c r="J168" s="4"/>
+      <c r="K168" s="4"/>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A169" s="23"/>
+      <c r="B169" s="4"/>
+      <c r="C169" s="4"/>
+      <c r="D169" s="4"/>
+      <c r="E169" s="4"/>
+      <c r="F169" s="4"/>
+      <c r="G169" s="4"/>
+      <c r="H169" s="4"/>
+      <c r="I169" s="4"/>
+      <c r="J169" s="4"/>
+      <c r="K169" s="4"/>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A170" s="23"/>
+      <c r="B170" s="4"/>
+      <c r="C170" s="4"/>
+      <c r="D170" s="4"/>
+      <c r="E170" s="4"/>
+      <c r="F170" s="4"/>
+      <c r="G170" s="4"/>
+      <c r="H170" s="4"/>
+      <c r="I170" s="4"/>
+      <c r="J170" s="4"/>
+      <c r="K170" s="4"/>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A171" s="23"/>
+      <c r="B171" s="4"/>
+      <c r="C171" s="4"/>
+      <c r="D171" s="4"/>
+      <c r="E171" s="4"/>
+      <c r="F171" s="4"/>
+      <c r="G171" s="4"/>
+      <c r="H171" s="4"/>
+      <c r="I171" s="4"/>
+      <c r="J171" s="4"/>
+      <c r="K171" s="4"/>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A172" s="23"/>
+      <c r="B172" s="4"/>
+      <c r="C172" s="4"/>
+      <c r="D172" s="4"/>
+      <c r="E172" s="4"/>
+      <c r="F172" s="4"/>
+      <c r="G172" s="4"/>
+      <c r="H172" s="4"/>
+      <c r="I172" s="4"/>
+      <c r="J172" s="4"/>
+      <c r="K172" s="4"/>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A173" s="23"/>
+      <c r="B173" s="4"/>
+      <c r="C173" s="4"/>
+      <c r="D173" s="4"/>
+      <c r="E173" s="4"/>
+      <c r="F173" s="4"/>
+      <c r="G173" s="4"/>
+      <c r="H173" s="4"/>
+      <c r="I173" s="4"/>
+      <c r="J173" s="4"/>
+      <c r="K173" s="4"/>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174" s="23"/>
+      <c r="B174" s="4"/>
+      <c r="C174" s="4"/>
+      <c r="D174" s="4"/>
+      <c r="E174" s="4"/>
+      <c r="F174" s="4"/>
+      <c r="G174" s="4"/>
+      <c r="H174" s="4"/>
+      <c r="I174" s="4"/>
+      <c r="J174" s="4"/>
+      <c r="K174" s="4"/>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A175" s="23"/>
+      <c r="B175" s="4"/>
+      <c r="C175" s="4"/>
+      <c r="D175" s="4"/>
+      <c r="E175" s="4"/>
+      <c r="F175" s="4"/>
+      <c r="G175" s="4"/>
+      <c r="H175" s="4"/>
+      <c r="I175" s="4"/>
+      <c r="J175" s="4"/>
+      <c r="K175" s="4"/>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A176" s="23"/>
+      <c r="B176" s="4"/>
+      <c r="C176" s="4"/>
+      <c r="D176" s="4"/>
+      <c r="E176" s="4"/>
+      <c r="F176" s="4"/>
+      <c r="G176" s="4"/>
+      <c r="H176" s="4"/>
+      <c r="I176" s="4"/>
+      <c r="J176" s="4"/>
+      <c r="K176" s="4"/>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A177" s="23"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="4"/>
+      <c r="D177" s="4"/>
+      <c r="E177" s="4"/>
+      <c r="F177" s="4"/>
+      <c r="G177" s="4"/>
+      <c r="H177" s="4"/>
+      <c r="I177" s="4"/>
+      <c r="J177" s="4"/>
+      <c r="K177" s="4"/>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A178" s="23"/>
+      <c r="B178" s="4"/>
+      <c r="C178" s="4"/>
+      <c r="D178" s="4"/>
+      <c r="E178" s="4"/>
+      <c r="F178" s="4"/>
+      <c r="G178" s="4"/>
+      <c r="H178" s="4"/>
+      <c r="I178" s="4"/>
+      <c r="J178" s="4"/>
+      <c r="K178" s="4"/>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A179" s="23"/>
+      <c r="B179" s="4"/>
+      <c r="C179" s="4"/>
+      <c r="D179" s="4"/>
+      <c r="E179" s="4"/>
+      <c r="F179" s="4"/>
+      <c r="G179" s="4"/>
+      <c r="H179" s="4"/>
+      <c r="I179" s="4"/>
+      <c r="J179" s="4"/>
+      <c r="K179" s="4"/>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A180" s="23"/>
+      <c r="B180" s="4"/>
+      <c r="C180" s="4"/>
+      <c r="D180" s="4"/>
+      <c r="E180" s="4"/>
+      <c r="F180" s="4"/>
+      <c r="G180" s="4"/>
+      <c r="H180" s="4"/>
+      <c r="I180" s="4"/>
+      <c r="J180" s="4"/>
+      <c r="K180" s="4"/>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A181" s="23"/>
+      <c r="B181" s="4"/>
+      <c r="C181" s="4"/>
+      <c r="D181" s="4"/>
+      <c r="E181" s="4"/>
+      <c r="F181" s="4"/>
+      <c r="G181" s="4"/>
+      <c r="H181" s="4"/>
+      <c r="I181" s="4"/>
+      <c r="J181" s="4"/>
+      <c r="K181" s="4"/>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A182" s="23"/>
+      <c r="B182" s="4"/>
+      <c r="C182" s="4"/>
+      <c r="D182" s="4"/>
+      <c r="E182" s="4"/>
+      <c r="F182" s="4"/>
+      <c r="G182" s="4"/>
+      <c r="H182" s="4"/>
+      <c r="I182" s="4"/>
+      <c r="J182" s="4"/>
+      <c r="K182" s="4"/>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A183" s="23"/>
+      <c r="B183" s="4"/>
+      <c r="C183" s="4"/>
+      <c r="D183" s="4"/>
+      <c r="E183" s="4"/>
+      <c r="F183" s="4"/>
+      <c r="G183" s="4"/>
+      <c r="H183" s="4"/>
+      <c r="I183" s="4"/>
+      <c r="J183" s="4"/>
+      <c r="K183" s="4"/>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A184" s="23"/>
+      <c r="B184" s="4"/>
+      <c r="C184" s="4"/>
+      <c r="D184" s="4"/>
+      <c r="E184" s="4"/>
+      <c r="F184" s="4"/>
+      <c r="G184" s="4"/>
+      <c r="H184" s="4"/>
+      <c r="I184" s="4"/>
+      <c r="J184" s="4"/>
+      <c r="K184" s="4"/>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A185" s="23"/>
+      <c r="B185" s="4"/>
+      <c r="C185" s="4"/>
+      <c r="D185" s="4"/>
+      <c r="E185" s="4"/>
+      <c r="F185" s="4"/>
+      <c r="G185" s="4"/>
+      <c r="H185" s="4"/>
+      <c r="I185" s="4"/>
+      <c r="J185" s="4"/>
+      <c r="K185" s="4"/>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A186" s="23"/>
+      <c r="B186" s="4"/>
+      <c r="C186" s="4"/>
+      <c r="D186" s="4"/>
+      <c r="E186" s="4"/>
+      <c r="F186" s="4"/>
+      <c r="G186" s="4"/>
+      <c r="H186" s="4"/>
+      <c r="I186" s="4"/>
+      <c r="J186" s="4"/>
+      <c r="K186" s="4"/>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A187" s="23"/>
+      <c r="B187" s="4"/>
+      <c r="C187" s="4"/>
+      <c r="D187" s="4"/>
+      <c r="E187" s="4"/>
+      <c r="F187" s="4"/>
+      <c r="G187" s="4"/>
+      <c r="H187" s="4"/>
+      <c r="I187" s="4"/>
+      <c r="J187" s="4"/>
+      <c r="K187" s="4"/>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A188" s="23"/>
+      <c r="B188" s="4"/>
+      <c r="C188" s="4"/>
+      <c r="D188" s="4"/>
+      <c r="E188" s="4"/>
+      <c r="F188" s="4"/>
+      <c r="G188" s="4"/>
+      <c r="H188" s="4"/>
+      <c r="I188" s="4"/>
+      <c r="J188" s="4"/>
+      <c r="K188" s="4"/>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A189" s="23"/>
+      <c r="B189" s="4"/>
+      <c r="C189" s="4"/>
+      <c r="D189" s="4"/>
+      <c r="E189" s="4"/>
+      <c r="F189" s="4"/>
+      <c r="G189" s="4"/>
+      <c r="H189" s="4"/>
+      <c r="I189" s="4"/>
+      <c r="J189" s="4"/>
+      <c r="K189" s="4"/>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A190" s="23"/>
+      <c r="B190" s="4"/>
+      <c r="C190" s="4"/>
+      <c r="D190" s="4"/>
+      <c r="E190" s="4"/>
+      <c r="F190" s="4"/>
+      <c r="G190" s="4"/>
+      <c r="H190" s="4"/>
+      <c r="I190" s="4"/>
+      <c r="J190" s="4"/>
+      <c r="K190" s="4"/>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A191" s="23"/>
+      <c r="B191" s="4"/>
+      <c r="C191" s="4"/>
+      <c r="D191" s="4"/>
+      <c r="E191" s="4"/>
+      <c r="F191" s="4"/>
+      <c r="G191" s="4"/>
+      <c r="H191" s="4"/>
+      <c r="I191" s="4"/>
+      <c r="J191" s="4"/>
+      <c r="K191" s="4"/>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A192" s="23"/>
+      <c r="B192" s="4"/>
+      <c r="C192" s="4"/>
+      <c r="D192" s="4"/>
+      <c r="E192" s="4"/>
+      <c r="F192" s="4"/>
+      <c r="G192" s="4"/>
+      <c r="H192" s="4"/>
+      <c r="I192" s="4"/>
+      <c r="J192" s="4"/>
+      <c r="K192" s="4"/>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A193" s="23"/>
+      <c r="B193" s="4"/>
+      <c r="C193" s="4"/>
+      <c r="D193" s="4"/>
+      <c r="E193" s="4"/>
+      <c r="F193" s="4"/>
+      <c r="G193" s="4"/>
+      <c r="H193" s="4"/>
+      <c r="I193" s="4"/>
+      <c r="J193" s="4"/>
+      <c r="K193" s="4"/>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A194" s="23"/>
+      <c r="B194" s="4"/>
+      <c r="C194" s="4"/>
+      <c r="D194" s="4"/>
+      <c r="E194" s="4"/>
+      <c r="F194" s="4"/>
+      <c r="G194" s="4"/>
+      <c r="H194" s="4"/>
+      <c r="I194" s="4"/>
+      <c r="J194" s="4"/>
+      <c r="K194" s="4"/>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A195" s="23"/>
+      <c r="B195" s="4"/>
+      <c r="C195" s="4"/>
+      <c r="D195" s="4"/>
+      <c r="E195" s="4"/>
+      <c r="F195" s="4"/>
+      <c r="G195" s="4"/>
+      <c r="H195" s="4"/>
+      <c r="I195" s="4"/>
+      <c r="J195" s="4"/>
+      <c r="K195" s="4"/>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A196" s="23"/>
+      <c r="B196" s="4"/>
+      <c r="C196" s="4"/>
+      <c r="D196" s="4"/>
+      <c r="E196" s="4"/>
+      <c r="F196" s="4"/>
+      <c r="G196" s="4"/>
+      <c r="H196" s="4"/>
+      <c r="I196" s="4"/>
+      <c r="J196" s="4"/>
+      <c r="K196" s="4"/>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A197" s="23"/>
+      <c r="B197" s="4"/>
+      <c r="C197" s="4"/>
+      <c r="D197" s="4"/>
+      <c r="E197" s="4"/>
+      <c r="F197" s="4"/>
+      <c r="G197" s="4"/>
+      <c r="H197" s="4"/>
+      <c r="I197" s="4"/>
+      <c r="J197" s="4"/>
+      <c r="K197" s="4"/>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A198" s="23"/>
+      <c r="B198" s="4"/>
+      <c r="C198" s="4"/>
+      <c r="D198" s="4"/>
+      <c r="E198" s="4"/>
+      <c r="F198" s="4"/>
+      <c r="G198" s="4"/>
+      <c r="H198" s="4"/>
+      <c r="I198" s="4"/>
+      <c r="J198" s="4"/>
+      <c r="K198" s="4"/>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A199" s="23"/>
+      <c r="B199" s="4"/>
+      <c r="C199" s="4"/>
+      <c r="D199" s="4"/>
+      <c r="E199" s="4"/>
+      <c r="F199" s="4"/>
+      <c r="G199" s="4"/>
+      <c r="H199" s="4"/>
+      <c r="I199" s="4"/>
+      <c r="J199" s="4"/>
+      <c r="K199" s="4"/>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A200" s="23"/>
+      <c r="B200" s="4"/>
+      <c r="C200" s="4"/>
+      <c r="D200" s="4"/>
+      <c r="E200" s="4"/>
+      <c r="F200" s="4"/>
+      <c r="G200" s="4"/>
+      <c r="H200" s="4"/>
+      <c r="I200" s="4"/>
+      <c r="J200" s="4"/>
+      <c r="K200" s="4"/>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A201" s="23"/>
+      <c r="B201" s="4"/>
+      <c r="C201" s="4"/>
+      <c r="D201" s="4"/>
+      <c r="E201" s="4"/>
+      <c r="F201" s="4"/>
+      <c r="G201" s="4"/>
+      <c r="H201" s="4"/>
+      <c r="I201" s="4"/>
+      <c r="J201" s="4"/>
+      <c r="K201" s="4"/>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A202" s="23"/>
+      <c r="B202" s="4"/>
+      <c r="C202" s="4"/>
+      <c r="D202" s="4"/>
+      <c r="E202" s="4"/>
+      <c r="F202" s="4"/>
+      <c r="G202" s="4"/>
+      <c r="H202" s="4"/>
+      <c r="I202" s="4"/>
+      <c r="J202" s="4"/>
+      <c r="K202" s="4"/>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A203" s="23"/>
+      <c r="B203" s="4"/>
+      <c r="C203" s="4"/>
+      <c r="D203" s="4"/>
+      <c r="E203" s="4"/>
+      <c r="F203" s="4"/>
+      <c r="G203" s="4"/>
+      <c r="H203" s="4"/>
+      <c r="I203" s="4"/>
+      <c r="J203" s="4"/>
+      <c r="K203" s="4"/>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A204" s="23"/>
+      <c r="B204" s="4"/>
+      <c r="C204" s="4"/>
+      <c r="D204" s="4"/>
+      <c r="E204" s="4"/>
+      <c r="F204" s="4"/>
+      <c r="G204" s="4"/>
+      <c r="H204" s="4"/>
+      <c r="I204" s="4"/>
+      <c r="J204" s="4"/>
+      <c r="K204" s="4"/>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A205" s="23"/>
+      <c r="B205" s="4"/>
+      <c r="C205" s="4"/>
+      <c r="D205" s="4"/>
+      <c r="E205" s="4"/>
+      <c r="F205" s="4"/>
+      <c r="G205" s="4"/>
+      <c r="H205" s="4"/>
+      <c r="I205" s="4"/>
+      <c r="J205" s="4"/>
+      <c r="K205" s="4"/>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A206" s="23"/>
+      <c r="B206" s="4"/>
+      <c r="C206" s="4"/>
+      <c r="D206" s="4"/>
+      <c r="E206" s="4"/>
+      <c r="F206" s="4"/>
+      <c r="G206" s="4"/>
+      <c r="H206" s="4"/>
+      <c r="I206" s="4"/>
+      <c r="J206" s="4"/>
+      <c r="K206" s="4"/>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A207" s="23"/>
+      <c r="B207" s="4"/>
+      <c r="C207" s="4"/>
+      <c r="D207" s="4"/>
+      <c r="E207" s="4"/>
+      <c r="F207" s="4"/>
+      <c r="G207" s="4"/>
+      <c r="H207" s="4"/>
+      <c r="I207" s="4"/>
+      <c r="J207" s="4"/>
+      <c r="K207" s="4"/>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A208" s="23"/>
+      <c r="B208" s="4"/>
+      <c r="C208" s="4"/>
+      <c r="D208" s="4"/>
+      <c r="E208" s="4"/>
+      <c r="F208" s="4"/>
+      <c r="G208" s="4"/>
+      <c r="H208" s="4"/>
+      <c r="I208" s="4"/>
+      <c r="J208" s="4"/>
+      <c r="K208" s="4"/>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A209" s="23"/>
+      <c r="B209" s="4"/>
+      <c r="C209" s="4"/>
+      <c r="D209" s="4"/>
+      <c r="E209" s="4"/>
+      <c r="F209" s="4"/>
+      <c r="G209" s="4"/>
+      <c r="H209" s="4"/>
+      <c r="I209" s="4"/>
+      <c r="J209" s="4"/>
+      <c r="K209" s="4"/>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A210" s="23"/>
+      <c r="B210" s="4"/>
+      <c r="C210" s="4"/>
+      <c r="D210" s="4"/>
+      <c r="E210" s="4"/>
+      <c r="F210" s="4"/>
+      <c r="G210" s="4"/>
+      <c r="H210" s="4"/>
+      <c r="I210" s="4"/>
+      <c r="J210" s="4"/>
+      <c r="K210" s="4"/>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A211" s="23"/>
+      <c r="B211" s="4"/>
+      <c r="C211" s="4"/>
+      <c r="D211" s="4"/>
+      <c r="E211" s="4"/>
+      <c r="F211" s="4"/>
+      <c r="G211" s="4"/>
+      <c r="H211" s="4"/>
+      <c r="I211" s="4"/>
+      <c r="J211" s="4"/>
+      <c r="K211" s="4"/>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A212" s="23"/>
+      <c r="B212" s="4"/>
+      <c r="C212" s="4"/>
+      <c r="D212" s="4"/>
+      <c r="E212" s="4"/>
+      <c r="F212" s="4"/>
+      <c r="G212" s="4"/>
+      <c r="H212" s="4"/>
+      <c r="I212" s="4"/>
+      <c r="J212" s="4"/>
+      <c r="K212" s="4"/>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A213" s="23"/>
+      <c r="B213" s="4"/>
+      <c r="C213" s="4"/>
+      <c r="D213" s="4"/>
+      <c r="E213" s="4"/>
+      <c r="F213" s="4"/>
+      <c r="G213" s="4"/>
+      <c r="H213" s="4"/>
+      <c r="I213" s="4"/>
+      <c r="J213" s="4"/>
+      <c r="K213" s="4"/>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A214" s="23"/>
+      <c r="B214" s="4"/>
+      <c r="C214" s="4"/>
+      <c r="D214" s="4"/>
+      <c r="E214" s="4"/>
+      <c r="F214" s="4"/>
+      <c r="G214" s="4"/>
+      <c r="H214" s="4"/>
+      <c r="I214" s="4"/>
+      <c r="J214" s="4"/>
+      <c r="K214" s="4"/>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A215" s="23"/>
+      <c r="B215" s="4"/>
+      <c r="C215" s="4"/>
+      <c r="D215" s="4"/>
+      <c r="E215" s="4"/>
+      <c r="F215" s="4"/>
+      <c r="G215" s="4"/>
+      <c r="H215" s="4"/>
+      <c r="I215" s="4"/>
+      <c r="J215" s="4"/>
+      <c r="K215" s="4"/>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A216" s="23"/>
+      <c r="B216" s="4"/>
+      <c r="C216" s="4"/>
+      <c r="D216" s="4"/>
+      <c r="E216" s="4"/>
+      <c r="F216" s="4"/>
+      <c r="G216" s="4"/>
+      <c r="H216" s="4"/>
+      <c r="I216" s="4"/>
+      <c r="J216" s="4"/>
+      <c r="K216" s="4"/>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A217" s="23"/>
+      <c r="B217" s="4"/>
+      <c r="C217" s="4"/>
+      <c r="D217" s="4"/>
+      <c r="E217" s="4"/>
+      <c r="F217" s="4"/>
+      <c r="G217" s="4"/>
+      <c r="H217" s="4"/>
+      <c r="I217" s="4"/>
+      <c r="J217" s="4"/>
+      <c r="K217" s="4"/>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A218" s="23"/>
+      <c r="B218" s="4"/>
+      <c r="C218" s="4"/>
+      <c r="D218" s="4"/>
+      <c r="E218" s="4"/>
+      <c r="F218" s="4"/>
+      <c r="G218" s="4"/>
+      <c r="H218" s="4"/>
+      <c r="I218" s="4"/>
+      <c r="J218" s="4"/>
+      <c r="K218" s="4"/>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A219" s="23"/>
+      <c r="B219" s="4"/>
+      <c r="C219" s="4"/>
+      <c r="D219" s="4"/>
+      <c r="E219" s="4"/>
+      <c r="F219" s="4"/>
+      <c r="G219" s="4"/>
+      <c r="H219" s="4"/>
+      <c r="I219" s="4"/>
+      <c r="J219" s="4"/>
+      <c r="K219" s="4"/>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A220" s="23"/>
+      <c r="B220" s="4"/>
+      <c r="C220" s="4"/>
+      <c r="D220" s="4"/>
+      <c r="E220" s="4"/>
+      <c r="F220" s="4"/>
+      <c r="G220" s="4"/>
+      <c r="H220" s="4"/>
+      <c r="I220" s="4"/>
+      <c r="J220" s="4"/>
+      <c r="K220" s="4"/>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A221" s="23"/>
+      <c r="B221" s="4"/>
+      <c r="C221" s="4"/>
+      <c r="D221" s="4"/>
+      <c r="E221" s="4"/>
+      <c r="F221" s="4"/>
+      <c r="G221" s="4"/>
+      <c r="H221" s="4"/>
+      <c r="I221" s="4"/>
+      <c r="J221" s="4"/>
+      <c r="K221" s="4"/>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A222" s="23"/>
+      <c r="B222" s="4"/>
+      <c r="C222" s="4"/>
+      <c r="D222" s="4"/>
+      <c r="E222" s="4"/>
+      <c r="F222" s="4"/>
+      <c r="G222" s="4"/>
+      <c r="H222" s="4"/>
+      <c r="I222" s="4"/>
+      <c r="J222" s="4"/>
+      <c r="K222" s="4"/>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A223" s="23"/>
+      <c r="B223" s="4"/>
+      <c r="C223" s="4"/>
+      <c r="D223" s="4"/>
+      <c r="E223" s="4"/>
+      <c r="F223" s="4"/>
+      <c r="G223" s="4"/>
+      <c r="H223" s="4"/>
+      <c r="I223" s="4"/>
+      <c r="J223" s="4"/>
+      <c r="K223" s="4"/>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A224" s="23"/>
+      <c r="B224" s="4"/>
+      <c r="C224" s="4"/>
+      <c r="D224" s="4"/>
+      <c r="E224" s="4"/>
+      <c r="F224" s="4"/>
+      <c r="G224" s="4"/>
+      <c r="H224" s="4"/>
+      <c r="I224" s="4"/>
+      <c r="J224" s="4"/>
+      <c r="K224" s="4"/>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A225" s="23"/>
+      <c r="B225" s="4"/>
+      <c r="C225" s="4"/>
+      <c r="D225" s="4"/>
+      <c r="E225" s="4"/>
+      <c r="F225" s="4"/>
+      <c r="G225" s="4"/>
+      <c r="H225" s="4"/>
+      <c r="I225" s="4"/>
+      <c r="J225" s="4"/>
+      <c r="K225" s="4"/>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A226" s="23"/>
+      <c r="B226" s="4"/>
+      <c r="C226" s="4"/>
+      <c r="D226" s="4"/>
+      <c r="E226" s="4"/>
+      <c r="F226" s="4"/>
+      <c r="G226" s="4"/>
+      <c r="H226" s="4"/>
+      <c r="I226" s="4"/>
+      <c r="J226" s="4"/>
+      <c r="K226" s="4"/>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A227" s="23"/>
+      <c r="B227" s="4"/>
+      <c r="C227" s="4"/>
+      <c r="D227" s="4"/>
+      <c r="E227" s="4"/>
+      <c r="F227" s="4"/>
+      <c r="G227" s="4"/>
+      <c r="H227" s="4"/>
+      <c r="I227" s="4"/>
+      <c r="J227" s="4"/>
+      <c r="K227" s="4"/>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A228" s="23"/>
+      <c r="B228" s="4"/>
+      <c r="C228" s="4"/>
+      <c r="D228" s="4"/>
+      <c r="E228" s="4"/>
+      <c r="F228" s="4"/>
+      <c r="G228" s="4"/>
+      <c r="H228" s="4"/>
+      <c r="I228" s="4"/>
+      <c r="J228" s="4"/>
+      <c r="K228" s="4"/>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A229" s="23"/>
+      <c r="B229" s="4"/>
+      <c r="C229" s="4"/>
+      <c r="D229" s="4"/>
+      <c r="E229" s="4"/>
+      <c r="F229" s="4"/>
+      <c r="G229" s="4"/>
+      <c r="H229" s="4"/>
+      <c r="I229" s="4"/>
+      <c r="J229" s="4"/>
+      <c r="K229" s="4"/>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A230" s="23"/>
+      <c r="B230" s="4"/>
+      <c r="C230" s="4"/>
+      <c r="D230" s="4"/>
+      <c r="E230" s="4"/>
+      <c r="F230" s="4"/>
+      <c r="G230" s="4"/>
+      <c r="H230" s="4"/>
+      <c r="I230" s="4"/>
+      <c r="J230" s="4"/>
+      <c r="K230" s="4"/>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A231" s="23"/>
+      <c r="B231" s="4"/>
+      <c r="C231" s="4"/>
+      <c r="D231" s="4"/>
+      <c r="E231" s="4"/>
+      <c r="F231" s="4"/>
+      <c r="G231" s="4"/>
+      <c r="H231" s="4"/>
+      <c r="I231" s="4"/>
+      <c r="J231" s="4"/>
+      <c r="K231" s="4"/>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A232" s="23"/>
+      <c r="B232" s="4"/>
+      <c r="C232" s="4"/>
+      <c r="D232" s="4"/>
+      <c r="E232" s="4"/>
+      <c r="F232" s="4"/>
+      <c r="G232" s="4"/>
+      <c r="H232" s="4"/>
+      <c r="I232" s="4"/>
+      <c r="J232" s="4"/>
+      <c r="K232" s="4"/>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A233" s="23"/>
+      <c r="B233" s="4"/>
+      <c r="C233" s="4"/>
+      <c r="D233" s="4"/>
+      <c r="E233" s="4"/>
+      <c r="F233" s="4"/>
+      <c r="G233" s="4"/>
+      <c r="H233" s="4"/>
+      <c r="I233" s="4"/>
+      <c r="J233" s="4"/>
+      <c r="K233" s="4"/>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A234" s="23"/>
+      <c r="B234" s="4"/>
+      <c r="C234" s="4"/>
+      <c r="D234" s="4"/>
+      <c r="E234" s="4"/>
+      <c r="F234" s="4"/>
+      <c r="G234" s="4"/>
+      <c r="H234" s="4"/>
+      <c r="I234" s="4"/>
+      <c r="J234" s="4"/>
+      <c r="K234" s="4"/>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A235" s="23"/>
+      <c r="B235" s="4"/>
+      <c r="C235" s="4"/>
+      <c r="D235" s="4"/>
+      <c r="E235" s="4"/>
+      <c r="F235" s="4"/>
+      <c r="G235" s="4"/>
+      <c r="H235" s="4"/>
+      <c r="I235" s="4"/>
+      <c r="J235" s="4"/>
+      <c r="K235" s="4"/>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A236" s="23"/>
+      <c r="B236" s="4"/>
+      <c r="C236" s="4"/>
+      <c r="D236" s="4"/>
+      <c r="E236" s="4"/>
+      <c r="F236" s="4"/>
+      <c r="G236" s="4"/>
+      <c r="H236" s="4"/>
+      <c r="I236" s="4"/>
+      <c r="J236" s="4"/>
+      <c r="K236" s="4"/>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A237" s="23"/>
+      <c r="B237" s="4"/>
+      <c r="C237" s="4"/>
+      <c r="D237" s="4"/>
+      <c r="E237" s="4"/>
+      <c r="F237" s="4"/>
+      <c r="G237" s="4"/>
+      <c r="H237" s="4"/>
+      <c r="I237" s="4"/>
+      <c r="J237" s="4"/>
+      <c r="K237" s="4"/>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A238" s="23"/>
+      <c r="B238" s="4"/>
+      <c r="C238" s="4"/>
+      <c r="D238" s="4"/>
+      <c r="E238" s="4"/>
+      <c r="F238" s="4"/>
+      <c r="G238" s="4"/>
+      <c r="H238" s="4"/>
+      <c r="I238" s="4"/>
+      <c r="J238" s="4"/>
+      <c r="K238" s="4"/>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A239" s="23"/>
+      <c r="B239" s="4"/>
+      <c r="C239" s="4"/>
+      <c r="D239" s="4"/>
+      <c r="E239" s="4"/>
+      <c r="F239" s="4"/>
+      <c r="G239" s="4"/>
+      <c r="H239" s="4"/>
+      <c r="I239" s="4"/>
+      <c r="J239" s="4"/>
+      <c r="K239" s="4"/>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A240" s="23"/>
+      <c r="B240" s="4"/>
+      <c r="C240" s="4"/>
+      <c r="D240" s="4"/>
+      <c r="E240" s="4"/>
+      <c r="F240" s="4"/>
+      <c r="G240" s="4"/>
+      <c r="H240" s="4"/>
+      <c r="I240" s="4"/>
+      <c r="J240" s="4"/>
+      <c r="K240" s="4"/>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A241" s="23"/>
+      <c r="B241" s="4"/>
+      <c r="C241" s="4"/>
+      <c r="D241" s="4"/>
+      <c r="E241" s="4"/>
+      <c r="F241" s="4"/>
+      <c r="G241" s="4"/>
+      <c r="H241" s="4"/>
+      <c r="I241" s="4"/>
+      <c r="J241" s="4"/>
+      <c r="K241" s="4"/>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A242" s="23"/>
+      <c r="B242" s="4"/>
+      <c r="C242" s="4"/>
+      <c r="D242" s="4"/>
+      <c r="E242" s="4"/>
+      <c r="F242" s="4"/>
+      <c r="G242" s="4"/>
+      <c r="H242" s="4"/>
+      <c r="I242" s="4"/>
+      <c r="J242" s="4"/>
+      <c r="K242" s="4"/>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A243" s="23"/>
+      <c r="B243" s="4"/>
+      <c r="C243" s="4"/>
+      <c r="D243" s="4"/>
+      <c r="E243" s="4"/>
+      <c r="F243" s="4"/>
+      <c r="G243" s="4"/>
+      <c r="H243" s="4"/>
+      <c r="I243" s="4"/>
+      <c r="J243" s="4"/>
+      <c r="K243" s="4"/>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A244" s="23"/>
+      <c r="B244" s="4"/>
+      <c r="C244" s="4"/>
+      <c r="D244" s="4"/>
+      <c r="E244" s="4"/>
+      <c r="F244" s="4"/>
+      <c r="G244" s="4"/>
+      <c r="H244" s="4"/>
+      <c r="I244" s="4"/>
+      <c r="J244" s="4"/>
+      <c r="K244" s="4"/>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A245" s="23"/>
+      <c r="B245" s="4"/>
+      <c r="C245" s="4"/>
+      <c r="D245" s="4"/>
+      <c r="E245" s="4"/>
+      <c r="F245" s="4"/>
+      <c r="G245" s="4"/>
+      <c r="H245" s="4"/>
+      <c r="I245" s="4"/>
+      <c r="J245" s="4"/>
+      <c r="K245" s="4"/>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A246" s="23"/>
+      <c r="B246" s="4"/>
+      <c r="C246" s="4"/>
+      <c r="D246" s="4"/>
+      <c r="E246" s="4"/>
+      <c r="F246" s="4"/>
+      <c r="G246" s="4"/>
+      <c r="H246" s="4"/>
+      <c r="I246" s="4"/>
+      <c r="J246" s="4"/>
+      <c r="K246" s="4"/>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A247" s="23"/>
+      <c r="B247" s="4"/>
+      <c r="C247" s="4"/>
+      <c r="D247" s="4"/>
+      <c r="E247" s="4"/>
+      <c r="F247" s="4"/>
+      <c r="G247" s="4"/>
+      <c r="H247" s="4"/>
+      <c r="I247" s="4"/>
+      <c r="J247" s="4"/>
+      <c r="K247" s="4"/>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A248" s="23"/>
+      <c r="B248" s="4"/>
+      <c r="C248" s="4"/>
+      <c r="D248" s="4"/>
+      <c r="E248" s="4"/>
+      <c r="F248" s="4"/>
+      <c r="G248" s="4"/>
+      <c r="H248" s="4"/>
+      <c r="I248" s="4"/>
+      <c r="J248" s="4"/>
+      <c r="K248" s="4"/>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A249" s="23"/>
+      <c r="B249" s="4"/>
+      <c r="C249" s="4"/>
+      <c r="D249" s="4"/>
+      <c r="E249" s="4"/>
+      <c r="F249" s="4"/>
+      <c r="G249" s="4"/>
+      <c r="H249" s="4"/>
+      <c r="I249" s="4"/>
+      <c r="J249" s="4"/>
+      <c r="K249" s="4"/>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A250" s="23"/>
+      <c r="B250" s="4"/>
+      <c r="C250" s="4"/>
+      <c r="D250" s="4"/>
+      <c r="E250" s="4"/>
+      <c r="F250" s="4"/>
+      <c r="G250" s="4"/>
+      <c r="H250" s="4"/>
+      <c r="I250" s="4"/>
+      <c r="J250" s="4"/>
+      <c r="K250" s="4"/>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A251" s="23"/>
+      <c r="B251" s="4"/>
+      <c r="C251" s="4"/>
+      <c r="D251" s="4"/>
+      <c r="E251" s="4"/>
+      <c r="F251" s="4"/>
+      <c r="G251" s="4"/>
+      <c r="H251" s="4"/>
+      <c r="I251" s="4"/>
+      <c r="J251" s="4"/>
+      <c r="K251" s="4"/>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A252" s="23"/>
+      <c r="B252" s="4"/>
+      <c r="C252" s="4"/>
+      <c r="D252" s="4"/>
+      <c r="E252" s="4"/>
+      <c r="F252" s="4"/>
+      <c r="G252" s="4"/>
+      <c r="H252" s="4"/>
+      <c r="I252" s="4"/>
+      <c r="J252" s="4"/>
+      <c r="K252" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="N4:N7"/>
+    <mergeCell ref="N23:N26"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="N1:AA1"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A3:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A39:A42"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>